--- a/athrill-manual.xlsx
+++ b/athrill-manual.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\athrill\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12540" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="3" r:id="rId1"/>
@@ -14,28 +19,23 @@
     <sheet name="デバイス一覧" sheetId="8" r:id="rId5"/>
     <sheet name="デバッグ機能一覧" sheetId="4" r:id="rId6"/>
     <sheet name="インストール手順" sheetId="5" r:id="rId7"/>
-    <sheet name="CPUエミュレータ起動方法" sheetId="6" r:id="rId8"/>
-    <sheet name="付録" sheetId="9" r:id="rId9"/>
+    <sheet name="athrill起動方法" sheetId="6" r:id="rId8"/>
+    <sheet name="athrillコマンド仕様" sheetId="10" r:id="rId9"/>
+    <sheet name="付録" sheetId="9" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">命令一覧!$D$5:$F$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">命令一覧!$D$6:$F$86</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">タイトル!$A$1:$J$23</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="379">
   <si>
     <t>１．はじめに</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>V850ES-FK3向けCPUエミュレータ</t>
-    <rPh sb="10" eb="11">
-      <t>ム</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -49,10 +49,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2016.06.03</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>変更内容</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
@@ -80,16 +76,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>本CPUエミュレータは，V850ES-FK3用である．</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>２．命令一覧</t>
     <rPh sb="2" eb="4">
       <t>メイレイ</t>
@@ -120,22 +106,6 @@
     <t>５．インストール手順</t>
     <rPh sb="8" eb="10">
       <t>テジュン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本エミュレータがサポートしている命令は以下の通り．</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>メイレイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>トオ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -170,19 +140,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>本エミュレータがサポートしているデバイスは以下の通り．</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>トオ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>V850ES/Fx3ハードウェアマニュアル</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -894,22 +851,6 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ワリコ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本エミュレータがサポートしているデバッグ機能は以下の通り．</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>トオ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1576,61 +1517,6 @@
 @CPU&gt;q
 Unknown command:q
 @DBG&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本エミュレータのインストール手順は以下の通り．</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>トオ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>$make clean;make</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>$ ls cpu_emulator.exe</t>
-  </si>
-  <si>
-    <t>cpu_emulator.exe</t>
-  </si>
-  <si>
-    <t>６．CPUエミュレータ起動方法</t>
-    <rPh sb="11" eb="13">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本エミュレータの起動方法は以下の通り．</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>トオ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1819,148 +1705,8 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>７．付録</t>
-    <rPh sb="2" eb="4">
-      <t>フロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　７．１　CPUエミュレータ・アーキテクチャ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>７．１　CPUエミュレータ・アーキテクチャ</t>
-  </si>
-  <si>
     <t>@DBG&gt;b 0x100
 setted break point:0x100</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>上記コマンドを実行すると，以下のメッセージが出力され，</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CPUは，命令番地 0x00でデバッグモードに入る．</t>
-    <rPh sb="5" eb="7">
-      <t>メイレイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>バンチ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ハイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>@DBG&gt;HIT break:0x0</t>
-  </si>
-  <si>
-    <t>上記メッセージ出力後は，任意のデバッグ機能を使用可能になる．</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>６．２．　エミュレータ起動</t>
-    <rPh sb="11" eb="13">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本CPUエミュレータを起動するためのステップは以下の通り．</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>トオ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　①実行対象バイナリファイルの事前準備</t>
-    <rPh sb="2" eb="4">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジュンビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　②CPUエミュレータ起動</t>
-    <rPh sb="11" eb="13">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>６．１．　実行対象バイナリファイルの事前準備</t>
-    <rPh sb="5" eb="7">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジュンビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※注意：ビルド実行前に，６．１を実施済みであること．</t>
-    <rPh sb="1" eb="3">
-      <t>チュウイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1981,170 +1727,6 @@
     <rPh sb="36" eb="38">
       <t>ホゾン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>①デバッグ対象バイナリを用意する．</t>
-    <rPh sb="5" eb="7">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヨウイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・ELFファイル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>②デバッグ情報を作成する</t>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>toolsフォルダ配下に移動し，以下のコマンドを実行することで本エミュレータが必要とするデバッグ情報を作成する．</t>
-    <rPh sb="9" eb="11">
-      <t>ハイカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>③本エミュレータをビルドする</t>
-    <rPh sb="1" eb="2">
-      <t>ホン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>④以下のファイルが作成されていることを確認する</t>
-    <rPh sb="1" eb="3">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>インストール手順を実施すること．</t>
-    <rPh sb="6" eb="8">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジッシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>６．３．　GUIデバッガの起動と停止方法</t>
-    <rPh sb="13" eb="15">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>GUIデバッガの起動方法は以下の通り．</t>
-    <rPh sb="8" eb="10">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>トオ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>$ start_gui.sh</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>$ cd tools</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>GUIデバッガの停止方法は以下の通り．</t>
-    <rPh sb="8" eb="10">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>トオ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>★GUIデバッガ起動後は，cpu_emulatorのコンソール上でデバッグコマンド発行することで，ステップ実行等を可視化できるようになる．</t>
-    <rPh sb="8" eb="10">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ハッコウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="57" eb="60">
-      <t>カシカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>$ stop_gui.sh</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2689,87 +2271,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2016.07.04</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・クロック時間表示機能を追加した(デバッグ機能一覧)
-・関数復帰コマンドを追加した(デバッグ機能一覧)
-・GUIでのアセンブラ命令表示形式を変更した(インストール手順)
-　※命令コードベースから関数コード＆アセンブラ命令表記に変更
-　※そのため，インストール手順としてDUMPファイルの作成方法を若干変更した．</t>
-    <rPh sb="5" eb="7">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>フッキ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>メイレイ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>メイレイ</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>メイレイ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>ヒョウキ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="129" eb="131">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="145" eb="147">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="148" eb="150">
-      <t>ジャッカン</t>
-    </rPh>
-    <rPh sb="150" eb="152">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>A &lt;コントローラ番号※10進表記&gt;:&lt;チャネル番号※10進数表記&gt;:&lt;ADデータ&gt;
 ※&lt;チャネル番号&gt;：-1を指定した場合は全チャネルが対象となる</t>
     <rPh sb="9" eb="11">
@@ -2820,109 +2321,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>$ sh conv.sh ../&lt;ELFファイル&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>$./cpu_emulator.exe &lt;バイナリファイル&gt; 2&gt; stderr.txt</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※バイナリファイルは，②の手順を実施すると，「&lt;ELFファイル名&gt;.bin」という名前で自動生成される．</t>
-    <rPh sb="13" eb="15">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>セイセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[1] ruby</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本エミュレータを使用するには，以下の環境インストールされている必要がある．</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　　動作確認バージョン</t>
-    <rPh sb="2" eb="4">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[3] gcc</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　　・pthread</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      mingw32-libpthreadgc</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      mingw32-libpthread-old</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      mingw32-pthreads-w32</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[2] MinGW64</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[4] ライブラリ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　　　　・ruby 1.9.3p547 (2014-05-14 revision 45962) [i386-mingw32]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    　・MINGW32_NT-6.1 TMO 1.0.17(0.48/3/2) 2011-04-24 23:39 i686 Msys</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　　　　・gcc.exe (GCC) 4.7.2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>(未対応)</t>
     <rPh sb="1" eb="4">
       <t>ミタイオウ</t>
@@ -2950,20 +2348,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>テスト担当者</t>
-    <rPh sb="3" eb="6">
-      <t>タントウシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>森</t>
-    <rPh sb="0" eb="1">
-      <t>モリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>add1, add2</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2987,17 +2371,545 @@
   </si>
   <si>
     <t>andi</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>athrill利用マニュアル</t>
+    <rPh sb="7" eb="9">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2017.08.31</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>６．athrill起動方法</t>
+    <rPh sb="9" eb="11">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>athrillは実機レス開発を可能にするためのCPUエミュレータである．</t>
+    <rPh sb="8" eb="10">
+      <t>ジッキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サポートしているターゲットは以下の通り．</t>
+    <rPh sb="14" eb="16">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ターゲット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>V850</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RH850</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ARM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サポート有無</t>
+    <rPh sb="4" eb="6">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>目次!A1</t>
+  </si>
+  <si>
+    <t>サポートしている命令は以下の通り．</t>
+    <rPh sb="8" eb="10">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>３．１．V850</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サポートしているデバイスは以下の通り．</t>
+    <rPh sb="13" eb="15">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>２．１．V850</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>athrillがサポートしているデバッグ機能は以下の通り．</t>
+    <rPh sb="20" eb="22">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必要とする環境</t>
+  </si>
+  <si>
+    <t>用途</t>
+  </si>
+  <si>
+    <t>動作確認バージョン</t>
+  </si>
+  <si>
+    <t>Windows PC</t>
+  </si>
+  <si>
+    <t>実行環境</t>
+  </si>
+  <si>
+    <t>MinGW</t>
+  </si>
+  <si>
+    <t>コンパイル環境</t>
+  </si>
+  <si>
+    <t>MINGW32_NT-6.2</t>
+  </si>
+  <si>
+    <t>5.3.0</t>
+  </si>
+  <si>
+    <t>ライブラリ</t>
+  </si>
+  <si>
+    <t>v850-elf-gcc.exe (GCC_Build_2.01) 4.9-GNUV850_v14.01</t>
+  </si>
+  <si>
+    <t>サクラエディタ</t>
+  </si>
+  <si>
+    <t>ソースデバッグ用</t>
+  </si>
+  <si>
+    <t>2.2.01</t>
+  </si>
+  <si>
+    <t>athrill(※1)を作成および使用するための環境は以下の通り．</t>
+  </si>
+  <si>
+    <t>Windows 7，Windows 10</t>
+  </si>
+  <si>
+    <t>コンパイラ(gcc)</t>
+  </si>
+  <si>
+    <t>athrillコンパイル</t>
+  </si>
+  <si>
+    <t>pthread(デバッガが使用)</t>
+  </si>
+  <si>
+    <t>(MinGW標準組み込み)</t>
+  </si>
+  <si>
+    <t>wsock32(デバッガが使用)</t>
+  </si>
+  <si>
+    <t>クロスコンパイラ(V850)</t>
+  </si>
+  <si>
+    <t>athrill動作確認用クロスコンパイル(※2)</t>
+  </si>
+  <si>
+    <t>(※1) athrill公開リポジトリ：https://github.com/tmori/athrill</t>
+  </si>
+  <si>
+    <t>(※2) クロスコンパイラ入手元：https://gcc-renesas.com/ja/v850/v850-download-toolchains/</t>
+  </si>
+  <si>
+    <t>(MinGW標準組み込み)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>athrillのインストール手順は以下の通り．</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>手順概要</t>
+  </si>
+  <si>
+    <t>手順詳細</t>
+  </si>
+  <si>
+    <t>MinGW起動</t>
+  </si>
+  <si>
+    <t>環境変数登録</t>
+  </si>
+  <si>
+    <t>・Windowsの環境変数Pathに以下を追加する</t>
+  </si>
+  <si>
+    <t>・&lt;athrillルートフォルダパス&gt;/src/bin</t>
+  </si>
+  <si>
+    <t>・サクラエディタバイナリ配置フォルダパス</t>
+  </si>
+  <si>
+    <t>athrillのビルド</t>
+  </si>
+  <si>
+    <t>・athrillのビルドフォルダに移動</t>
+  </si>
+  <si>
+    <t>　$ cd &lt;athrillルートフォルダパス&gt;/src/target/v850esfk3</t>
+  </si>
+  <si>
+    <t>・ビルド実施</t>
+  </si>
+  <si>
+    <t>　$ make clean; make</t>
+  </si>
+  <si>
+    <t>athrillのインストール確認</t>
+  </si>
+  <si>
+    <t>・任意のフォルダに移動しathrillを空打ちする</t>
+  </si>
+  <si>
+    <t>　$ athrill</t>
+  </si>
+  <si>
+    <t>・MinGWの端末を立ち上げる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・下図のメッセージが出力されることを確認する</t>
+    <rPh sb="1" eb="3">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>athrillにバイナリファイル(ELF形式)を渡して起動する．</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>athrillが起動すると，ELFファイルのローディングメッセージ出力後，プログラムカウンタのアドレス0x0番地で停止し，コマンド入力待ちとなる．</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※オプション説明</t>
+  </si>
+  <si>
+    <t>※ -i　：インタラクションモード(デバッグするためのオプション)</t>
+  </si>
+  <si>
+    <t>※ -d　：デバイスコンフィグファイル(athrillのカスタマイズ情報を指定する)</t>
+  </si>
+  <si>
+    <t>コマンド上で，continueコマンド(c)を実行すると，バイナリファイル内のプログラムに処理が移る．</t>
+    <rPh sb="4" eb="5">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ウツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>８．付録</t>
+    <rPh sb="2" eb="4">
+      <t>フロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>７．athrillコマンド仕様</t>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>８．１　athrill構成</t>
+    <rPh sb="11" eb="13">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>８．２　athrill設計方針</t>
+    <rPh sb="11" eb="13">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>athrill</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>がサポートするターゲットは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>V850ES/FK3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>であるが，将来的な拡張を考慮して，１ターゲットに限定した作りにはするべきではない．</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　そのため，athrillの基本的な設計方針を以下のように定義した．</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>設計方針</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>静的構造</t>
+  </si>
+  <si>
+    <t>動的構造</t>
+  </si>
+  <si>
+    <t>拡張性</t>
+  </si>
+  <si>
+    <t>エミュレーション範囲</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>デバイス</t>
+  </si>
+  <si>
+    <t>デバッグを容易にするため，CPUエミュレータの実行シーケンスは，Main処理が各機能実行部を順番にトリガする構造とする．</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>将来的にV850以外のCPUにも対応できるように，ターゲット依存層と非依存層を分離した構造とする (V850は１インスタンスという想定)．</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用頻度が高いCPU命令を優先的に選定(命令一覧シート参照)．</t>
+    <rPh sb="20" eb="22">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>組み込みソフトウェア開発で利用頻度が高いデバイスを選定(デバイス一覧シート参照)．</t>
+    <rPh sb="32" eb="34">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本的なCPUアーキテクチャをそのままソフトウェア構造に落とし込み，直感的にわかりやすい機能配置を行う(下図)．</t>
+    <rPh sb="52" eb="54">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　８．２　athrill設計方針</t>
+    <rPh sb="12" eb="14">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　８．１　athrill構成</t>
+    <rPh sb="12" eb="14">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　８．３　athrillプログラム構成</t>
+    <rPh sb="17" eb="19">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>InterruptController</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Peripheral</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MemoryProtectionUnit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DeviceExternalOperation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Debugger</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Cpu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Bus</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Device</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>機能名</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>役割</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクワリ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3068,6 +2980,35 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Century"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Century"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3088,7 +3029,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -3149,106 +3090,75 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="medium">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3258,8 +3168,11 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3329,16 +3242,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -3346,6 +3253,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3365,36 +3275,97 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="パーセント" xfId="2" builtinId="5"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="1" builtinId="26"/>
   </cellStyles>
@@ -3415,6 +3386,164 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19357</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6692CC8-EC0F-47F6-A914-E1230EFBC786}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="723900" y="5314950"/>
+          <a:ext cx="8296582" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>40800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF0162B8-74A0-4925-B651-33C7B471F318}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="533400" y="942975"/>
+          <a:ext cx="5962650" cy="2869725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>649357</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -3428,7 +3557,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3493,7 +3628,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3603,7 +3744,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="右矢印 3"/>
+        <xdr:cNvPr id="4" name="右矢印 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3655,7 +3802,13 @@
     <xdr:ext cx="184731" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3709,7 +3862,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3766,7 +3925,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3831,7 +3996,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3887,7 +4058,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3977,7 +4154,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="左右矢印 9"/>
+        <xdr:cNvPr id="10" name="左右矢印 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4032,7 +4215,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4088,7 +4277,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="上下矢印 12"/>
+        <xdr:cNvPr id="13" name="上下矢印 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4145,7 +4340,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4210,7 +4411,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4266,7 +4473,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4323,7 +4536,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4380,7 +4599,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4437,7 +4662,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4494,7 +4725,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4536,11 +4773,85 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>8284</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>563218</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>158903</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1676BA4A-6FF1-45B3-9E9C-A5B3F775978A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="844827" y="7644848"/>
+          <a:ext cx="7429500" cy="5907033"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4582,7 +4893,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4615,9 +4926,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4650,6 +4978,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4829,10 +5174,10 @@
   <dimension ref="B6:I13"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6" style="11" customWidth="1"/>
     <col min="2" max="2" width="15.75" style="11" customWidth="1"/>
@@ -4841,58 +5186,62 @@
     <col min="10" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:9" ht="42">
-      <c r="B6" s="26" t="s">
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="B6" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="14" t="s">
+      <c r="C11" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-    </row>
-    <row r="12" spans="2:9">
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-    </row>
-    <row r="13" spans="2:9" ht="76.5" customHeight="1">
-      <c r="B13" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="8"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C11:I11"/>
     <mergeCell ref="C13:I13"/>
     <mergeCell ref="C12:I12"/>
+    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4900,109 +5249,606 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B10"/>
+  <dimension ref="A1:S89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81:N81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="10.375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="39" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C3" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="35" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="D35" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="36" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="D36" s="49" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="37" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="D37" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="38" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="D38" s="53" t="s">
+        <v>352</v>
+      </c>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53" t="s">
+        <v>353</v>
+      </c>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="53"/>
+    </row>
+    <row r="39" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="D39" s="50" t="s">
+        <v>354</v>
+      </c>
+      <c r="E39" s="50"/>
+      <c r="F39" s="54" t="s">
+        <v>364</v>
+      </c>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="56"/>
+    </row>
+    <row r="40" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="D40" s="50" t="s">
+        <v>355</v>
+      </c>
+      <c r="E40" s="50"/>
+      <c r="F40" s="54" t="s">
+        <v>360</v>
+      </c>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="55"/>
+      <c r="S40" s="56"/>
+    </row>
+    <row r="41" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="D41" s="50" t="s">
+        <v>356</v>
+      </c>
+      <c r="E41" s="50"/>
+      <c r="F41" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="55"/>
+      <c r="O41" s="55"/>
+      <c r="P41" s="55"/>
+      <c r="Q41" s="55"/>
+      <c r="R41" s="55"/>
+      <c r="S41" s="56"/>
+    </row>
+    <row r="42" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="D42" s="52" t="s">
+        <v>357</v>
+      </c>
+      <c r="E42" s="51" t="s">
+        <v>358</v>
+      </c>
+      <c r="F42" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="55"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="55"/>
+      <c r="R42" s="55"/>
+      <c r="S42" s="56"/>
+    </row>
+    <row r="43" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="D43" s="52"/>
+      <c r="E43" s="51" t="s">
+        <v>359</v>
+      </c>
+      <c r="F43" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="55"/>
+      <c r="N43" s="55"/>
+      <c r="O43" s="55"/>
+      <c r="P43" s="55"/>
+      <c r="Q43" s="55"/>
+      <c r="R43" s="55"/>
+      <c r="S43" s="56"/>
+    </row>
+    <row r="80" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="D80" s="53" t="s">
+        <v>377</v>
+      </c>
+      <c r="E80" s="53"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="60" t="s">
+        <v>378</v>
+      </c>
+      <c r="H80" s="61"/>
+      <c r="I80" s="61"/>
+      <c r="J80" s="61"/>
+      <c r="K80" s="61"/>
+      <c r="L80" s="61"/>
+      <c r="M80" s="61"/>
+      <c r="N80" s="62"/>
+    </row>
+    <row r="81" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="D81" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="E81" s="55"/>
+      <c r="F81" s="56"/>
+      <c r="G81" s="54"/>
+      <c r="H81" s="55"/>
+      <c r="I81" s="55"/>
+      <c r="J81" s="55"/>
+      <c r="K81" s="55"/>
+      <c r="L81" s="55"/>
+      <c r="M81" s="55"/>
+      <c r="N81" s="56"/>
+    </row>
+    <row r="82" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="D82" s="54" t="s">
+        <v>373</v>
+      </c>
+      <c r="E82" s="55"/>
+      <c r="F82" s="56"/>
+      <c r="G82" s="54"/>
+      <c r="H82" s="55"/>
+      <c r="I82" s="55"/>
+      <c r="J82" s="55"/>
+      <c r="K82" s="55"/>
+      <c r="L82" s="55"/>
+      <c r="M82" s="55"/>
+      <c r="N82" s="56"/>
+    </row>
+    <row r="83" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="D83" s="54" t="s">
+        <v>374</v>
+      </c>
+      <c r="E83" s="55"/>
+      <c r="F83" s="56"/>
+      <c r="G83" s="54"/>
+      <c r="H83" s="55"/>
+      <c r="I83" s="55"/>
+      <c r="J83" s="55"/>
+      <c r="K83" s="55"/>
+      <c r="L83" s="55"/>
+      <c r="M83" s="55"/>
+      <c r="N83" s="56"/>
+    </row>
+    <row r="84" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="D84" s="54" t="s">
+        <v>375</v>
+      </c>
+      <c r="E84" s="55"/>
+      <c r="F84" s="56"/>
+      <c r="G84" s="54"/>
+      <c r="H84" s="55"/>
+      <c r="I84" s="55"/>
+      <c r="J84" s="55"/>
+      <c r="K84" s="55"/>
+      <c r="L84" s="55"/>
+      <c r="M84" s="55"/>
+      <c r="N84" s="56"/>
+    </row>
+    <row r="85" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="D85" s="57" t="s">
+        <v>376</v>
+      </c>
+      <c r="E85" s="55"/>
+      <c r="F85" s="56"/>
+      <c r="G85" s="54"/>
+      <c r="H85" s="55"/>
+      <c r="I85" s="55"/>
+      <c r="J85" s="55"/>
+      <c r="K85" s="55"/>
+      <c r="L85" s="55"/>
+      <c r="M85" s="55"/>
+      <c r="N85" s="56"/>
+    </row>
+    <row r="86" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="D86" s="58"/>
+      <c r="E86" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="F86" s="50"/>
+      <c r="G86" s="54"/>
+      <c r="H86" s="55"/>
+      <c r="I86" s="55"/>
+      <c r="J86" s="55"/>
+      <c r="K86" s="55"/>
+      <c r="L86" s="55"/>
+      <c r="M86" s="55"/>
+      <c r="N86" s="56"/>
+    </row>
+    <row r="87" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="D87" s="58"/>
+      <c r="E87" s="50" t="s">
+        <v>370</v>
+      </c>
+      <c r="F87" s="50"/>
+      <c r="G87" s="54"/>
+      <c r="H87" s="55"/>
+      <c r="I87" s="55"/>
+      <c r="J87" s="55"/>
+      <c r="K87" s="55"/>
+      <c r="L87" s="55"/>
+      <c r="M87" s="55"/>
+      <c r="N87" s="56"/>
+    </row>
+    <row r="88" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="D88" s="59"/>
+      <c r="E88" s="50" t="s">
+        <v>371</v>
+      </c>
+      <c r="F88" s="50"/>
+      <c r="G88" s="54"/>
+      <c r="H88" s="55"/>
+      <c r="I88" s="55"/>
+      <c r="J88" s="55"/>
+      <c r="K88" s="55"/>
+      <c r="L88" s="55"/>
+      <c r="M88" s="55"/>
+      <c r="N88" s="56"/>
+    </row>
+    <row r="89" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="D89" s="54" t="s">
+        <v>372</v>
+      </c>
+      <c r="E89" s="55"/>
+      <c r="F89" s="56"/>
+      <c r="G89" s="54"/>
+      <c r="H89" s="55"/>
+      <c r="I89" s="55"/>
+      <c r="J89" s="55"/>
+      <c r="K89" s="55"/>
+      <c r="L89" s="55"/>
+      <c r="M89" s="55"/>
+      <c r="N89" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="G86:N86"/>
+    <mergeCell ref="G87:N87"/>
+    <mergeCell ref="G88:N88"/>
+    <mergeCell ref="G89:N89"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="G81:N81"/>
+    <mergeCell ref="G82:N82"/>
+    <mergeCell ref="G83:N83"/>
+    <mergeCell ref="G84:N84"/>
+    <mergeCell ref="G85:N85"/>
+    <mergeCell ref="F43:S43"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="G80:N80"/>
+    <mergeCell ref="F38:S38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="F39:S39"/>
+    <mergeCell ref="F40:S40"/>
+    <mergeCell ref="F41:S41"/>
+    <mergeCell ref="F42:S42"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目次!A1" display="目次!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B13"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B3" s="39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B4" s="39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B5" s="39" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="1" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B6" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B7" s="39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B8" s="39" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B9" s="39" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>250</v>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B3" location="はじめに!A1" display="１．はじめに"/>
+    <hyperlink ref="B4" location="命令一覧!A1" display="２．命令一覧"/>
+    <hyperlink ref="B5" location="デバイス一覧!A1" display="３．デバイス一覧"/>
+    <hyperlink ref="B6" location="デバッグ機能一覧!A1" display="４．デバッグ機能一覧"/>
+    <hyperlink ref="B7" location="インストール手順!A1" display="５．インストール手順"/>
+    <hyperlink ref="B8" location="athrill起動方法!A1" display="６．athrill起動方法"/>
+    <hyperlink ref="B9" location="athrillコマンド仕様!A1" display="７．athrillコマンド仕様"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C3"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="39" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C4" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C6" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C7" s="35">
+        <v>1</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C8" s="35">
+        <v>2</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C9" s="35">
+        <v>3</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目次!A1" display="目次!A1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B2:H85"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="3.125" style="11" customWidth="1"/>
@@ -5010,1171 +5856,934 @@
     <col min="4" max="4" width="43.125" style="12" customWidth="1"/>
     <col min="5" max="5" width="9" style="13"/>
     <col min="6" max="6" width="18.375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="11.875" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="11"/>
+    <col min="7" max="7" width="11.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="39" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B2" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C3" s="11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D4" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="D6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D7" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" ht="27">
-      <c r="D5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>328</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="D6" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H6" s="28">
+      <c r="F7" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G7" s="26">
         <f>5/71</f>
         <v>7.0422535211267609E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
-      <c r="D7" s="16" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D8" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D9" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D10" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D11" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D12" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D13" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D14" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="D8" s="16" t="s">
+      <c r="E14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D15" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="D9" s="16" t="s">
+      <c r="E15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D16" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="D10" s="16" t="s">
+      <c r="E16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D17" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="D11" s="16" t="s">
+      <c r="E17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D18" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="D12" s="16" t="s">
+      <c r="E18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D19" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="D13" s="16" t="s">
+      <c r="E19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D20" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="D14" s="16" t="s">
+      <c r="E20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D21" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="D15" s="16" t="s">
+      <c r="E21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D22" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="D16" s="16" t="s">
+      <c r="E22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D23" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7">
-      <c r="D17" s="16" t="s">
+      <c r="E23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D24" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="18" spans="4:7">
-      <c r="D18" s="16" t="s">
+      <c r="E24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D25" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="19" spans="4:7">
-      <c r="D19" s="16" t="s">
+      <c r="E25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D26" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="20" spans="4:7">
-      <c r="D20" s="16" t="s">
+      <c r="E26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D27" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="21" spans="4:7">
-      <c r="D21" s="16" t="s">
+      <c r="E27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D28" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="22" spans="4:7">
-      <c r="D22" s="16" t="s">
+      <c r="E28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D29" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="23" spans="4:7">
-      <c r="D23" s="16" t="s">
+      <c r="E29" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D30" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="24" spans="4:7">
-      <c r="D24" s="16" t="s">
+      <c r="E30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D31" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="25" spans="4:7">
-      <c r="D25" s="16" t="s">
+      <c r="E31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D32" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="26" spans="4:7">
-      <c r="D26" s="16" t="s">
+      <c r="E32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D33" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="27" spans="4:7">
-      <c r="D27" s="16" t="s">
+      <c r="E33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D34" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="28" spans="4:7">
-      <c r="D28" s="16" t="s">
+      <c r="E34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D35" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="29" spans="4:7">
-      <c r="D29" s="16" t="s">
+      <c r="E35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D36" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="30" spans="4:7">
-      <c r="D30" s="16" t="s">
+      <c r="E36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D37" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="31" spans="4:7">
-      <c r="D31" s="16" t="s">
+      <c r="E37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D38" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="32" spans="4:7">
-      <c r="D32" s="16" t="s">
+      <c r="E38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D39" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7">
-      <c r="D33" s="16" t="s">
+      <c r="E39" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D40" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7">
-      <c r="D34" s="16" t="s">
+      <c r="E40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D41" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="35" spans="4:7">
-      <c r="D35" s="16" t="s">
+      <c r="E41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D42" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="36" spans="4:7">
-      <c r="D36" s="16" t="s">
+      <c r="E42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D43" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D44" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="37" spans="4:7" hidden="1">
-      <c r="D37" s="16" t="s">
+      <c r="E44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D45" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="38" spans="4:7">
-      <c r="D38" s="16" t="s">
+      <c r="E45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D46" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="39" spans="4:7">
-      <c r="D39" s="16" t="s">
+      <c r="E46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D47" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="40" spans="4:7">
-      <c r="D40" s="16" t="s">
+      <c r="E47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D48" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="41" spans="4:7">
-      <c r="D41" s="16" t="s">
+      <c r="E48" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D49" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="42" spans="4:7">
-      <c r="D42" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="43" spans="4:7">
-      <c r="D43" s="16" t="s">
+      <c r="E49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D50" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="44" spans="4:7" hidden="1">
-      <c r="D44" s="16" t="s">
+      <c r="E50" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D51" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="45" spans="4:7">
-      <c r="D45" s="16" t="s">
+      <c r="E51" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D52" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="46" spans="4:7">
-      <c r="D46" s="16" t="s">
+      <c r="E52" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D53" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="E46" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="47" spans="4:7" hidden="1">
-      <c r="D47" s="16" t="s">
+      <c r="E53" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D54" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="48" spans="4:7" hidden="1">
-      <c r="D48" s="16" t="s">
+      <c r="E54" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D55" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="E48" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="49" spans="4:7" hidden="1">
-      <c r="D49" s="16" t="s">
+      <c r="E55" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D56" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="50" spans="4:7">
-      <c r="D50" s="16" t="s">
+      <c r="E56" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D57" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="E50" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="51" spans="4:7">
-      <c r="D51" s="16" t="s">
+      <c r="E57" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D58" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="E51" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="52" spans="4:7">
-      <c r="D52" s="16" t="s">
+      <c r="E58" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D59" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="E52" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="53" spans="4:7">
-      <c r="D53" s="16" t="s">
+      <c r="E59" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D60" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="E53" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="54" spans="4:7">
-      <c r="D54" s="16" t="s">
+      <c r="E60" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D61" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="E54" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="55" spans="4:7">
-      <c r="D55" s="16" t="s">
+      <c r="E61" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D62" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="E55" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="56" spans="4:7">
-      <c r="D56" s="16" t="s">
+      <c r="E62" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D63" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="E56" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="57" spans="4:7">
-      <c r="D57" s="16" t="s">
+      <c r="E63" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="64" spans="4:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="D64" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="E57" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="58" spans="4:7">
-      <c r="D58" s="16" t="s">
+      <c r="E64" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D65" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="59" spans="4:7">
-      <c r="D59" s="16" t="s">
+      <c r="E65" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D66" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="E59" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="60" spans="4:7">
-      <c r="D60" s="16" t="s">
+      <c r="E66" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D67" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="E60" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="61" spans="4:7">
-      <c r="D61" s="16" t="s">
+      <c r="E67" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D68" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="E61" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="62" spans="4:7">
-      <c r="D62" s="16" t="s">
+      <c r="E68" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D69" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="E62" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="63" spans="4:7" ht="40.5">
-      <c r="D63" s="16" t="s">
+      <c r="E69" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D70" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="64" spans="4:7">
-      <c r="D64" s="16" t="s">
+      <c r="E70" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D71" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="E64" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="65" spans="4:7">
-      <c r="D65" s="16" t="s">
+      <c r="E71" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D72" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="66" spans="4:7">
-      <c r="D66" s="16" t="s">
+      <c r="E72" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D73" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="E66" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="67" spans="4:7">
-      <c r="D67" s="16" t="s">
+      <c r="E73" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D74" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="E67" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="68" spans="4:7">
-      <c r="D68" s="16" t="s">
+      <c r="E74" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D75" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="E68" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="69" spans="4:7">
-      <c r="D69" s="16" t="s">
+      <c r="E75" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D76" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="E69" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="70" spans="4:7">
-      <c r="D70" s="16" t="s">
+      <c r="E76" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D77" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="E70" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="71" spans="4:7" hidden="1">
-      <c r="D71" s="16" t="s">
+      <c r="E77" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D78" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="E71" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="72" spans="4:7" hidden="1">
-      <c r="D72" s="16" t="s">
+      <c r="E78" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="79" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D79" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="E72" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="73" spans="4:7">
-      <c r="D73" s="16" t="s">
+      <c r="E79" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="80" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D80" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="E73" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="74" spans="4:7">
-      <c r="D74" s="16" t="s">
+      <c r="E80" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D81" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="E74" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="75" spans="4:7">
-      <c r="D75" s="16" t="s">
+      <c r="E81" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D82" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="E75" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="76" spans="4:7">
-      <c r="D76" s="16" t="s">
+      <c r="E82" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D83" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="E76" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="77" spans="4:7">
-      <c r="D77" s="16" t="s">
+      <c r="E83" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D84" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="E77" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="78" spans="4:7">
-      <c r="D78" s="16" t="s">
+      <c r="E84" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D85" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="E78" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="79" spans="4:7">
-      <c r="D79" s="16" t="s">
+      <c r="E85" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="86" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D86" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="E79" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="80" spans="4:7">
-      <c r="D80" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="81" spans="4:7">
-      <c r="D81" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="82" spans="4:7">
-      <c r="D82" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="83" spans="4:7">
-      <c r="D83" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="84" spans="4:7" hidden="1">
-      <c r="D84" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="85" spans="4:7" hidden="1">
-      <c r="D85" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>324</v>
+      <c r="E86" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D5:F85">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="○"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="D6:F86"/>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目次!A1" display="目次!A1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -6182,11 +6791,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H93"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="3.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" customWidth="1"/>
@@ -6197,1551 +6806,1563 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="39" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="2:8">
-      <c r="C3" s="1" t="s">
-        <v>18</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C3" s="11" t="s">
+        <v>291</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="2:8">
-      <c r="D4" s="4"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D4" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="2:8" ht="27">
-      <c r="D5" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="D6" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="D6" s="7">
+      <c r="E6" s="32"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D7" s="7">
         <v>1</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="D7" s="7">
-        <v>2</v>
-      </c>
       <c r="E7" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D8" s="7">
         <v>2</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D9" s="7">
         <v>2</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D10" s="7">
         <v>2</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D11" s="7">
+        <v>2</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="D11" s="7">
-        <v>3</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D12" s="7">
         <v>3</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
+        <v>12</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D13" s="7">
         <v>3</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D14" s="7">
         <v>3</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D15" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D16" s="7">
         <v>4</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D17" s="7">
         <v>4</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D18" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8">
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D19" s="7">
         <v>5</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8">
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D20" s="7">
         <v>5</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8">
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D21" s="7">
         <v>5</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D22" s="7">
         <v>5</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="4:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D23" s="7">
         <v>5</v>
       </c>
       <c r="E23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="G23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8">
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D24" s="7">
         <v>5</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F24" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D25" s="7">
+        <v>5</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D26" s="7">
+        <v>6</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D27" s="7">
+        <v>7</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D28" s="7">
+        <v>8</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D29" s="7">
+        <v>9</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D30" s="7">
+        <v>10</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8">
-      <c r="D25" s="7">
-        <v>6</v>
-      </c>
-      <c r="E25" s="8" t="s">
+      <c r="F30" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="4:8">
-      <c r="D26" s="7">
-        <v>7</v>
-      </c>
-      <c r="E26" s="8" t="s">
+      <c r="G30" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D31" s="7">
+        <v>11</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8">
-      <c r="D27" s="7">
-        <v>8</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="4:8">
-      <c r="D28" s="7">
-        <v>9</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="4:8">
-      <c r="D29" s="7">
-        <v>10</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="4:8">
-      <c r="D30" s="7">
-        <v>11</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="4:8">
-      <c r="D31" s="7">
-        <v>12</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="F31" s="8" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="4:8">
+        <v>13</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D32" s="7">
         <v>12</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="4:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D33" s="7">
         <v>12</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="4:8">
+        <v>12</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D34" s="7">
         <v>12</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="4:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D35" s="7">
         <v>12</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="4:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D36" s="7">
         <v>12</v>
       </c>
       <c r="E36" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F36" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="G36" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="4:8">
+        <v>13</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D37" s="7">
         <v>12</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="4:8">
+        <v>13</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D38" s="7">
         <v>12</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="4:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D39" s="7">
         <v>12</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="4:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D40" s="7">
+        <v>12</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="4:8">
+      <c r="H40" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D41" s="7">
         <v>13</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="4:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D42" s="7">
         <v>13</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="4:8">
+        <v>13</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D43" s="7">
         <v>13</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="4:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D44" s="7">
         <v>13</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="4:8">
+        <v>13</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D45" s="7">
         <v>13</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="4:8">
+        <v>13</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D46" s="7">
         <v>13</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="4:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D47" s="7">
         <v>13</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="4:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D48" s="7">
         <v>13</v>
       </c>
       <c r="E48" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D49" s="7">
+        <v>13</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D50" s="7">
+        <v>14</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D51" s="7">
+        <v>15</v>
+      </c>
+      <c r="E51" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F48" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G48" s="7" t="s">
+      <c r="F51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D52" s="7">
+        <v>16</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D53" s="7">
         <v>17</v>
       </c>
-      <c r="H48" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="4:8">
-      <c r="D49" s="7">
-        <v>14</v>
-      </c>
-      <c r="E49" s="8" t="s">
+      <c r="E53" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D54" s="7">
+        <v>18</v>
+      </c>
+      <c r="E54" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F54" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D55" s="7">
+        <v>19</v>
+      </c>
+      <c r="E55" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="4:8">
-      <c r="D50" s="7">
-        <v>15</v>
-      </c>
-      <c r="E50" s="8" t="s">
+      <c r="F55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D56" s="7">
+        <v>20</v>
+      </c>
+      <c r="E56" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F50" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="4:8">
-      <c r="D51" s="7">
-        <v>16</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="4:8">
-      <c r="D52" s="7">
-        <v>17</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="4:8">
-      <c r="D53" s="7">
-        <v>18</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="4:8">
-      <c r="D54" s="7">
-        <v>19</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="4:8">
-      <c r="D55" s="7">
+      <c r="F56" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="4:8">
-      <c r="D56" s="7">
-        <v>21</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>74</v>
-      </c>
       <c r="G56" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="4:8">
+        <v>13</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D57" s="7">
         <v>21</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="4:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D58" s="7">
         <v>21</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="4:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D59" s="7">
         <v>21</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="4:8">
+        <v>13</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D60" s="7">
         <v>21</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="61" spans="4:8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D61" s="7">
         <v>21</v>
       </c>
       <c r="E61" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F61" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F61" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="G61" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="62" spans="4:8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D62" s="7">
         <v>21</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="4:8">
+        <v>107</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D63" s="7">
         <v>21</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="4:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D64" s="7">
         <v>21</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="4:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D65" s="7">
         <v>21</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="4:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D66" s="7">
         <v>21</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="4:8">
+        <v>13</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D67" s="7">
         <v>21</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68" spans="4:8">
+        <v>107</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D68" s="7">
         <v>21</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="4:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D69" s="7">
         <v>21</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="70" spans="4:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D70" s="7">
         <v>21</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="4:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D71" s="7">
         <v>21</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="4:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D72" s="7">
         <v>21</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="73" spans="4:8">
+        <v>13</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D73" s="7">
         <v>21</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H73" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="4:8">
+        <v>107</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D74" s="7">
         <v>21</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="4:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D75" s="7">
         <v>21</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="76" spans="4:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D76" s="7">
         <v>21</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="77" spans="4:8">
+        <v>13</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D77" s="7">
         <v>21</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="4:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D78" s="7">
+        <v>21</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D79" s="7">
         <v>22</v>
       </c>
-      <c r="E78" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="4:8">
-      <c r="D79" s="7">
-        <v>21</v>
-      </c>
       <c r="E79" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="80" spans="4:8">
+        <v>13</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D80" s="7">
         <v>21</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H80" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" spans="4:8">
+        <v>107</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D81" s="7">
         <v>21</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" spans="4:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D82" s="7">
         <v>21</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="83" spans="4:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D83" s="7">
         <v>21</v>
       </c>
       <c r="E83" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F83" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F83" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="G83" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" spans="4:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D84" s="7">
         <v>21</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="85" spans="4:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D85" s="7">
         <v>21</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="4:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D86" s="7">
         <v>21</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" spans="4:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D87" s="7">
         <v>21</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="4:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D88" s="7">
         <v>21</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="89" spans="4:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D89" s="7">
         <v>21</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F89" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D90" s="7">
+        <v>21</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D91" s="7">
+        <v>24</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D92" s="7">
         <v>25</v>
       </c>
-      <c r="G89" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="4:8">
-      <c r="D90" s="7">
-        <v>24</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H90" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="91" spans="4:8">
-      <c r="D91" s="7">
-        <v>25</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H91" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="92" spans="4:8">
-      <c r="D92" s="7">
+      <c r="E92" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D93" s="7">
         <v>26</v>
       </c>
-      <c r="E92" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H92" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93" spans="4:8">
-      <c r="D93" s="7">
+      <c r="E93" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D94" s="7">
         <v>27</v>
       </c>
-      <c r="E93" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H93" s="9" t="s">
-        <v>25</v>
+      <c r="E94" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目次!A1" display="目次!A1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.625" style="11" customWidth="1"/>
     <col min="2" max="2" width="3.625" style="11" customWidth="1"/>
@@ -7752,328 +8373,336 @@
     <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="39" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B2" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C3" s="11" t="s">
-        <v>116</v>
+        <v>294</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="13"/>
     </row>
-    <row r="5" spans="2:6" ht="27">
+    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="C5" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="19" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="19" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="267.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D13" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="228.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="F5" s="14" t="s">
+      <c r="D14" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" s="19" customFormat="1" ht="134.25" customHeight="1">
-      <c r="C6" s="24" t="s">
+      <c r="F15" s="17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="169.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="C20" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="C21" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="D6" s="20" t="s">
+    </row>
+    <row r="22" spans="3:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="C22" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="F6" s="22" t="s">
+      <c r="D22" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C23" s="24" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" s="19" customFormat="1" ht="93.75" customHeight="1">
-      <c r="C7" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="41.25" customHeight="1">
-      <c r="C8" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="F8" s="17" t="s">
+      <c r="D23" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="41.25" customHeight="1">
-      <c r="C9" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="41.25" customHeight="1">
-      <c r="C10" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="41.25" customHeight="1">
-      <c r="C11" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="41.25" customHeight="1">
-      <c r="C12" s="25" t="s">
-        <v>292</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="267.75" customHeight="1">
-      <c r="C13" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="228.75" customHeight="1">
-      <c r="C14" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="60" customHeight="1">
-      <c r="C15" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="109.5" customHeight="1">
-      <c r="C16" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" ht="60" customHeight="1">
-      <c r="C17" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" ht="60" customHeight="1">
-      <c r="C18" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" ht="169.5" customHeight="1">
-      <c r="C19" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" ht="94.5">
-      <c r="C20" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" ht="81">
-      <c r="C21" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" ht="81">
-      <c r="C22" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" ht="17.25">
-      <c r="C23" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" ht="17.25">
-      <c r="C24" s="25"/>
+    <row r="24" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C24" s="24"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="3:6" ht="17.25">
-      <c r="C25" s="25"/>
+    <row r="25" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C25" s="24"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="3:6" ht="17.25">
-      <c r="C26" s="25"/>
+    <row r="26" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C26" s="24"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="3:6" ht="17.25">
-      <c r="C27" s="25"/>
+    <row r="27" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C27" s="24"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="3:6" ht="17.25">
-      <c r="C28" s="25"/>
+    <row r="28" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C28" s="24"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="3:6" ht="17.25">
-      <c r="C29" s="25"/>
+    <row r="29" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C29" s="24"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="3:6" ht="17.25">
-      <c r="C30" s="25"/>
+    <row r="30" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C30" s="24"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目次!A1" display="目次!A1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -8081,398 +8710,345 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H40"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="3.375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="1.625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="35" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8">
-      <c r="C3" s="11" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="C5" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="D6" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="D7" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="39" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B2" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C4" s="11" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
-      <c r="C9" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="D10" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="14.25" thickBot="1"/>
-    <row r="12" spans="2:8" ht="14.25" thickBot="1">
-      <c r="D12" s="35" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D5" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D6" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D7" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D8" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D9" s="42" t="s">
+        <v>304</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D10" s="43"/>
+      <c r="E10" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D12" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="37"/>
-    </row>
-    <row r="14" spans="2:8" ht="14.25" thickBot="1">
-      <c r="C14" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="14.25" thickBot="1">
-      <c r="D15" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="37"/>
-    </row>
-    <row r="17" spans="3:8">
-      <c r="D17" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="14.25" thickBot="1">
-      <c r="C18" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8">
-      <c r="D19" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
-    </row>
-    <row r="20" spans="3:8" ht="14.25" thickBot="1">
-      <c r="D20" s="41" t="s">
-        <v>236</v>
-      </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="43"/>
-    </row>
-    <row r="23" spans="3:8">
-      <c r="C23" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8">
-      <c r="D24" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8">
-      <c r="D25" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8">
-      <c r="D26" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8">
-      <c r="D28" s="1" t="s">
+      <c r="F12" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D13" s="11" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="3:8">
-      <c r="D29" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8">
-      <c r="D30" s="1" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D14" s="11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C16" s="11" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="32" spans="3:8">
-      <c r="D32" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4">
-      <c r="D33" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4">
-      <c r="D34" s="1" t="s">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D17" s="25" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="36" spans="4:4">
-      <c r="D36" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4">
-      <c r="D37" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="38" spans="4:4">
-      <c r="D38" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="39" spans="4:4">
-      <c r="D39" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="40" spans="4:4">
-      <c r="D40" s="1" t="s">
-        <v>317</v>
+      <c r="E17" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D19" s="40">
+        <v>2</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="47" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D21" s="41"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="48" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D22" s="40">
+        <v>3</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D23" s="44"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="47" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D24" s="44"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="47" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D25" s="41"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="48" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D26" s="40">
+        <v>4</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D27" s="44"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="47" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D28" s="41"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="48" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D12:H12"/>
+  <mergeCells count="7">
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D19:D21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目次!A1" display="目次!A1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I33"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
     <col min="2" max="4" width="3.75" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="39" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="C7" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="D8" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="C10" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="D11" s="11" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="14.25" thickBot="1"/>
-    <row r="13" spans="2:9" ht="14.25" thickBot="1">
-      <c r="D13" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37"/>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="D15" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="D16" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" ht="14.25" thickBot="1"/>
-    <row r="18" spans="3:9" ht="14.25" thickBot="1">
-      <c r="D18" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="37"/>
-    </row>
-    <row r="20" spans="3:9">
-      <c r="D20" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9">
-      <c r="C22" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9">
-      <c r="D23" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" ht="14.25" thickBot="1"/>
-    <row r="25" spans="3:9">
-      <c r="D25" s="38" t="s">
-        <v>274</v>
-      </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="40"/>
-    </row>
-    <row r="26" spans="3:9" ht="14.25" thickBot="1">
-      <c r="D26" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="43"/>
-    </row>
-    <row r="27" spans="3:9">
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-    </row>
-    <row r="28" spans="3:9">
-      <c r="D28" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9">
-      <c r="D30" s="11" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9" ht="14.25" thickBot="1"/>
-    <row r="32" spans="3:9">
-      <c r="D32" s="38" t="s">
-        <v>274</v>
-      </c>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="40"/>
-    </row>
-    <row r="33" spans="4:9" ht="14.25" thickBot="1">
-      <c r="D33" s="41" t="s">
-        <v>277</v>
-      </c>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="43"/>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C25" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C26" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C27" s="1" t="s">
+        <v>344</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D26:I26"/>
-  </mergeCells>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目次!A1" display="目次!A1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C3"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="C3" s="1" t="s">
-        <v>251</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="39" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目次!A1" display="目次!A1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/athrill-manual.xlsx
+++ b/athrill-manual.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12540" activeTab="9"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12540" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="athrill起動方法" sheetId="6" r:id="rId8"/>
     <sheet name="athrillコマンド仕様" sheetId="10" r:id="rId9"/>
     <sheet name="付録" sheetId="9" r:id="rId10"/>
-    <sheet name="Sheet2" sheetId="11" r:id="rId11"/>
+    <sheet name="athrillプログラム構成" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">命令一覧!$D$6:$F$86</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="460">
   <si>
     <t>１．はじめに</t>
     <phoneticPr fontId="2"/>
@@ -2898,6 +2898,1053 @@
     <t>役割</t>
     <rPh sb="0" eb="2">
       <t>ヤクワリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各機能の実行</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デバッグ機能</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CPU命令のデコードおよび実行</t>
+    <rPh sb="3" eb="5">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メモリバスの実現</t>
+    <rPh sb="6" eb="8">
+      <t>ジツゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デバイス機能</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>割り込みコントローラ</t>
+    <rPh sb="0" eb="1">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>周辺デバイス(タイマ，ADC，CAN等はこの配下で実現される)</t>
+    <rPh sb="0" eb="2">
+      <t>シュウヘン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハイカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジツゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メモリプロテクションユニット．将来的にはパーティション構成を実現する際に利用する予定．</t>
+    <rPh sb="15" eb="18">
+      <t>ショウライテキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デバイスのデバッグ用のコールバック関数I/F
+デバッガ側でこのI/Fを実装することで，デバッガ連携が可能となる．</t>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TODO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>７．athrillコマンド仕様</t>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■コマンド仕様</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>athrill [-i] [-d] [-t&lt;timeout&gt;] &lt;バイナリファイル(ELF形式)&gt;</t>
+    <rPh sb="45" eb="47">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必須有無</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■コマンド引数</t>
+    <rPh sb="5" eb="7">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-i</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-t</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-d</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-r</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-p</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オプション</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バックグラウンド実行モードでathrillを起動する
+&lt;timeout&gt;は，athrillが実行を終了するCPUクロック数</t>
+    <rPh sb="8" eb="10">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インタラクションモードでathrillを起動する
+デバッグ機能は本モードでのみ使用できる
+なお，-rオプションを付加することで，遠隔操作も可能となる</t>
+    <rPh sb="20" eb="22">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>エンカク</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インタラクションモードでathrillを起動する際に，本オプションを使用するとathrillを遠隔操作可能となる．本機能は，athrill_remote(後述)を通して遠隔操作することができるようになる．
+よって，テストシナリオをシェルプログラミング言語で記述することができる．</t>
+    <rPh sb="20" eb="22">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>エンカク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>コウジュツ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>エンカク</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>athrillのコンフィグファイルを本オプションで指定し，細かなパラメータ変更を行うことができる．</t>
+    <rPh sb="18" eb="19">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本オプションを使用すると，２つのathrillプロセス間でFIFO通信を行うことができるようになる．２ノードのECU間通信系のテストを実現する際には本オプションを使用すると便利である．</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ベンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■コンフィグファイル仕様</t>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■athrill_remote仕様</t>
+    <rPh sb="15" eb="17">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■FIFO通信仕様</t>
+    <rPh sb="5" eb="7">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コンフィグファイルでは，以下の形式でパラメータ定義する．</t>
+    <rPh sb="12" eb="14">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;パラメータ名&gt;　&lt;値&gt;</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パラメータ分類</t>
+    <rPh sb="5" eb="7">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パラメータ名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>値域</t>
+    <rPh sb="0" eb="2">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <rPh sb="0" eb="1">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DEBUG_FUNC_ENABLE_BT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DEBUG_FUNC_ENABLE_FT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DEBUG_FUNC_ENABLE_PROF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DEBUG_FUNC_ENABLE_WATCH</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0..1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0：バックトレース機能無効
+1：バックトレース機能有効(指定なし含む)
+バックトレース機能を有効にすると，athrillの実行に時間がかかるため，処理時間を低減したい場合に使用する</t>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>テイゲン</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0：関数レース機能無効
+1：関数レース機能有効(指定なし含む)
+関数トレース機能を有効にすると，athrillの実行に時間がかかるため，処理時間を低減したい場合に使用する</t>
+    <rPh sb="2" eb="4">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>テイゲン</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0：プロファイル機能無効
+1：プロファイル機能有効(指定なし含む)
+プロファイル機能を有効にすると，athrillの実行に時間がかかるため，処理時間を低減したい場合に使用する</t>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>テイゲン</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0：データウォッチ機能無効
+1：データウォッチ機能有効(指定なし含む)
+データウォッチ機能を有効にすると，athrillの実行に時間がかかるため，処理時間を低減したい場合に使用する</t>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>テイゲン</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EDITOR_SEARCH_PATH_NUM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EDITOR_SEARCH_PATH_&lt;n&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1以上の整数</t>
+    <rPh sb="1" eb="3">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">デバッグ機能でソースファイルと連携する場合，ソースコードのパス指定したい場合に使用する．
+本パラメータは，パス候補の数である．
+※ビルド環境と異なる環境でデバッグする場合に使用する．
+</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;ファイルパス※&gt;
+※形式：MinGWのファイルパス表現</t>
+    <rPh sb="11" eb="13">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EDITOR_SEARCH_PATH_NUMで指定した数だけファイルパスを指定する．
+&lt;n&gt;は，0からの連番とすること．
+</t>
+    <rPh sb="23" eb="25">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>レンバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DEVICE_CONFIG_TIMER_FD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>V850固有</t>
+    <rPh sb="3" eb="5">
+      <t>コユウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>32以上の整数</t>
+    <rPh sb="2" eb="4">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>V850ES/FK3のタイマデバイスは，分周機能対応していない．
+そのため，本パラメータで分周値を指定する．</t>
+    <rPh sb="20" eb="22">
+      <t>ブンシュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ブンシュウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EDITOR_SEARCH_PATH_NUM 3
+EDITOR_SEARCH_PATH_0 /c/project/sample_code/folder1/
+EDITOR_SEARCH_PATH_1 /c/project/sample_code/folder2/
+EDITOR_SEARCH_PATH_2 /c/project/sample_code/folder3/
+DEBUG_FUNC_ENABLE_FT  1
+DEBUG_FUNC_ENABLE_BT  0
+DEBUG_FUNC_ENABLE_PROF 0
+DEBUG_FUNC_ENABLE_WATCH 0
+DEVICE_CONFIG_TIMER_FD 64</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■設定例(device_config.txt)</t>
+    <rPh sb="1" eb="3">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>athrill_remoteは，athrillを遠隔操作でデバッグ可能にするコマンドである．</t>
+    <rPh sb="24" eb="26">
+      <t>エンカク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コマンド仕様は以下の通り．</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>athrill_remote &lt;athrill debug command&gt;</t>
+  </si>
+  <si>
+    <t>&lt;athrill debug command&gt;：デバッグ機能一覧にある一連のデバッグコマンド</t>
+    <rPh sb="28" eb="30">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イチレン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※athrillは-rオプションで起動すること．</t>
+    <rPh sb="17" eb="19">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>athrill_remoteは，PC内のUDP通信で実現されている．</t>
+    <rPh sb="18" eb="19">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジツゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用するポート番号は以下の通り．</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サーバー側：49152</t>
+    <rPh sb="4" eb="5">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クライアント側：49153</t>
+    <rPh sb="6" eb="7">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ポート番号を変更したい場合は，athrill内のcpuemu_config.hの以下のパラメータ値を変更することで対応できる．</t>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#define CPUEMU_CONFIG_CUI_EMULATOR_PORTNO  49152</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#define CPUEMU_CONFIG_CUI_CLIENT_PORTNO   49153</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コマンド実行例</t>
+    <rPh sb="4" eb="6">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■athrill側</t>
+    <rPh sb="8" eb="9">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■athrill_remote側</t>
+    <rPh sb="15" eb="16">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>continueコマンド実行すると，athrill側が動き始める</t>
+    <rPh sb="12" eb="14">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以降，通常のインタラクションモードと同じ方法でデバッグすることができる．</t>
+    <rPh sb="0" eb="2">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(T.B.D)CANの外部通信ができるようになるため，必須機能ではなくなった．要望あればマニュアル化を検討する．</t>
+    <rPh sb="11" eb="13">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヨウボウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ケントウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3172,7 +4219,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3257,26 +4304,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3294,6 +4323,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3302,65 +4364,71 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3541,6 +4609,213 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>276376</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>87347</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03BA191D-31A3-4984-94F1-12B09409A488}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1255059" y="17279471"/>
+          <a:ext cx="7761905" cy="4961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>25549</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79F310B6-1462-43DA-8C9F-A63DCE4ADC00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1243853" y="23072913"/>
+          <a:ext cx="7776882" cy="2468430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>29846</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>143376</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8A7312A-C4C3-4D0F-9D5B-634C54990DA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10511117" y="23050500"/>
+          <a:ext cx="7761905" cy="4961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>414618</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>795618</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矢印: 右 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E7314D5-ABAB-4864-ACAF-AB03999C494D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9155206" y="23184971"/>
+          <a:ext cx="1255059" cy="1456764"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 68462"/>
+            <a:gd name="adj2" fmla="val 25000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>athrill</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が動き始める</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4775,16 +6050,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>8284</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>563218</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>165652</xdr:rowOff>
+      <xdr:rowOff>99391</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>563218</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>430696</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>158903</xdr:rowOff>
+      <xdr:rowOff>92642</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4814,8 +6089,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="844827" y="7644848"/>
-          <a:ext cx="7429500" cy="5907033"/>
+          <a:off x="2774675" y="7578587"/>
+          <a:ext cx="7528891" cy="5907033"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5187,54 +6462,54 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.15">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="8"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5253,358 +6528,360 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81:N81"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="10.375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="4.375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="3.125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="9" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9" style="11"/>
+    <col min="6" max="6" width="10.375" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="50" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="11" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="11" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="35" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D35" s="1" t="s">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A34" s="50" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D35" s="11" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="36" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D36" s="49" t="s">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D36" s="51" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="37" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D37" s="1" t="s">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D37" s="11" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="38" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D38" s="53" t="s">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D38" s="37" t="s">
         <v>352</v>
       </c>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53" t="s">
+      <c r="E38" s="37"/>
+      <c r="F38" s="37" t="s">
         <v>353</v>
       </c>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="53"/>
-    </row>
-    <row r="39" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D39" s="50" t="s">
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D39" s="39" t="s">
         <v>354</v>
       </c>
-      <c r="E39" s="50"/>
-      <c r="F39" s="54" t="s">
+      <c r="E39" s="39"/>
+      <c r="F39" s="52" t="s">
         <v>364</v>
       </c>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="55"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="55"/>
-      <c r="R39" s="55"/>
-      <c r="S39" s="56"/>
-    </row>
-    <row r="40" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D40" s="50" t="s">
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="53"/>
+      <c r="S39" s="54"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D40" s="39" t="s">
         <v>355</v>
       </c>
-      <c r="E40" s="50"/>
-      <c r="F40" s="54" t="s">
+      <c r="E40" s="39"/>
+      <c r="F40" s="52" t="s">
         <v>360</v>
       </c>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="55"/>
-      <c r="O40" s="55"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="55"/>
-      <c r="R40" s="55"/>
-      <c r="S40" s="56"/>
-    </row>
-    <row r="41" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D41" s="50" t="s">
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="53"/>
+      <c r="Q40" s="53"/>
+      <c r="R40" s="53"/>
+      <c r="S40" s="54"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D41" s="39" t="s">
         <v>356</v>
       </c>
-      <c r="E41" s="50"/>
-      <c r="F41" s="54" t="s">
+      <c r="E41" s="39"/>
+      <c r="F41" s="52" t="s">
         <v>361</v>
       </c>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="55"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="55"/>
-      <c r="O41" s="55"/>
-      <c r="P41" s="55"/>
-      <c r="Q41" s="55"/>
-      <c r="R41" s="55"/>
-      <c r="S41" s="56"/>
-    </row>
-    <row r="42" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D42" s="52" t="s">
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="53"/>
+      <c r="R41" s="53"/>
+      <c r="S41" s="54"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D42" s="38" t="s">
         <v>357</v>
       </c>
-      <c r="E42" s="51" t="s">
+      <c r="E42" s="28" t="s">
         <v>358</v>
       </c>
-      <c r="F42" s="54" t="s">
+      <c r="F42" s="52" t="s">
         <v>362</v>
       </c>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="55"/>
-      <c r="O42" s="55"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="55"/>
-      <c r="R42" s="55"/>
-      <c r="S42" s="56"/>
-    </row>
-    <row r="43" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D43" s="52"/>
-      <c r="E43" s="51" t="s">
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="53"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="54"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D43" s="38"/>
+      <c r="E43" s="28" t="s">
         <v>359</v>
       </c>
-      <c r="F43" s="54" t="s">
+      <c r="F43" s="52" t="s">
         <v>363</v>
       </c>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="55"/>
-      <c r="L43" s="55"/>
-      <c r="M43" s="55"/>
-      <c r="N43" s="55"/>
-      <c r="O43" s="55"/>
-      <c r="P43" s="55"/>
-      <c r="Q43" s="55"/>
-      <c r="R43" s="55"/>
-      <c r="S43" s="56"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="53"/>
+      <c r="P43" s="53"/>
+      <c r="Q43" s="53"/>
+      <c r="R43" s="53"/>
+      <c r="S43" s="54"/>
     </row>
     <row r="80" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D80" s="53" t="s">
+      <c r="D80" s="37" t="s">
         <v>377</v>
       </c>
-      <c r="E80" s="53"/>
-      <c r="F80" s="53"/>
-      <c r="G80" s="60" t="s">
+      <c r="E80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="55" t="s">
         <v>378</v>
       </c>
-      <c r="H80" s="61"/>
-      <c r="I80" s="61"/>
-      <c r="J80" s="61"/>
-      <c r="K80" s="61"/>
-      <c r="L80" s="61"/>
-      <c r="M80" s="61"/>
-      <c r="N80" s="62"/>
+      <c r="H80" s="56"/>
+      <c r="I80" s="56"/>
+      <c r="J80" s="56"/>
+      <c r="K80" s="56"/>
+      <c r="L80" s="56"/>
+      <c r="M80" s="56"/>
+      <c r="N80" s="57"/>
     </row>
     <row r="81" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D81" s="54" t="s">
+      <c r="D81" s="52" t="s">
         <v>365</v>
       </c>
-      <c r="E81" s="55"/>
-      <c r="F81" s="56"/>
-      <c r="G81" s="54"/>
-      <c r="H81" s="55"/>
-      <c r="I81" s="55"/>
-      <c r="J81" s="55"/>
-      <c r="K81" s="55"/>
-      <c r="L81" s="55"/>
-      <c r="M81" s="55"/>
-      <c r="N81" s="56"/>
+      <c r="E81" s="53"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="52" t="s">
+        <v>379</v>
+      </c>
+      <c r="H81" s="53"/>
+      <c r="I81" s="53"/>
+      <c r="J81" s="53"/>
+      <c r="K81" s="53"/>
+      <c r="L81" s="53"/>
+      <c r="M81" s="53"/>
+      <c r="N81" s="54"/>
     </row>
     <row r="82" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D82" s="54" t="s">
+      <c r="D82" s="52" t="s">
         <v>373</v>
       </c>
-      <c r="E82" s="55"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="54"/>
-      <c r="H82" s="55"/>
-      <c r="I82" s="55"/>
-      <c r="J82" s="55"/>
-      <c r="K82" s="55"/>
-      <c r="L82" s="55"/>
-      <c r="M82" s="55"/>
-      <c r="N82" s="56"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="54"/>
+      <c r="G82" s="52" t="s">
+        <v>380</v>
+      </c>
+      <c r="H82" s="53"/>
+      <c r="I82" s="53"/>
+      <c r="J82" s="53"/>
+      <c r="K82" s="53"/>
+      <c r="L82" s="53"/>
+      <c r="M82" s="53"/>
+      <c r="N82" s="54"/>
     </row>
     <row r="83" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D83" s="54" t="s">
+      <c r="D83" s="52" t="s">
         <v>374</v>
       </c>
-      <c r="E83" s="55"/>
-      <c r="F83" s="56"/>
-      <c r="G83" s="54"/>
-      <c r="H83" s="55"/>
-      <c r="I83" s="55"/>
-      <c r="J83" s="55"/>
-      <c r="K83" s="55"/>
-      <c r="L83" s="55"/>
-      <c r="M83" s="55"/>
-      <c r="N83" s="56"/>
+      <c r="E83" s="53"/>
+      <c r="F83" s="54"/>
+      <c r="G83" s="52" t="s">
+        <v>381</v>
+      </c>
+      <c r="H83" s="53"/>
+      <c r="I83" s="53"/>
+      <c r="J83" s="53"/>
+      <c r="K83" s="53"/>
+      <c r="L83" s="53"/>
+      <c r="M83" s="53"/>
+      <c r="N83" s="54"/>
     </row>
     <row r="84" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D84" s="54" t="s">
+      <c r="D84" s="52" t="s">
         <v>375</v>
       </c>
-      <c r="E84" s="55"/>
-      <c r="F84" s="56"/>
-      <c r="G84" s="54"/>
-      <c r="H84" s="55"/>
-      <c r="I84" s="55"/>
-      <c r="J84" s="55"/>
-      <c r="K84" s="55"/>
-      <c r="L84" s="55"/>
-      <c r="M84" s="55"/>
-      <c r="N84" s="56"/>
+      <c r="E84" s="53"/>
+      <c r="F84" s="54"/>
+      <c r="G84" s="52" t="s">
+        <v>382</v>
+      </c>
+      <c r="H84" s="53"/>
+      <c r="I84" s="53"/>
+      <c r="J84" s="53"/>
+      <c r="K84" s="53"/>
+      <c r="L84" s="53"/>
+      <c r="M84" s="53"/>
+      <c r="N84" s="54"/>
     </row>
     <row r="85" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D85" s="57" t="s">
+      <c r="D85" s="58" t="s">
         <v>376</v>
       </c>
-      <c r="E85" s="55"/>
-      <c r="F85" s="56"/>
-      <c r="G85" s="54"/>
-      <c r="H85" s="55"/>
-      <c r="I85" s="55"/>
-      <c r="J85" s="55"/>
-      <c r="K85" s="55"/>
-      <c r="L85" s="55"/>
-      <c r="M85" s="55"/>
-      <c r="N85" s="56"/>
+      <c r="E85" s="53"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="52" t="s">
+        <v>383</v>
+      </c>
+      <c r="H85" s="53"/>
+      <c r="I85" s="53"/>
+      <c r="J85" s="53"/>
+      <c r="K85" s="53"/>
+      <c r="L85" s="53"/>
+      <c r="M85" s="53"/>
+      <c r="N85" s="54"/>
     </row>
     <row r="86" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D86" s="58"/>
-      <c r="E86" s="50" t="s">
+      <c r="D86" s="59"/>
+      <c r="E86" s="39" t="s">
         <v>369</v>
       </c>
-      <c r="F86" s="50"/>
-      <c r="G86" s="54"/>
-      <c r="H86" s="55"/>
-      <c r="I86" s="55"/>
-      <c r="J86" s="55"/>
-      <c r="K86" s="55"/>
-      <c r="L86" s="55"/>
-      <c r="M86" s="55"/>
-      <c r="N86" s="56"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="52" t="s">
+        <v>384</v>
+      </c>
+      <c r="H86" s="53"/>
+      <c r="I86" s="53"/>
+      <c r="J86" s="53"/>
+      <c r="K86" s="53"/>
+      <c r="L86" s="53"/>
+      <c r="M86" s="53"/>
+      <c r="N86" s="54"/>
     </row>
     <row r="87" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D87" s="58"/>
-      <c r="E87" s="50" t="s">
+      <c r="D87" s="59"/>
+      <c r="E87" s="39" t="s">
         <v>370</v>
       </c>
-      <c r="F87" s="50"/>
-      <c r="G87" s="54"/>
-      <c r="H87" s="55"/>
-      <c r="I87" s="55"/>
-      <c r="J87" s="55"/>
-      <c r="K87" s="55"/>
-      <c r="L87" s="55"/>
-      <c r="M87" s="55"/>
-      <c r="N87" s="56"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="52" t="s">
+        <v>385</v>
+      </c>
+      <c r="H87" s="53"/>
+      <c r="I87" s="53"/>
+      <c r="J87" s="53"/>
+      <c r="K87" s="53"/>
+      <c r="L87" s="53"/>
+      <c r="M87" s="53"/>
+      <c r="N87" s="54"/>
     </row>
     <row r="88" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D88" s="59"/>
-      <c r="E88" s="50" t="s">
+      <c r="D88" s="60"/>
+      <c r="E88" s="39" t="s">
         <v>371</v>
       </c>
-      <c r="F88" s="50"/>
-      <c r="G88" s="54"/>
-      <c r="H88" s="55"/>
-      <c r="I88" s="55"/>
-      <c r="J88" s="55"/>
-      <c r="K88" s="55"/>
-      <c r="L88" s="55"/>
-      <c r="M88" s="55"/>
-      <c r="N88" s="56"/>
-    </row>
-    <row r="89" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D89" s="54" t="s">
+      <c r="F88" s="39"/>
+      <c r="G88" s="52" t="s">
+        <v>386</v>
+      </c>
+      <c r="H88" s="53"/>
+      <c r="I88" s="53"/>
+      <c r="J88" s="53"/>
+      <c r="K88" s="53"/>
+      <c r="L88" s="53"/>
+      <c r="M88" s="53"/>
+      <c r="N88" s="54"/>
+    </row>
+    <row r="89" spans="4:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D89" s="52" t="s">
         <v>372</v>
       </c>
-      <c r="E89" s="55"/>
-      <c r="F89" s="56"/>
-      <c r="G89" s="54"/>
-      <c r="H89" s="55"/>
-      <c r="I89" s="55"/>
-      <c r="J89" s="55"/>
-      <c r="K89" s="55"/>
-      <c r="L89" s="55"/>
-      <c r="M89" s="55"/>
-      <c r="N89" s="56"/>
+      <c r="E89" s="53"/>
+      <c r="F89" s="54"/>
+      <c r="G89" s="61" t="s">
+        <v>387</v>
+      </c>
+      <c r="H89" s="53"/>
+      <c r="I89" s="53"/>
+      <c r="J89" s="53"/>
+      <c r="K89" s="53"/>
+      <c r="L89" s="53"/>
+      <c r="M89" s="53"/>
+      <c r="N89" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="G86:N86"/>
-    <mergeCell ref="G87:N87"/>
-    <mergeCell ref="G88:N88"/>
-    <mergeCell ref="G89:N89"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="G81:N81"/>
-    <mergeCell ref="G82:N82"/>
-    <mergeCell ref="G83:N83"/>
-    <mergeCell ref="G84:N84"/>
-    <mergeCell ref="G85:N85"/>
-    <mergeCell ref="F43:S43"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="D84:F84"/>
     <mergeCell ref="D85:F85"/>
     <mergeCell ref="D80:F80"/>
     <mergeCell ref="G80:N80"/>
@@ -5618,13 +6895,34 @@
     <mergeCell ref="F40:S40"/>
     <mergeCell ref="F41:S41"/>
     <mergeCell ref="F42:S42"/>
+    <mergeCell ref="F43:S43"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="G81:N81"/>
+    <mergeCell ref="G82:N82"/>
+    <mergeCell ref="G83:N83"/>
+    <mergeCell ref="G84:N84"/>
+    <mergeCell ref="G85:N85"/>
+    <mergeCell ref="G86:N86"/>
+    <mergeCell ref="G87:N87"/>
+    <mergeCell ref="G88:N88"/>
+    <mergeCell ref="G89:N89"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D86:D88"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="A1" location="目次!A1" display="目次!A1"/>
+    <hyperlink ref="A34" location="目次!A1" display="目次!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5635,18 +6933,30 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="50" t="s">
+        <v>289</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目次!A1" display="目次!A1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B13"/>
+  <dimension ref="B2:E13"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5656,64 +6966,76 @@
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B3" s="39" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B3" s="33" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B4" s="39" t="s">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B4" s="33" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B5" s="39" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B5" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B6" s="39" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B6" s="33" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B7" s="39" t="s">
+      <c r="D6" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B7" s="33" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B8" s="39" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B8" s="33" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B9" s="39" t="s">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="33" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B11" s="33" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B12" s="33" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B13" s="33" t="s">
         <v>368</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -5726,6 +7048,9 @@
     <hyperlink ref="B7" location="インストール手順!A1" display="５．インストール手順"/>
     <hyperlink ref="B8" location="athrill起動方法!A1" display="６．athrill起動方法"/>
     <hyperlink ref="B9" location="athrillコマンド仕様!A1" display="７．athrillコマンド仕様"/>
+    <hyperlink ref="B11" location="付録!A1" display="　８．１　athrill構成"/>
+    <hyperlink ref="B12" location="付録!A35" display="　８．２　athrill設計方針"/>
+    <hyperlink ref="B13" location="athrillプログラム構成!A1" display="　８．３　athrillプログラム構成"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5735,7 +7060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5747,7 +7072,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="33" t="s">
         <v>289</v>
       </c>
     </row>
@@ -5767,46 +7092,46 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="31" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C7" s="35">
+      <c r="C7" s="29">
         <v>1</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="29" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C8" s="35">
+      <c r="C8" s="29">
         <v>2</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="30" t="s">
         <v>284</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="29" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C9" s="35">
+      <c r="C9" s="29">
         <v>3</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="29" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5844,9 +7169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5861,7 +7184,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="33" t="s">
         <v>289</v>
       </c>
     </row>
@@ -6807,7 +8130,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="33" t="s">
         <v>289</v>
       </c>
     </row>
@@ -6836,11 +8159,11 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="5" t="s">
         <v>10</v>
       </c>
@@ -8374,7 +9697,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="33" t="s">
         <v>289</v>
       </c>
     </row>
@@ -8726,7 +10049,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="33" t="s">
         <v>289</v>
       </c>
     </row>
@@ -8785,7 +10108,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="47" t="s">
         <v>304</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -8796,7 +10119,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D10" s="43"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="8" t="s">
         <v>315</v>
       </c>
@@ -8864,96 +10187,96 @@
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D19" s="40">
+      <c r="D19" s="44">
         <v>2</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="47" t="s">
         <v>326</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="34" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D20" s="44"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="47" t="s">
+      <c r="D20" s="45"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="35" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D21" s="41"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="48" t="s">
+      <c r="D21" s="46"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="36" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D22" s="40">
+      <c r="D22" s="44">
         <v>3</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="47" t="s">
         <v>330</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="34" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D23" s="44"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="47" t="s">
+      <c r="D23" s="45"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="35" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D24" s="44"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="47" t="s">
+      <c r="D24" s="45"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="35" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D25" s="41"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="48" t="s">
+      <c r="D25" s="46"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="36" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D26" s="40">
+      <c r="D26" s="44">
         <v>4</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="47" t="s">
         <v>335</v>
       </c>
-      <c r="F26" s="46" t="s">
+      <c r="F26" s="34" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D27" s="44"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="47" t="s">
+      <c r="D27" s="45"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="35" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D28" s="41"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="48" t="s">
+      <c r="D28" s="46"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="36" t="s">
         <v>339</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D19:D21"/>
     <mergeCell ref="D22:D25"/>
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="E26:E28"/>
     <mergeCell ref="E22:E25"/>
     <mergeCell ref="E19:E21"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D19:D21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -8968,7 +10291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8978,7 +10301,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="33" t="s">
         <v>289</v>
       </c>
     </row>
@@ -9030,25 +10353,1134 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AI132"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="2.875" style="11"/>
+    <col min="4" max="7" width="3.75" style="11" customWidth="1"/>
+    <col min="8" max="26" width="2.875" style="11"/>
+    <col min="27" max="27" width="11.75" style="11" customWidth="1"/>
+    <col min="28" max="35" width="11.5" style="11" customWidth="1"/>
+    <col min="36" max="16384" width="2.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A1" s="50" t="s">
         <v>289</v>
       </c>
     </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="B3" s="11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="C5" s="11" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="D6" s="11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="C8" s="11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="D9" s="62" t="s">
+        <v>402</v>
+      </c>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="55" t="s">
+        <v>394</v>
+      </c>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="57"/>
+    </row>
+    <row r="10" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="63" t="s">
+        <v>397</v>
+      </c>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="65" t="s">
+        <v>403</v>
+      </c>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="61" t="s">
+        <v>408</v>
+      </c>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="54"/>
+    </row>
+    <row r="11" spans="1:27" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="63" t="s">
+        <v>398</v>
+      </c>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="65" t="s">
+        <v>404</v>
+      </c>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="61" t="s">
+        <v>407</v>
+      </c>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="54"/>
+    </row>
+    <row r="12" spans="1:27" ht="93" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="63" t="s">
+        <v>400</v>
+      </c>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65" t="s">
+        <v>405</v>
+      </c>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="61" t="s">
+        <v>409</v>
+      </c>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="54"/>
+    </row>
+    <row r="13" spans="1:27" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="63" t="s">
+        <v>399</v>
+      </c>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="65" t="s">
+        <v>405</v>
+      </c>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="61" t="s">
+        <v>410</v>
+      </c>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="54"/>
+    </row>
+    <row r="14" spans="1:27" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="65" t="s">
+        <v>406</v>
+      </c>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="54"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="C16" s="11" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="17" spans="4:35" x14ac:dyDescent="0.15">
+      <c r="D17" s="11" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="19" spans="4:35" x14ac:dyDescent="0.15">
+      <c r="D19" s="11" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="22" spans="4:35" x14ac:dyDescent="0.15">
+      <c r="D22" s="62" t="s">
+        <v>417</v>
+      </c>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="37" t="s">
+        <v>418</v>
+      </c>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="42"/>
+      <c r="AA22" s="43"/>
+      <c r="AB22" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="AC22" s="42"/>
+      <c r="AD22" s="42"/>
+      <c r="AE22" s="42"/>
+      <c r="AF22" s="42"/>
+      <c r="AG22" s="42"/>
+      <c r="AH22" s="42"/>
+      <c r="AI22" s="43"/>
+    </row>
+    <row r="23" spans="4:35" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="63" t="s">
+        <v>420</v>
+      </c>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="39" t="s">
+        <v>421</v>
+      </c>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="65" t="s">
+        <v>425</v>
+      </c>
+      <c r="U23" s="66"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="66"/>
+      <c r="Y23" s="66"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="67"/>
+      <c r="AB23" s="61" t="s">
+        <v>426</v>
+      </c>
+      <c r="AC23" s="53"/>
+      <c r="AD23" s="53"/>
+      <c r="AE23" s="53"/>
+      <c r="AF23" s="53"/>
+      <c r="AG23" s="53"/>
+      <c r="AH23" s="53"/>
+      <c r="AI23" s="54"/>
+    </row>
+    <row r="24" spans="4:35" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="63" t="s">
+        <v>420</v>
+      </c>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="65" t="s">
+        <v>425</v>
+      </c>
+      <c r="U24" s="66"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="66"/>
+      <c r="Y24" s="66"/>
+      <c r="Z24" s="66"/>
+      <c r="AA24" s="67"/>
+      <c r="AB24" s="61" t="s">
+        <v>427</v>
+      </c>
+      <c r="AC24" s="53"/>
+      <c r="AD24" s="53"/>
+      <c r="AE24" s="53"/>
+      <c r="AF24" s="53"/>
+      <c r="AG24" s="53"/>
+      <c r="AH24" s="53"/>
+      <c r="AI24" s="54"/>
+    </row>
+    <row r="25" spans="4:35" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="63" t="s">
+        <v>420</v>
+      </c>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="39" t="s">
+        <v>423</v>
+      </c>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="65" t="s">
+        <v>425</v>
+      </c>
+      <c r="U25" s="66"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="66"/>
+      <c r="Y25" s="66"/>
+      <c r="Z25" s="66"/>
+      <c r="AA25" s="67"/>
+      <c r="AB25" s="61" t="s">
+        <v>428</v>
+      </c>
+      <c r="AC25" s="53"/>
+      <c r="AD25" s="53"/>
+      <c r="AE25" s="53"/>
+      <c r="AF25" s="53"/>
+      <c r="AG25" s="53"/>
+      <c r="AH25" s="53"/>
+      <c r="AI25" s="54"/>
+    </row>
+    <row r="26" spans="4:35" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D26" s="63" t="s">
+        <v>420</v>
+      </c>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="65" t="s">
+        <v>425</v>
+      </c>
+      <c r="U26" s="66"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="66"/>
+      <c r="Y26" s="66"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="67"/>
+      <c r="AB26" s="61" t="s">
+        <v>429</v>
+      </c>
+      <c r="AC26" s="53"/>
+      <c r="AD26" s="53"/>
+      <c r="AE26" s="53"/>
+      <c r="AF26" s="53"/>
+      <c r="AG26" s="53"/>
+      <c r="AH26" s="53"/>
+      <c r="AI26" s="54"/>
+    </row>
+    <row r="27" spans="4:35" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D27" s="63" t="s">
+        <v>420</v>
+      </c>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="39" t="s">
+        <v>430</v>
+      </c>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="65" t="s">
+        <v>432</v>
+      </c>
+      <c r="U27" s="66"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="66"/>
+      <c r="Y27" s="66"/>
+      <c r="Z27" s="66"/>
+      <c r="AA27" s="67"/>
+      <c r="AB27" s="61" t="s">
+        <v>433</v>
+      </c>
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="53"/>
+      <c r="AE27" s="53"/>
+      <c r="AF27" s="53"/>
+      <c r="AG27" s="53"/>
+      <c r="AH27" s="53"/>
+      <c r="AI27" s="54"/>
+    </row>
+    <row r="28" spans="4:35" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D28" s="63" t="s">
+        <v>420</v>
+      </c>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="39" t="s">
+        <v>431</v>
+      </c>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="68" t="s">
+        <v>434</v>
+      </c>
+      <c r="U28" s="66"/>
+      <c r="V28" s="66"/>
+      <c r="W28" s="66"/>
+      <c r="X28" s="66"/>
+      <c r="Y28" s="66"/>
+      <c r="Z28" s="66"/>
+      <c r="AA28" s="67"/>
+      <c r="AB28" s="61" t="s">
+        <v>435</v>
+      </c>
+      <c r="AC28" s="53"/>
+      <c r="AD28" s="53"/>
+      <c r="AE28" s="53"/>
+      <c r="AF28" s="53"/>
+      <c r="AG28" s="53"/>
+      <c r="AH28" s="53"/>
+      <c r="AI28" s="54"/>
+    </row>
+    <row r="29" spans="4:35" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D29" s="63" t="s">
+        <v>437</v>
+      </c>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="65" t="s">
+        <v>438</v>
+      </c>
+      <c r="U29" s="66"/>
+      <c r="V29" s="66"/>
+      <c r="W29" s="66"/>
+      <c r="X29" s="66"/>
+      <c r="Y29" s="66"/>
+      <c r="Z29" s="66"/>
+      <c r="AA29" s="67"/>
+      <c r="AB29" s="61" t="s">
+        <v>439</v>
+      </c>
+      <c r="AC29" s="53"/>
+      <c r="AD29" s="53"/>
+      <c r="AE29" s="53"/>
+      <c r="AF29" s="53"/>
+      <c r="AG29" s="53"/>
+      <c r="AH29" s="53"/>
+      <c r="AI29" s="54"/>
+    </row>
+    <row r="31" spans="4:35" x14ac:dyDescent="0.15">
+      <c r="D31" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="32" spans="4:35" x14ac:dyDescent="0.15">
+      <c r="D32" s="38" t="s">
+        <v>440</v>
+      </c>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="39"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+      <c r="AD32" s="39"/>
+      <c r="AE32" s="39"/>
+      <c r="AF32" s="39"/>
+      <c r="AG32" s="39"/>
+      <c r="AH32" s="39"/>
+      <c r="AI32" s="39"/>
+    </row>
+    <row r="33" spans="3:35" x14ac:dyDescent="0.15">
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="39"/>
+      <c r="Z33" s="39"/>
+      <c r="AA33" s="39"/>
+      <c r="AB33" s="39"/>
+      <c r="AC33" s="39"/>
+      <c r="AD33" s="39"/>
+      <c r="AE33" s="39"/>
+      <c r="AF33" s="39"/>
+      <c r="AG33" s="39"/>
+      <c r="AH33" s="39"/>
+      <c r="AI33" s="39"/>
+    </row>
+    <row r="34" spans="3:35" x14ac:dyDescent="0.15">
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="39"/>
+      <c r="X34" s="39"/>
+      <c r="Y34" s="39"/>
+      <c r="Z34" s="39"/>
+      <c r="AA34" s="39"/>
+      <c r="AB34" s="39"/>
+      <c r="AC34" s="39"/>
+      <c r="AD34" s="39"/>
+      <c r="AE34" s="39"/>
+      <c r="AF34" s="39"/>
+      <c r="AG34" s="39"/>
+      <c r="AH34" s="39"/>
+      <c r="AI34" s="39"/>
+    </row>
+    <row r="35" spans="3:35" x14ac:dyDescent="0.15">
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39"/>
+      <c r="Z35" s="39"/>
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="39"/>
+      <c r="AC35" s="39"/>
+      <c r="AD35" s="39"/>
+      <c r="AE35" s="39"/>
+      <c r="AF35" s="39"/>
+      <c r="AG35" s="39"/>
+      <c r="AH35" s="39"/>
+      <c r="AI35" s="39"/>
+    </row>
+    <row r="36" spans="3:35" x14ac:dyDescent="0.15">
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="39"/>
+      <c r="Z36" s="39"/>
+      <c r="AA36" s="39"/>
+      <c r="AB36" s="39"/>
+      <c r="AC36" s="39"/>
+      <c r="AD36" s="39"/>
+      <c r="AE36" s="39"/>
+      <c r="AF36" s="39"/>
+      <c r="AG36" s="39"/>
+      <c r="AH36" s="39"/>
+      <c r="AI36" s="39"/>
+    </row>
+    <row r="37" spans="3:35" x14ac:dyDescent="0.15">
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
+      <c r="X37" s="39"/>
+      <c r="Y37" s="39"/>
+      <c r="Z37" s="39"/>
+      <c r="AA37" s="39"/>
+      <c r="AB37" s="39"/>
+      <c r="AC37" s="39"/>
+      <c r="AD37" s="39"/>
+      <c r="AE37" s="39"/>
+      <c r="AF37" s="39"/>
+      <c r="AG37" s="39"/>
+      <c r="AH37" s="39"/>
+      <c r="AI37" s="39"/>
+    </row>
+    <row r="38" spans="3:35" x14ac:dyDescent="0.15">
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="39"/>
+      <c r="W38" s="39"/>
+      <c r="X38" s="39"/>
+      <c r="Y38" s="39"/>
+      <c r="Z38" s="39"/>
+      <c r="AA38" s="39"/>
+      <c r="AB38" s="39"/>
+      <c r="AC38" s="39"/>
+      <c r="AD38" s="39"/>
+      <c r="AE38" s="39"/>
+      <c r="AF38" s="39"/>
+      <c r="AG38" s="39"/>
+      <c r="AH38" s="39"/>
+      <c r="AI38" s="39"/>
+    </row>
+    <row r="39" spans="3:35" x14ac:dyDescent="0.15">
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="39"/>
+      <c r="X39" s="39"/>
+      <c r="Y39" s="39"/>
+      <c r="Z39" s="39"/>
+      <c r="AA39" s="39"/>
+      <c r="AB39" s="39"/>
+      <c r="AC39" s="39"/>
+      <c r="AD39" s="39"/>
+      <c r="AE39" s="39"/>
+      <c r="AF39" s="39"/>
+      <c r="AG39" s="39"/>
+      <c r="AH39" s="39"/>
+      <c r="AI39" s="39"/>
+    </row>
+    <row r="40" spans="3:35" x14ac:dyDescent="0.15">
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="39"/>
+      <c r="S40" s="39"/>
+      <c r="T40" s="39"/>
+      <c r="U40" s="39"/>
+      <c r="V40" s="39"/>
+      <c r="W40" s="39"/>
+      <c r="X40" s="39"/>
+      <c r="Y40" s="39"/>
+      <c r="Z40" s="39"/>
+      <c r="AA40" s="39"/>
+      <c r="AB40" s="39"/>
+      <c r="AC40" s="39"/>
+      <c r="AD40" s="39"/>
+      <c r="AE40" s="39"/>
+      <c r="AF40" s="39"/>
+      <c r="AG40" s="39"/>
+      <c r="AH40" s="39"/>
+      <c r="AI40" s="39"/>
+    </row>
+    <row r="41" spans="3:35" x14ac:dyDescent="0.15">
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="39"/>
+      <c r="X41" s="39"/>
+      <c r="Y41" s="39"/>
+      <c r="Z41" s="39"/>
+      <c r="AA41" s="39"/>
+      <c r="AB41" s="39"/>
+      <c r="AC41" s="39"/>
+      <c r="AD41" s="39"/>
+      <c r="AE41" s="39"/>
+      <c r="AF41" s="39"/>
+      <c r="AG41" s="39"/>
+      <c r="AH41" s="39"/>
+      <c r="AI41" s="39"/>
+    </row>
+    <row r="43" spans="3:35" x14ac:dyDescent="0.15">
+      <c r="C43" s="11" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="44" spans="3:35" x14ac:dyDescent="0.15">
+      <c r="D44" s="11" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="45" spans="3:35" x14ac:dyDescent="0.15">
+      <c r="D45" s="11" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="47" spans="3:35" x14ac:dyDescent="0.15">
+      <c r="D47" s="11" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="49" spans="4:24" x14ac:dyDescent="0.15">
+      <c r="E49" s="11" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="50" spans="4:24" x14ac:dyDescent="0.15">
+      <c r="E50" s="11" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="52" spans="4:24" x14ac:dyDescent="0.15">
+      <c r="D52" s="11" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="53" spans="4:24" x14ac:dyDescent="0.15">
+      <c r="D53" s="11" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="54" spans="4:24" x14ac:dyDescent="0.15">
+      <c r="E54" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="55" spans="4:24" x14ac:dyDescent="0.15">
+      <c r="E55" s="11" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="57" spans="4:24" x14ac:dyDescent="0.15">
+      <c r="D57" s="11" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="59" spans="4:24" x14ac:dyDescent="0.15">
+      <c r="E59" s="69" t="s">
+        <v>452</v>
+      </c>
+      <c r="F59" s="69"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="69"/>
+      <c r="J59" s="69"/>
+      <c r="K59" s="69"/>
+      <c r="L59" s="69"/>
+      <c r="M59" s="69"/>
+      <c r="N59" s="69"/>
+      <c r="O59" s="69"/>
+      <c r="P59" s="69"/>
+      <c r="Q59" s="69"/>
+      <c r="R59" s="69"/>
+      <c r="S59" s="69"/>
+      <c r="T59" s="69"/>
+      <c r="U59" s="69"/>
+      <c r="V59" s="69"/>
+      <c r="W59" s="69"/>
+      <c r="X59" s="69"/>
+    </row>
+    <row r="60" spans="4:24" x14ac:dyDescent="0.15">
+      <c r="E60" s="69" t="s">
+        <v>453</v>
+      </c>
+      <c r="F60" s="69"/>
+      <c r="G60" s="69"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="69"/>
+      <c r="J60" s="69"/>
+      <c r="K60" s="69"/>
+      <c r="L60" s="69"/>
+      <c r="M60" s="69"/>
+      <c r="N60" s="69"/>
+      <c r="O60" s="69"/>
+      <c r="P60" s="69"/>
+      <c r="Q60" s="69"/>
+      <c r="R60" s="69"/>
+      <c r="S60" s="69"/>
+      <c r="T60" s="69"/>
+      <c r="U60" s="69"/>
+      <c r="V60" s="69"/>
+      <c r="W60" s="69"/>
+      <c r="X60" s="69"/>
+    </row>
+    <row r="63" spans="4:24" x14ac:dyDescent="0.15">
+      <c r="D63" s="11" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="64" spans="4:24" x14ac:dyDescent="0.15">
+      <c r="E64" s="11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="96" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E96" s="11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F97" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F98" s="11" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="131" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C131" s="11" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D132" s="11" t="s">
+        <v>459</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="53">
+    <mergeCell ref="E59:X59"/>
+    <mergeCell ref="E60:X60"/>
+    <mergeCell ref="D32:AI41"/>
+    <mergeCell ref="AB27:AI27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:S28"/>
+    <mergeCell ref="T28:AA28"/>
+    <mergeCell ref="AB28:AI28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:S29"/>
+    <mergeCell ref="T29:AA29"/>
+    <mergeCell ref="AB29:AI29"/>
+    <mergeCell ref="AB22:AI22"/>
+    <mergeCell ref="T23:AA23"/>
+    <mergeCell ref="T24:AA24"/>
+    <mergeCell ref="T25:AA25"/>
+    <mergeCell ref="T26:AA26"/>
+    <mergeCell ref="T27:AA27"/>
+    <mergeCell ref="AB23:AI23"/>
+    <mergeCell ref="AB24:AI24"/>
+    <mergeCell ref="AB25:AI25"/>
+    <mergeCell ref="AB26:AI26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H26:S26"/>
+    <mergeCell ref="H27:S27"/>
+    <mergeCell ref="H23:S23"/>
+    <mergeCell ref="H24:S24"/>
+    <mergeCell ref="H25:S25"/>
+    <mergeCell ref="H22:S22"/>
+    <mergeCell ref="T22:AA22"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:AA13"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:AA12"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:AA14"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:AA9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:AA10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:AA11"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D14:G14"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="A1" location="目次!A1" display="目次!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/athrill-manual.xlsx
+++ b/athrill-manual.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="449">
   <si>
     <t>１．はじめに</t>
     <phoneticPr fontId="2"/>
@@ -862,223 +862,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>説明</t>
-    <rPh sb="0" eb="2">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ブレーク設定</t>
-    <rPh sb="4" eb="6">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ブレーク解除</t>
-    <rPh sb="4" eb="6">
-      <t>カイジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>次命令ステップ実行</t>
-    <rPh sb="0" eb="1">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>メイレイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>連続実行</t>
-    <rPh sb="0" eb="2">
-      <t>レンゾク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>命令ログON/OFF</t>
-    <rPh sb="0" eb="2">
-      <t>メイレイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メモリ参照</t>
-    <rPh sb="3" eb="5">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>シリアル入力設定</t>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CANデータ入力設定</t>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CPU停止命令</t>
-    <rPh sb="3" eb="5">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>メイレイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CPUを強制停止する命令アドレスをブレークポイントとして設定する</t>
-    <rPh sb="4" eb="6">
-      <t>キョウセイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>メイレイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ブレーク設定を解除する</t>
-    <rPh sb="4" eb="6">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カイジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ブレーク発生後，命令をステップ実行する機能</t>
-    <rPh sb="4" eb="6">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>メイレイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ブレーク状態から，命令を連続実行する機能</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>メイレイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>レンゾク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メモリ内容を確認する機能</t>
-    <rPh sb="3" eb="5">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>シリアルデバイスにデータ入力する機能</t>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CANデバイスにデータ入力する機能</t>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ADコンバータにデータ入力する機能</t>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CPUが連続実行状態のときに強制停止する機能</t>
-    <rPh sb="4" eb="6">
-      <t>レンゾク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>キョウセイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>LD.B ：Load byte</t>
   </si>
   <si>
@@ -1330,40 +1113,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>b &lt;命令アドレス※16進数表記&gt;</t>
-    <rPh sb="3" eb="5">
-      <t>メイレイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シンスウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>d &lt;命令アドレス※16進数表記&gt;</t>
-    <rPh sb="3" eb="5">
-      <t>メイレイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シンスウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>コマンド実行例</t>
     <rPh sb="4" eb="6">
       <t>ジッコウ</t>
@@ -1371,945 +1120,6 @@
     <rPh sb="6" eb="7">
       <t>レイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>@DBG&gt;d 0x100
-deleted break point:0x100</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>@DBG&gt;c
-@CPU&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CPUが実行した命令をログとして吐き出す機能の設定/解除
-※トグル</t>
-    <rPh sb="4" eb="6">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>メイレイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>カイジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">@DBG&gt;o 0x1000
-off=0x1000 size=0
-@DBG&gt;s 10
-off=0x1000 size=10
-@DBG&gt;p
-0x1000: 0x63
-0x1001: 0x6f
-0x1002: 0x5
-0x1003: 0x0
-0x1004: 0x63
-0x1005: 0xdf
-0x1006: 0x9
-0x1007: 0x0
-0x1008: 0x3d
-0x1009: 0x37
-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>■メモリ参照位置設定
-o &lt;アドレス※16進数表記&gt;
-■参照メモリサイズ設定
-s &lt;サイズ※10進数表記&gt;
-■メモリ参照
-p</t>
-    <rPh sb="4" eb="6">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>シンスウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒョウキ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>シンスウ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ヒョウキ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>S &lt;任意の文字列&gt;</t>
-    <rPh sb="3" eb="5">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>モジレツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">@DBG&gt;S aaa
-SERIAL_ACCEPT:aaa
-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>C
-※事前に，can_data_creator.exeを使用して，
-※can.txtを作成しておくこと</t>
-    <rPh sb="3" eb="5">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>@DBG&gt;c
-@CPU&gt;
-##RCV_CAN::ch=1
-##RCV_CNA:canid=0x200
-##RCV_CAN:ex_canid=0xffffffff
-##RCV_CNA:dlc=8
-##0x00 0x01 0x02 0x03 0x04 0x05 0x06 0x07</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>q</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>@DBG&gt;c
-@CPU&gt;q
-Unknown command:q
-@DBG&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AD変換入力設定</t>
-    <rPh sb="2" eb="4">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>割込み命令</t>
-    <rPh sb="0" eb="2">
-      <t>ワリコ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>メイレイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>割込みを発生させる機能</t>
-    <rPh sb="0" eb="2">
-      <t>ワリコ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>■マスカブル割り込みの場合
-'@DBG&gt;i 106
-INT:106
-@DBG&gt;n
-@DBG&gt;RAISED INT(106):waiting_num=1
-■ノンマスカブル割り込みの場合
-@DBG&gt;i -1
-NMI</t>
-    <rPh sb="5" eb="6">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="86" eb="87">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>i &lt;割込み番号※10進数表記&gt;
-&lt;割込み番号&gt;：-1を指定した場合はノンマスカブル割り込み発生</t>
-    <rPh sb="3" eb="5">
-      <t>ワリコ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シンスウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウキ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ワリコ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>@DBG&gt;v
-view mode=OFF
-@DBG&gt;v
-view mode=ON
------ ロギング結果例 -----
-0x0: JR disp22(2000):0x7d0
-0x7d0: DI
-0x7d4: MOVHI imm16(1),r0(0) r3(0):65536
-0x7d8: MOVEA imm16(-28052),r3(65536) r3(65536):37484
-0x7dc: LD.W disp16(0),r3(0x926c), r3(0x926c):0x3ff8038
-0x7e0: MOVHI imm16(0),r0(0) r5(0):0
-0x7e4: MOVEA imm16(2000),r5(0) r5(0):2000
-0x7e8: MOVHI imm16(1024),r0(0) r30(0):67108864
-0x7ec: MOVEA imm16(-27180),r30(67108864) r30(67108864):67081684
-0x7f0: MOVHI imm16(1024),r0(0) r4(0):67108864
-0x7f4: MOVEA imm16(5588),r4(67108864) r4(67108864):67114452
-0x7f8: MOVHI imm16(1),r0(0) r6(0):65536
-0x7fc: MOVEA imm16(-29752),r6(65536) r6(65536):35784
-：</t>
-    <rPh sb="51" eb="53">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CPU状態表示機能</t>
-    <rPh sb="3" eb="5">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>(なし)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>デバッグモードの場合，最新のCPUのレジスタ状態を自動保存する．</t>
-    <rPh sb="8" eb="10">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>サイシン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">----- CPU情報例 ------
-PC  0xb7e
-R0  0x0
-R1  0x0
-R2  0x44a4
-R3  0x3ff8fe8
-R4  0x4002b30
-：
-</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>@DBG&gt;b 0x100
-setted break point:0x100</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>v
-CPU命令をロギングする場合は，log.txtにロギング情報が自動保存される．</t>
-    <rPh sb="6" eb="8">
-      <t>メイレイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>デバッグモード時に以下のファイルが自動出力される．
-prof.csv
-本ファイルのフォーマットは以下の通り．
-①１列目：関数名
-②２列目：関数コール回数
-③３列目：C関数内の命令コード実行クロック数(当該関数からの関数コール分は含まない)
-④４列目：C関数内の命令コード実行クロック数(当該関数から呼び出す関数コール分を含む)</t>
-    <rPh sb="7" eb="8">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="60" eb="63">
-      <t>カンスウメイ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="122" eb="123">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="123" eb="124">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CPU命令実行中に，実行した全命令アドレスを出力する機能</t>
-    <rPh sb="3" eb="5">
-      <t>メイレイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ジッコウチュウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>メイレイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>デバッグモード時に以下のファイルが自動出力される．
-cov.csv</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>命令カバレッジ情報出力機能</t>
-    <rPh sb="0" eb="2">
-      <t>メイレイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>プロファイル情報出力機能</t>
-    <rPh sb="6" eb="8">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CPU命令実行中に，以下のプロファイル情報を出力する機能
-①C関数呼び出し回数
-②C関数内の命令コード実行クロック数(当該関数からの関数コール分は含まない)
-③C関数内の命令コード実行クロック数(当該関数から呼び出す関数コール分を含む)
-※アセンブラ関数はプロファイル対象外</t>
-    <rPh sb="3" eb="5">
-      <t>メイレイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ジッコウチュウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>メイレイ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>トウガイ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="83" eb="84">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>メイレイ</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="96" eb="97">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>トウガイ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="104" eb="105">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="134" eb="137">
-      <t>タイショウガイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>カバレッジ状況を行単位で視覚化するツールとして，以下がある．
-tools/get_coverage.sh
-本ツールを使用する場合は，tools配下で，
-sh get_coverage.sh 
-を実行すると，CPUが実行したルートが緑色で塗りつぶされて視覚化される．</t>
-    <rPh sb="5" eb="7">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ギョウタンイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シカク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ハイカ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>ミドリイロ</t>
-    </rPh>
-    <rPh sb="119" eb="120">
-      <t>ヌ</t>
-    </rPh>
-    <rPh sb="126" eb="129">
-      <t>シカクカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>プロファイル情報をエクセル表に変換するツールとして，以下がある．
-tools/get_prof.sh
-本ツールを使用する場合は，tools配下で，
-sh get_prof.sh 
-を実行すると，prof.xlsxが生成される．</t>
-    <rPh sb="6" eb="8">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ハイカ</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>セイセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>総メモリ使用量出力機能</t>
-    <rPh sb="0" eb="1">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>シヨウリョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>変数単位のメモリ使用量出力機能</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>シヨウリョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>総メモリ使用量を出力する機能</t>
-    <rPh sb="0" eb="1">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>シヨウリョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>総メモリ使用量を取得するツールとして，以下がある．
-tools/mem.sh　&lt;ELFファイル&gt;
-本ツールを使用する場合は，tools配下で，
-sh mem.sh 
-を実行すると，総メモリ使用量がmem.xlsxとして出力される</t>
-    <rPh sb="0" eb="1">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>シヨウリョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ハイカ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>各グローバル変数単位のメモリ使用量を出力する機能</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>シヨウリョウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Debugger.xlsxの「GLOBAL」シートに全変数のメモリ使用量が出力されている．</t>
-    <rPh sb="26" eb="27">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="33" eb="36">
-      <t>シヨウリョウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>関数復帰</t>
-    <rPh sb="0" eb="2">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>フッキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>関数の中をデバッグ中に，復帰させたいときに本コマンドを実行すると，呼び出し元に戻る</t>
-    <rPh sb="0" eb="2">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>フッキ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>r</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>@DBG&gt;r
-@CPU&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CPUクロック時間表示機能</t>
-    <rPh sb="7" eb="9">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CPUが起動してからのクロック時間を表示する．</t>
-    <rPh sb="4" eb="6">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>@DBG&gt;n
-@DBG&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>@DBG&gt;e
-clock = 371447
-@DBG&gt;n
-@DBG&gt;e
-clock = 371448</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A &lt;コントローラ番号※10進表記&gt;:&lt;チャネル番号※10進数表記&gt;:&lt;ADデータ&gt;
-※&lt;チャネル番号&gt;：-1を指定した場合は全チャネルが対象となる</t>
-    <rPh sb="9" eb="11">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウキ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>シンスウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヒョウキ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>@DBG&gt;A 0:1:100</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -3021,10 +1831,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>AA</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -3946,6 +2752,835 @@
     <rPh sb="51" eb="53">
       <t>ケントウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> * break(b):
+   1) break {&lt;addr(hex)&gt;|&lt;funcname&gt;}
+      set a break point. Break points are shown using 'info break' command.
+   2) break &lt;file&gt; &lt;lineno&gt;
+      set a break point on the {&lt;file&gt;, &lt;lineno&gt;}. Break points are shown using 'info break' command.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> * delete(d):
+   1) delete
+      delete all break points
+   2) delete &lt;break_no&gt;
+      delete the break point of &lt;break_no&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> * watch(w):
+   1) watch {r|w|rw} {&lt;addr(hex)&gt; size(dec)|&lt;variable_name&gt;}
+      set a watch point. Watch points are shown using 'info watch' command.
+   2) watch d
+      delete all watch points
+   3) watch d &lt;watch_no&gt;
+      delete the watch point of &lt;watch_no&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> * cont(c):
+   1) cont
+      continue program
+   2) cont &lt;clocks&gt;
+      continue program until cpu has elapsed &lt;clocks&gt; times</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> * intr(i):
+   1) intr &lt;intno&gt;
+      generate an interruption of &lt;intno&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> * elaps(e):
+   1) elaps
+      show elapsed cpu clocks</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> * next(n):
+   1) next
+      step forward</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> * return(r):
+   1) return
+      return from the current function</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> * view(v):
+   1) view
+      select the logging mode</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> * print(p):
+   1) print &lt;variable_name&gt;
+      show memory information of the &lt;variable_name&gt;
+   2) print &lt;addr(hex)&gt; &lt;size&gt;
+      show memory information from &lt;addr&gt; to (&lt;addr&gt; + &lt;size&gt;)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> * set(s):
+   1) set &lt;addr(hex)&gt; &lt;value&gt;
+      set &lt;value&gt; on memory &lt;addr&gt; by byte</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> * quit(q):
+   1) quit
+      quit form CPU mode</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> * exit(-):
+   1) exit
+      exit from this program</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> * serial(S):
+   1) serial &lt;channel&gt; &lt;input_data(string)&gt;
+      set &lt;input_data&gt; on the serial(&lt;channel&gt;) as an input</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> * cpu(-):
+   1) cpu
+      show cpu registers</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> * ft(-):
+   1) ft &lt;number&gt;
+      show function trace log(show size=&lt;number&gt;)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> * access(-):
+   1) access &lt;variable_name&gt;
+      show variable access functions</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> * bt(-):
+   1) bt
+      show back trace result</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> * prof(-):
+   1) profile
+      show profile result</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> * list(l):
+   1) list
+      show the program code where the pc is stopped.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> * help(-):
+   1) help
+      show all commands</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブレークポイント設定</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブレークポイントは，「関数名」，「ファイル名と行番のセット」，「アドレス番地」のいずれかで設定できる．</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブレークポイント設定解除</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>補足説明</t>
+    <rPh sb="0" eb="2">
+      <t>ホソク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データウォッチ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データウォッチポイントは，「変数名」，「アドレスとサイズのセット」のいずれかで設定できる．
+データウォッチは，CPUが以下のいずれかのアクセスをした際にCPUを強制停止する．
+r：読み取り
+w：書き込み
+rw：読み取り/書き込み</t>
+    <rPh sb="14" eb="17">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>キョウセイ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>continue</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CPU停止した場合に処理再開する．
+クロックベースで，次に停止するまでの時間を設定できる．</t>
+    <rPh sb="3" eb="5">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サイカイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>割り込み発生</t>
+    <rPh sb="0" eb="1">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>割り込み発生コマンド(iコマンド)を使用すると，任意の割り込みを発生させることができる．</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CPU消費クロック数表示</t>
+    <rPh sb="3" eb="5">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示は，以下の書式．
+clock = cpu &lt;CPU消費クロック数&gt; intc &lt;割り込みクロック数&gt;
+&lt;CPU消費クロック数&gt;：
+　athrillが起動してからの総CPU消費クロック数
+&lt;割り込みクロック数&gt;：
+　athrillが起動してから割り込みモードで動作した総クロック数</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショシキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>next</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>次の命令を実行し，CPU停止する．</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>関数復帰</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フッキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>関数復帰場所でCPU停止する．</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フッキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>命令ログ表示</t>
+    <rPh sb="0" eb="2">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VIEW_MODE=ON：
+　athrill実行フォルダ直下にlog.txtが出力され，
+　命令実行結果が記録される．
+　※athrill実行時間は大幅に遅くなるので注意
+VIEW_MODE=OFF：
+　命令実行結果の記録は行われなくなる．
+　</t>
+    <rPh sb="22" eb="24">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>チョッカ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>オオハバ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データ表示</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データ設定</t>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CPUモード⇒デバッグモード遷移</t>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>athrill終了</t>
+    <rPh sb="7" eb="9">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シリアル入力</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;channel&gt;は，0のみサポートしている．</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CPUレジスタ表示</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CPUレジスタを単に表示するだけだとわけがわからない場合があるので，athrillが知っているシンボル情報と照合して，シンボルのアドレスと近い値を補足表示している．</t>
+    <rPh sb="8" eb="9">
+      <t>タン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ホソク</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>関数実行トレース表示</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">関数レベルでCPUが関数内の処理を実行したトレース情報を表示する．書式は以下の通り．
+１列目：
+　&lt;スタックアドレス変数名&lt;スタックアドレス値&gt;&gt;
+２列目：
+　[&lt;トレース番号&gt;]
+　現在値が１であり，そこから１ずつインクリメントして過去に遡る
+３列目：
+　&lt;関数先頭アドレスからの相対アドレス&gt;
+４列目：
+　&lt;関数シンボル名&gt;
+</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ショシキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>レツメ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>サカノボ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>レツメ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>レツメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数アクセス関数表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数名が思い出せない時は，先頭の文字列を入力すると候補表示してくれる．</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウホ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>残念ながら，アセンブラ命令コードのシンボル対応はしていない．</t>
+    <rPh sb="0" eb="2">
+      <t>ザンネン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バックトレース情報表示</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>athrillが認識したスタックポインタの更新履歴を記録し，各スタックポインタの保持者(グローバル変数)とスタックアドレス内の値とシンボル情報を紐づけしている．
+デバッグ情報として，各タスクが何をしようとしているか把握できるので便利である．</t>
+    <rPh sb="8" eb="10">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ハアク</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ベンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロファイル表示</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>関数単位でCPUの消費クロック数を表示する．</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブレーク発生ポイントのソースコードを表示</t>
+    <rPh sb="4" eb="6">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シンボル解決できれば，サクラエディタで当該箇所のファイルおよび行番号を指定してサクラエディタを起動する．</t>
+    <rPh sb="4" eb="6">
+      <t>カイケツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ギョウバンゴウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヘルプ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4219,7 +3854,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4274,13 +3909,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4331,6 +3960,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4353,6 +3988,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4361,29 +4002,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4394,7 +4044,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4403,32 +4059,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4451,6 +4083,586 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>258536</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5655129</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1651907</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD47C94-271A-4507-BB53-78ADC130DDD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14627679" y="1251857"/>
+          <a:ext cx="5396593" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5624793</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1736353</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9061F7E-D925-4623-9587-01835A569C8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14601265" y="6633883"/>
+          <a:ext cx="5400675" cy="1646705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>291354</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4538973</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1568088</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B2CE0E4-8D79-4278-BE0E-E1A224B9B04C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14668501" y="8527676"/>
+          <a:ext cx="4247619" cy="1400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3328147</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2772494</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0F5F4A-233D-4024-9A3F-FD56E612B583}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14847795" y="16059801"/>
+          <a:ext cx="3193676" cy="2625046"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>179295</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3888441</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4285374</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A48BD38E-51D9-4852-B30D-61924FE072B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14892619" y="19038793"/>
+          <a:ext cx="3709146" cy="4117287"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>201705</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5981716</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2898321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A55BF65B-5E6C-4E82-AFDE-C5628C6B02F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14911026" y="23507541"/>
+          <a:ext cx="5780011" cy="2808673"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>112058</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>134472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4482760</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2084294</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27A3D2A2-35A5-49FE-8467-29BEC218F1C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14825382" y="12685060"/>
+          <a:ext cx="4370702" cy="1949822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>201707</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3406589</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2213488</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{147C845D-0844-46BA-8E4E-7D3EF16528D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14915031" y="27667324"/>
+          <a:ext cx="3204882" cy="2101429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>92502</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4856476</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>3375453</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB5A831-4D32-460D-8673-C43F9C2F00B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14805826" y="29998147"/>
+          <a:ext cx="4763974" cy="3285806"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>90748</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4585355</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2392938</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F65804B-631E-412E-9A8F-7E4D9C573CA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14926236" y="33629954"/>
+          <a:ext cx="4372443" cy="2302190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>773206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>3241676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02C5C8BC-3606-47AA-A279-7617F13E2EE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14836588" y="36856147"/>
+          <a:ext cx="2734236" cy="2468470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4089584</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>638735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45296E4E-F5B9-4832-8770-55360541E578}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14769353" y="36150177"/>
+          <a:ext cx="4033555" cy="571499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4529,7 +4741,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4608,7 +4820,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4815,7 +5027,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6463,7 +6675,7 @@
   <sheetData>
     <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B6" s="40" t="s">
-        <v>276</v>
+        <v>205</v>
       </c>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
@@ -6489,7 +6701,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" s="8" t="s">
-        <v>277</v>
+        <v>206</v>
       </c>
       <c r="C12" s="39" t="s">
         <v>3</v>
@@ -6542,47 +6754,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
-        <v>289</v>
+      <c r="A1" s="35" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="11" t="s">
-        <v>346</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C3" s="11" t="s">
-        <v>348</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A34" s="50" t="s">
-        <v>289</v>
+      <c r="A34" s="35" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D35" s="11" t="s">
-        <v>349</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="D36" s="51" t="s">
-        <v>350</v>
+      <c r="D36" s="36" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D37" s="11" t="s">
-        <v>351</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D38" s="37" t="s">
-        <v>352</v>
+        <v>281</v>
       </c>
       <c r="E38" s="37"/>
       <c r="F38" s="37" t="s">
-        <v>353</v>
+        <v>282</v>
       </c>
       <c r="G38" s="37"/>
       <c r="H38" s="37"/>
@@ -6600,288 +6812,304 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D39" s="39" t="s">
-        <v>354</v>
+        <v>283</v>
       </c>
       <c r="E39" s="39"/>
-      <c r="F39" s="52" t="s">
-        <v>364</v>
-      </c>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="53"/>
-      <c r="R39" s="53"/>
-      <c r="S39" s="54"/>
+      <c r="F39" s="65" t="s">
+        <v>293</v>
+      </c>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="53"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D40" s="39" t="s">
-        <v>355</v>
+        <v>284</v>
       </c>
       <c r="E40" s="39"/>
-      <c r="F40" s="52" t="s">
-        <v>360</v>
-      </c>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="54"/>
+      <c r="F40" s="65" t="s">
+        <v>289</v>
+      </c>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="52"/>
+      <c r="S40" s="53"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D41" s="39" t="s">
-        <v>356</v>
+        <v>285</v>
       </c>
       <c r="E41" s="39"/>
-      <c r="F41" s="52" t="s">
-        <v>361</v>
-      </c>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="53"/>
-      <c r="S41" s="54"/>
+      <c r="F41" s="65" t="s">
+        <v>290</v>
+      </c>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="52"/>
+      <c r="R41" s="52"/>
+      <c r="S41" s="53"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D42" s="38" t="s">
-        <v>357</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>358</v>
-      </c>
-      <c r="F42" s="52" t="s">
-        <v>362</v>
-      </c>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="53"/>
-      <c r="R42" s="53"/>
-      <c r="S42" s="54"/>
+        <v>286</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="F42" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="52"/>
+      <c r="Q42" s="52"/>
+      <c r="R42" s="52"/>
+      <c r="S42" s="53"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D43" s="38"/>
-      <c r="E43" s="28" t="s">
-        <v>359</v>
-      </c>
-      <c r="F43" s="52" t="s">
-        <v>363</v>
-      </c>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="53"/>
-      <c r="S43" s="54"/>
+      <c r="E43" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="F43" s="65" t="s">
+        <v>292</v>
+      </c>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="52"/>
+      <c r="R43" s="52"/>
+      <c r="S43" s="53"/>
     </row>
     <row r="80" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D80" s="37" t="s">
-        <v>377</v>
+        <v>306</v>
       </c>
       <c r="E80" s="37"/>
       <c r="F80" s="37"/>
-      <c r="G80" s="55" t="s">
-        <v>378</v>
-      </c>
-      <c r="H80" s="56"/>
-      <c r="I80" s="56"/>
-      <c r="J80" s="56"/>
-      <c r="K80" s="56"/>
-      <c r="L80" s="56"/>
-      <c r="M80" s="56"/>
-      <c r="N80" s="57"/>
+      <c r="G80" s="60" t="s">
+        <v>307</v>
+      </c>
+      <c r="H80" s="61"/>
+      <c r="I80" s="61"/>
+      <c r="J80" s="61"/>
+      <c r="K80" s="61"/>
+      <c r="L80" s="61"/>
+      <c r="M80" s="61"/>
+      <c r="N80" s="62"/>
     </row>
     <row r="81" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D81" s="52" t="s">
-        <v>365</v>
-      </c>
-      <c r="E81" s="53"/>
-      <c r="F81" s="54"/>
-      <c r="G81" s="52" t="s">
-        <v>379</v>
-      </c>
-      <c r="H81" s="53"/>
-      <c r="I81" s="53"/>
-      <c r="J81" s="53"/>
-      <c r="K81" s="53"/>
-      <c r="L81" s="53"/>
-      <c r="M81" s="53"/>
-      <c r="N81" s="54"/>
+      <c r="D81" s="65" t="s">
+        <v>294</v>
+      </c>
+      <c r="E81" s="52"/>
+      <c r="F81" s="53"/>
+      <c r="G81" s="65" t="s">
+        <v>308</v>
+      </c>
+      <c r="H81" s="52"/>
+      <c r="I81" s="52"/>
+      <c r="J81" s="52"/>
+      <c r="K81" s="52"/>
+      <c r="L81" s="52"/>
+      <c r="M81" s="52"/>
+      <c r="N81" s="53"/>
     </row>
     <row r="82" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D82" s="52" t="s">
-        <v>373</v>
-      </c>
-      <c r="E82" s="53"/>
-      <c r="F82" s="54"/>
-      <c r="G82" s="52" t="s">
-        <v>380</v>
-      </c>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="53"/>
-      <c r="K82" s="53"/>
-      <c r="L82" s="53"/>
-      <c r="M82" s="53"/>
-      <c r="N82" s="54"/>
+      <c r="D82" s="65" t="s">
+        <v>302</v>
+      </c>
+      <c r="E82" s="52"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="65" t="s">
+        <v>309</v>
+      </c>
+      <c r="H82" s="52"/>
+      <c r="I82" s="52"/>
+      <c r="J82" s="52"/>
+      <c r="K82" s="52"/>
+      <c r="L82" s="52"/>
+      <c r="M82" s="52"/>
+      <c r="N82" s="53"/>
     </row>
     <row r="83" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D83" s="52" t="s">
-        <v>374</v>
-      </c>
-      <c r="E83" s="53"/>
-      <c r="F83" s="54"/>
-      <c r="G83" s="52" t="s">
-        <v>381</v>
-      </c>
-      <c r="H83" s="53"/>
-      <c r="I83" s="53"/>
-      <c r="J83" s="53"/>
-      <c r="K83" s="53"/>
-      <c r="L83" s="53"/>
-      <c r="M83" s="53"/>
-      <c r="N83" s="54"/>
+      <c r="D83" s="65" t="s">
+        <v>303</v>
+      </c>
+      <c r="E83" s="52"/>
+      <c r="F83" s="53"/>
+      <c r="G83" s="65" t="s">
+        <v>310</v>
+      </c>
+      <c r="H83" s="52"/>
+      <c r="I83" s="52"/>
+      <c r="J83" s="52"/>
+      <c r="K83" s="52"/>
+      <c r="L83" s="52"/>
+      <c r="M83" s="52"/>
+      <c r="N83" s="53"/>
     </row>
     <row r="84" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D84" s="52" t="s">
-        <v>375</v>
-      </c>
-      <c r="E84" s="53"/>
-      <c r="F84" s="54"/>
-      <c r="G84" s="52" t="s">
-        <v>382</v>
-      </c>
-      <c r="H84" s="53"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="53"/>
-      <c r="K84" s="53"/>
-      <c r="L84" s="53"/>
-      <c r="M84" s="53"/>
-      <c r="N84" s="54"/>
+      <c r="D84" s="65" t="s">
+        <v>304</v>
+      </c>
+      <c r="E84" s="52"/>
+      <c r="F84" s="53"/>
+      <c r="G84" s="65" t="s">
+        <v>311</v>
+      </c>
+      <c r="H84" s="52"/>
+      <c r="I84" s="52"/>
+      <c r="J84" s="52"/>
+      <c r="K84" s="52"/>
+      <c r="L84" s="52"/>
+      <c r="M84" s="52"/>
+      <c r="N84" s="53"/>
     </row>
     <row r="85" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D85" s="58" t="s">
-        <v>376</v>
-      </c>
-      <c r="E85" s="53"/>
-      <c r="F85" s="54"/>
-      <c r="G85" s="52" t="s">
-        <v>383</v>
-      </c>
-      <c r="H85" s="53"/>
-      <c r="I85" s="53"/>
-      <c r="J85" s="53"/>
-      <c r="K85" s="53"/>
-      <c r="L85" s="53"/>
-      <c r="M85" s="53"/>
-      <c r="N85" s="54"/>
+      <c r="D85" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="E85" s="52"/>
+      <c r="F85" s="53"/>
+      <c r="G85" s="65" t="s">
+        <v>312</v>
+      </c>
+      <c r="H85" s="52"/>
+      <c r="I85" s="52"/>
+      <c r="J85" s="52"/>
+      <c r="K85" s="52"/>
+      <c r="L85" s="52"/>
+      <c r="M85" s="52"/>
+      <c r="N85" s="53"/>
     </row>
     <row r="86" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D86" s="59"/>
+      <c r="D86" s="66"/>
       <c r="E86" s="39" t="s">
-        <v>369</v>
+        <v>298</v>
       </c>
       <c r="F86" s="39"/>
-      <c r="G86" s="52" t="s">
-        <v>384</v>
-      </c>
-      <c r="H86" s="53"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="53"/>
-      <c r="K86" s="53"/>
-      <c r="L86" s="53"/>
-      <c r="M86" s="53"/>
-      <c r="N86" s="54"/>
+      <c r="G86" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="H86" s="52"/>
+      <c r="I86" s="52"/>
+      <c r="J86" s="52"/>
+      <c r="K86" s="52"/>
+      <c r="L86" s="52"/>
+      <c r="M86" s="52"/>
+      <c r="N86" s="53"/>
     </row>
     <row r="87" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D87" s="59"/>
+      <c r="D87" s="66"/>
       <c r="E87" s="39" t="s">
-        <v>370</v>
+        <v>299</v>
       </c>
       <c r="F87" s="39"/>
-      <c r="G87" s="52" t="s">
-        <v>385</v>
-      </c>
-      <c r="H87" s="53"/>
-      <c r="I87" s="53"/>
-      <c r="J87" s="53"/>
-      <c r="K87" s="53"/>
-      <c r="L87" s="53"/>
-      <c r="M87" s="53"/>
-      <c r="N87" s="54"/>
+      <c r="G87" s="65" t="s">
+        <v>314</v>
+      </c>
+      <c r="H87" s="52"/>
+      <c r="I87" s="52"/>
+      <c r="J87" s="52"/>
+      <c r="K87" s="52"/>
+      <c r="L87" s="52"/>
+      <c r="M87" s="52"/>
+      <c r="N87" s="53"/>
     </row>
     <row r="88" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D88" s="60"/>
+      <c r="D88" s="67"/>
       <c r="E88" s="39" t="s">
-        <v>371</v>
+        <v>300</v>
       </c>
       <c r="F88" s="39"/>
-      <c r="G88" s="52" t="s">
-        <v>386</v>
-      </c>
-      <c r="H88" s="53"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="53"/>
-      <c r="K88" s="53"/>
-      <c r="L88" s="53"/>
-      <c r="M88" s="53"/>
-      <c r="N88" s="54"/>
+      <c r="G88" s="65" t="s">
+        <v>315</v>
+      </c>
+      <c r="H88" s="52"/>
+      <c r="I88" s="52"/>
+      <c r="J88" s="52"/>
+      <c r="K88" s="52"/>
+      <c r="L88" s="52"/>
+      <c r="M88" s="52"/>
+      <c r="N88" s="53"/>
     </row>
     <row r="89" spans="4:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D89" s="52" t="s">
-        <v>372</v>
-      </c>
-      <c r="E89" s="53"/>
-      <c r="F89" s="54"/>
-      <c r="G89" s="61" t="s">
-        <v>387</v>
-      </c>
-      <c r="H89" s="53"/>
-      <c r="I89" s="53"/>
-      <c r="J89" s="53"/>
-      <c r="K89" s="53"/>
-      <c r="L89" s="53"/>
-      <c r="M89" s="53"/>
-      <c r="N89" s="54"/>
+      <c r="D89" s="65" t="s">
+        <v>301</v>
+      </c>
+      <c r="E89" s="52"/>
+      <c r="F89" s="53"/>
+      <c r="G89" s="51" t="s">
+        <v>316</v>
+      </c>
+      <c r="H89" s="52"/>
+      <c r="I89" s="52"/>
+      <c r="J89" s="52"/>
+      <c r="K89" s="52"/>
+      <c r="L89" s="52"/>
+      <c r="M89" s="52"/>
+      <c r="N89" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="G85:N85"/>
+    <mergeCell ref="G86:N86"/>
+    <mergeCell ref="G87:N87"/>
+    <mergeCell ref="G88:N88"/>
+    <mergeCell ref="G89:N89"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="G81:N81"/>
+    <mergeCell ref="G82:N82"/>
+    <mergeCell ref="G83:N83"/>
+    <mergeCell ref="G84:N84"/>
     <mergeCell ref="D85:F85"/>
     <mergeCell ref="D80:F80"/>
     <mergeCell ref="G80:N80"/>
@@ -6898,22 +7126,6 @@
     <mergeCell ref="F43:S43"/>
     <mergeCell ref="D81:F81"/>
     <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="G81:N81"/>
-    <mergeCell ref="G82:N82"/>
-    <mergeCell ref="G83:N83"/>
-    <mergeCell ref="G84:N84"/>
-    <mergeCell ref="G85:N85"/>
-    <mergeCell ref="G86:N86"/>
-    <mergeCell ref="G87:N87"/>
-    <mergeCell ref="G88:N88"/>
-    <mergeCell ref="G89:N89"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D86:D88"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -6938,8 +7150,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
-        <v>289</v>
+      <c r="A1" s="35" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -6955,9 +7167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6972,70 +7182,64 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="31" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>389</v>
-      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="31" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="33" t="s">
-        <v>278</v>
+      <c r="B8" s="31" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="33" t="s">
-        <v>347</v>
+      <c r="B9" s="31" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>346</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="33" t="s">
-        <v>367</v>
+      <c r="B11" s="31" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="33" t="s">
-        <v>366</v>
+      <c r="B12" s="31" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="33" t="s">
-        <v>368</v>
+      <c r="B13" s="31" t="s">
+        <v>297</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>388</v>
+        <v>317</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>390</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -7053,6 +7257,7 @@
     <hyperlink ref="B13" location="athrillプログラム構成!A1" display="　８．３　athrillプログラム構成"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7072,8 +7277,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
-        <v>289</v>
+      <c r="A1" s="31" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -7083,56 +7288,56 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>279</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
-        <v>280</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C6" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>286</v>
+      <c r="C6" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C7" s="29">
+      <c r="C7" s="27">
         <v>1</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>287</v>
+      <c r="D7" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C8" s="29">
+      <c r="C8" s="27">
         <v>2</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>288</v>
+      <c r="D8" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C9" s="29">
+      <c r="C9" s="27">
         <v>3</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>285</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>288</v>
+      <c r="D9" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -7184,8 +7389,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
-        <v>289</v>
+      <c r="A1" s="31" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -7195,12 +7400,12 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C3" s="11" t="s">
-        <v>293</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D4" s="11" t="s">
-        <v>290</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -7211,894 +7416,894 @@
         <v>11</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>274</v>
+        <v>199</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D7" s="16" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G7" s="26">
+        <v>195</v>
+      </c>
+      <c r="G7" s="24">
         <f>5/71</f>
         <v>7.0422535211267609E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D8" s="16" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D9" s="16" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D10" s="16" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D11" s="16" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D12" s="16" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D13" s="16" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D14" s="16" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D15" s="16" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D16" s="16" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D17" s="16" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D18" s="16" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D19" s="16" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D20" s="16" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D21" s="16" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D22" s="16" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D23" s="16" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D24" s="16" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D25" s="16" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D26" s="16" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D27" s="16" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>271</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D28" s="16" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>272</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D29" s="16" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>265</v>
+        <v>194</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D30" s="16" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D31" s="16" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D32" s="16" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D33" s="16" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D34" s="16" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D35" s="16" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>269</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D36" s="16" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D37" s="16" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D38" s="16" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>267</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D39" s="16" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D40" s="16" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D41" s="16" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D42" s="16" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D43" s="16" t="s">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D44" s="16" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D45" s="16" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>267</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D46" s="16" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>273</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D47" s="16" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>275</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D48" s="16" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>268</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D49" s="16" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>267</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D50" s="16" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>267</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D51" s="16" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D52" s="16" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D53" s="16" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D54" s="16" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D55" s="16" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D56" s="16" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D57" s="16" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D58" s="16" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D59" s="16" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D60" s="16" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D61" s="16" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D62" s="16" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D63" s="16" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="4:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="D64" s="16" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D65" s="16" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D66" s="16" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D67" s="16" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D68" s="16" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D69" s="16" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D70" s="16" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D71" s="16" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D72" s="16" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>268</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D73" s="16" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>268</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D74" s="16" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D75" s="16" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D76" s="16" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D77" s="16" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D78" s="16" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D79" s="16" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D80" s="16" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D81" s="16" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D82" s="16" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D83" s="16" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D84" s="16" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="85" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D85" s="16" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>267</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D86" s="16" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>268</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -8130,8 +8335,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
-        <v>289</v>
+      <c r="A1" s="31" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -8143,14 +8348,14 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C3" s="11" t="s">
-        <v>291</v>
+        <v>220</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D4" s="1" t="s">
-        <v>292</v>
+        <v>221</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -8269,7 +8474,7 @@
       <c r="G12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="25" t="s">
         <v>16</v>
       </c>
     </row>
@@ -9681,24 +9886,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.625" style="11" customWidth="1"/>
     <col min="2" max="2" width="3.625" style="11" customWidth="1"/>
     <col min="3" max="3" width="54.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="81" style="11" customWidth="1"/>
     <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
-        <v>289</v>
+      <c r="A1" s="31" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -9708,318 +9918,295 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C3" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
+        <v>223</v>
+      </c>
+      <c r="D3" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="C5" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>112</v>
+      <c r="D5" s="15" t="s">
+        <v>191</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>210</v>
+        <v>413</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="19" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="19" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>211</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="18" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>410</v>
+      </c>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:6" s="18" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>411</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="117.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>415</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>212</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>417</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>217</v>
-      </c>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:6" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>255</v>
+      <c r="C12" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>423</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="267.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="24" t="s">
-        <v>117</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="22" t="s">
+        <v>424</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>218</v>
+        <v>395</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>238</v>
+        <v>425</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="228.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>126</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>396</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>220</v>
+        <v>427</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>128</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="177.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>398</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>223</v>
+        <v>411</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>224</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>129</v>
+      <c r="C17" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>399</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>263</v>
+        <v>411</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>225</v>
+      <c r="C18" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>411</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" ht="169.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>229</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="232.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>401</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="C20" s="24" t="s">
-        <v>243</v>
+        <v>433</v>
+      </c>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="3:6" ht="354" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>244</v>
+        <v>402</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="C21" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>240</v>
+        <v>435</v>
+      </c>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="3:6" ht="240.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>403</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="C22" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C23" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C24" s="24"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+        <v>437</v>
+      </c>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="3:6" ht="185.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="3:6" ht="285.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="3:6" ht="200.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>444</v>
+      </c>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C25" s="24"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+    <row r="25" spans="3:6" ht="264.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>446</v>
+      </c>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C26" s="24"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C27" s="24"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C28" s="24"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C29" s="24"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C30" s="24"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+    <row r="26" spans="3:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C26" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>411</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -10028,6 +10215,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10049,8 +10237,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
-        <v>289</v>
+      <c r="A1" s="31" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -10060,119 +10248,119 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C4" s="11" t="s">
-        <v>309</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D5" s="14" t="s">
-        <v>295</v>
+        <v>224</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>296</v>
+        <v>225</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>297</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D6" s="8" t="s">
-        <v>298</v>
+        <v>227</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>299</v>
+        <v>228</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>310</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D7" s="8" t="s">
-        <v>300</v>
+        <v>229</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>301</v>
+        <v>230</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>302</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D8" s="8" t="s">
-        <v>311</v>
+        <v>240</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>312</v>
+        <v>241</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>303</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D9" s="47" t="s">
-        <v>304</v>
+      <c r="D9" s="44" t="s">
+        <v>233</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>313</v>
+        <v>242</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>320</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D10" s="49"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="8" t="s">
-        <v>315</v>
+        <v>244</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>314</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="8" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>317</v>
+        <v>246</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>305</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D12" s="8" t="s">
-        <v>306</v>
+        <v>235</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>307</v>
+        <v>236</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>308</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D13" s="11" t="s">
-        <v>318</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D14" s="11" t="s">
-        <v>319</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C16" s="11" t="s">
-        <v>321</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D17" s="25" t="s">
-        <v>322</v>
+      <c r="D17" s="23" t="s">
+        <v>251</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>323</v>
+        <v>252</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>324</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.15">
@@ -10180,92 +10368,92 @@
         <v>1</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>325</v>
+        <v>254</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>338</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D19" s="44">
+      <c r="D19" s="46">
         <v>2</v>
       </c>
-      <c r="E19" s="47" t="s">
-        <v>326</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>327</v>
+      <c r="E19" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D20" s="45"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="35" t="s">
-        <v>328</v>
+      <c r="D20" s="47"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="33" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D21" s="46"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="36" t="s">
-        <v>329</v>
+      <c r="D21" s="48"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="34" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D22" s="44">
+      <c r="D22" s="46">
         <v>3</v>
       </c>
-      <c r="E22" s="47" t="s">
-        <v>330</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>331</v>
+      <c r="E22" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D23" s="45"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="35" t="s">
-        <v>332</v>
+      <c r="D23" s="47"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="33" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D24" s="45"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="35" t="s">
-        <v>333</v>
+      <c r="D24" s="47"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="33" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D25" s="46"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="36" t="s">
-        <v>334</v>
+      <c r="D25" s="48"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="34" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D26" s="44">
+      <c r="D26" s="46">
         <v>4</v>
       </c>
-      <c r="E26" s="47" t="s">
-        <v>335</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>336</v>
+      <c r="E26" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D27" s="45"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="35" t="s">
-        <v>337</v>
+      <c r="D27" s="47"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="33" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D28" s="46"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="36" t="s">
-        <v>339</v>
+      <c r="D28" s="48"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="34" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -10301,43 +10489,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
-        <v>289</v>
+      <c r="A1" s="31" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>278</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>340</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
-        <v>341</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
-        <v>345</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C25" s="1" t="s">
-        <v>342</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C26" s="1" t="s">
-        <v>343</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C27" s="1" t="s">
-        <v>344</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -10368,246 +10556,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
-        <v>289</v>
+      <c r="A1" s="35" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B3" s="11" t="s">
-        <v>391</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C5" s="11" t="s">
-        <v>392</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.15">
       <c r="D6" s="11" t="s">
-        <v>393</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C8" s="11" t="s">
-        <v>396</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="D9" s="62" t="s">
-        <v>402</v>
-      </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
+      <c r="D9" s="63" t="s">
+        <v>330</v>
+      </c>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
       <c r="H9" s="41" t="s">
-        <v>395</v>
+        <v>323</v>
       </c>
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
       <c r="K9" s="43"/>
-      <c r="L9" s="55" t="s">
-        <v>394</v>
-      </c>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="57"/>
+      <c r="L9" s="60" t="s">
+        <v>322</v>
+      </c>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="61"/>
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="61"/>
+      <c r="AA9" s="62"/>
     </row>
     <row r="10" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="63" t="s">
-        <v>397</v>
-      </c>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="65" t="s">
-        <v>403</v>
-      </c>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="61" t="s">
-        <v>408</v>
-      </c>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="54"/>
+      <c r="D10" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="59" t="s">
+        <v>331</v>
+      </c>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="51" t="s">
+        <v>336</v>
+      </c>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="53"/>
     </row>
     <row r="11" spans="1:27" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="63" t="s">
-        <v>398</v>
-      </c>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="65" t="s">
-        <v>404</v>
-      </c>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="61" t="s">
-        <v>407</v>
-      </c>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="54"/>
+      <c r="D11" s="54" t="s">
+        <v>326</v>
+      </c>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="59" t="s">
+        <v>332</v>
+      </c>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="51" t="s">
+        <v>335</v>
+      </c>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="53"/>
     </row>
     <row r="12" spans="1:27" ht="93" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D12" s="63" t="s">
-        <v>400</v>
-      </c>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65" t="s">
-        <v>405</v>
-      </c>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="61" t="s">
-        <v>409</v>
-      </c>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="54"/>
+      <c r="D12" s="54" t="s">
+        <v>328</v>
+      </c>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="59" t="s">
+        <v>333</v>
+      </c>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="53"/>
     </row>
     <row r="13" spans="1:27" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D13" s="63" t="s">
-        <v>399</v>
-      </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="65" t="s">
-        <v>405</v>
-      </c>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="61" t="s">
-        <v>410</v>
-      </c>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="54"/>
+      <c r="D13" s="54" t="s">
+        <v>327</v>
+      </c>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="59" t="s">
+        <v>333</v>
+      </c>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="53"/>
     </row>
     <row r="14" spans="1:27" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D14" s="63" t="s">
-        <v>401</v>
-      </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="65" t="s">
-        <v>406</v>
-      </c>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="61" t="s">
-        <v>411</v>
-      </c>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="54"/>
+      <c r="D14" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="59" t="s">
+        <v>334</v>
+      </c>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="51" t="s">
+        <v>339</v>
+      </c>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="53"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C16" s="11" t="s">
-        <v>412</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D17" s="11" t="s">
-        <v>415</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D19" s="11" t="s">
-        <v>416</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="4:35" x14ac:dyDescent="0.15">
-      <c r="D22" s="62" t="s">
-        <v>417</v>
-      </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
+      <c r="D22" s="63" t="s">
+        <v>345</v>
+      </c>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="37" t="s">
-        <v>418</v>
+        <v>346</v>
       </c>
       <c r="I22" s="37"/>
       <c r="J22" s="37"/>
@@ -10621,7 +10809,7 @@
       <c r="R22" s="37"/>
       <c r="S22" s="37"/>
       <c r="T22" s="41" t="s">
-        <v>419</v>
+        <v>347</v>
       </c>
       <c r="U22" s="42"/>
       <c r="V22" s="42"/>
@@ -10631,7 +10819,7 @@
       <c r="Z22" s="42"/>
       <c r="AA22" s="43"/>
       <c r="AB22" s="41" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="AC22" s="42"/>
       <c r="AD22" s="42"/>
@@ -10642,14 +10830,14 @@
       <c r="AI22" s="43"/>
     </row>
     <row r="23" spans="4:35" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D23" s="63" t="s">
-        <v>420</v>
-      </c>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
+      <c r="D23" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
       <c r="H23" s="39" t="s">
-        <v>421</v>
+        <v>349</v>
       </c>
       <c r="I23" s="39"/>
       <c r="J23" s="39"/>
@@ -10662,36 +10850,36 @@
       <c r="Q23" s="39"/>
       <c r="R23" s="39"/>
       <c r="S23" s="39"/>
-      <c r="T23" s="65" t="s">
-        <v>425</v>
-      </c>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="66"/>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="67"/>
-      <c r="AB23" s="61" t="s">
-        <v>426</v>
-      </c>
-      <c r="AC23" s="53"/>
-      <c r="AD23" s="53"/>
-      <c r="AE23" s="53"/>
-      <c r="AF23" s="53"/>
-      <c r="AG23" s="53"/>
-      <c r="AH23" s="53"/>
-      <c r="AI23" s="54"/>
+      <c r="T23" s="59" t="s">
+        <v>353</v>
+      </c>
+      <c r="U23" s="57"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="58"/>
+      <c r="AB23" s="51" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC23" s="52"/>
+      <c r="AD23" s="52"/>
+      <c r="AE23" s="52"/>
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="52"/>
+      <c r="AH23" s="52"/>
+      <c r="AI23" s="53"/>
     </row>
     <row r="24" spans="4:35" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D24" s="63" t="s">
-        <v>420</v>
-      </c>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
+      <c r="D24" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
       <c r="H24" s="39" t="s">
-        <v>422</v>
+        <v>350</v>
       </c>
       <c r="I24" s="39"/>
       <c r="J24" s="39"/>
@@ -10704,36 +10892,36 @@
       <c r="Q24" s="39"/>
       <c r="R24" s="39"/>
       <c r="S24" s="39"/>
-      <c r="T24" s="65" t="s">
-        <v>425</v>
-      </c>
-      <c r="U24" s="66"/>
-      <c r="V24" s="66"/>
-      <c r="W24" s="66"/>
-      <c r="X24" s="66"/>
-      <c r="Y24" s="66"/>
-      <c r="Z24" s="66"/>
-      <c r="AA24" s="67"/>
-      <c r="AB24" s="61" t="s">
-        <v>427</v>
-      </c>
-      <c r="AC24" s="53"/>
-      <c r="AD24" s="53"/>
-      <c r="AE24" s="53"/>
-      <c r="AF24" s="53"/>
-      <c r="AG24" s="53"/>
-      <c r="AH24" s="53"/>
-      <c r="AI24" s="54"/>
+      <c r="T24" s="59" t="s">
+        <v>353</v>
+      </c>
+      <c r="U24" s="57"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="58"/>
+      <c r="AB24" s="51" t="s">
+        <v>355</v>
+      </c>
+      <c r="AC24" s="52"/>
+      <c r="AD24" s="52"/>
+      <c r="AE24" s="52"/>
+      <c r="AF24" s="52"/>
+      <c r="AG24" s="52"/>
+      <c r="AH24" s="52"/>
+      <c r="AI24" s="53"/>
     </row>
     <row r="25" spans="4:35" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D25" s="63" t="s">
-        <v>420</v>
-      </c>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
+      <c r="D25" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
       <c r="H25" s="39" t="s">
-        <v>423</v>
+        <v>351</v>
       </c>
       <c r="I25" s="39"/>
       <c r="J25" s="39"/>
@@ -10746,36 +10934,36 @@
       <c r="Q25" s="39"/>
       <c r="R25" s="39"/>
       <c r="S25" s="39"/>
-      <c r="T25" s="65" t="s">
-        <v>425</v>
-      </c>
-      <c r="U25" s="66"/>
-      <c r="V25" s="66"/>
-      <c r="W25" s="66"/>
-      <c r="X25" s="66"/>
-      <c r="Y25" s="66"/>
-      <c r="Z25" s="66"/>
-      <c r="AA25" s="67"/>
-      <c r="AB25" s="61" t="s">
-        <v>428</v>
-      </c>
-      <c r="AC25" s="53"/>
-      <c r="AD25" s="53"/>
-      <c r="AE25" s="53"/>
-      <c r="AF25" s="53"/>
-      <c r="AG25" s="53"/>
-      <c r="AH25" s="53"/>
-      <c r="AI25" s="54"/>
+      <c r="T25" s="59" t="s">
+        <v>353</v>
+      </c>
+      <c r="U25" s="57"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="58"/>
+      <c r="AB25" s="51" t="s">
+        <v>356</v>
+      </c>
+      <c r="AC25" s="52"/>
+      <c r="AD25" s="52"/>
+      <c r="AE25" s="52"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="52"/>
+      <c r="AH25" s="52"/>
+      <c r="AI25" s="53"/>
     </row>
     <row r="26" spans="4:35" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D26" s="63" t="s">
-        <v>420</v>
-      </c>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
+      <c r="D26" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
       <c r="H26" s="39" t="s">
-        <v>424</v>
+        <v>352</v>
       </c>
       <c r="I26" s="39"/>
       <c r="J26" s="39"/>
@@ -10788,36 +10976,36 @@
       <c r="Q26" s="39"/>
       <c r="R26" s="39"/>
       <c r="S26" s="39"/>
-      <c r="T26" s="65" t="s">
-        <v>425</v>
-      </c>
-      <c r="U26" s="66"/>
-      <c r="V26" s="66"/>
-      <c r="W26" s="66"/>
-      <c r="X26" s="66"/>
-      <c r="Y26" s="66"/>
-      <c r="Z26" s="66"/>
-      <c r="AA26" s="67"/>
-      <c r="AB26" s="61" t="s">
-        <v>429</v>
-      </c>
-      <c r="AC26" s="53"/>
-      <c r="AD26" s="53"/>
-      <c r="AE26" s="53"/>
-      <c r="AF26" s="53"/>
-      <c r="AG26" s="53"/>
-      <c r="AH26" s="53"/>
-      <c r="AI26" s="54"/>
+      <c r="T26" s="59" t="s">
+        <v>353</v>
+      </c>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="58"/>
+      <c r="AB26" s="51" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC26" s="52"/>
+      <c r="AD26" s="52"/>
+      <c r="AE26" s="52"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="52"/>
+      <c r="AH26" s="52"/>
+      <c r="AI26" s="53"/>
     </row>
     <row r="27" spans="4:35" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D27" s="63" t="s">
-        <v>420</v>
-      </c>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
+      <c r="D27" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
       <c r="H27" s="39" t="s">
-        <v>430</v>
+        <v>358</v>
       </c>
       <c r="I27" s="39"/>
       <c r="J27" s="39"/>
@@ -10830,36 +11018,36 @@
       <c r="Q27" s="39"/>
       <c r="R27" s="39"/>
       <c r="S27" s="39"/>
-      <c r="T27" s="65" t="s">
-        <v>432</v>
-      </c>
-      <c r="U27" s="66"/>
-      <c r="V27" s="66"/>
-      <c r="W27" s="66"/>
-      <c r="X27" s="66"/>
-      <c r="Y27" s="66"/>
-      <c r="Z27" s="66"/>
-      <c r="AA27" s="67"/>
-      <c r="AB27" s="61" t="s">
-        <v>433</v>
-      </c>
-      <c r="AC27" s="53"/>
-      <c r="AD27" s="53"/>
-      <c r="AE27" s="53"/>
-      <c r="AF27" s="53"/>
-      <c r="AG27" s="53"/>
-      <c r="AH27" s="53"/>
-      <c r="AI27" s="54"/>
+      <c r="T27" s="59" t="s">
+        <v>360</v>
+      </c>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="51" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC27" s="52"/>
+      <c r="AD27" s="52"/>
+      <c r="AE27" s="52"/>
+      <c r="AF27" s="52"/>
+      <c r="AG27" s="52"/>
+      <c r="AH27" s="52"/>
+      <c r="AI27" s="53"/>
     </row>
     <row r="28" spans="4:35" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D28" s="63" t="s">
-        <v>420</v>
-      </c>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
+      <c r="D28" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
       <c r="H28" s="39" t="s">
-        <v>431</v>
+        <v>359</v>
       </c>
       <c r="I28" s="39"/>
       <c r="J28" s="39"/>
@@ -10872,36 +11060,36 @@
       <c r="Q28" s="39"/>
       <c r="R28" s="39"/>
       <c r="S28" s="39"/>
-      <c r="T28" s="68" t="s">
-        <v>434</v>
-      </c>
-      <c r="U28" s="66"/>
-      <c r="V28" s="66"/>
-      <c r="W28" s="66"/>
-      <c r="X28" s="66"/>
-      <c r="Y28" s="66"/>
-      <c r="Z28" s="66"/>
-      <c r="AA28" s="67"/>
-      <c r="AB28" s="61" t="s">
-        <v>435</v>
-      </c>
-      <c r="AC28" s="53"/>
-      <c r="AD28" s="53"/>
-      <c r="AE28" s="53"/>
-      <c r="AF28" s="53"/>
-      <c r="AG28" s="53"/>
-      <c r="AH28" s="53"/>
-      <c r="AI28" s="54"/>
+      <c r="T28" s="56" t="s">
+        <v>362</v>
+      </c>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="58"/>
+      <c r="AB28" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="AC28" s="52"/>
+      <c r="AD28" s="52"/>
+      <c r="AE28" s="52"/>
+      <c r="AF28" s="52"/>
+      <c r="AG28" s="52"/>
+      <c r="AH28" s="52"/>
+      <c r="AI28" s="53"/>
     </row>
     <row r="29" spans="4:35" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="63" t="s">
-        <v>437</v>
-      </c>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
+      <c r="D29" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
       <c r="H29" s="39" t="s">
-        <v>436</v>
+        <v>364</v>
       </c>
       <c r="I29" s="39"/>
       <c r="J29" s="39"/>
@@ -10914,35 +11102,35 @@
       <c r="Q29" s="39"/>
       <c r="R29" s="39"/>
       <c r="S29" s="39"/>
-      <c r="T29" s="65" t="s">
-        <v>438</v>
-      </c>
-      <c r="U29" s="66"/>
-      <c r="V29" s="66"/>
-      <c r="W29" s="66"/>
-      <c r="X29" s="66"/>
-      <c r="Y29" s="66"/>
-      <c r="Z29" s="66"/>
-      <c r="AA29" s="67"/>
-      <c r="AB29" s="61" t="s">
-        <v>439</v>
-      </c>
-      <c r="AC29" s="53"/>
-      <c r="AD29" s="53"/>
-      <c r="AE29" s="53"/>
-      <c r="AF29" s="53"/>
-      <c r="AG29" s="53"/>
-      <c r="AH29" s="53"/>
-      <c r="AI29" s="54"/>
+      <c r="T29" s="59" t="s">
+        <v>366</v>
+      </c>
+      <c r="U29" s="57"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="57"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
+      <c r="AA29" s="58"/>
+      <c r="AB29" s="51" t="s">
+        <v>367</v>
+      </c>
+      <c r="AC29" s="52"/>
+      <c r="AD29" s="52"/>
+      <c r="AE29" s="52"/>
+      <c r="AF29" s="52"/>
+      <c r="AG29" s="52"/>
+      <c r="AH29" s="52"/>
+      <c r="AI29" s="53"/>
     </row>
     <row r="31" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D31" s="11" t="s">
-        <v>441</v>
+        <v>369</v>
       </c>
     </row>
     <row r="32" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D32" s="38" t="s">
-        <v>440</v>
+        <v>368</v>
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="39"/>
@@ -11284,144 +11472,184 @@
     </row>
     <row r="43" spans="3:35" x14ac:dyDescent="0.15">
       <c r="C43" s="11" t="s">
-        <v>413</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44" spans="3:35" x14ac:dyDescent="0.15">
       <c r="D44" s="11" t="s">
-        <v>442</v>
+        <v>370</v>
       </c>
     </row>
     <row r="45" spans="3:35" x14ac:dyDescent="0.15">
       <c r="D45" s="11" t="s">
-        <v>446</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47" spans="3:35" x14ac:dyDescent="0.15">
       <c r="D47" s="11" t="s">
-        <v>443</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49" spans="4:24" x14ac:dyDescent="0.15">
       <c r="E49" s="11" t="s">
-        <v>444</v>
+        <v>372</v>
       </c>
     </row>
     <row r="50" spans="4:24" x14ac:dyDescent="0.15">
       <c r="E50" s="11" t="s">
-        <v>445</v>
+        <v>373</v>
       </c>
     </row>
     <row r="52" spans="4:24" x14ac:dyDescent="0.15">
       <c r="D52" s="11" t="s">
-        <v>447</v>
+        <v>375</v>
       </c>
     </row>
     <row r="53" spans="4:24" x14ac:dyDescent="0.15">
       <c r="D53" s="11" t="s">
-        <v>448</v>
+        <v>376</v>
       </c>
     </row>
     <row r="54" spans="4:24" x14ac:dyDescent="0.15">
       <c r="E54" s="11" t="s">
-        <v>449</v>
+        <v>377</v>
       </c>
     </row>
     <row r="55" spans="4:24" x14ac:dyDescent="0.15">
       <c r="E55" s="11" t="s">
-        <v>450</v>
+        <v>378</v>
       </c>
     </row>
     <row r="57" spans="4:24" x14ac:dyDescent="0.15">
       <c r="D57" s="11" t="s">
-        <v>451</v>
+        <v>379</v>
       </c>
     </row>
     <row r="59" spans="4:24" x14ac:dyDescent="0.15">
-      <c r="E59" s="69" t="s">
-        <v>452</v>
-      </c>
-      <c r="F59" s="69"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="69"/>
-      <c r="J59" s="69"/>
-      <c r="K59" s="69"/>
-      <c r="L59" s="69"/>
-      <c r="M59" s="69"/>
-      <c r="N59" s="69"/>
-      <c r="O59" s="69"/>
-      <c r="P59" s="69"/>
-      <c r="Q59" s="69"/>
-      <c r="R59" s="69"/>
-      <c r="S59" s="69"/>
-      <c r="T59" s="69"/>
-      <c r="U59" s="69"/>
-      <c r="V59" s="69"/>
-      <c r="W59" s="69"/>
-      <c r="X59" s="69"/>
+      <c r="E59" s="50" t="s">
+        <v>380</v>
+      </c>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="50"/>
+      <c r="L59" s="50"/>
+      <c r="M59" s="50"/>
+      <c r="N59" s="50"/>
+      <c r="O59" s="50"/>
+      <c r="P59" s="50"/>
+      <c r="Q59" s="50"/>
+      <c r="R59" s="50"/>
+      <c r="S59" s="50"/>
+      <c r="T59" s="50"/>
+      <c r="U59" s="50"/>
+      <c r="V59" s="50"/>
+      <c r="W59" s="50"/>
+      <c r="X59" s="50"/>
     </row>
     <row r="60" spans="4:24" x14ac:dyDescent="0.15">
-      <c r="E60" s="69" t="s">
-        <v>453</v>
-      </c>
-      <c r="F60" s="69"/>
-      <c r="G60" s="69"/>
-      <c r="H60" s="69"/>
-      <c r="I60" s="69"/>
-      <c r="J60" s="69"/>
-      <c r="K60" s="69"/>
-      <c r="L60" s="69"/>
-      <c r="M60" s="69"/>
-      <c r="N60" s="69"/>
-      <c r="O60" s="69"/>
-      <c r="P60" s="69"/>
-      <c r="Q60" s="69"/>
-      <c r="R60" s="69"/>
-      <c r="S60" s="69"/>
-      <c r="T60" s="69"/>
-      <c r="U60" s="69"/>
-      <c r="V60" s="69"/>
-      <c r="W60" s="69"/>
-      <c r="X60" s="69"/>
+      <c r="E60" s="50" t="s">
+        <v>381</v>
+      </c>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="50"/>
+      <c r="M60" s="50"/>
+      <c r="N60" s="50"/>
+      <c r="O60" s="50"/>
+      <c r="P60" s="50"/>
+      <c r="Q60" s="50"/>
+      <c r="R60" s="50"/>
+      <c r="S60" s="50"/>
+      <c r="T60" s="50"/>
+      <c r="U60" s="50"/>
+      <c r="V60" s="50"/>
+      <c r="W60" s="50"/>
+      <c r="X60" s="50"/>
     </row>
     <row r="63" spans="4:24" x14ac:dyDescent="0.15">
       <c r="D63" s="11" t="s">
-        <v>454</v>
+        <v>382</v>
       </c>
     </row>
     <row r="64" spans="4:24" x14ac:dyDescent="0.15">
       <c r="E64" s="11" t="s">
-        <v>455</v>
+        <v>383</v>
       </c>
     </row>
     <row r="96" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E96" s="11" t="s">
-        <v>456</v>
+        <v>384</v>
       </c>
     </row>
     <row r="97" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F97" s="11" t="s">
-        <v>457</v>
+        <v>385</v>
       </c>
     </row>
     <row r="98" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F98" s="11" t="s">
-        <v>458</v>
+        <v>386</v>
       </c>
     </row>
     <row r="131" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C131" s="11" t="s">
-        <v>414</v>
+        <v>342</v>
       </c>
     </row>
     <row r="132" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D132" s="11" t="s">
-        <v>459</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:AA9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:AA10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:AA11"/>
+    <mergeCell ref="H22:S22"/>
+    <mergeCell ref="T22:AA22"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:AA13"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:AA12"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:AA14"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H26:S26"/>
+    <mergeCell ref="H27:S27"/>
+    <mergeCell ref="H23:S23"/>
+    <mergeCell ref="H24:S24"/>
+    <mergeCell ref="H25:S25"/>
+    <mergeCell ref="AB22:AI22"/>
+    <mergeCell ref="T23:AA23"/>
+    <mergeCell ref="T24:AA24"/>
+    <mergeCell ref="T25:AA25"/>
+    <mergeCell ref="T26:AA26"/>
+    <mergeCell ref="AB23:AI23"/>
+    <mergeCell ref="AB24:AI24"/>
+    <mergeCell ref="AB25:AI25"/>
+    <mergeCell ref="AB26:AI26"/>
     <mergeCell ref="E59:X59"/>
     <mergeCell ref="E60:X60"/>
     <mergeCell ref="D32:AI41"/>
@@ -11434,47 +11662,7 @@
     <mergeCell ref="H29:S29"/>
     <mergeCell ref="T29:AA29"/>
     <mergeCell ref="AB29:AI29"/>
-    <mergeCell ref="AB22:AI22"/>
-    <mergeCell ref="T23:AA23"/>
-    <mergeCell ref="T24:AA24"/>
-    <mergeCell ref="T25:AA25"/>
-    <mergeCell ref="T26:AA26"/>
     <mergeCell ref="T27:AA27"/>
-    <mergeCell ref="AB23:AI23"/>
-    <mergeCell ref="AB24:AI24"/>
-    <mergeCell ref="AB25:AI25"/>
-    <mergeCell ref="AB26:AI26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H26:S26"/>
-    <mergeCell ref="H27:S27"/>
-    <mergeCell ref="H23:S23"/>
-    <mergeCell ref="H24:S24"/>
-    <mergeCell ref="H25:S25"/>
-    <mergeCell ref="H22:S22"/>
-    <mergeCell ref="T22:AA22"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:AA13"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:AA12"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:AA14"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:AA9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:AA10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:AA11"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D14:G14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>

--- a/athrill-manual.xlsx
+++ b/athrill-manual.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="774">
   <si>
     <t>１．はじめに</t>
     <phoneticPr fontId="2"/>
@@ -4998,7 +4998,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5218,21 +5218,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5242,40 +5227,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
@@ -5356,19 +5314,43 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8457,7 +8439,7 @@
       <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8465,7 +8447,7 @@
     <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
     <col min="2" max="7" width="3.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="28" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.375" style="69" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.375" style="69" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="53.875" style="4" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
@@ -8476,6038 +8458,6034 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="105" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="112" t="s">
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="98" t="s">
         <v>773</v>
       </c>
-      <c r="J3" s="94" t="s">
+      <c r="J3" s="80" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="96"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="82"/>
       <c r="I4" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J4" s="95" t="s">
+      <c r="J4" s="81" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="100"/>
-      <c r="C5" s="78" t="s">
+      <c r="B5" s="86"/>
+      <c r="C5" s="73" t="s">
         <v>450</v>
       </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="86"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="77"/>
       <c r="I5" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J5" s="95" t="s">
+      <c r="J5" s="81" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="100"/>
-      <c r="C6" s="78" t="s">
+      <c r="B6" s="86"/>
+      <c r="C6" s="73" t="s">
         <v>741</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="86"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="77"/>
       <c r="I6" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J6" s="95" t="s">
+      <c r="J6" s="81" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="101"/>
-      <c r="C7" s="78" t="s">
+      <c r="B7" s="87"/>
+      <c r="C7" s="73" t="s">
         <v>451</v>
       </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="86"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="77"/>
       <c r="I7" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J7" s="95" t="s">
+      <c r="J7" s="81" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="83" t="s">
         <v>452</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="96"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="82"/>
       <c r="I8" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J8" s="95" t="s">
+      <c r="J8" s="81" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="100"/>
-      <c r="C9" s="97" t="s">
+      <c r="B9" s="86"/>
+      <c r="C9" s="83" t="s">
         <v>453</v>
       </c>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="96"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="82"/>
       <c r="I9" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J9" s="95" t="s">
+      <c r="J9" s="81" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="100"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="97" t="s">
+      <c r="B10" s="86"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="83" t="s">
         <v>454</v>
       </c>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="96"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="82"/>
       <c r="I10" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J10" s="95" t="s">
+      <c r="J10" s="81" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="100"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="97" t="s">
+      <c r="B11" s="86"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="83" t="s">
         <v>455</v>
       </c>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="96"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="82"/>
       <c r="I11" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J11" s="95" t="s">
+      <c r="J11" s="81" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="100"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="78" t="s">
+      <c r="B12" s="86"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="73" t="s">
         <v>456</v>
       </c>
-      <c r="G12" s="79"/>
-      <c r="H12" s="86"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="77"/>
       <c r="I12" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J12" s="95" t="s">
+      <c r="J12" s="81" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="100"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="97" t="s">
+      <c r="B13" s="86"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="83" t="s">
         <v>457</v>
       </c>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="96"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="82"/>
       <c r="I13" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J13" s="106" t="s">
+      <c r="J13" s="92" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="100"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="109" t="s">
+      <c r="B14" s="86"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="95" t="s">
         <v>458</v>
       </c>
-      <c r="G14" s="110"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="113" t="s">
-        <v>752</v>
-      </c>
-      <c r="J14" s="107"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="99" t="s">
+        <v>752</v>
+      </c>
+      <c r="J14" s="93"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="100"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="109" t="s">
+      <c r="B15" s="86"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="95" t="s">
         <v>459</v>
       </c>
-      <c r="G15" s="110"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="113" t="s">
-        <v>752</v>
-      </c>
-      <c r="J15" s="107"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="99" t="s">
+        <v>752</v>
+      </c>
+      <c r="J15" s="93"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="100"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="109" t="s">
+      <c r="B16" s="86"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="95" t="s">
         <v>460</v>
       </c>
-      <c r="G16" s="110"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="113" t="s">
-        <v>752</v>
-      </c>
-      <c r="J16" s="107"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="99" t="s">
+        <v>752</v>
+      </c>
+      <c r="J16" s="93"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B17" s="100"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="109" t="s">
+      <c r="B17" s="86"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="95" t="s">
         <v>461</v>
       </c>
-      <c r="G17" s="110"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="113" t="s">
-        <v>752</v>
-      </c>
-      <c r="J17" s="107"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="99" t="s">
+        <v>752</v>
+      </c>
+      <c r="J17" s="93"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B18" s="100"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="109" t="s">
+      <c r="B18" s="86"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="95" t="s">
         <v>462</v>
       </c>
-      <c r="G18" s="110"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="113" t="s">
-        <v>752</v>
-      </c>
-      <c r="J18" s="108"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="99" t="s">
+        <v>752</v>
+      </c>
+      <c r="J18" s="94"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B19" s="100"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="78" t="s">
+      <c r="B19" s="86"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="73" t="s">
         <v>463</v>
       </c>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="86"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="77"/>
       <c r="I19" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J19" s="95" t="s">
+      <c r="J19" s="81" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="100"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="78" t="s">
+      <c r="B20" s="86"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="73" t="s">
         <v>464</v>
       </c>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="86"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="77"/>
       <c r="I20" s="71" t="s">
         <v>746</v>
       </c>
-      <c r="J20" s="95" t="s">
+      <c r="J20" s="81" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B21" s="100"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="78" t="s">
+      <c r="B21" s="86"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="73" t="s">
         <v>465</v>
       </c>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="86"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="77"/>
       <c r="I21" s="71" t="s">
         <v>745</v>
       </c>
-      <c r="J21" s="95" t="s">
+      <c r="J21" s="81" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B22" s="100"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="78" t="s">
+      <c r="B22" s="86"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="73" t="s">
         <v>466</v>
       </c>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="86"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="77"/>
       <c r="I22" s="71" t="s">
         <v>744</v>
       </c>
-      <c r="J22" s="95" t="s">
+      <c r="J22" s="81" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="100"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="78" t="s">
+      <c r="B23" s="86"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="73" t="s">
         <v>467</v>
       </c>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="86"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="77"/>
       <c r="I23" s="71" t="s">
         <v>747</v>
       </c>
-      <c r="J23" s="95" t="s">
+      <c r="J23" s="81" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B24" s="100"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="78" t="s">
+      <c r="B24" s="86"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="73" t="s">
         <v>469</v>
       </c>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="86"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="77"/>
       <c r="I24" s="71" t="s">
         <v>744</v>
       </c>
-      <c r="J24" s="95" t="s">
+      <c r="J24" s="81" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B25" s="100"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="78" t="s">
+      <c r="B25" s="86"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="73" t="s">
         <v>470</v>
       </c>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="86"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="77"/>
       <c r="I25" s="71" t="s">
         <v>743</v>
       </c>
-      <c r="J25" s="95" t="s">
+      <c r="J25" s="81" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B26" s="100"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="78" t="s">
+      <c r="B26" s="86"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="73" t="s">
         <v>471</v>
       </c>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="86"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="77"/>
       <c r="I26" s="71" t="s">
         <v>750</v>
       </c>
-      <c r="J26" s="95" t="s">
+      <c r="J26" s="81" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B27" s="100"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="78" t="s">
+      <c r="B27" s="86"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="73" t="s">
         <v>472</v>
       </c>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="86"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="77"/>
       <c r="I27" s="71" t="s">
         <v>744</v>
       </c>
-      <c r="J27" s="95" t="s">
+      <c r="J27" s="81" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B28" s="100"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="78" t="s">
+      <c r="B28" s="86"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="73" t="s">
         <v>468</v>
       </c>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="86"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="77"/>
       <c r="I28" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J28" s="95" t="s">
+      <c r="J28" s="81" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B29" s="100"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="97" t="s">
+      <c r="B29" s="86"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="83" t="s">
         <v>473</v>
       </c>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="96"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="82"/>
       <c r="I29" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J29" s="95" t="s">
+      <c r="J29" s="81" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B30" s="100"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="78" t="s">
+      <c r="B30" s="86"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="73" t="s">
         <v>474</v>
       </c>
-      <c r="G30" s="79"/>
-      <c r="H30" s="86"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="77"/>
       <c r="I30" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J30" s="95" t="s">
+      <c r="J30" s="81" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B31" s="100"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="78" t="s">
+      <c r="B31" s="86"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="73" t="s">
         <v>475</v>
       </c>
-      <c r="G31" s="79"/>
-      <c r="H31" s="86"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="77"/>
       <c r="I31" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J31" s="95" t="s">
+      <c r="J31" s="81" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B32" s="100"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="78" t="s">
+      <c r="B32" s="86"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="73" t="s">
         <v>476</v>
       </c>
-      <c r="G32" s="79"/>
-      <c r="H32" s="86"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="77"/>
       <c r="I32" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J32" s="95" t="s">
+      <c r="J32" s="81" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B33" s="100"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="97" t="s">
+      <c r="B33" s="86"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="83" t="s">
         <v>477</v>
       </c>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="96"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="82"/>
       <c r="I33" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J33" s="106" t="s">
+      <c r="J33" s="92" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B34" s="100"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="114" t="s">
+      <c r="B34" s="86"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="100" t="s">
         <v>478</v>
       </c>
-      <c r="G34" s="115"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="117" t="s">
-        <v>752</v>
-      </c>
-      <c r="J34" s="107"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="103" t="s">
+        <v>752</v>
+      </c>
+      <c r="J34" s="93"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B35" s="100"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="114" t="s">
+      <c r="B35" s="86"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="100" t="s">
         <v>479</v>
       </c>
-      <c r="G35" s="115"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="117" t="s">
-        <v>752</v>
-      </c>
-      <c r="J35" s="107"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="103" t="s">
+        <v>752</v>
+      </c>
+      <c r="J35" s="93"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B36" s="100"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="114" t="s">
+      <c r="B36" s="86"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="100" t="s">
         <v>480</v>
       </c>
-      <c r="G36" s="115"/>
-      <c r="H36" s="116"/>
-      <c r="I36" s="117" t="s">
-        <v>752</v>
-      </c>
-      <c r="J36" s="107"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="103" t="s">
+        <v>752</v>
+      </c>
+      <c r="J36" s="93"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B37" s="100"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="114" t="s">
+      <c r="B37" s="86"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="G37" s="115"/>
-      <c r="H37" s="116"/>
-      <c r="I37" s="117" t="s">
-        <v>752</v>
-      </c>
-      <c r="J37" s="107"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="103" t="s">
+        <v>752</v>
+      </c>
+      <c r="J37" s="93"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B38" s="101"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="101"/>
-      <c r="F38" s="114" t="s">
+      <c r="B38" s="87"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="100" t="s">
         <v>463</v>
       </c>
-      <c r="G38" s="115"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="117" t="s">
-        <v>752</v>
-      </c>
-      <c r="J38" s="108"/>
+      <c r="G38" s="101"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="103" t="s">
+        <v>752</v>
+      </c>
+      <c r="J38" s="94"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B39" s="97" t="s">
+      <c r="B39" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="C39" s="104"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="96"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="82"/>
       <c r="I39" s="71" t="s">
         <v>746</v>
       </c>
-      <c r="J39" s="95" t="s">
+      <c r="J39" s="81" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B40" s="100"/>
-      <c r="C40" s="78" t="s">
+      <c r="B40" s="86"/>
+      <c r="C40" s="73" t="s">
         <v>483</v>
       </c>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="86"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="77"/>
       <c r="I40" s="71" t="s">
         <v>746</v>
       </c>
-      <c r="J40" s="95" t="s">
+      <c r="J40" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B41" s="101"/>
-      <c r="C41" s="78" t="s">
+      <c r="B41" s="87"/>
+      <c r="C41" s="73" t="s">
         <v>484</v>
       </c>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="86"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="77"/>
       <c r="I41" s="71" t="s">
         <v>746</v>
       </c>
-      <c r="J41" s="95" t="s">
+      <c r="J41" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B42" s="97" t="s">
+      <c r="B42" s="83" t="s">
         <v>455</v>
       </c>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="96"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="82"/>
       <c r="I42" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J42" s="95" t="s">
+      <c r="J42" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B43" s="100"/>
-      <c r="C43" s="78" t="s">
+      <c r="B43" s="86"/>
+      <c r="C43" s="73" t="s">
         <v>485</v>
       </c>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="86"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="77"/>
       <c r="I43" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J43" s="95" t="s">
+      <c r="J43" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B44" s="100"/>
-      <c r="C44" s="97" t="s">
+      <c r="B44" s="86"/>
+      <c r="C44" s="83" t="s">
         <v>453</v>
       </c>
-      <c r="D44" s="104"/>
-      <c r="E44" s="104"/>
-      <c r="F44" s="104"/>
-      <c r="G44" s="104"/>
-      <c r="H44" s="96"/>
+      <c r="D44" s="90"/>
+      <c r="E44" s="90"/>
+      <c r="F44" s="90"/>
+      <c r="G44" s="90"/>
+      <c r="H44" s="82"/>
       <c r="I44" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J44" s="95" t="s">
+      <c r="J44" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B45" s="100"/>
-      <c r="C45" s="100"/>
-      <c r="D45" s="97" t="s">
+      <c r="B45" s="86"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="83" t="s">
         <v>454</v>
       </c>
-      <c r="E45" s="104"/>
-      <c r="F45" s="104"/>
-      <c r="G45" s="104"/>
-      <c r="H45" s="96"/>
+      <c r="E45" s="90"/>
+      <c r="F45" s="90"/>
+      <c r="G45" s="90"/>
+      <c r="H45" s="82"/>
       <c r="I45" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J45" s="95" t="s">
+      <c r="J45" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B46" s="100"/>
-      <c r="C46" s="100"/>
-      <c r="D46" s="100"/>
-      <c r="E46" s="78" t="s">
+      <c r="B46" s="86"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="73" t="s">
         <v>486</v>
       </c>
-      <c r="F46" s="79"/>
-      <c r="G46" s="79"/>
-      <c r="H46" s="86"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="77"/>
       <c r="I46" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J46" s="95" t="s">
+      <c r="J46" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B47" s="100"/>
-      <c r="C47" s="100"/>
-      <c r="D47" s="100"/>
-      <c r="E47" s="78" t="s">
+      <c r="B47" s="86"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="73" t="s">
         <v>487</v>
       </c>
-      <c r="F47" s="79"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="86"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="77"/>
       <c r="I47" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J47" s="95" t="s">
+      <c r="J47" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B48" s="100"/>
-      <c r="C48" s="100"/>
-      <c r="D48" s="100"/>
-      <c r="E48" s="78" t="s">
+      <c r="B48" s="86"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="86"/>
+      <c r="E48" s="73" t="s">
         <v>488</v>
       </c>
-      <c r="F48" s="79"/>
-      <c r="G48" s="79"/>
-      <c r="H48" s="86"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="77"/>
       <c r="I48" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J48" s="95" t="s">
+      <c r="J48" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B49" s="100"/>
-      <c r="C49" s="100"/>
-      <c r="D49" s="100"/>
-      <c r="E49" s="78" t="s">
+      <c r="B49" s="86"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="73" t="s">
         <v>489</v>
       </c>
-      <c r="F49" s="79"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="86"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="77"/>
       <c r="I49" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J49" s="95" t="s">
+      <c r="J49" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B50" s="100"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="100"/>
-      <c r="E50" s="78" t="s">
+      <c r="B50" s="86"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="73" t="s">
         <v>490</v>
       </c>
-      <c r="F50" s="79"/>
-      <c r="G50" s="79"/>
-      <c r="H50" s="86"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="77"/>
       <c r="I50" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J50" s="95" t="s">
+      <c r="J50" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B51" s="101"/>
-      <c r="C51" s="101"/>
-      <c r="D51" s="101"/>
-      <c r="E51" s="78" t="s">
+      <c r="B51" s="87"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="73" t="s">
         <v>491</v>
       </c>
-      <c r="F51" s="79"/>
-      <c r="G51" s="79"/>
-      <c r="H51" s="86"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="74"/>
+      <c r="H51" s="77"/>
       <c r="I51" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J51" s="95" t="s">
+      <c r="J51" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B52" s="97" t="s">
+      <c r="B52" s="83" t="s">
         <v>492</v>
       </c>
-      <c r="C52" s="104"/>
-      <c r="D52" s="104"/>
-      <c r="E52" s="104"/>
-      <c r="F52" s="104"/>
-      <c r="G52" s="104"/>
-      <c r="H52" s="96"/>
+      <c r="C52" s="90"/>
+      <c r="D52" s="90"/>
+      <c r="E52" s="90"/>
+      <c r="F52" s="90"/>
+      <c r="G52" s="90"/>
+      <c r="H52" s="82"/>
       <c r="I52" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J52" s="95" t="s">
+      <c r="J52" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B53" s="76"/>
-      <c r="C53" s="78" t="s">
+      <c r="B53" s="88"/>
+      <c r="C53" s="73" t="s">
         <v>493</v>
       </c>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="86"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="77"/>
       <c r="I53" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J53" s="95" t="s">
+        <v>745</v>
+      </c>
+      <c r="J53" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B54" s="76"/>
-      <c r="C54" s="84" t="s">
+      <c r="B54" s="88"/>
+      <c r="C54" s="83" t="s">
         <v>453</v>
       </c>
-      <c r="D54" s="82"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="86"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="90"/>
+      <c r="H54" s="82"/>
       <c r="I54" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J54" s="95" t="s">
+        <v>745</v>
+      </c>
+      <c r="J54" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B55" s="76"/>
-      <c r="C55" s="75"/>
-      <c r="D55" s="84" t="s">
+      <c r="B55" s="88"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="83" t="s">
         <v>454</v>
       </c>
-      <c r="E55" s="82"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="82"/>
-      <c r="H55" s="86"/>
+      <c r="E55" s="90"/>
+      <c r="F55" s="90"/>
+      <c r="G55" s="90"/>
+      <c r="H55" s="82"/>
       <c r="I55" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J55" s="95" t="s">
+        <v>745</v>
+      </c>
+      <c r="J55" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B56" s="76"/>
-      <c r="C56" s="75"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="84" t="s">
+      <c r="B56" s="88"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="86"/>
+      <c r="E56" s="83" t="s">
         <v>494</v>
       </c>
-      <c r="F56" s="82"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="86"/>
+      <c r="F56" s="90"/>
+      <c r="G56" s="90"/>
+      <c r="H56" s="82"/>
       <c r="I56" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J56" s="95" t="s">
+        <v>745</v>
+      </c>
+      <c r="J56" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B57" s="76"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="75"/>
-      <c r="F57" s="78" t="s">
+      <c r="B57" s="88"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="86"/>
+      <c r="E57" s="86"/>
+      <c r="F57" s="73" t="s">
         <v>495</v>
       </c>
-      <c r="G57" s="79"/>
-      <c r="H57" s="86"/>
+      <c r="G57" s="74"/>
+      <c r="H57" s="77"/>
       <c r="I57" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J57" s="95" t="s">
+        <v>745</v>
+      </c>
+      <c r="J57" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B58" s="76"/>
-      <c r="C58" s="75"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="78" t="s">
+      <c r="B58" s="88"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="86"/>
+      <c r="E58" s="86"/>
+      <c r="F58" s="73" t="s">
         <v>496</v>
       </c>
-      <c r="G58" s="79"/>
-      <c r="H58" s="86"/>
+      <c r="G58" s="74"/>
+      <c r="H58" s="77"/>
       <c r="I58" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J58" s="95" t="s">
+        <v>745</v>
+      </c>
+      <c r="J58" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B59" s="76"/>
-      <c r="C59" s="75"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="78" t="s">
+      <c r="B59" s="88"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="87"/>
+      <c r="F59" s="73" t="s">
         <v>497</v>
       </c>
-      <c r="G59" s="79"/>
-      <c r="H59" s="86"/>
+      <c r="G59" s="74"/>
+      <c r="H59" s="77"/>
       <c r="I59" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J59" s="95" t="s">
+        <v>745</v>
+      </c>
+      <c r="J59" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B60" s="76"/>
-      <c r="C60" s="75"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="84" t="s">
+      <c r="B60" s="88"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="86"/>
+      <c r="E60" s="83" t="s">
         <v>498</v>
       </c>
-      <c r="F60" s="82"/>
-      <c r="G60" s="82"/>
-      <c r="H60" s="86"/>
+      <c r="F60" s="90"/>
+      <c r="G60" s="90"/>
+      <c r="H60" s="82"/>
       <c r="I60" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J60" s="95" t="s">
+        <v>745</v>
+      </c>
+      <c r="J60" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B61" s="76"/>
-      <c r="C61" s="75"/>
-      <c r="D61" s="75"/>
-      <c r="E61" s="75"/>
-      <c r="F61" s="78" t="s">
+      <c r="B61" s="88"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="86"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="73" t="s">
         <v>499</v>
       </c>
-      <c r="G61" s="79"/>
-      <c r="H61" s="86"/>
+      <c r="G61" s="74"/>
+      <c r="H61" s="77"/>
       <c r="I61" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J61" s="95" t="s">
+        <v>745</v>
+      </c>
+      <c r="J61" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B62" s="76"/>
-      <c r="C62" s="75"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="75"/>
-      <c r="F62" s="78" t="s">
+      <c r="B62" s="88"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="73" t="s">
         <v>500</v>
       </c>
-      <c r="G62" s="79"/>
-      <c r="H62" s="86"/>
+      <c r="G62" s="74"/>
+      <c r="H62" s="77"/>
       <c r="I62" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J62" s="95" t="s">
+        <v>745</v>
+      </c>
+      <c r="J62" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B63" s="76"/>
-      <c r="C63" s="75"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="75"/>
-      <c r="F63" s="78" t="s">
+      <c r="B63" s="88"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="86"/>
+      <c r="E63" s="86"/>
+      <c r="F63" s="73" t="s">
         <v>501</v>
       </c>
-      <c r="G63" s="79"/>
-      <c r="H63" s="86"/>
+      <c r="G63" s="74"/>
+      <c r="H63" s="77"/>
       <c r="I63" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J63" s="95" t="s">
+        <v>745</v>
+      </c>
+      <c r="J63" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B64" s="76"/>
-      <c r="C64" s="75"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="78" t="s">
+      <c r="B64" s="88"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="86"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="73" t="s">
         <v>502</v>
       </c>
-      <c r="G64" s="79"/>
-      <c r="H64" s="86"/>
+      <c r="G64" s="74"/>
+      <c r="H64" s="77"/>
       <c r="I64" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J64" s="95" t="s">
+        <v>745</v>
+      </c>
+      <c r="J64" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B65" s="76"/>
-      <c r="C65" s="75"/>
-      <c r="D65" s="75"/>
-      <c r="E65" s="75"/>
-      <c r="F65" s="78" t="s">
+      <c r="B65" s="88"/>
+      <c r="C65" s="86"/>
+      <c r="D65" s="86"/>
+      <c r="E65" s="86"/>
+      <c r="F65" s="73" t="s">
         <v>503</v>
       </c>
-      <c r="G65" s="79"/>
-      <c r="H65" s="86"/>
+      <c r="G65" s="74"/>
+      <c r="H65" s="77"/>
       <c r="I65" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J65" s="95" t="s">
+        <v>745</v>
+      </c>
+      <c r="J65" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B66" s="76"/>
-      <c r="C66" s="75"/>
-      <c r="D66" s="75"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="78" t="s">
+      <c r="B66" s="88"/>
+      <c r="C66" s="86"/>
+      <c r="D66" s="86"/>
+      <c r="E66" s="87"/>
+      <c r="F66" s="73" t="s">
         <v>504</v>
       </c>
-      <c r="G66" s="79"/>
-      <c r="H66" s="86"/>
+      <c r="G66" s="74"/>
+      <c r="H66" s="77"/>
       <c r="I66" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J66" s="95" t="s">
+        <v>745</v>
+      </c>
+      <c r="J66" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B67" s="76"/>
-      <c r="C67" s="75"/>
-      <c r="D67" s="75"/>
-      <c r="E67" s="84" t="s">
+      <c r="B67" s="88"/>
+      <c r="C67" s="86"/>
+      <c r="D67" s="86"/>
+      <c r="E67" s="83" t="s">
         <v>505</v>
       </c>
-      <c r="F67" s="82"/>
-      <c r="G67" s="82"/>
-      <c r="H67" s="86"/>
+      <c r="F67" s="90"/>
+      <c r="G67" s="90"/>
+      <c r="H67" s="82"/>
       <c r="I67" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J67" s="95" t="s">
+        <v>745</v>
+      </c>
+      <c r="J67" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B68" s="76"/>
-      <c r="C68" s="75"/>
-      <c r="D68" s="75"/>
-      <c r="E68" s="75"/>
-      <c r="F68" s="78" t="s">
+      <c r="B68" s="88"/>
+      <c r="C68" s="86"/>
+      <c r="D68" s="86"/>
+      <c r="E68" s="86"/>
+      <c r="F68" s="73" t="s">
         <v>506</v>
       </c>
-      <c r="G68" s="79"/>
-      <c r="H68" s="86"/>
+      <c r="G68" s="74"/>
+      <c r="H68" s="77"/>
       <c r="I68" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J68" s="95" t="s">
+        <v>745</v>
+      </c>
+      <c r="J68" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B69" s="76"/>
-      <c r="C69" s="75"/>
-      <c r="D69" s="75"/>
-      <c r="E69" s="75"/>
-      <c r="F69" s="78" t="s">
+      <c r="B69" s="88"/>
+      <c r="C69" s="86"/>
+      <c r="D69" s="86"/>
+      <c r="E69" s="86"/>
+      <c r="F69" s="73" t="s">
         <v>507</v>
       </c>
-      <c r="G69" s="79"/>
-      <c r="H69" s="86"/>
+      <c r="G69" s="74"/>
+      <c r="H69" s="77"/>
       <c r="I69" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J69" s="95" t="s">
+        <v>745</v>
+      </c>
+      <c r="J69" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B70" s="76"/>
-      <c r="C70" s="75"/>
-      <c r="D70" s="75"/>
-      <c r="E70" s="75"/>
-      <c r="F70" s="78" t="s">
+      <c r="B70" s="88"/>
+      <c r="C70" s="86"/>
+      <c r="D70" s="86"/>
+      <c r="E70" s="86"/>
+      <c r="F70" s="73" t="s">
         <v>508</v>
       </c>
-      <c r="G70" s="79"/>
-      <c r="H70" s="86"/>
+      <c r="G70" s="74"/>
+      <c r="H70" s="77"/>
       <c r="I70" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J70" s="95" t="s">
+        <v>745</v>
+      </c>
+      <c r="J70" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B71" s="76"/>
-      <c r="C71" s="75"/>
-      <c r="D71" s="75"/>
-      <c r="E71" s="75"/>
-      <c r="F71" s="78" t="s">
+      <c r="B71" s="88"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="86"/>
+      <c r="E71" s="86"/>
+      <c r="F71" s="73" t="s">
         <v>509</v>
       </c>
-      <c r="G71" s="79"/>
-      <c r="H71" s="86"/>
+      <c r="G71" s="74"/>
+      <c r="H71" s="77"/>
       <c r="I71" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J71" s="95" t="s">
+        <v>745</v>
+      </c>
+      <c r="J71" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B72" s="76"/>
-      <c r="C72" s="75"/>
-      <c r="D72" s="75"/>
-      <c r="E72" s="75"/>
-      <c r="F72" s="78" t="s">
+      <c r="B72" s="88"/>
+      <c r="C72" s="86"/>
+      <c r="D72" s="86"/>
+      <c r="E72" s="86"/>
+      <c r="F72" s="73" t="s">
         <v>510</v>
       </c>
-      <c r="G72" s="79"/>
-      <c r="H72" s="86"/>
+      <c r="G72" s="74"/>
+      <c r="H72" s="77"/>
       <c r="I72" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J72" s="95" t="s">
+        <v>745</v>
+      </c>
+      <c r="J72" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B73" s="76"/>
-      <c r="C73" s="75"/>
-      <c r="D73" s="75"/>
-      <c r="E73" s="75"/>
-      <c r="F73" s="78" t="s">
+      <c r="B73" s="88"/>
+      <c r="C73" s="86"/>
+      <c r="D73" s="86"/>
+      <c r="E73" s="86"/>
+      <c r="F73" s="73" t="s">
         <v>511</v>
       </c>
-      <c r="G73" s="79"/>
-      <c r="H73" s="86"/>
+      <c r="G73" s="74"/>
+      <c r="H73" s="77"/>
       <c r="I73" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J73" s="95" t="s">
+        <v>745</v>
+      </c>
+      <c r="J73" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B74" s="76"/>
-      <c r="C74" s="75"/>
-      <c r="D74" s="75"/>
-      <c r="E74" s="75"/>
-      <c r="F74" s="78" t="s">
+      <c r="B74" s="88"/>
+      <c r="C74" s="86"/>
+      <c r="D74" s="86"/>
+      <c r="E74" s="86"/>
+      <c r="F74" s="73" t="s">
         <v>512</v>
       </c>
-      <c r="G74" s="79"/>
-      <c r="H74" s="86"/>
+      <c r="G74" s="74"/>
+      <c r="H74" s="77"/>
       <c r="I74" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J74" s="95" t="s">
+        <v>745</v>
+      </c>
+      <c r="J74" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B75" s="76"/>
-      <c r="C75" s="75"/>
-      <c r="D75" s="75"/>
-      <c r="E75" s="75"/>
-      <c r="F75" s="78" t="s">
+      <c r="B75" s="88"/>
+      <c r="C75" s="86"/>
+      <c r="D75" s="86"/>
+      <c r="E75" s="86"/>
+      <c r="F75" s="73" t="s">
         <v>513</v>
       </c>
-      <c r="G75" s="79"/>
-      <c r="H75" s="86"/>
+      <c r="G75" s="74"/>
+      <c r="H75" s="77"/>
       <c r="I75" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J75" s="95" t="s">
+        <v>745</v>
+      </c>
+      <c r="J75" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B76" s="76"/>
-      <c r="C76" s="75"/>
-      <c r="D76" s="75"/>
-      <c r="E76" s="75"/>
-      <c r="F76" s="78" t="s">
+      <c r="B76" s="88"/>
+      <c r="C76" s="86"/>
+      <c r="D76" s="86"/>
+      <c r="E76" s="86"/>
+      <c r="F76" s="73" t="s">
         <v>514</v>
       </c>
-      <c r="G76" s="79"/>
-      <c r="H76" s="86"/>
+      <c r="G76" s="74"/>
+      <c r="H76" s="77"/>
       <c r="I76" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J76" s="95" t="s">
+        <v>745</v>
+      </c>
+      <c r="J76" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B77" s="76"/>
-      <c r="C77" s="75"/>
-      <c r="D77" s="75"/>
-      <c r="E77" s="75"/>
-      <c r="F77" s="78" t="s">
+      <c r="B77" s="88"/>
+      <c r="C77" s="86"/>
+      <c r="D77" s="86"/>
+      <c r="E77" s="86"/>
+      <c r="F77" s="73" t="s">
         <v>515</v>
       </c>
-      <c r="G77" s="79"/>
-      <c r="H77" s="86"/>
+      <c r="G77" s="74"/>
+      <c r="H77" s="77"/>
       <c r="I77" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J77" s="95" t="s">
+        <v>745</v>
+      </c>
+      <c r="J77" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B78" s="76"/>
-      <c r="C78" s="75"/>
-      <c r="D78" s="75"/>
-      <c r="E78" s="74"/>
-      <c r="F78" s="78" t="s">
+      <c r="B78" s="88"/>
+      <c r="C78" s="86"/>
+      <c r="D78" s="86"/>
+      <c r="E78" s="87"/>
+      <c r="F78" s="73" t="s">
         <v>516</v>
       </c>
-      <c r="G78" s="79"/>
-      <c r="H78" s="86"/>
+      <c r="G78" s="74"/>
+      <c r="H78" s="77"/>
       <c r="I78" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J78" s="95" t="s">
+        <v>745</v>
+      </c>
+      <c r="J78" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B79" s="77"/>
-      <c r="C79" s="74"/>
-      <c r="D79" s="74"/>
-      <c r="E79" s="78" t="s">
+      <c r="B79" s="89"/>
+      <c r="C79" s="87"/>
+      <c r="D79" s="87"/>
+      <c r="E79" s="73" t="s">
         <v>517</v>
       </c>
-      <c r="F79" s="79"/>
-      <c r="G79" s="79"/>
-      <c r="H79" s="86"/>
+      <c r="F79" s="74"/>
+      <c r="G79" s="74"/>
+      <c r="H79" s="77"/>
       <c r="I79" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J79" s="95" t="s">
+        <v>745</v>
+      </c>
+      <c r="J79" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B80" s="97" t="s">
+      <c r="B80" s="83" t="s">
         <v>518</v>
       </c>
-      <c r="C80" s="104"/>
-      <c r="D80" s="104"/>
-      <c r="E80" s="104"/>
-      <c r="F80" s="104"/>
-      <c r="G80" s="104"/>
-      <c r="H80" s="96"/>
+      <c r="C80" s="90"/>
+      <c r="D80" s="90"/>
+      <c r="E80" s="90"/>
+      <c r="F80" s="90"/>
+      <c r="G80" s="90"/>
+      <c r="H80" s="82"/>
       <c r="I80" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J80" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J80" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B81" s="75"/>
-      <c r="C81" s="84" t="s">
+      <c r="B81" s="86"/>
+      <c r="C81" s="83" t="s">
         <v>519</v>
       </c>
-      <c r="D81" s="82"/>
-      <c r="E81" s="82"/>
-      <c r="F81" s="82"/>
-      <c r="G81" s="82"/>
-      <c r="H81" s="86"/>
+      <c r="D81" s="90"/>
+      <c r="E81" s="90"/>
+      <c r="F81" s="90"/>
+      <c r="G81" s="90"/>
+      <c r="H81" s="82"/>
       <c r="I81" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J81" s="95" t="s">
+        <v>751</v>
+      </c>
+      <c r="J81" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B82" s="75"/>
-      <c r="C82" s="75"/>
-      <c r="D82" s="84" t="s">
+      <c r="B82" s="86"/>
+      <c r="C82" s="86"/>
+      <c r="D82" s="83" t="s">
         <v>453</v>
       </c>
-      <c r="E82" s="82"/>
-      <c r="F82" s="82"/>
-      <c r="G82" s="82"/>
-      <c r="H82" s="86"/>
+      <c r="E82" s="90"/>
+      <c r="F82" s="90"/>
+      <c r="G82" s="90"/>
+      <c r="H82" s="82"/>
       <c r="I82" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J82" s="95" t="s">
+        <v>751</v>
+      </c>
+      <c r="J82" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B83" s="75"/>
-      <c r="C83" s="75"/>
-      <c r="D83" s="75"/>
-      <c r="E83" s="84" t="s">
+      <c r="B83" s="86"/>
+      <c r="C83" s="86"/>
+      <c r="D83" s="86"/>
+      <c r="E83" s="83" t="s">
         <v>454</v>
       </c>
-      <c r="F83" s="82"/>
-      <c r="G83" s="82"/>
-      <c r="H83" s="86"/>
+      <c r="F83" s="90"/>
+      <c r="G83" s="90"/>
+      <c r="H83" s="82"/>
       <c r="I83" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J83" s="95" t="s">
+        <v>751</v>
+      </c>
+      <c r="J83" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B84" s="75"/>
-      <c r="C84" s="75"/>
-      <c r="D84" s="75"/>
-      <c r="E84" s="75"/>
-      <c r="F84" s="84" t="s">
+      <c r="B84" s="86"/>
+      <c r="C84" s="86"/>
+      <c r="D84" s="86"/>
+      <c r="E84" s="86"/>
+      <c r="F84" s="83" t="s">
         <v>520</v>
       </c>
-      <c r="G84" s="82"/>
-      <c r="H84" s="86"/>
+      <c r="G84" s="90"/>
+      <c r="H84" s="82"/>
       <c r="I84" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J84" s="95" t="s">
+        <v>751</v>
+      </c>
+      <c r="J84" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B85" s="75"/>
-      <c r="C85" s="75"/>
-      <c r="D85" s="75"/>
-      <c r="E85" s="75"/>
-      <c r="F85" s="75"/>
-      <c r="G85" s="87" t="s">
+      <c r="B85" s="86"/>
+      <c r="C85" s="86"/>
+      <c r="D85" s="86"/>
+      <c r="E85" s="86"/>
+      <c r="F85" s="86"/>
+      <c r="G85" s="107" t="s">
         <v>521</v>
       </c>
-      <c r="H85" s="86"/>
+      <c r="H85" s="82"/>
       <c r="I85" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J85" s="95" t="s">
+        <v>751</v>
+      </c>
+      <c r="J85" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B86" s="75"/>
-      <c r="C86" s="75"/>
-      <c r="D86" s="75"/>
-      <c r="E86" s="75"/>
-      <c r="F86" s="75"/>
-      <c r="G86" s="77"/>
-      <c r="H86" s="86" t="s">
+      <c r="B86" s="86"/>
+      <c r="C86" s="86"/>
+      <c r="D86" s="86"/>
+      <c r="E86" s="86"/>
+      <c r="F86" s="86"/>
+      <c r="G86" s="89"/>
+      <c r="H86" s="77" t="s">
         <v>736</v>
       </c>
       <c r="I86" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J86" s="95" t="s">
+        <v>751</v>
+      </c>
+      <c r="J86" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B87" s="75"/>
-      <c r="C87" s="75"/>
-      <c r="D87" s="75"/>
-      <c r="E87" s="75"/>
-      <c r="F87" s="75"/>
-      <c r="G87" s="87" t="s">
+      <c r="B87" s="86"/>
+      <c r="C87" s="86"/>
+      <c r="D87" s="86"/>
+      <c r="E87" s="86"/>
+      <c r="F87" s="86"/>
+      <c r="G87" s="107" t="s">
         <v>522</v>
       </c>
-      <c r="H87" s="86"/>
+      <c r="H87" s="82"/>
       <c r="I87" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J87" s="95" t="s">
+        <v>751</v>
+      </c>
+      <c r="J87" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B88" s="75"/>
-      <c r="C88" s="75"/>
-      <c r="D88" s="75"/>
-      <c r="E88" s="75"/>
-      <c r="F88" s="75"/>
-      <c r="G88" s="77"/>
-      <c r="H88" s="86" t="s">
+      <c r="B88" s="86"/>
+      <c r="C88" s="86"/>
+      <c r="D88" s="86"/>
+      <c r="E88" s="86"/>
+      <c r="F88" s="86"/>
+      <c r="G88" s="89"/>
+      <c r="H88" s="77" t="s">
         <v>736</v>
       </c>
       <c r="I88" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J88" s="95" t="s">
+        <v>751</v>
+      </c>
+      <c r="J88" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B89" s="75"/>
-      <c r="C89" s="75"/>
-      <c r="D89" s="75"/>
-      <c r="E89" s="75"/>
-      <c r="F89" s="75"/>
-      <c r="G89" s="87" t="s">
+      <c r="B89" s="86"/>
+      <c r="C89" s="86"/>
+      <c r="D89" s="86"/>
+      <c r="E89" s="86"/>
+      <c r="F89" s="86"/>
+      <c r="G89" s="107" t="s">
         <v>523</v>
       </c>
-      <c r="H89" s="86"/>
+      <c r="H89" s="82"/>
       <c r="I89" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J89" s="95" t="s">
+        <v>751</v>
+      </c>
+      <c r="J89" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B90" s="75"/>
-      <c r="C90" s="74"/>
-      <c r="D90" s="74"/>
-      <c r="E90" s="74"/>
-      <c r="F90" s="74"/>
-      <c r="G90" s="77"/>
-      <c r="H90" s="86" t="s">
+      <c r="B90" s="86"/>
+      <c r="C90" s="87"/>
+      <c r="D90" s="87"/>
+      <c r="E90" s="87"/>
+      <c r="F90" s="87"/>
+      <c r="G90" s="89"/>
+      <c r="H90" s="77" t="s">
         <v>736</v>
       </c>
       <c r="I90" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J90" s="95" t="s">
+        <v>751</v>
+      </c>
+      <c r="J90" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B91" s="75"/>
-      <c r="C91" s="84" t="s">
+      <c r="B91" s="86"/>
+      <c r="C91" s="83" t="s">
         <v>524</v>
       </c>
-      <c r="D91" s="82"/>
-      <c r="E91" s="82"/>
-      <c r="F91" s="82"/>
-      <c r="G91" s="82"/>
-      <c r="H91" s="83"/>
+      <c r="D91" s="90"/>
+      <c r="E91" s="90"/>
+      <c r="F91" s="90"/>
+      <c r="G91" s="90"/>
+      <c r="H91" s="104"/>
       <c r="I91" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J91" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J91" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B92" s="75"/>
-      <c r="C92" s="75"/>
-      <c r="D92" s="84" t="s">
+      <c r="B92" s="86"/>
+      <c r="C92" s="86"/>
+      <c r="D92" s="83" t="s">
         <v>525</v>
       </c>
-      <c r="E92" s="82"/>
-      <c r="F92" s="82"/>
-      <c r="G92" s="82"/>
-      <c r="H92" s="83"/>
+      <c r="E92" s="90"/>
+      <c r="F92" s="90"/>
+      <c r="G92" s="90"/>
+      <c r="H92" s="104"/>
       <c r="I92" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J92" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J92" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B93" s="75"/>
-      <c r="C93" s="75"/>
-      <c r="D93" s="75"/>
-      <c r="E93" s="85" t="s">
+      <c r="B93" s="86"/>
+      <c r="C93" s="86"/>
+      <c r="D93" s="86"/>
+      <c r="E93" s="76" t="s">
         <v>526</v>
       </c>
-      <c r="F93" s="88"/>
-      <c r="G93" s="88"/>
-      <c r="H93" s="86"/>
+      <c r="F93" s="78"/>
+      <c r="G93" s="78"/>
+      <c r="H93" s="77"/>
       <c r="I93" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J93" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J93" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B94" s="75"/>
-      <c r="C94" s="75"/>
-      <c r="D94" s="75"/>
-      <c r="E94" s="85" t="s">
+      <c r="B94" s="86"/>
+      <c r="C94" s="86"/>
+      <c r="D94" s="86"/>
+      <c r="E94" s="76" t="s">
         <v>527</v>
       </c>
-      <c r="F94" s="88"/>
-      <c r="G94" s="88"/>
-      <c r="H94" s="86"/>
+      <c r="F94" s="78"/>
+      <c r="G94" s="78"/>
+      <c r="H94" s="77"/>
       <c r="I94" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J94" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J94" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B95" s="75"/>
-      <c r="C95" s="75"/>
-      <c r="D95" s="75"/>
-      <c r="E95" s="84" t="s">
+      <c r="B95" s="86"/>
+      <c r="C95" s="86"/>
+      <c r="D95" s="86"/>
+      <c r="E95" s="83" t="s">
         <v>453</v>
       </c>
-      <c r="F95" s="82"/>
-      <c r="G95" s="82"/>
-      <c r="H95" s="83"/>
+      <c r="F95" s="90"/>
+      <c r="G95" s="90"/>
+      <c r="H95" s="104"/>
       <c r="I95" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J95" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J95" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B96" s="75"/>
-      <c r="C96" s="75"/>
-      <c r="D96" s="75"/>
-      <c r="E96" s="75"/>
-      <c r="F96" s="85" t="s">
+      <c r="B96" s="86"/>
+      <c r="C96" s="86"/>
+      <c r="D96" s="86"/>
+      <c r="E96" s="86"/>
+      <c r="F96" s="76" t="s">
         <v>528</v>
       </c>
-      <c r="G96" s="88"/>
-      <c r="H96" s="86"/>
+      <c r="G96" s="78"/>
+      <c r="H96" s="77"/>
       <c r="I96" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J96" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J96" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B97" s="75"/>
-      <c r="C97" s="75"/>
-      <c r="D97" s="75"/>
-      <c r="E97" s="75"/>
-      <c r="F97" s="85" t="s">
+      <c r="B97" s="86"/>
+      <c r="C97" s="86"/>
+      <c r="D97" s="86"/>
+      <c r="E97" s="86"/>
+      <c r="F97" s="76" t="s">
         <v>529</v>
       </c>
-      <c r="G97" s="88"/>
-      <c r="H97" s="86"/>
+      <c r="G97" s="78"/>
+      <c r="H97" s="77"/>
       <c r="I97" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J97" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J97" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B98" s="75"/>
-      <c r="C98" s="75"/>
-      <c r="D98" s="75"/>
-      <c r="E98" s="75"/>
-      <c r="F98" s="84" t="s">
+      <c r="B98" s="86"/>
+      <c r="C98" s="86"/>
+      <c r="D98" s="86"/>
+      <c r="E98" s="86"/>
+      <c r="F98" s="83" t="s">
         <v>454</v>
       </c>
-      <c r="G98" s="82"/>
-      <c r="H98" s="83"/>
+      <c r="G98" s="90"/>
+      <c r="H98" s="104"/>
       <c r="I98" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J98" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J98" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B99" s="75"/>
-      <c r="C99" s="75"/>
-      <c r="D99" s="75"/>
-      <c r="E99" s="75"/>
-      <c r="F99" s="75"/>
-      <c r="G99" s="85" t="s">
+      <c r="B99" s="86"/>
+      <c r="C99" s="86"/>
+      <c r="D99" s="86"/>
+      <c r="E99" s="86"/>
+      <c r="F99" s="86"/>
+      <c r="G99" s="76" t="s">
         <v>530</v>
       </c>
-      <c r="H99" s="86"/>
+      <c r="H99" s="77"/>
       <c r="I99" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J99" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J99" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B100" s="75"/>
-      <c r="C100" s="75"/>
-      <c r="D100" s="75"/>
-      <c r="E100" s="74"/>
-      <c r="F100" s="74"/>
-      <c r="G100" s="85" t="s">
+      <c r="B100" s="86"/>
+      <c r="C100" s="86"/>
+      <c r="D100" s="86"/>
+      <c r="E100" s="87"/>
+      <c r="F100" s="87"/>
+      <c r="G100" s="76" t="s">
         <v>531</v>
       </c>
-      <c r="H100" s="86"/>
+      <c r="H100" s="77"/>
       <c r="I100" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J100" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J100" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B101" s="75"/>
-      <c r="C101" s="75"/>
-      <c r="D101" s="75"/>
-      <c r="E101" s="84" t="s">
+      <c r="B101" s="86"/>
+      <c r="C101" s="86"/>
+      <c r="D101" s="86"/>
+      <c r="E101" s="83" t="s">
         <v>532</v>
       </c>
-      <c r="F101" s="82"/>
-      <c r="G101" s="82"/>
-      <c r="H101" s="83"/>
+      <c r="F101" s="90"/>
+      <c r="G101" s="90"/>
+      <c r="H101" s="104"/>
       <c r="I101" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J101" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J101" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B102" s="75"/>
-      <c r="C102" s="75"/>
-      <c r="D102" s="75"/>
-      <c r="E102" s="75"/>
-      <c r="F102" s="85" t="s">
+      <c r="B102" s="86"/>
+      <c r="C102" s="86"/>
+      <c r="D102" s="86"/>
+      <c r="E102" s="86"/>
+      <c r="F102" s="76" t="s">
         <v>533</v>
       </c>
-      <c r="G102" s="88"/>
-      <c r="H102" s="86"/>
+      <c r="G102" s="78"/>
+      <c r="H102" s="77"/>
       <c r="I102" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J102" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J102" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B103" s="75"/>
-      <c r="C103" s="75"/>
-      <c r="D103" s="74"/>
-      <c r="E103" s="74"/>
-      <c r="F103" s="85" t="s">
+      <c r="B103" s="86"/>
+      <c r="C103" s="86"/>
+      <c r="D103" s="87"/>
+      <c r="E103" s="87"/>
+      <c r="F103" s="76" t="s">
         <v>534</v>
       </c>
-      <c r="G103" s="88"/>
-      <c r="H103" s="86"/>
+      <c r="G103" s="78"/>
+      <c r="H103" s="77"/>
       <c r="I103" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J103" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J103" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B104" s="75"/>
-      <c r="C104" s="75"/>
-      <c r="D104" s="119" t="s">
+      <c r="B104" s="86"/>
+      <c r="C104" s="86"/>
+      <c r="D104" s="108" t="s">
         <v>535</v>
       </c>
-      <c r="E104" s="120"/>
-      <c r="F104" s="120"/>
-      <c r="G104" s="120"/>
-      <c r="H104" s="121"/>
+      <c r="E104" s="109"/>
+      <c r="F104" s="109"/>
+      <c r="G104" s="109"/>
+      <c r="H104" s="110"/>
       <c r="I104" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J104" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J104" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B105" s="75"/>
-      <c r="C105" s="75"/>
-      <c r="D105" s="75"/>
-      <c r="E105" s="85" t="s">
+      <c r="B105" s="86"/>
+      <c r="C105" s="86"/>
+      <c r="D105" s="86"/>
+      <c r="E105" s="76" t="s">
         <v>536</v>
       </c>
-      <c r="F105" s="88"/>
-      <c r="G105" s="88"/>
-      <c r="H105" s="86"/>
+      <c r="F105" s="78"/>
+      <c r="G105" s="78"/>
+      <c r="H105" s="77"/>
       <c r="I105" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J105" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J105" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B106" s="75"/>
-      <c r="C106" s="75"/>
-      <c r="D106" s="75"/>
-      <c r="E106" s="85" t="s">
+      <c r="B106" s="86"/>
+      <c r="C106" s="86"/>
+      <c r="D106" s="86"/>
+      <c r="E106" s="76" t="s">
         <v>537</v>
       </c>
-      <c r="F106" s="88"/>
-      <c r="G106" s="88"/>
-      <c r="H106" s="86"/>
+      <c r="F106" s="78"/>
+      <c r="G106" s="78"/>
+      <c r="H106" s="77"/>
       <c r="I106" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J106" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J106" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B107" s="75"/>
-      <c r="C107" s="75"/>
-      <c r="D107" s="75"/>
-      <c r="E107" s="85" t="s">
+      <c r="B107" s="86"/>
+      <c r="C107" s="86"/>
+      <c r="D107" s="86"/>
+      <c r="E107" s="76" t="s">
         <v>538</v>
       </c>
-      <c r="F107" s="88"/>
-      <c r="G107" s="88"/>
-      <c r="H107" s="86"/>
+      <c r="F107" s="78"/>
+      <c r="G107" s="78"/>
+      <c r="H107" s="77"/>
       <c r="I107" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J107" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J107" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B108" s="75"/>
-      <c r="C108" s="75"/>
-      <c r="D108" s="75"/>
-      <c r="E108" s="85" t="s">
+      <c r="B108" s="86"/>
+      <c r="C108" s="86"/>
+      <c r="D108" s="86"/>
+      <c r="E108" s="76" t="s">
         <v>539</v>
       </c>
-      <c r="F108" s="88"/>
-      <c r="G108" s="88"/>
-      <c r="H108" s="86"/>
+      <c r="F108" s="78"/>
+      <c r="G108" s="78"/>
+      <c r="H108" s="77"/>
       <c r="I108" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J108" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J108" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B109" s="75"/>
-      <c r="C109" s="75"/>
-      <c r="D109" s="75"/>
-      <c r="E109" s="85" t="s">
+      <c r="B109" s="86"/>
+      <c r="C109" s="86"/>
+      <c r="D109" s="86"/>
+      <c r="E109" s="76" t="s">
         <v>540</v>
       </c>
-      <c r="F109" s="88"/>
-      <c r="G109" s="88"/>
-      <c r="H109" s="86"/>
+      <c r="F109" s="78"/>
+      <c r="G109" s="78"/>
+      <c r="H109" s="77"/>
       <c r="I109" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J109" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J109" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B110" s="75"/>
-      <c r="C110" s="75"/>
-      <c r="D110" s="74"/>
-      <c r="E110" s="85" t="s">
+      <c r="B110" s="86"/>
+      <c r="C110" s="86"/>
+      <c r="D110" s="87"/>
+      <c r="E110" s="76" t="s">
         <v>541</v>
       </c>
-      <c r="F110" s="88"/>
-      <c r="G110" s="88"/>
-      <c r="H110" s="86"/>
+      <c r="F110" s="78"/>
+      <c r="G110" s="78"/>
+      <c r="H110" s="77"/>
       <c r="I110" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J110" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J110" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B111" s="75"/>
-      <c r="C111" s="74"/>
-      <c r="D111" s="78" t="s">
+      <c r="B111" s="86"/>
+      <c r="C111" s="87"/>
+      <c r="D111" s="73" t="s">
         <v>542</v>
       </c>
-      <c r="E111" s="79"/>
-      <c r="F111" s="79"/>
-      <c r="G111" s="79"/>
-      <c r="H111" s="80"/>
+      <c r="E111" s="74"/>
+      <c r="F111" s="74"/>
+      <c r="G111" s="74"/>
+      <c r="H111" s="75"/>
       <c r="I111" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J111" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J111" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B112" s="75"/>
-      <c r="C112" s="84" t="s">
+      <c r="B112" s="86"/>
+      <c r="C112" s="83" t="s">
         <v>543</v>
       </c>
-      <c r="D112" s="82"/>
-      <c r="E112" s="82"/>
-      <c r="F112" s="82"/>
-      <c r="G112" s="82"/>
-      <c r="H112" s="83"/>
+      <c r="D112" s="90"/>
+      <c r="E112" s="90"/>
+      <c r="F112" s="90"/>
+      <c r="G112" s="90"/>
+      <c r="H112" s="104"/>
       <c r="I112" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J112" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J112" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B113" s="75"/>
-      <c r="C113" s="75"/>
-      <c r="D113" s="84" t="s">
+      <c r="B113" s="86"/>
+      <c r="C113" s="86"/>
+      <c r="D113" s="83" t="s">
         <v>544</v>
       </c>
-      <c r="E113" s="82"/>
-      <c r="F113" s="82"/>
-      <c r="G113" s="82"/>
-      <c r="H113" s="83"/>
+      <c r="E113" s="90"/>
+      <c r="F113" s="90"/>
+      <c r="G113" s="90"/>
+      <c r="H113" s="104"/>
       <c r="I113" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J113" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J113" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B114" s="75"/>
-      <c r="C114" s="75"/>
-      <c r="D114" s="75"/>
-      <c r="E114" s="81" t="s">
+      <c r="B114" s="86"/>
+      <c r="C114" s="86"/>
+      <c r="D114" s="86"/>
+      <c r="E114" s="111" t="s">
         <v>545</v>
       </c>
-      <c r="F114" s="82"/>
-      <c r="G114" s="82"/>
-      <c r="H114" s="83"/>
+      <c r="F114" s="90"/>
+      <c r="G114" s="90"/>
+      <c r="H114" s="104"/>
       <c r="I114" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J114" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J114" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B115" s="75"/>
-      <c r="C115" s="75"/>
-      <c r="D115" s="75"/>
-      <c r="E115" s="73"/>
-      <c r="F115" s="84" t="s">
+      <c r="B115" s="86"/>
+      <c r="C115" s="86"/>
+      <c r="D115" s="86"/>
+      <c r="E115" s="112"/>
+      <c r="F115" s="83" t="s">
         <v>546</v>
       </c>
-      <c r="G115" s="82"/>
-      <c r="H115" s="83"/>
+      <c r="G115" s="90"/>
+      <c r="H115" s="104"/>
       <c r="I115" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J115" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J115" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B116" s="75"/>
-      <c r="C116" s="75"/>
-      <c r="D116" s="75"/>
-      <c r="E116" s="75"/>
-      <c r="F116" s="75"/>
-      <c r="G116" s="85" t="s">
+      <c r="B116" s="86"/>
+      <c r="C116" s="86"/>
+      <c r="D116" s="86"/>
+      <c r="E116" s="86"/>
+      <c r="F116" s="86"/>
+      <c r="G116" s="76" t="s">
         <v>547</v>
       </c>
-      <c r="H116" s="86"/>
+      <c r="H116" s="77"/>
       <c r="I116" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J116" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J116" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B117" s="75"/>
-      <c r="C117" s="75"/>
-      <c r="D117" s="75"/>
-      <c r="E117" s="75"/>
-      <c r="F117" s="74"/>
-      <c r="G117" s="85" t="s">
+      <c r="B117" s="86"/>
+      <c r="C117" s="86"/>
+      <c r="D117" s="86"/>
+      <c r="E117" s="86"/>
+      <c r="F117" s="87"/>
+      <c r="G117" s="76" t="s">
         <v>548</v>
       </c>
-      <c r="H117" s="86"/>
+      <c r="H117" s="77"/>
       <c r="I117" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J117" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J117" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B118" s="75"/>
-      <c r="C118" s="75"/>
-      <c r="D118" s="75"/>
-      <c r="E118" s="75"/>
-      <c r="F118" s="85" t="s">
+      <c r="B118" s="86"/>
+      <c r="C118" s="86"/>
+      <c r="D118" s="86"/>
+      <c r="E118" s="86"/>
+      <c r="F118" s="76" t="s">
         <v>549</v>
       </c>
-      <c r="G118" s="88"/>
-      <c r="H118" s="86"/>
+      <c r="G118" s="78"/>
+      <c r="H118" s="77"/>
       <c r="I118" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J118" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J118" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B119" s="75"/>
-      <c r="C119" s="75"/>
-      <c r="D119" s="75"/>
-      <c r="E119" s="75"/>
-      <c r="F119" s="85" t="s">
+      <c r="B119" s="86"/>
+      <c r="C119" s="86"/>
+      <c r="D119" s="86"/>
+      <c r="E119" s="86"/>
+      <c r="F119" s="76" t="s">
         <v>550</v>
       </c>
-      <c r="G119" s="88"/>
-      <c r="H119" s="86"/>
+      <c r="G119" s="78"/>
+      <c r="H119" s="77"/>
       <c r="I119" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J119" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J119" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B120" s="75"/>
-      <c r="C120" s="75"/>
-      <c r="D120" s="75"/>
-      <c r="E120" s="75"/>
-      <c r="F120" s="85" t="s">
+      <c r="B120" s="86"/>
+      <c r="C120" s="86"/>
+      <c r="D120" s="86"/>
+      <c r="E120" s="86"/>
+      <c r="F120" s="76" t="s">
         <v>551</v>
       </c>
-      <c r="G120" s="88"/>
-      <c r="H120" s="86"/>
+      <c r="G120" s="78"/>
+      <c r="H120" s="77"/>
       <c r="I120" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J120" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J120" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B121" s="75"/>
-      <c r="C121" s="75"/>
-      <c r="D121" s="74"/>
-      <c r="E121" s="74"/>
-      <c r="F121" s="85" t="s">
+      <c r="B121" s="86"/>
+      <c r="C121" s="86"/>
+      <c r="D121" s="87"/>
+      <c r="E121" s="87"/>
+      <c r="F121" s="76" t="s">
         <v>552</v>
       </c>
-      <c r="G121" s="88"/>
-      <c r="H121" s="86"/>
+      <c r="G121" s="78"/>
+      <c r="H121" s="77"/>
       <c r="I121" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J121" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J121" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B122" s="75"/>
-      <c r="C122" s="75"/>
-      <c r="D122" s="84" t="s">
+      <c r="B122" s="86"/>
+      <c r="C122" s="86"/>
+      <c r="D122" s="83" t="s">
         <v>553</v>
       </c>
-      <c r="E122" s="82"/>
-      <c r="F122" s="82"/>
-      <c r="G122" s="82"/>
-      <c r="H122" s="83"/>
+      <c r="E122" s="90"/>
+      <c r="F122" s="90"/>
+      <c r="G122" s="90"/>
+      <c r="H122" s="104"/>
       <c r="I122" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J122" s="95" t="s">
+      <c r="J122" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B123" s="75"/>
-      <c r="C123" s="75"/>
-      <c r="D123" s="75"/>
-      <c r="E123" s="85" t="s">
+      <c r="B123" s="86"/>
+      <c r="C123" s="86"/>
+      <c r="D123" s="86"/>
+      <c r="E123" s="76" t="s">
         <v>554</v>
       </c>
-      <c r="F123" s="88"/>
-      <c r="G123" s="88"/>
-      <c r="H123" s="86"/>
+      <c r="F123" s="78"/>
+      <c r="G123" s="78"/>
+      <c r="H123" s="77"/>
       <c r="I123" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J123" s="95" t="s">
+      <c r="J123" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B124" s="75"/>
-      <c r="C124" s="75"/>
-      <c r="D124" s="74"/>
-      <c r="E124" s="85" t="s">
+      <c r="B124" s="86"/>
+      <c r="C124" s="86"/>
+      <c r="D124" s="87"/>
+      <c r="E124" s="76" t="s">
         <v>555</v>
       </c>
-      <c r="F124" s="88"/>
-      <c r="G124" s="88"/>
-      <c r="H124" s="86"/>
+      <c r="F124" s="78"/>
+      <c r="G124" s="78"/>
+      <c r="H124" s="77"/>
       <c r="I124" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J124" s="95" t="s">
+      <c r="J124" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B125" s="75"/>
-      <c r="C125" s="75"/>
-      <c r="D125" s="84" t="s">
+      <c r="B125" s="86"/>
+      <c r="C125" s="86"/>
+      <c r="D125" s="83" t="s">
         <v>556</v>
       </c>
-      <c r="E125" s="82"/>
-      <c r="F125" s="82"/>
-      <c r="G125" s="82"/>
-      <c r="H125" s="83"/>
+      <c r="E125" s="90"/>
+      <c r="F125" s="90"/>
+      <c r="G125" s="90"/>
+      <c r="H125" s="104"/>
       <c r="I125" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J125" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J125" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B126" s="75"/>
-      <c r="C126" s="75"/>
-      <c r="D126" s="75"/>
-      <c r="E126" s="78" t="s">
+      <c r="B126" s="86"/>
+      <c r="C126" s="86"/>
+      <c r="D126" s="86"/>
+      <c r="E126" s="73" t="s">
         <v>557</v>
       </c>
-      <c r="F126" s="79"/>
-      <c r="G126" s="79"/>
-      <c r="H126" s="80"/>
+      <c r="F126" s="74"/>
+      <c r="G126" s="74"/>
+      <c r="H126" s="75"/>
       <c r="I126" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J126" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J126" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B127" s="75"/>
-      <c r="C127" s="75"/>
-      <c r="D127" s="75"/>
-      <c r="E127" s="84" t="s">
+      <c r="B127" s="86"/>
+      <c r="C127" s="86"/>
+      <c r="D127" s="86"/>
+      <c r="E127" s="83" t="s">
         <v>453</v>
       </c>
-      <c r="F127" s="82"/>
-      <c r="G127" s="82"/>
-      <c r="H127" s="83"/>
+      <c r="F127" s="90"/>
+      <c r="G127" s="90"/>
+      <c r="H127" s="104"/>
       <c r="I127" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J127" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J127" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B128" s="75"/>
-      <c r="C128" s="75"/>
-      <c r="D128" s="75"/>
-      <c r="E128" s="75"/>
-      <c r="F128" s="84" t="s">
+      <c r="B128" s="86"/>
+      <c r="C128" s="86"/>
+      <c r="D128" s="86"/>
+      <c r="E128" s="86"/>
+      <c r="F128" s="83" t="s">
         <v>454</v>
       </c>
-      <c r="G128" s="82"/>
-      <c r="H128" s="83"/>
+      <c r="G128" s="90"/>
+      <c r="H128" s="104"/>
       <c r="I128" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J128" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J128" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B129" s="74"/>
-      <c r="C129" s="74"/>
-      <c r="D129" s="74"/>
-      <c r="E129" s="74"/>
-      <c r="F129" s="77"/>
-      <c r="G129" s="85" t="s">
+      <c r="B129" s="87"/>
+      <c r="C129" s="87"/>
+      <c r="D129" s="87"/>
+      <c r="E129" s="87"/>
+      <c r="F129" s="89"/>
+      <c r="G129" s="76" t="s">
         <v>558</v>
       </c>
-      <c r="H129" s="86"/>
+      <c r="H129" s="77"/>
       <c r="I129" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J129" s="95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J129" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B130" s="97" t="s">
+      <c r="B130" s="83" t="s">
         <v>519</v>
       </c>
-      <c r="C130" s="104"/>
-      <c r="D130" s="104"/>
-      <c r="E130" s="104"/>
-      <c r="F130" s="104"/>
-      <c r="G130" s="104"/>
-      <c r="H130" s="118"/>
+      <c r="C130" s="90"/>
+      <c r="D130" s="90"/>
+      <c r="E130" s="90"/>
+      <c r="F130" s="90"/>
+      <c r="G130" s="90"/>
+      <c r="H130" s="104"/>
       <c r="I130" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J130" s="95" t="s">
+        <v>747</v>
+      </c>
+      <c r="J130" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B131" s="75"/>
-      <c r="C131" s="84" t="s">
+      <c r="B131" s="86"/>
+      <c r="C131" s="83" t="s">
         <v>559</v>
       </c>
-      <c r="D131" s="82"/>
-      <c r="E131" s="82"/>
-      <c r="F131" s="82"/>
-      <c r="G131" s="82"/>
-      <c r="H131" s="83"/>
+      <c r="D131" s="90"/>
+      <c r="E131" s="90"/>
+      <c r="F131" s="90"/>
+      <c r="G131" s="90"/>
+      <c r="H131" s="104"/>
       <c r="I131" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J131" s="95" t="s">
+        <v>748</v>
+      </c>
+      <c r="J131" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B132" s="75"/>
-      <c r="C132" s="75"/>
-      <c r="D132" s="84" t="s">
+      <c r="B132" s="86"/>
+      <c r="C132" s="86"/>
+      <c r="D132" s="83" t="s">
         <v>453</v>
       </c>
-      <c r="E132" s="82"/>
-      <c r="F132" s="82"/>
-      <c r="G132" s="82"/>
-      <c r="H132" s="83"/>
+      <c r="E132" s="90"/>
+      <c r="F132" s="90"/>
+      <c r="G132" s="90"/>
+      <c r="H132" s="104"/>
       <c r="I132" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J132" s="95" t="s">
+        <v>748</v>
+      </c>
+      <c r="J132" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B133" s="75"/>
-      <c r="C133" s="75"/>
-      <c r="D133" s="76"/>
-      <c r="E133" s="84" t="s">
+      <c r="B133" s="86"/>
+      <c r="C133" s="86"/>
+      <c r="D133" s="88"/>
+      <c r="E133" s="83" t="s">
         <v>454</v>
       </c>
-      <c r="F133" s="82"/>
-      <c r="G133" s="82"/>
-      <c r="H133" s="83"/>
+      <c r="F133" s="90"/>
+      <c r="G133" s="90"/>
+      <c r="H133" s="104"/>
       <c r="I133" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J133" s="95" t="s">
+        <v>748</v>
+      </c>
+      <c r="J133" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B134" s="75"/>
-      <c r="C134" s="75"/>
-      <c r="D134" s="76"/>
-      <c r="E134" s="76"/>
-      <c r="F134" s="85" t="s">
+      <c r="B134" s="86"/>
+      <c r="C134" s="86"/>
+      <c r="D134" s="88"/>
+      <c r="E134" s="88"/>
+      <c r="F134" s="76" t="s">
         <v>560</v>
       </c>
-      <c r="G134" s="88"/>
-      <c r="H134" s="86"/>
+      <c r="G134" s="78"/>
+      <c r="H134" s="77"/>
       <c r="I134" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J134" s="95" t="s">
+        <v>748</v>
+      </c>
+      <c r="J134" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B135" s="75"/>
-      <c r="C135" s="74"/>
-      <c r="D135" s="77"/>
-      <c r="E135" s="77"/>
-      <c r="F135" s="85" t="s">
+      <c r="B135" s="86"/>
+      <c r="C135" s="87"/>
+      <c r="D135" s="89"/>
+      <c r="E135" s="89"/>
+      <c r="F135" s="76" t="s">
         <v>561</v>
       </c>
-      <c r="G135" s="88"/>
-      <c r="H135" s="86"/>
+      <c r="G135" s="78"/>
+      <c r="H135" s="77"/>
       <c r="I135" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J135" s="95" t="s">
+        <v>748</v>
+      </c>
+      <c r="J135" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B136" s="75"/>
-      <c r="C136" s="84" t="s">
+      <c r="B136" s="86"/>
+      <c r="C136" s="83" t="s">
         <v>562</v>
       </c>
-      <c r="D136" s="82"/>
-      <c r="E136" s="82"/>
-      <c r="F136" s="82"/>
-      <c r="G136" s="82"/>
-      <c r="H136" s="83"/>
+      <c r="D136" s="90"/>
+      <c r="E136" s="90"/>
+      <c r="F136" s="90"/>
+      <c r="G136" s="90"/>
+      <c r="H136" s="104"/>
       <c r="I136" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J136" s="95" t="s">
+        <v>750</v>
+      </c>
+      <c r="J136" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B137" s="75"/>
-      <c r="C137" s="75"/>
-      <c r="D137" s="84" t="s">
+      <c r="B137" s="86"/>
+      <c r="C137" s="86"/>
+      <c r="D137" s="83" t="s">
         <v>563</v>
       </c>
-      <c r="E137" s="82"/>
-      <c r="F137" s="82"/>
-      <c r="G137" s="82"/>
-      <c r="H137" s="83"/>
+      <c r="E137" s="90"/>
+      <c r="F137" s="90"/>
+      <c r="G137" s="90"/>
+      <c r="H137" s="104"/>
       <c r="I137" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J137" s="95" t="s">
+        <v>750</v>
+      </c>
+      <c r="J137" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B138" s="75"/>
-      <c r="C138" s="75"/>
-      <c r="D138" s="75"/>
-      <c r="E138" s="85" t="s">
+      <c r="B138" s="86"/>
+      <c r="C138" s="86"/>
+      <c r="D138" s="86"/>
+      <c r="E138" s="76" t="s">
         <v>564</v>
       </c>
-      <c r="F138" s="88"/>
-      <c r="G138" s="88"/>
-      <c r="H138" s="86"/>
+      <c r="F138" s="78"/>
+      <c r="G138" s="78"/>
+      <c r="H138" s="77"/>
       <c r="I138" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J138" s="95" t="s">
+        <v>750</v>
+      </c>
+      <c r="J138" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B139" s="75"/>
-      <c r="C139" s="75"/>
-      <c r="D139" s="74"/>
-      <c r="E139" s="85" t="s">
+      <c r="B139" s="86"/>
+      <c r="C139" s="86"/>
+      <c r="D139" s="87"/>
+      <c r="E139" s="76" t="s">
         <v>565</v>
       </c>
-      <c r="F139" s="88"/>
-      <c r="G139" s="88"/>
-      <c r="H139" s="86"/>
+      <c r="F139" s="78"/>
+      <c r="G139" s="78"/>
+      <c r="H139" s="77"/>
       <c r="I139" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J139" s="95" t="s">
+        <v>750</v>
+      </c>
+      <c r="J139" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B140" s="75"/>
-      <c r="C140" s="75"/>
-      <c r="D140" s="85" t="s">
+      <c r="B140" s="86"/>
+      <c r="C140" s="86"/>
+      <c r="D140" s="76" t="s">
         <v>566</v>
       </c>
-      <c r="E140" s="88"/>
-      <c r="F140" s="88"/>
-      <c r="G140" s="88"/>
-      <c r="H140" s="86"/>
+      <c r="E140" s="78"/>
+      <c r="F140" s="78"/>
+      <c r="G140" s="78"/>
+      <c r="H140" s="77"/>
       <c r="I140" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J140" s="95" t="s">
+        <v>750</v>
+      </c>
+      <c r="J140" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B141" s="75"/>
-      <c r="C141" s="75"/>
-      <c r="D141" s="85" t="s">
+      <c r="B141" s="86"/>
+      <c r="C141" s="86"/>
+      <c r="D141" s="76" t="s">
         <v>567</v>
       </c>
-      <c r="E141" s="88"/>
-      <c r="F141" s="88"/>
-      <c r="G141" s="88"/>
-      <c r="H141" s="86"/>
+      <c r="E141" s="78"/>
+      <c r="F141" s="78"/>
+      <c r="G141" s="78"/>
+      <c r="H141" s="77"/>
       <c r="I141" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J141" s="95" t="s">
+        <v>750</v>
+      </c>
+      <c r="J141" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B142" s="75"/>
-      <c r="C142" s="75"/>
-      <c r="D142" s="85" t="s">
+      <c r="B142" s="86"/>
+      <c r="C142" s="86"/>
+      <c r="D142" s="76" t="s">
         <v>568</v>
       </c>
-      <c r="E142" s="88"/>
-      <c r="F142" s="88"/>
-      <c r="G142" s="88"/>
-      <c r="H142" s="86"/>
+      <c r="E142" s="78"/>
+      <c r="F142" s="78"/>
+      <c r="G142" s="78"/>
+      <c r="H142" s="77"/>
       <c r="I142" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J142" s="95" t="s">
+        <v>750</v>
+      </c>
+      <c r="J142" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B143" s="75"/>
-      <c r="C143" s="74"/>
-      <c r="D143" s="85" t="s">
+      <c r="B143" s="86"/>
+      <c r="C143" s="87"/>
+      <c r="D143" s="76" t="s">
         <v>569</v>
       </c>
-      <c r="E143" s="88"/>
-      <c r="F143" s="88"/>
-      <c r="G143" s="88"/>
-      <c r="H143" s="86"/>
+      <c r="E143" s="78"/>
+      <c r="F143" s="78"/>
+      <c r="G143" s="78"/>
+      <c r="H143" s="77"/>
       <c r="I143" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J143" s="95" t="s">
+        <v>750</v>
+      </c>
+      <c r="J143" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B144" s="75"/>
-      <c r="C144" s="84" t="s">
+      <c r="B144" s="86"/>
+      <c r="C144" s="83" t="s">
         <v>570</v>
       </c>
-      <c r="D144" s="82"/>
-      <c r="E144" s="82"/>
-      <c r="F144" s="82"/>
-      <c r="G144" s="82"/>
-      <c r="H144" s="83"/>
+      <c r="D144" s="90"/>
+      <c r="E144" s="90"/>
+      <c r="F144" s="90"/>
+      <c r="G144" s="90"/>
+      <c r="H144" s="104"/>
       <c r="I144" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J144" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="J144" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B145" s="75"/>
-      <c r="C145" s="75"/>
-      <c r="D145" s="84" t="s">
+      <c r="B145" s="86"/>
+      <c r="C145" s="86"/>
+      <c r="D145" s="83" t="s">
         <v>453</v>
       </c>
-      <c r="E145" s="82"/>
-      <c r="F145" s="82"/>
-      <c r="G145" s="82"/>
-      <c r="H145" s="83"/>
+      <c r="E145" s="90"/>
+      <c r="F145" s="90"/>
+      <c r="G145" s="90"/>
+      <c r="H145" s="104"/>
       <c r="I145" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J145" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="J145" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B146" s="75"/>
-      <c r="C146" s="75"/>
-      <c r="D146" s="75"/>
-      <c r="E146" s="85" t="s">
+      <c r="B146" s="86"/>
+      <c r="C146" s="86"/>
+      <c r="D146" s="86"/>
+      <c r="E146" s="76" t="s">
         <v>571</v>
       </c>
-      <c r="F146" s="88"/>
-      <c r="G146" s="88"/>
-      <c r="H146" s="86"/>
+      <c r="F146" s="78"/>
+      <c r="G146" s="78"/>
+      <c r="H146" s="77"/>
       <c r="I146" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J146" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="J146" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B147" s="75"/>
-      <c r="C147" s="75"/>
-      <c r="D147" s="75"/>
-      <c r="E147" s="84" t="s">
+      <c r="B147" s="86"/>
+      <c r="C147" s="86"/>
+      <c r="D147" s="86"/>
+      <c r="E147" s="83" t="s">
         <v>454</v>
       </c>
-      <c r="F147" s="82"/>
-      <c r="G147" s="82"/>
-      <c r="H147" s="83"/>
+      <c r="F147" s="90"/>
+      <c r="G147" s="90"/>
+      <c r="H147" s="104"/>
       <c r="I147" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J147" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="J147" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B148" s="75"/>
-      <c r="C148" s="75"/>
-      <c r="D148" s="75"/>
-      <c r="E148" s="76"/>
-      <c r="F148" s="87" t="s">
+      <c r="B148" s="86"/>
+      <c r="C148" s="86"/>
+      <c r="D148" s="86"/>
+      <c r="E148" s="88"/>
+      <c r="F148" s="107" t="s">
         <v>572</v>
       </c>
-      <c r="G148" s="89"/>
-      <c r="H148" s="90"/>
+      <c r="G148" s="113"/>
+      <c r="H148" s="114"/>
       <c r="I148" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J148" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="J148" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B149" s="75"/>
-      <c r="C149" s="75"/>
-      <c r="D149" s="75"/>
-      <c r="E149" s="76"/>
-      <c r="F149" s="77"/>
-      <c r="G149" s="88" t="s">
+      <c r="B149" s="86"/>
+      <c r="C149" s="86"/>
+      <c r="D149" s="86"/>
+      <c r="E149" s="88"/>
+      <c r="F149" s="89"/>
+      <c r="G149" s="78" t="s">
         <v>573</v>
       </c>
-      <c r="H149" s="86"/>
+      <c r="H149" s="77"/>
       <c r="I149" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J149" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="J149" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B150" s="75"/>
-      <c r="C150" s="75"/>
-      <c r="D150" s="75"/>
-      <c r="E150" s="76"/>
-      <c r="F150" s="87" t="s">
+      <c r="B150" s="86"/>
+      <c r="C150" s="86"/>
+      <c r="D150" s="86"/>
+      <c r="E150" s="88"/>
+      <c r="F150" s="107" t="s">
         <v>520</v>
       </c>
-      <c r="G150" s="89"/>
-      <c r="H150" s="90"/>
+      <c r="G150" s="113"/>
+      <c r="H150" s="114"/>
       <c r="I150" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J150" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="J150" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B151" s="75"/>
-      <c r="C151" s="75"/>
-      <c r="D151" s="75"/>
-      <c r="E151" s="76"/>
-      <c r="F151" s="77"/>
-      <c r="G151" s="88" t="s">
+      <c r="B151" s="86"/>
+      <c r="C151" s="86"/>
+      <c r="D151" s="86"/>
+      <c r="E151" s="88"/>
+      <c r="F151" s="89"/>
+      <c r="G151" s="78" t="s">
         <v>574</v>
       </c>
-      <c r="H151" s="86"/>
+      <c r="H151" s="77"/>
       <c r="I151" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J151" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="J151" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B152" s="75"/>
-      <c r="C152" s="75"/>
-      <c r="D152" s="75"/>
-      <c r="E152" s="76"/>
-      <c r="F152" s="87" t="s">
+      <c r="B152" s="86"/>
+      <c r="C152" s="86"/>
+      <c r="D152" s="86"/>
+      <c r="E152" s="88"/>
+      <c r="F152" s="107" t="s">
         <v>575</v>
       </c>
-      <c r="G152" s="88"/>
-      <c r="H152" s="86"/>
+      <c r="G152" s="115"/>
+      <c r="H152" s="82"/>
       <c r="I152" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J152" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="J152" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B153" s="75"/>
-      <c r="C153" s="75"/>
-      <c r="D153" s="75"/>
-      <c r="E153" s="76"/>
-      <c r="F153" s="74"/>
-      <c r="G153" s="88" t="s">
+      <c r="B153" s="86"/>
+      <c r="C153" s="86"/>
+      <c r="D153" s="86"/>
+      <c r="E153" s="88"/>
+      <c r="F153" s="87"/>
+      <c r="G153" s="78" t="s">
         <v>576</v>
       </c>
-      <c r="H153" s="86"/>
+      <c r="H153" s="77"/>
       <c r="I153" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J153" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="J153" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B154" s="75"/>
-      <c r="C154" s="75"/>
-      <c r="D154" s="75"/>
-      <c r="E154" s="76"/>
-      <c r="F154" s="87" t="s">
+      <c r="B154" s="86"/>
+      <c r="C154" s="86"/>
+      <c r="D154" s="86"/>
+      <c r="E154" s="88"/>
+      <c r="F154" s="107" t="s">
         <v>556</v>
       </c>
-      <c r="G154" s="88"/>
-      <c r="H154" s="86"/>
+      <c r="G154" s="115"/>
+      <c r="H154" s="82"/>
       <c r="I154" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J154" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="J154" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B155" s="75"/>
-      <c r="C155" s="75"/>
-      <c r="D155" s="75"/>
-      <c r="E155" s="76"/>
-      <c r="F155" s="91"/>
-      <c r="G155" s="85" t="s">
+      <c r="B155" s="86"/>
+      <c r="C155" s="86"/>
+      <c r="D155" s="86"/>
+      <c r="E155" s="88"/>
+      <c r="F155" s="116"/>
+      <c r="G155" s="76" t="s">
         <v>577</v>
       </c>
-      <c r="H155" s="86"/>
+      <c r="H155" s="77"/>
       <c r="I155" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J155" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="J155" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B156" s="75"/>
-      <c r="C156" s="75"/>
-      <c r="D156" s="75"/>
-      <c r="E156" s="76"/>
-      <c r="F156" s="91"/>
-      <c r="G156" s="85" t="s">
+      <c r="B156" s="86"/>
+      <c r="C156" s="86"/>
+      <c r="D156" s="86"/>
+      <c r="E156" s="88"/>
+      <c r="F156" s="116"/>
+      <c r="G156" s="76" t="s">
         <v>578</v>
       </c>
-      <c r="H156" s="86"/>
+      <c r="H156" s="77"/>
       <c r="I156" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J156" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="J156" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B157" s="75"/>
-      <c r="C157" s="75"/>
-      <c r="D157" s="75"/>
-      <c r="E157" s="76"/>
-      <c r="F157" s="91"/>
-      <c r="G157" s="85" t="s">
+      <c r="B157" s="86"/>
+      <c r="C157" s="86"/>
+      <c r="D157" s="86"/>
+      <c r="E157" s="88"/>
+      <c r="F157" s="116"/>
+      <c r="G157" s="76" t="s">
         <v>579</v>
       </c>
-      <c r="H157" s="86"/>
+      <c r="H157" s="77"/>
       <c r="I157" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J157" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="J157" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B158" s="75"/>
-      <c r="C158" s="75"/>
-      <c r="D158" s="75"/>
-      <c r="E158" s="76"/>
-      <c r="F158" s="91"/>
-      <c r="G158" s="85" t="s">
+      <c r="B158" s="86"/>
+      <c r="C158" s="86"/>
+      <c r="D158" s="86"/>
+      <c r="E158" s="88"/>
+      <c r="F158" s="116"/>
+      <c r="G158" s="76" t="s">
         <v>580</v>
       </c>
-      <c r="H158" s="86"/>
+      <c r="H158" s="77"/>
       <c r="I158" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J158" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="J158" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B159" s="75"/>
-      <c r="C159" s="75"/>
-      <c r="D159" s="75"/>
-      <c r="E159" s="76"/>
-      <c r="F159" s="91"/>
-      <c r="G159" s="85" t="s">
+      <c r="B159" s="86"/>
+      <c r="C159" s="86"/>
+      <c r="D159" s="86"/>
+      <c r="E159" s="88"/>
+      <c r="F159" s="116"/>
+      <c r="G159" s="76" t="s">
         <v>581</v>
       </c>
-      <c r="H159" s="86"/>
+      <c r="H159" s="77"/>
       <c r="I159" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J159" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="J159" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B160" s="75"/>
-      <c r="C160" s="75"/>
-      <c r="D160" s="75"/>
-      <c r="E160" s="76"/>
-      <c r="F160" s="91"/>
-      <c r="G160" s="85" t="s">
+      <c r="B160" s="86"/>
+      <c r="C160" s="86"/>
+      <c r="D160" s="86"/>
+      <c r="E160" s="88"/>
+      <c r="F160" s="116"/>
+      <c r="G160" s="76" t="s">
         <v>582</v>
       </c>
-      <c r="H160" s="86"/>
+      <c r="H160" s="77"/>
       <c r="I160" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J160" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="J160" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B161" s="75"/>
-      <c r="C161" s="75"/>
-      <c r="D161" s="75"/>
-      <c r="E161" s="76"/>
-      <c r="F161" s="91"/>
-      <c r="G161" s="85" t="s">
+      <c r="B161" s="86"/>
+      <c r="C161" s="86"/>
+      <c r="D161" s="86"/>
+      <c r="E161" s="88"/>
+      <c r="F161" s="116"/>
+      <c r="G161" s="76" t="s">
         <v>583</v>
       </c>
-      <c r="H161" s="86"/>
+      <c r="H161" s="77"/>
       <c r="I161" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J161" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="J161" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B162" s="75"/>
-      <c r="C162" s="75"/>
-      <c r="D162" s="75"/>
-      <c r="E162" s="76"/>
-      <c r="F162" s="92"/>
-      <c r="G162" s="85" t="s">
+      <c r="B162" s="86"/>
+      <c r="C162" s="86"/>
+      <c r="D162" s="86"/>
+      <c r="E162" s="88"/>
+      <c r="F162" s="117"/>
+      <c r="G162" s="76" t="s">
         <v>584</v>
       </c>
-      <c r="H162" s="86"/>
+      <c r="H162" s="77"/>
       <c r="I162" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J162" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="J162" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B163" s="75"/>
-      <c r="C163" s="75"/>
-      <c r="D163" s="75"/>
-      <c r="E163" s="76"/>
-      <c r="F163" s="87" t="s">
+      <c r="B163" s="86"/>
+      <c r="C163" s="86"/>
+      <c r="D163" s="86"/>
+      <c r="E163" s="88"/>
+      <c r="F163" s="107" t="s">
         <v>585</v>
       </c>
-      <c r="G163" s="88"/>
-      <c r="H163" s="86"/>
+      <c r="G163" s="115"/>
+      <c r="H163" s="82"/>
       <c r="I163" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J163" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="J163" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B164" s="75"/>
-      <c r="C164" s="75"/>
-      <c r="D164" s="75"/>
-      <c r="E164" s="76"/>
-      <c r="F164" s="77"/>
-      <c r="G164" s="88" t="s">
+      <c r="B164" s="86"/>
+      <c r="C164" s="86"/>
+      <c r="D164" s="86"/>
+      <c r="E164" s="88"/>
+      <c r="F164" s="89"/>
+      <c r="G164" s="78" t="s">
         <v>586</v>
       </c>
-      <c r="H164" s="86"/>
+      <c r="H164" s="77"/>
       <c r="I164" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J164" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="J164" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B165" s="75"/>
-      <c r="C165" s="75"/>
-      <c r="D165" s="75"/>
-      <c r="E165" s="76"/>
-      <c r="F165" s="87" t="s">
+      <c r="B165" s="86"/>
+      <c r="C165" s="86"/>
+      <c r="D165" s="86"/>
+      <c r="E165" s="88"/>
+      <c r="F165" s="107" t="s">
         <v>587</v>
       </c>
-      <c r="G165" s="88"/>
-      <c r="H165" s="86"/>
+      <c r="G165" s="115"/>
+      <c r="H165" s="82"/>
       <c r="I165" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J165" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="J165" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B166" s="75"/>
-      <c r="C166" s="75"/>
-      <c r="D166" s="75"/>
-      <c r="E166" s="76"/>
-      <c r="F166" s="77"/>
-      <c r="G166" s="88" t="s">
+      <c r="B166" s="86"/>
+      <c r="C166" s="86"/>
+      <c r="D166" s="86"/>
+      <c r="E166" s="88"/>
+      <c r="F166" s="89"/>
+      <c r="G166" s="78" t="s">
         <v>588</v>
       </c>
-      <c r="H166" s="86"/>
+      <c r="H166" s="77"/>
       <c r="I166" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J166" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="J166" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B167" s="75"/>
-      <c r="C167" s="75"/>
-      <c r="D167" s="75"/>
-      <c r="E167" s="76"/>
-      <c r="F167" s="87" t="s">
+      <c r="B167" s="86"/>
+      <c r="C167" s="86"/>
+      <c r="D167" s="86"/>
+      <c r="E167" s="88"/>
+      <c r="F167" s="107" t="s">
         <v>589</v>
       </c>
-      <c r="G167" s="88"/>
-      <c r="H167" s="86"/>
+      <c r="G167" s="115"/>
+      <c r="H167" s="82"/>
       <c r="I167" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J167" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="J167" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B168" s="75"/>
-      <c r="C168" s="75"/>
-      <c r="D168" s="75"/>
-      <c r="E168" s="76"/>
-      <c r="F168" s="77"/>
-      <c r="G168" s="88" t="s">
+      <c r="B168" s="86"/>
+      <c r="C168" s="86"/>
+      <c r="D168" s="86"/>
+      <c r="E168" s="88"/>
+      <c r="F168" s="89"/>
+      <c r="G168" s="78" t="s">
         <v>590</v>
       </c>
-      <c r="H168" s="86"/>
+      <c r="H168" s="77"/>
       <c r="I168" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J168" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="J168" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B169" s="75"/>
-      <c r="C169" s="75"/>
-      <c r="D169" s="75"/>
-      <c r="E169" s="76"/>
-      <c r="F169" s="87" t="s">
+      <c r="B169" s="86"/>
+      <c r="C169" s="86"/>
+      <c r="D169" s="86"/>
+      <c r="E169" s="88"/>
+      <c r="F169" s="107" t="s">
         <v>591</v>
       </c>
-      <c r="G169" s="88"/>
-      <c r="H169" s="86"/>
+      <c r="G169" s="115"/>
+      <c r="H169" s="82"/>
       <c r="I169" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J169" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="J169" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B170" s="75"/>
-      <c r="C170" s="74"/>
-      <c r="D170" s="74"/>
-      <c r="E170" s="77"/>
-      <c r="F170" s="77"/>
-      <c r="G170" s="88" t="s">
+      <c r="B170" s="86"/>
+      <c r="C170" s="87"/>
+      <c r="D170" s="87"/>
+      <c r="E170" s="89"/>
+      <c r="F170" s="89"/>
+      <c r="G170" s="78" t="s">
         <v>592</v>
       </c>
-      <c r="H170" s="86"/>
+      <c r="H170" s="77"/>
       <c r="I170" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J170" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="J170" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B171" s="75"/>
-      <c r="C171" s="84" t="s">
+      <c r="B171" s="86"/>
+      <c r="C171" s="83" t="s">
         <v>453</v>
       </c>
-      <c r="D171" s="82"/>
-      <c r="E171" s="82"/>
-      <c r="F171" s="82"/>
-      <c r="G171" s="82"/>
-      <c r="H171" s="83"/>
+      <c r="D171" s="90"/>
+      <c r="E171" s="90"/>
+      <c r="F171" s="90"/>
+      <c r="G171" s="90"/>
+      <c r="H171" s="104"/>
       <c r="I171" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J171" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="J171" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B172" s="75"/>
-      <c r="C172" s="76"/>
-      <c r="D172" s="84" t="s">
+      <c r="B172" s="86"/>
+      <c r="C172" s="88"/>
+      <c r="D172" s="83" t="s">
         <v>454</v>
       </c>
-      <c r="E172" s="82"/>
-      <c r="F172" s="82"/>
-      <c r="G172" s="82"/>
-      <c r="H172" s="83"/>
+      <c r="E172" s="90"/>
+      <c r="F172" s="90"/>
+      <c r="G172" s="90"/>
+      <c r="H172" s="104"/>
       <c r="I172" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J172" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="J172" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B173" s="75"/>
-      <c r="C173" s="76"/>
-      <c r="D173" s="76"/>
-      <c r="E173" s="85" t="s">
+      <c r="B173" s="86"/>
+      <c r="C173" s="88"/>
+      <c r="D173" s="88"/>
+      <c r="E173" s="76" t="s">
         <v>593</v>
       </c>
-      <c r="F173" s="88"/>
-      <c r="G173" s="88"/>
-      <c r="H173" s="86"/>
+      <c r="F173" s="78"/>
+      <c r="G173" s="78"/>
+      <c r="H173" s="77"/>
       <c r="I173" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J173" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="J173" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B174" s="74"/>
-      <c r="C174" s="77"/>
-      <c r="D174" s="77"/>
-      <c r="E174" s="85" t="s">
+      <c r="B174" s="87"/>
+      <c r="C174" s="89"/>
+      <c r="D174" s="89"/>
+      <c r="E174" s="76" t="s">
         <v>594</v>
       </c>
-      <c r="F174" s="88"/>
-      <c r="G174" s="88"/>
-      <c r="H174" s="86"/>
+      <c r="F174" s="78"/>
+      <c r="G174" s="78"/>
+      <c r="H174" s="77"/>
       <c r="I174" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J174" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="J174" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B175" s="97" t="s">
+      <c r="B175" s="83" t="s">
         <v>556</v>
       </c>
-      <c r="C175" s="104"/>
-      <c r="D175" s="104"/>
-      <c r="E175" s="104"/>
-      <c r="F175" s="104"/>
-      <c r="G175" s="104"/>
-      <c r="H175" s="118"/>
+      <c r="C175" s="90"/>
+      <c r="D175" s="90"/>
+      <c r="E175" s="90"/>
+      <c r="F175" s="90"/>
+      <c r="G175" s="90"/>
+      <c r="H175" s="104"/>
       <c r="I175" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J175" s="95" t="s">
+      <c r="J175" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B176" s="75"/>
-      <c r="C176" s="85" t="s">
+      <c r="B176" s="86"/>
+      <c r="C176" s="76" t="s">
         <v>595</v>
       </c>
-      <c r="D176" s="88"/>
-      <c r="E176" s="88"/>
-      <c r="F176" s="88"/>
-      <c r="G176" s="88"/>
-      <c r="H176" s="86"/>
+      <c r="D176" s="78"/>
+      <c r="E176" s="78"/>
+      <c r="F176" s="78"/>
+      <c r="G176" s="78"/>
+      <c r="H176" s="77"/>
       <c r="I176" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J176" s="95" t="s">
+      <c r="J176" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B177" s="75"/>
-      <c r="C177" s="85" t="s">
+      <c r="B177" s="86"/>
+      <c r="C177" s="76" t="s">
         <v>596</v>
       </c>
-      <c r="D177" s="88"/>
-      <c r="E177" s="88"/>
-      <c r="F177" s="88"/>
-      <c r="G177" s="88"/>
-      <c r="H177" s="86"/>
+      <c r="D177" s="78"/>
+      <c r="E177" s="78"/>
+      <c r="F177" s="78"/>
+      <c r="G177" s="78"/>
+      <c r="H177" s="77"/>
       <c r="I177" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J177" s="95" t="s">
+      <c r="J177" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B178" s="75"/>
-      <c r="C178" s="85" t="s">
+      <c r="B178" s="86"/>
+      <c r="C178" s="76" t="s">
         <v>597</v>
       </c>
-      <c r="D178" s="88"/>
-      <c r="E178" s="88"/>
-      <c r="F178" s="88"/>
-      <c r="G178" s="88"/>
-      <c r="H178" s="86"/>
+      <c r="D178" s="78"/>
+      <c r="E178" s="78"/>
+      <c r="F178" s="78"/>
+      <c r="G178" s="78"/>
+      <c r="H178" s="77"/>
       <c r="I178" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J178" s="95" t="s">
+      <c r="J178" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B179" s="75"/>
-      <c r="C179" s="85" t="s">
+      <c r="B179" s="86"/>
+      <c r="C179" s="76" t="s">
         <v>598</v>
       </c>
-      <c r="D179" s="88"/>
-      <c r="E179" s="88"/>
-      <c r="F179" s="88"/>
-      <c r="G179" s="88"/>
-      <c r="H179" s="86"/>
+      <c r="D179" s="78"/>
+      <c r="E179" s="78"/>
+      <c r="F179" s="78"/>
+      <c r="G179" s="78"/>
+      <c r="H179" s="77"/>
       <c r="I179" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J179" s="95" t="s">
+      <c r="J179" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B180" s="74"/>
-      <c r="C180" s="85" t="s">
+      <c r="B180" s="87"/>
+      <c r="C180" s="76" t="s">
         <v>599</v>
       </c>
-      <c r="D180" s="88"/>
-      <c r="E180" s="88"/>
-      <c r="F180" s="88"/>
-      <c r="G180" s="88"/>
-      <c r="H180" s="86"/>
+      <c r="D180" s="78"/>
+      <c r="E180" s="78"/>
+      <c r="F180" s="78"/>
+      <c r="G180" s="78"/>
+      <c r="H180" s="77"/>
       <c r="I180" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J180" s="95" t="s">
+      <c r="J180" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B181" s="97" t="s">
+      <c r="B181" s="83" t="s">
         <v>600</v>
       </c>
-      <c r="C181" s="98"/>
-      <c r="D181" s="98"/>
-      <c r="E181" s="98"/>
-      <c r="F181" s="98"/>
-      <c r="G181" s="98"/>
-      <c r="H181" s="99"/>
+      <c r="C181" s="84"/>
+      <c r="D181" s="84"/>
+      <c r="E181" s="84"/>
+      <c r="F181" s="84"/>
+      <c r="G181" s="84"/>
+      <c r="H181" s="85"/>
       <c r="I181" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J181" s="95" t="s">
+      <c r="J181" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B182" s="75"/>
-      <c r="C182" s="78" t="s">
+      <c r="B182" s="86"/>
+      <c r="C182" s="73" t="s">
         <v>601</v>
       </c>
-      <c r="D182" s="79"/>
-      <c r="E182" s="79"/>
-      <c r="F182" s="79"/>
-      <c r="G182" s="79"/>
-      <c r="H182" s="80"/>
+      <c r="D182" s="74"/>
+      <c r="E182" s="74"/>
+      <c r="F182" s="74"/>
+      <c r="G182" s="74"/>
+      <c r="H182" s="75"/>
       <c r="I182" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J182" s="95" t="s">
+      <c r="J182" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B183" s="75"/>
-      <c r="C183" s="84" t="s">
+      <c r="B183" s="86"/>
+      <c r="C183" s="83" t="s">
         <v>602</v>
       </c>
-      <c r="D183" s="82"/>
-      <c r="E183" s="82"/>
-      <c r="F183" s="82"/>
-      <c r="G183" s="82"/>
-      <c r="H183" s="83"/>
+      <c r="D183" s="90"/>
+      <c r="E183" s="90"/>
+      <c r="F183" s="90"/>
+      <c r="G183" s="90"/>
+      <c r="H183" s="104"/>
       <c r="I183" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J183" s="95" t="s">
+      <c r="J183" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B184" s="75"/>
-      <c r="C184" s="75"/>
-      <c r="D184" s="78" t="s">
+      <c r="B184" s="86"/>
+      <c r="C184" s="86"/>
+      <c r="D184" s="73" t="s">
         <v>603</v>
       </c>
-      <c r="E184" s="79"/>
-      <c r="F184" s="79"/>
-      <c r="G184" s="79"/>
-      <c r="H184" s="80"/>
+      <c r="E184" s="74"/>
+      <c r="F184" s="74"/>
+      <c r="G184" s="74"/>
+      <c r="H184" s="75"/>
       <c r="I184" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J184" s="95" t="s">
+      <c r="J184" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="185" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B185" s="75"/>
-      <c r="C185" s="75"/>
-      <c r="D185" s="78" t="s">
+      <c r="B185" s="86"/>
+      <c r="C185" s="86"/>
+      <c r="D185" s="73" t="s">
         <v>604</v>
       </c>
-      <c r="E185" s="79"/>
-      <c r="F185" s="79"/>
-      <c r="G185" s="79"/>
-      <c r="H185" s="80"/>
+      <c r="E185" s="74"/>
+      <c r="F185" s="74"/>
+      <c r="G185" s="74"/>
+      <c r="H185" s="75"/>
       <c r="I185" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J185" s="95" t="s">
+      <c r="J185" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B186" s="75"/>
-      <c r="C186" s="75"/>
-      <c r="D186" s="84" t="s">
+      <c r="B186" s="86"/>
+      <c r="C186" s="86"/>
+      <c r="D186" s="83" t="s">
         <v>522</v>
       </c>
-      <c r="E186" s="82"/>
-      <c r="F186" s="82"/>
-      <c r="G186" s="82"/>
-      <c r="H186" s="83"/>
+      <c r="E186" s="90"/>
+      <c r="F186" s="90"/>
+      <c r="G186" s="90"/>
+      <c r="H186" s="104"/>
       <c r="I186" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J186" s="95" t="s">
+      <c r="J186" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B187" s="75"/>
-      <c r="C187" s="75"/>
-      <c r="D187" s="76"/>
-      <c r="E187" s="85" t="s">
+      <c r="B187" s="86"/>
+      <c r="C187" s="86"/>
+      <c r="D187" s="88"/>
+      <c r="E187" s="76" t="s">
         <v>605</v>
       </c>
-      <c r="F187" s="88"/>
-      <c r="G187" s="88"/>
-      <c r="H187" s="86"/>
+      <c r="F187" s="78"/>
+      <c r="G187" s="78"/>
+      <c r="H187" s="77"/>
       <c r="I187" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J187" s="95" t="s">
+      <c r="J187" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B188" s="75"/>
-      <c r="C188" s="75"/>
-      <c r="D188" s="77"/>
-      <c r="E188" s="85" t="s">
+      <c r="B188" s="86"/>
+      <c r="C188" s="86"/>
+      <c r="D188" s="89"/>
+      <c r="E188" s="76" t="s">
         <v>606</v>
       </c>
-      <c r="F188" s="88"/>
-      <c r="G188" s="88"/>
-      <c r="H188" s="86"/>
+      <c r="F188" s="78"/>
+      <c r="G188" s="78"/>
+      <c r="H188" s="77"/>
       <c r="I188" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J188" s="95" t="s">
+      <c r="J188" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B189" s="75"/>
-      <c r="C189" s="75"/>
-      <c r="D189" s="84" t="s">
+      <c r="B189" s="86"/>
+      <c r="C189" s="86"/>
+      <c r="D189" s="83" t="s">
         <v>607</v>
       </c>
-      <c r="E189" s="82"/>
-      <c r="F189" s="82"/>
-      <c r="G189" s="82"/>
-      <c r="H189" s="83"/>
+      <c r="E189" s="90"/>
+      <c r="F189" s="90"/>
+      <c r="G189" s="90"/>
+      <c r="H189" s="104"/>
       <c r="I189" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J189" s="95" t="s">
+      <c r="J189" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B190" s="75"/>
-      <c r="C190" s="75"/>
-      <c r="D190" s="76"/>
-      <c r="E190" s="85" t="s">
+      <c r="B190" s="86"/>
+      <c r="C190" s="86"/>
+      <c r="D190" s="88"/>
+      <c r="E190" s="76" t="s">
         <v>608</v>
       </c>
-      <c r="F190" s="88"/>
-      <c r="G190" s="88"/>
-      <c r="H190" s="86"/>
+      <c r="F190" s="78"/>
+      <c r="G190" s="78"/>
+      <c r="H190" s="77"/>
       <c r="I190" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J190" s="95" t="s">
+      <c r="J190" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B191" s="75"/>
-      <c r="C191" s="75"/>
-      <c r="D191" s="77"/>
-      <c r="E191" s="85" t="s">
+      <c r="B191" s="86"/>
+      <c r="C191" s="86"/>
+      <c r="D191" s="89"/>
+      <c r="E191" s="76" t="s">
         <v>609</v>
       </c>
-      <c r="F191" s="88"/>
-      <c r="G191" s="88"/>
-      <c r="H191" s="86"/>
+      <c r="F191" s="78"/>
+      <c r="G191" s="78"/>
+      <c r="H191" s="77"/>
       <c r="I191" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J191" s="95" t="s">
+      <c r="J191" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="192" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B192" s="75"/>
-      <c r="C192" s="75"/>
-      <c r="D192" s="84" t="s">
+      <c r="B192" s="86"/>
+      <c r="C192" s="86"/>
+      <c r="D192" s="83" t="s">
         <v>523</v>
       </c>
-      <c r="E192" s="82"/>
-      <c r="F192" s="82"/>
-      <c r="G192" s="82"/>
-      <c r="H192" s="83"/>
+      <c r="E192" s="90"/>
+      <c r="F192" s="90"/>
+      <c r="G192" s="90"/>
+      <c r="H192" s="104"/>
       <c r="I192" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J192" s="95" t="s">
+      <c r="J192" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B193" s="75"/>
-      <c r="C193" s="75"/>
-      <c r="D193" s="76" t="s">
+      <c r="B193" s="86"/>
+      <c r="C193" s="86"/>
+      <c r="D193" s="88"/>
+      <c r="E193" s="76" t="s">
+        <v>610</v>
+      </c>
+      <c r="F193" s="78"/>
+      <c r="G193" s="78"/>
+      <c r="H193" s="77"/>
+      <c r="I193" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J193" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B194" s="86"/>
+      <c r="C194" s="87"/>
+      <c r="D194" s="89"/>
+      <c r="E194" s="76" t="s">
+        <v>611</v>
+      </c>
+      <c r="F194" s="78"/>
+      <c r="G194" s="78"/>
+      <c r="H194" s="77"/>
+      <c r="I194" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J194" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B195" s="86"/>
+      <c r="C195" s="76" t="s">
+        <v>612</v>
+      </c>
+      <c r="D195" s="78"/>
+      <c r="E195" s="78"/>
+      <c r="F195" s="78"/>
+      <c r="G195" s="78"/>
+      <c r="H195" s="77"/>
+      <c r="I195" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J195" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B196" s="86"/>
+      <c r="C196" s="76" t="s">
+        <v>613</v>
+      </c>
+      <c r="D196" s="78"/>
+      <c r="E196" s="78"/>
+      <c r="F196" s="78"/>
+      <c r="G196" s="78"/>
+      <c r="H196" s="77"/>
+      <c r="I196" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J196" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B197" s="86"/>
+      <c r="C197" s="83" t="s">
+        <v>614</v>
+      </c>
+      <c r="D197" s="90"/>
+      <c r="E197" s="90"/>
+      <c r="F197" s="90"/>
+      <c r="G197" s="90"/>
+      <c r="H197" s="104"/>
+      <c r="I197" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J197" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="198" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B198" s="86"/>
+      <c r="C198" s="86"/>
+      <c r="D198" s="83" t="s">
+        <v>615</v>
+      </c>
+      <c r="E198" s="90"/>
+      <c r="F198" s="90"/>
+      <c r="G198" s="90"/>
+      <c r="H198" s="104"/>
+      <c r="I198" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J198" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B199" s="86"/>
+      <c r="C199" s="86"/>
+      <c r="D199" s="86"/>
+      <c r="E199" s="76" t="s">
+        <v>616</v>
+      </c>
+      <c r="F199" s="78"/>
+      <c r="G199" s="78"/>
+      <c r="H199" s="77"/>
+      <c r="I199" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J199" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="200" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B200" s="86"/>
+      <c r="C200" s="86"/>
+      <c r="D200" s="86"/>
+      <c r="E200" s="76" t="s">
+        <v>617</v>
+      </c>
+      <c r="F200" s="78"/>
+      <c r="G200" s="78"/>
+      <c r="H200" s="77"/>
+      <c r="I200" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J200" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="201" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B201" s="86"/>
+      <c r="C201" s="86"/>
+      <c r="D201" s="86"/>
+      <c r="E201" s="76" t="s">
+        <v>618</v>
+      </c>
+      <c r="F201" s="78"/>
+      <c r="G201" s="78"/>
+      <c r="H201" s="77"/>
+      <c r="I201" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J201" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="202" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B202" s="86"/>
+      <c r="C202" s="86"/>
+      <c r="D202" s="86"/>
+      <c r="E202" s="76" t="s">
+        <v>619</v>
+      </c>
+      <c r="F202" s="78"/>
+      <c r="G202" s="78"/>
+      <c r="H202" s="77"/>
+      <c r="I202" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J202" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="203" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B203" s="86"/>
+      <c r="C203" s="86"/>
+      <c r="D203" s="86"/>
+      <c r="E203" s="76" t="s">
+        <v>620</v>
+      </c>
+      <c r="F203" s="78"/>
+      <c r="G203" s="78"/>
+      <c r="H203" s="77"/>
+      <c r="I203" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J203" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B204" s="86"/>
+      <c r="C204" s="86"/>
+      <c r="D204" s="86"/>
+      <c r="E204" s="76" t="s">
+        <v>621</v>
+      </c>
+      <c r="F204" s="78"/>
+      <c r="G204" s="78"/>
+      <c r="H204" s="77"/>
+      <c r="I204" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J204" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="205" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B205" s="86"/>
+      <c r="C205" s="86"/>
+      <c r="D205" s="86"/>
+      <c r="E205" s="76" t="s">
+        <v>622</v>
+      </c>
+      <c r="F205" s="78"/>
+      <c r="G205" s="78"/>
+      <c r="H205" s="77"/>
+      <c r="I205" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J205" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B206" s="86"/>
+      <c r="C206" s="86"/>
+      <c r="D206" s="86"/>
+      <c r="E206" s="76" t="s">
+        <v>623</v>
+      </c>
+      <c r="F206" s="78"/>
+      <c r="G206" s="78"/>
+      <c r="H206" s="77"/>
+      <c r="I206" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J206" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="207" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B207" s="86"/>
+      <c r="C207" s="86"/>
+      <c r="D207" s="86"/>
+      <c r="E207" s="76" t="s">
+        <v>624</v>
+      </c>
+      <c r="F207" s="78"/>
+      <c r="G207" s="78"/>
+      <c r="H207" s="77"/>
+      <c r="I207" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J207" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B208" s="86"/>
+      <c r="C208" s="86"/>
+      <c r="D208" s="86"/>
+      <c r="E208" s="76" t="s">
+        <v>625</v>
+      </c>
+      <c r="F208" s="78"/>
+      <c r="G208" s="78"/>
+      <c r="H208" s="77"/>
+      <c r="I208" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J208" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B209" s="86"/>
+      <c r="C209" s="86"/>
+      <c r="D209" s="86"/>
+      <c r="E209" s="76" t="s">
+        <v>626</v>
+      </c>
+      <c r="F209" s="78"/>
+      <c r="G209" s="78"/>
+      <c r="H209" s="77"/>
+      <c r="I209" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J209" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B210" s="86"/>
+      <c r="C210" s="86"/>
+      <c r="D210" s="86"/>
+      <c r="E210" s="76" t="s">
+        <v>627</v>
+      </c>
+      <c r="F210" s="78"/>
+      <c r="G210" s="78"/>
+      <c r="H210" s="77"/>
+      <c r="I210" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J210" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B211" s="86"/>
+      <c r="C211" s="86"/>
+      <c r="D211" s="86"/>
+      <c r="E211" s="76" t="s">
+        <v>628</v>
+      </c>
+      <c r="F211" s="78"/>
+      <c r="G211" s="78"/>
+      <c r="H211" s="77"/>
+      <c r="I211" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J211" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B212" s="86"/>
+      <c r="C212" s="86"/>
+      <c r="D212" s="86"/>
+      <c r="E212" s="76" t="s">
+        <v>629</v>
+      </c>
+      <c r="F212" s="78"/>
+      <c r="G212" s="78"/>
+      <c r="H212" s="77"/>
+      <c r="I212" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J212" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B213" s="86"/>
+      <c r="C213" s="86"/>
+      <c r="D213" s="86"/>
+      <c r="E213" s="76" t="s">
+        <v>630</v>
+      </c>
+      <c r="F213" s="78"/>
+      <c r="G213" s="78"/>
+      <c r="H213" s="77"/>
+      <c r="I213" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J213" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B214" s="86"/>
+      <c r="C214" s="86"/>
+      <c r="D214" s="87"/>
+      <c r="E214" s="76" t="s">
+        <v>631</v>
+      </c>
+      <c r="F214" s="78"/>
+      <c r="G214" s="78"/>
+      <c r="H214" s="77"/>
+      <c r="I214" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J214" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B215" s="86"/>
+      <c r="C215" s="86"/>
+      <c r="D215" s="76" t="s">
+        <v>632</v>
+      </c>
+      <c r="E215" s="78"/>
+      <c r="F215" s="78"/>
+      <c r="G215" s="78"/>
+      <c r="H215" s="77"/>
+      <c r="I215" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J215" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B216" s="86"/>
+      <c r="C216" s="86"/>
+      <c r="D216" s="76" t="s">
+        <v>633</v>
+      </c>
+      <c r="E216" s="78"/>
+      <c r="F216" s="78"/>
+      <c r="G216" s="78"/>
+      <c r="H216" s="77"/>
+      <c r="I216" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J216" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="217" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B217" s="86"/>
+      <c r="C217" s="86"/>
+      <c r="D217" s="76" t="s">
+        <v>634</v>
+      </c>
+      <c r="E217" s="78"/>
+      <c r="F217" s="78"/>
+      <c r="G217" s="78"/>
+      <c r="H217" s="77"/>
+      <c r="I217" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J217" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B218" s="86"/>
+      <c r="C218" s="86"/>
+      <c r="D218" s="76" t="s">
+        <v>635</v>
+      </c>
+      <c r="E218" s="78"/>
+      <c r="F218" s="78"/>
+      <c r="G218" s="78"/>
+      <c r="H218" s="77"/>
+      <c r="I218" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J218" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B219" s="86"/>
+      <c r="C219" s="86"/>
+      <c r="D219" s="76" t="s">
+        <v>636</v>
+      </c>
+      <c r="E219" s="78"/>
+      <c r="F219" s="78"/>
+      <c r="G219" s="78"/>
+      <c r="H219" s="77"/>
+      <c r="I219" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J219" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B220" s="86"/>
+      <c r="C220" s="86"/>
+      <c r="D220" s="76" t="s">
+        <v>637</v>
+      </c>
+      <c r="E220" s="78"/>
+      <c r="F220" s="78"/>
+      <c r="G220" s="78"/>
+      <c r="H220" s="77"/>
+      <c r="I220" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J220" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B221" s="86"/>
+      <c r="C221" s="86"/>
+      <c r="D221" s="76" t="s">
+        <v>638</v>
+      </c>
+      <c r="E221" s="78"/>
+      <c r="F221" s="78"/>
+      <c r="G221" s="78"/>
+      <c r="H221" s="77"/>
+      <c r="I221" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J221" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B222" s="86"/>
+      <c r="C222" s="86"/>
+      <c r="D222" s="76" t="s">
+        <v>639</v>
+      </c>
+      <c r="E222" s="78"/>
+      <c r="F222" s="78"/>
+      <c r="G222" s="78"/>
+      <c r="H222" s="77"/>
+      <c r="I222" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J222" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B223" s="86"/>
+      <c r="C223" s="86"/>
+      <c r="D223" s="76" t="s">
+        <v>640</v>
+      </c>
+      <c r="E223" s="78"/>
+      <c r="F223" s="78"/>
+      <c r="G223" s="78"/>
+      <c r="H223" s="77"/>
+      <c r="I223" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J223" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B224" s="86"/>
+      <c r="C224" s="86"/>
+      <c r="D224" s="76" t="s">
+        <v>641</v>
+      </c>
+      <c r="E224" s="78"/>
+      <c r="F224" s="78"/>
+      <c r="G224" s="78"/>
+      <c r="H224" s="77"/>
+      <c r="I224" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J224" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="225" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B225" s="86"/>
+      <c r="C225" s="86"/>
+      <c r="D225" s="76" t="s">
+        <v>642</v>
+      </c>
+      <c r="E225" s="78"/>
+      <c r="F225" s="78"/>
+      <c r="G225" s="78"/>
+      <c r="H225" s="77"/>
+      <c r="I225" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J225" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="226" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B226" s="86"/>
+      <c r="C226" s="86"/>
+      <c r="D226" s="76" t="s">
+        <v>643</v>
+      </c>
+      <c r="E226" s="78"/>
+      <c r="F226" s="78"/>
+      <c r="G226" s="78"/>
+      <c r="H226" s="77"/>
+      <c r="I226" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J226" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="227" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B227" s="86"/>
+      <c r="C227" s="86"/>
+      <c r="D227" s="76" t="s">
+        <v>644</v>
+      </c>
+      <c r="E227" s="78"/>
+      <c r="F227" s="78"/>
+      <c r="G227" s="78"/>
+      <c r="H227" s="77"/>
+      <c r="I227" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J227" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="228" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B228" s="86"/>
+      <c r="C228" s="87"/>
+      <c r="D228" s="76" t="s">
+        <v>645</v>
+      </c>
+      <c r="E228" s="78"/>
+      <c r="F228" s="78"/>
+      <c r="G228" s="78"/>
+      <c r="H228" s="77"/>
+      <c r="I228" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J228" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="229" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B229" s="86"/>
+      <c r="C229" s="76" t="s">
+        <v>646</v>
+      </c>
+      <c r="D229" s="78"/>
+      <c r="E229" s="78"/>
+      <c r="F229" s="78"/>
+      <c r="G229" s="78"/>
+      <c r="H229" s="77"/>
+      <c r="I229" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J229" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="230" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B230" s="86"/>
+      <c r="C230" s="76" t="s">
+        <v>647</v>
+      </c>
+      <c r="D230" s="78"/>
+      <c r="E230" s="78"/>
+      <c r="F230" s="78"/>
+      <c r="G230" s="78"/>
+      <c r="H230" s="77"/>
+      <c r="I230" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J230" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="231" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B231" s="86"/>
+      <c r="C231" s="76" t="s">
+        <v>648</v>
+      </c>
+      <c r="D231" s="78"/>
+      <c r="E231" s="78"/>
+      <c r="F231" s="78"/>
+      <c r="G231" s="78"/>
+      <c r="H231" s="77"/>
+      <c r="I231" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J231" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="232" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B232" s="86"/>
+      <c r="C232" s="76" t="s">
+        <v>649</v>
+      </c>
+      <c r="D232" s="78"/>
+      <c r="E232" s="78"/>
+      <c r="F232" s="78"/>
+      <c r="G232" s="78"/>
+      <c r="H232" s="77"/>
+      <c r="I232" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J232" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="233" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B233" s="86"/>
+      <c r="C233" s="83" t="s">
+        <v>563</v>
+      </c>
+      <c r="D233" s="90"/>
+      <c r="E233" s="90"/>
+      <c r="F233" s="90"/>
+      <c r="G233" s="90"/>
+      <c r="H233" s="104"/>
+      <c r="I233" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J233" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="234" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B234" s="86"/>
+      <c r="C234" s="88"/>
+      <c r="D234" s="76" t="s">
+        <v>650</v>
+      </c>
+      <c r="E234" s="78"/>
+      <c r="F234" s="78"/>
+      <c r="G234" s="78"/>
+      <c r="H234" s="77"/>
+      <c r="I234" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J234" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="235" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B235" s="86"/>
+      <c r="C235" s="89"/>
+      <c r="D235" s="76" t="s">
+        <v>651</v>
+      </c>
+      <c r="E235" s="78"/>
+      <c r="F235" s="78"/>
+      <c r="G235" s="78"/>
+      <c r="H235" s="77"/>
+      <c r="I235" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J235" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="236" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B236" s="86"/>
+      <c r="C236" s="76" t="s">
+        <v>652</v>
+      </c>
+      <c r="D236" s="78"/>
+      <c r="E236" s="78"/>
+      <c r="F236" s="78"/>
+      <c r="G236" s="78"/>
+      <c r="H236" s="77"/>
+      <c r="I236" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J236" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="237" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B237" s="86"/>
+      <c r="C237" s="76" t="s">
+        <v>653</v>
+      </c>
+      <c r="D237" s="78"/>
+      <c r="E237" s="78"/>
+      <c r="F237" s="78"/>
+      <c r="G237" s="78"/>
+      <c r="H237" s="77"/>
+      <c r="I237" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J237" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="238" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B238" s="86"/>
+      <c r="C238" s="83" t="s">
+        <v>607</v>
+      </c>
+      <c r="D238" s="90"/>
+      <c r="E238" s="90"/>
+      <c r="F238" s="90"/>
+      <c r="G238" s="90"/>
+      <c r="H238" s="104"/>
+      <c r="I238" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J238" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="239" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B239" s="86"/>
+      <c r="C239" s="86"/>
+      <c r="D239" s="76" t="s">
+        <v>654</v>
+      </c>
+      <c r="E239" s="78"/>
+      <c r="F239" s="78"/>
+      <c r="G239" s="78"/>
+      <c r="H239" s="77"/>
+      <c r="I239" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J239" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="240" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B240" s="86"/>
+      <c r="C240" s="87"/>
+      <c r="D240" s="76" t="s">
+        <v>655</v>
+      </c>
+      <c r="E240" s="78"/>
+      <c r="F240" s="78"/>
+      <c r="G240" s="78"/>
+      <c r="H240" s="77"/>
+      <c r="I240" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J240" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="241" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B241" s="86"/>
+      <c r="C241" s="76" t="s">
+        <v>656</v>
+      </c>
+      <c r="D241" s="78"/>
+      <c r="E241" s="78"/>
+      <c r="F241" s="78"/>
+      <c r="G241" s="78"/>
+      <c r="H241" s="77"/>
+      <c r="I241" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J241" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="242" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B242" s="86"/>
+      <c r="C242" s="76" t="s">
+        <v>657</v>
+      </c>
+      <c r="D242" s="78"/>
+      <c r="E242" s="78"/>
+      <c r="F242" s="78"/>
+      <c r="G242" s="78"/>
+      <c r="H242" s="77"/>
+      <c r="I242" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="J242" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="243" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B243" s="86"/>
+      <c r="C243" s="83" t="s">
         <v>523</v>
       </c>
-      <c r="E193" s="85" t="s">
-        <v>610</v>
-      </c>
-      <c r="F193" s="88"/>
-      <c r="G193" s="88"/>
-      <c r="H193" s="86"/>
-      <c r="I193" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J193" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B194" s="75"/>
-      <c r="C194" s="74"/>
-      <c r="D194" s="77" t="s">
-        <v>523</v>
-      </c>
-      <c r="E194" s="85" t="s">
-        <v>611</v>
-      </c>
-      <c r="F194" s="88"/>
-      <c r="G194" s="88"/>
-      <c r="H194" s="86"/>
-      <c r="I194" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J194" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B195" s="75"/>
-      <c r="C195" s="85" t="s">
-        <v>612</v>
-      </c>
-      <c r="D195" s="88"/>
-      <c r="E195" s="88"/>
-      <c r="F195" s="88"/>
-      <c r="G195" s="88"/>
-      <c r="H195" s="86"/>
-      <c r="I195" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J195" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B196" s="75"/>
-      <c r="C196" s="85" t="s">
-        <v>613</v>
-      </c>
-      <c r="D196" s="88"/>
-      <c r="E196" s="88"/>
-      <c r="F196" s="88"/>
-      <c r="G196" s="88"/>
-      <c r="H196" s="86"/>
-      <c r="I196" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J196" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B197" s="75"/>
-      <c r="C197" s="84" t="s">
-        <v>614</v>
-      </c>
-      <c r="D197" s="82"/>
-      <c r="E197" s="82"/>
-      <c r="F197" s="82"/>
-      <c r="G197" s="82"/>
-      <c r="H197" s="83"/>
-      <c r="I197" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J197" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B198" s="75"/>
-      <c r="C198" s="75"/>
-      <c r="D198" s="84" t="s">
-        <v>615</v>
-      </c>
-      <c r="E198" s="82"/>
-      <c r="F198" s="82"/>
-      <c r="G198" s="82"/>
-      <c r="H198" s="83"/>
-      <c r="I198" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J198" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B199" s="75"/>
-      <c r="C199" s="75"/>
-      <c r="D199" s="75"/>
-      <c r="E199" s="85" t="s">
-        <v>616</v>
-      </c>
-      <c r="F199" s="88"/>
-      <c r="G199" s="88"/>
-      <c r="H199" s="86"/>
-      <c r="I199" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J199" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B200" s="75"/>
-      <c r="C200" s="75"/>
-      <c r="D200" s="75"/>
-      <c r="E200" s="85" t="s">
-        <v>617</v>
-      </c>
-      <c r="F200" s="88"/>
-      <c r="G200" s="88"/>
-      <c r="H200" s="86"/>
-      <c r="I200" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J200" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B201" s="75"/>
-      <c r="C201" s="75"/>
-      <c r="D201" s="75"/>
-      <c r="E201" s="85" t="s">
-        <v>618</v>
-      </c>
-      <c r="F201" s="88"/>
-      <c r="G201" s="88"/>
-      <c r="H201" s="86"/>
-      <c r="I201" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J201" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B202" s="75"/>
-      <c r="C202" s="75"/>
-      <c r="D202" s="75"/>
-      <c r="E202" s="85" t="s">
-        <v>619</v>
-      </c>
-      <c r="F202" s="88"/>
-      <c r="G202" s="88"/>
-      <c r="H202" s="86"/>
-      <c r="I202" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J202" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B203" s="75"/>
-      <c r="C203" s="75"/>
-      <c r="D203" s="75"/>
-      <c r="E203" s="85" t="s">
-        <v>620</v>
-      </c>
-      <c r="F203" s="88"/>
-      <c r="G203" s="88"/>
-      <c r="H203" s="86"/>
-      <c r="I203" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J203" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B204" s="75"/>
-      <c r="C204" s="75"/>
-      <c r="D204" s="75"/>
-      <c r="E204" s="85" t="s">
-        <v>621</v>
-      </c>
-      <c r="F204" s="88"/>
-      <c r="G204" s="88"/>
-      <c r="H204" s="86"/>
-      <c r="I204" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J204" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B205" s="75"/>
-      <c r="C205" s="75"/>
-      <c r="D205" s="75"/>
-      <c r="E205" s="85" t="s">
-        <v>622</v>
-      </c>
-      <c r="F205" s="88"/>
-      <c r="G205" s="88"/>
-      <c r="H205" s="86"/>
-      <c r="I205" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J205" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B206" s="75"/>
-      <c r="C206" s="75"/>
-      <c r="D206" s="75"/>
-      <c r="E206" s="85" t="s">
-        <v>623</v>
-      </c>
-      <c r="F206" s="88"/>
-      <c r="G206" s="88"/>
-      <c r="H206" s="86"/>
-      <c r="I206" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J206" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B207" s="75"/>
-      <c r="C207" s="75"/>
-      <c r="D207" s="75"/>
-      <c r="E207" s="85" t="s">
-        <v>624</v>
-      </c>
-      <c r="F207" s="88"/>
-      <c r="G207" s="88"/>
-      <c r="H207" s="86"/>
-      <c r="I207" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J207" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B208" s="75"/>
-      <c r="C208" s="75"/>
-      <c r="D208" s="75"/>
-      <c r="E208" s="85" t="s">
-        <v>625</v>
-      </c>
-      <c r="F208" s="88"/>
-      <c r="G208" s="88"/>
-      <c r="H208" s="86"/>
-      <c r="I208" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J208" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="209" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B209" s="75"/>
-      <c r="C209" s="75"/>
-      <c r="D209" s="75"/>
-      <c r="E209" s="85" t="s">
-        <v>626</v>
-      </c>
-      <c r="F209" s="88"/>
-      <c r="G209" s="88"/>
-      <c r="H209" s="86"/>
-      <c r="I209" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J209" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B210" s="75"/>
-      <c r="C210" s="75"/>
-      <c r="D210" s="75"/>
-      <c r="E210" s="85" t="s">
-        <v>627</v>
-      </c>
-      <c r="F210" s="88"/>
-      <c r="G210" s="88"/>
-      <c r="H210" s="86"/>
-      <c r="I210" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J210" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B211" s="75"/>
-      <c r="C211" s="75"/>
-      <c r="D211" s="75"/>
-      <c r="E211" s="85" t="s">
-        <v>628</v>
-      </c>
-      <c r="F211" s="88"/>
-      <c r="G211" s="88"/>
-      <c r="H211" s="86"/>
-      <c r="I211" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J211" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B212" s="75"/>
-      <c r="C212" s="75"/>
-      <c r="D212" s="75"/>
-      <c r="E212" s="85" t="s">
-        <v>629</v>
-      </c>
-      <c r="F212" s="88"/>
-      <c r="G212" s="88"/>
-      <c r="H212" s="86"/>
-      <c r="I212" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J212" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B213" s="75"/>
-      <c r="C213" s="75"/>
-      <c r="D213" s="75"/>
-      <c r="E213" s="85" t="s">
-        <v>630</v>
-      </c>
-      <c r="F213" s="88"/>
-      <c r="G213" s="88"/>
-      <c r="H213" s="86"/>
-      <c r="I213" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J213" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B214" s="75"/>
-      <c r="C214" s="75"/>
-      <c r="D214" s="74"/>
-      <c r="E214" s="85" t="s">
-        <v>631</v>
-      </c>
-      <c r="F214" s="88"/>
-      <c r="G214" s="88"/>
-      <c r="H214" s="86"/>
-      <c r="I214" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J214" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B215" s="75"/>
-      <c r="C215" s="75"/>
-      <c r="D215" s="85" t="s">
-        <v>632</v>
-      </c>
-      <c r="E215" s="88"/>
-      <c r="F215" s="88"/>
-      <c r="G215" s="88"/>
-      <c r="H215" s="86"/>
-      <c r="I215" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J215" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B216" s="75"/>
-      <c r="C216" s="75"/>
-      <c r="D216" s="85" t="s">
-        <v>633</v>
-      </c>
-      <c r="E216" s="88"/>
-      <c r="F216" s="88"/>
-      <c r="G216" s="88"/>
-      <c r="H216" s="86"/>
-      <c r="I216" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J216" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="217" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B217" s="75"/>
-      <c r="C217" s="75"/>
-      <c r="D217" s="85" t="s">
-        <v>634</v>
-      </c>
-      <c r="E217" s="88"/>
-      <c r="F217" s="88"/>
-      <c r="G217" s="88"/>
-      <c r="H217" s="86"/>
-      <c r="I217" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J217" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B218" s="75"/>
-      <c r="C218" s="75"/>
-      <c r="D218" s="85" t="s">
-        <v>635</v>
-      </c>
-      <c r="E218" s="88"/>
-      <c r="F218" s="88"/>
-      <c r="G218" s="88"/>
-      <c r="H218" s="86"/>
-      <c r="I218" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J218" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B219" s="75"/>
-      <c r="C219" s="75"/>
-      <c r="D219" s="85" t="s">
-        <v>636</v>
-      </c>
-      <c r="E219" s="88"/>
-      <c r="F219" s="88"/>
-      <c r="G219" s="88"/>
-      <c r="H219" s="86"/>
-      <c r="I219" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J219" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B220" s="75"/>
-      <c r="C220" s="75"/>
-      <c r="D220" s="85" t="s">
-        <v>637</v>
-      </c>
-      <c r="E220" s="88"/>
-      <c r="F220" s="88"/>
-      <c r="G220" s="88"/>
-      <c r="H220" s="86"/>
-      <c r="I220" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J220" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B221" s="75"/>
-      <c r="C221" s="75"/>
-      <c r="D221" s="85" t="s">
-        <v>638</v>
-      </c>
-      <c r="E221" s="88"/>
-      <c r="F221" s="88"/>
-      <c r="G221" s="88"/>
-      <c r="H221" s="86"/>
-      <c r="I221" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J221" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B222" s="75"/>
-      <c r="C222" s="75"/>
-      <c r="D222" s="85" t="s">
-        <v>639</v>
-      </c>
-      <c r="E222" s="88"/>
-      <c r="F222" s="88"/>
-      <c r="G222" s="88"/>
-      <c r="H222" s="86"/>
-      <c r="I222" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J222" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B223" s="75"/>
-      <c r="C223" s="75"/>
-      <c r="D223" s="85" t="s">
-        <v>640</v>
-      </c>
-      <c r="E223" s="88"/>
-      <c r="F223" s="88"/>
-      <c r="G223" s="88"/>
-      <c r="H223" s="86"/>
-      <c r="I223" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J223" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B224" s="75"/>
-      <c r="C224" s="75"/>
-      <c r="D224" s="85" t="s">
-        <v>641</v>
-      </c>
-      <c r="E224" s="88"/>
-      <c r="F224" s="88"/>
-      <c r="G224" s="88"/>
-      <c r="H224" s="86"/>
-      <c r="I224" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J224" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="225" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B225" s="75"/>
-      <c r="C225" s="75"/>
-      <c r="D225" s="85" t="s">
-        <v>642</v>
-      </c>
-      <c r="E225" s="88"/>
-      <c r="F225" s="88"/>
-      <c r="G225" s="88"/>
-      <c r="H225" s="86"/>
-      <c r="I225" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J225" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B226" s="75"/>
-      <c r="C226" s="75"/>
-      <c r="D226" s="85" t="s">
-        <v>643</v>
-      </c>
-      <c r="E226" s="88"/>
-      <c r="F226" s="88"/>
-      <c r="G226" s="88"/>
-      <c r="H226" s="86"/>
-      <c r="I226" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J226" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="227" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B227" s="75"/>
-      <c r="C227" s="75"/>
-      <c r="D227" s="85" t="s">
-        <v>644</v>
-      </c>
-      <c r="E227" s="88"/>
-      <c r="F227" s="88"/>
-      <c r="G227" s="88"/>
-      <c r="H227" s="86"/>
-      <c r="I227" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J227" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="228" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B228" s="75"/>
-      <c r="C228" s="74"/>
-      <c r="D228" s="85" t="s">
-        <v>645</v>
-      </c>
-      <c r="E228" s="88"/>
-      <c r="F228" s="88"/>
-      <c r="G228" s="88"/>
-      <c r="H228" s="86"/>
-      <c r="I228" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J228" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="229" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B229" s="75"/>
-      <c r="C229" s="85" t="s">
-        <v>646</v>
-      </c>
-      <c r="D229" s="88"/>
-      <c r="E229" s="88"/>
-      <c r="F229" s="88"/>
-      <c r="G229" s="88"/>
-      <c r="H229" s="86"/>
-      <c r="I229" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J229" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="230" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B230" s="75"/>
-      <c r="C230" s="85" t="s">
-        <v>647</v>
-      </c>
-      <c r="D230" s="88"/>
-      <c r="E230" s="88"/>
-      <c r="F230" s="88"/>
-      <c r="G230" s="88"/>
-      <c r="H230" s="86"/>
-      <c r="I230" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J230" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="231" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B231" s="75"/>
-      <c r="C231" s="85" t="s">
-        <v>648</v>
-      </c>
-      <c r="D231" s="88"/>
-      <c r="E231" s="88"/>
-      <c r="F231" s="88"/>
-      <c r="G231" s="88"/>
-      <c r="H231" s="86"/>
-      <c r="I231" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J231" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="232" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B232" s="75"/>
-      <c r="C232" s="85" t="s">
-        <v>649</v>
-      </c>
-      <c r="D232" s="88"/>
-      <c r="E232" s="88"/>
-      <c r="F232" s="88"/>
-      <c r="G232" s="88"/>
-      <c r="H232" s="86"/>
-      <c r="I232" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J232" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="233" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B233" s="75"/>
-      <c r="C233" s="84" t="s">
-        <v>563</v>
-      </c>
-      <c r="D233" s="82"/>
-      <c r="E233" s="82"/>
-      <c r="F233" s="82"/>
-      <c r="G233" s="82"/>
-      <c r="H233" s="83"/>
-      <c r="I233" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J233" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="234" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B234" s="75"/>
-      <c r="C234" s="76"/>
-      <c r="D234" s="85" t="s">
-        <v>650</v>
-      </c>
-      <c r="E234" s="88"/>
-      <c r="F234" s="88"/>
-      <c r="G234" s="88"/>
-      <c r="H234" s="86"/>
-      <c r="I234" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J234" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="235" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B235" s="75"/>
-      <c r="C235" s="77"/>
-      <c r="D235" s="85" t="s">
-        <v>651</v>
-      </c>
-      <c r="E235" s="88"/>
-      <c r="F235" s="88"/>
-      <c r="G235" s="88"/>
-      <c r="H235" s="86"/>
-      <c r="I235" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J235" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="236" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B236" s="75"/>
-      <c r="C236" s="85" t="s">
-        <v>652</v>
-      </c>
-      <c r="D236" s="88"/>
-      <c r="E236" s="88"/>
-      <c r="F236" s="88"/>
-      <c r="G236" s="88"/>
-      <c r="H236" s="86"/>
-      <c r="I236" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J236" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="237" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B237" s="75"/>
-      <c r="C237" s="85" t="s">
-        <v>653</v>
-      </c>
-      <c r="D237" s="88"/>
-      <c r="E237" s="88"/>
-      <c r="F237" s="88"/>
-      <c r="G237" s="88"/>
-      <c r="H237" s="86"/>
-      <c r="I237" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J237" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="238" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B238" s="75"/>
-      <c r="C238" s="84" t="s">
-        <v>607</v>
-      </c>
-      <c r="D238" s="82"/>
-      <c r="E238" s="82"/>
-      <c r="F238" s="82"/>
-      <c r="G238" s="82"/>
-      <c r="H238" s="83"/>
-      <c r="I238" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J238" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="239" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B239" s="75"/>
-      <c r="C239" s="75"/>
-      <c r="D239" s="85" t="s">
-        <v>654</v>
-      </c>
-      <c r="E239" s="88"/>
-      <c r="F239" s="88"/>
-      <c r="G239" s="88"/>
-      <c r="H239" s="86"/>
-      <c r="I239" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J239" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="240" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B240" s="75"/>
-      <c r="C240" s="74"/>
-      <c r="D240" s="85" t="s">
-        <v>655</v>
-      </c>
-      <c r="E240" s="88"/>
-      <c r="F240" s="88"/>
-      <c r="G240" s="88"/>
-      <c r="H240" s="86"/>
-      <c r="I240" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J240" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="241" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B241" s="75"/>
-      <c r="C241" s="85" t="s">
-        <v>656</v>
-      </c>
-      <c r="D241" s="88"/>
-      <c r="E241" s="88"/>
-      <c r="F241" s="88"/>
-      <c r="G241" s="88"/>
-      <c r="H241" s="86"/>
-      <c r="I241" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J241" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="242" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B242" s="75"/>
-      <c r="C242" s="85" t="s">
-        <v>657</v>
-      </c>
-      <c r="D242" s="88"/>
-      <c r="E242" s="88"/>
-      <c r="F242" s="88"/>
-      <c r="G242" s="88"/>
-      <c r="H242" s="86"/>
-      <c r="I242" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J242" s="95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="243" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B243" s="75"/>
-      <c r="C243" s="84" t="s">
-        <v>523</v>
-      </c>
-      <c r="D243" s="82"/>
-      <c r="E243" s="82"/>
-      <c r="F243" s="82"/>
-      <c r="G243" s="82"/>
-      <c r="H243" s="83"/>
+      <c r="D243" s="90"/>
+      <c r="E243" s="90"/>
+      <c r="F243" s="90"/>
+      <c r="G243" s="90"/>
+      <c r="H243" s="104"/>
       <c r="I243" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J243" s="95" t="s">
+      <c r="J243" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="244" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B244" s="75"/>
-      <c r="C244" s="75"/>
-      <c r="D244" s="85" t="s">
+      <c r="B244" s="86"/>
+      <c r="C244" s="86"/>
+      <c r="D244" s="76" t="s">
         <v>658</v>
       </c>
-      <c r="E244" s="88"/>
-      <c r="F244" s="88"/>
-      <c r="G244" s="88"/>
-      <c r="H244" s="86"/>
+      <c r="E244" s="78"/>
+      <c r="F244" s="78"/>
+      <c r="G244" s="78"/>
+      <c r="H244" s="77"/>
       <c r="I244" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J244" s="95" t="s">
+      <c r="J244" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="245" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B245" s="75"/>
-      <c r="C245" s="75"/>
-      <c r="D245" s="85" t="s">
+      <c r="B245" s="86"/>
+      <c r="C245" s="86"/>
+      <c r="D245" s="76" t="s">
         <v>659</v>
       </c>
-      <c r="E245" s="88"/>
-      <c r="F245" s="88"/>
-      <c r="G245" s="88"/>
-      <c r="H245" s="86"/>
+      <c r="E245" s="78"/>
+      <c r="F245" s="78"/>
+      <c r="G245" s="78"/>
+      <c r="H245" s="77"/>
       <c r="I245" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J245" s="95" t="s">
+      <c r="J245" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="246" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B246" s="75"/>
-      <c r="C246" s="74"/>
-      <c r="D246" s="85" t="s">
+      <c r="B246" s="86"/>
+      <c r="C246" s="87"/>
+      <c r="D246" s="76" t="s">
         <v>660</v>
       </c>
-      <c r="E246" s="88"/>
-      <c r="F246" s="88"/>
-      <c r="G246" s="88"/>
-      <c r="H246" s="86"/>
+      <c r="E246" s="78"/>
+      <c r="F246" s="78"/>
+      <c r="G246" s="78"/>
+      <c r="H246" s="77"/>
       <c r="I246" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J246" s="95" t="s">
+      <c r="J246" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="247" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B247" s="75"/>
-      <c r="C247" s="84" t="s">
+      <c r="B247" s="86"/>
+      <c r="C247" s="83" t="s">
         <v>661</v>
       </c>
-      <c r="D247" s="82"/>
-      <c r="E247" s="82"/>
-      <c r="F247" s="82"/>
-      <c r="G247" s="82"/>
-      <c r="H247" s="83"/>
+      <c r="D247" s="90"/>
+      <c r="E247" s="90"/>
+      <c r="F247" s="90"/>
+      <c r="G247" s="90"/>
+      <c r="H247" s="104"/>
       <c r="I247" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J247" s="95" t="s">
+      <c r="J247" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="248" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B248" s="75"/>
-      <c r="C248" s="76"/>
-      <c r="D248" s="85" t="s">
+      <c r="B248" s="86"/>
+      <c r="C248" s="88"/>
+      <c r="D248" s="76" t="s">
         <v>662</v>
       </c>
-      <c r="E248" s="88"/>
-      <c r="F248" s="88"/>
-      <c r="G248" s="88"/>
-      <c r="H248" s="86"/>
+      <c r="E248" s="78"/>
+      <c r="F248" s="78"/>
+      <c r="G248" s="78"/>
+      <c r="H248" s="77"/>
       <c r="I248" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J248" s="95" t="s">
+      <c r="J248" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="249" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B249" s="74"/>
-      <c r="C249" s="77"/>
-      <c r="D249" s="85" t="s">
+      <c r="B249" s="87"/>
+      <c r="C249" s="89"/>
+      <c r="D249" s="76" t="s">
         <v>663</v>
       </c>
-      <c r="E249" s="88"/>
-      <c r="F249" s="88"/>
-      <c r="G249" s="88"/>
-      <c r="H249" s="86"/>
+      <c r="E249" s="78"/>
+      <c r="F249" s="78"/>
+      <c r="G249" s="78"/>
+      <c r="H249" s="77"/>
       <c r="I249" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J249" s="95" t="s">
+      <c r="J249" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="250" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B250" s="97" t="s">
+      <c r="B250" s="83" t="s">
         <v>664</v>
       </c>
-      <c r="C250" s="104"/>
-      <c r="D250" s="104"/>
-      <c r="E250" s="104"/>
-      <c r="F250" s="104"/>
-      <c r="G250" s="104"/>
-      <c r="H250" s="118"/>
+      <c r="C250" s="90"/>
+      <c r="D250" s="90"/>
+      <c r="E250" s="90"/>
+      <c r="F250" s="90"/>
+      <c r="G250" s="90"/>
+      <c r="H250" s="104"/>
       <c r="I250" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J250" s="95" t="s">
+        <v>743</v>
+      </c>
+      <c r="J250" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="251" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B251" s="75"/>
-      <c r="C251" s="85" t="s">
+      <c r="B251" s="86"/>
+      <c r="C251" s="76" t="s">
         <v>665</v>
       </c>
-      <c r="D251" s="88"/>
-      <c r="E251" s="88"/>
-      <c r="F251" s="88"/>
-      <c r="G251" s="88"/>
-      <c r="H251" s="86"/>
+      <c r="D251" s="78"/>
+      <c r="E251" s="78"/>
+      <c r="F251" s="78"/>
+      <c r="G251" s="78"/>
+      <c r="H251" s="77"/>
       <c r="I251" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J251" s="95" t="s">
+        <v>743</v>
+      </c>
+      <c r="J251" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="252" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B252" s="75"/>
-      <c r="C252" s="85" t="s">
+      <c r="B252" s="86"/>
+      <c r="C252" s="76" t="s">
         <v>666</v>
       </c>
-      <c r="D252" s="88"/>
-      <c r="E252" s="88"/>
-      <c r="F252" s="88"/>
-      <c r="G252" s="88"/>
-      <c r="H252" s="86"/>
+      <c r="D252" s="78"/>
+      <c r="E252" s="78"/>
+      <c r="F252" s="78"/>
+      <c r="G252" s="78"/>
+      <c r="H252" s="77"/>
       <c r="I252" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J252" s="95" t="s">
+        <v>743</v>
+      </c>
+      <c r="J252" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="253" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B253" s="75"/>
-      <c r="C253" s="84" t="s">
+      <c r="B253" s="86"/>
+      <c r="C253" s="83" t="s">
         <v>667</v>
       </c>
-      <c r="D253" s="82"/>
-      <c r="E253" s="82"/>
-      <c r="F253" s="82"/>
-      <c r="G253" s="82"/>
-      <c r="H253" s="83"/>
+      <c r="D253" s="90"/>
+      <c r="E253" s="90"/>
+      <c r="F253" s="90"/>
+      <c r="G253" s="90"/>
+      <c r="H253" s="104"/>
       <c r="I253" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J253" s="95" t="s">
+        <v>743</v>
+      </c>
+      <c r="J253" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="254" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B254" s="75"/>
-      <c r="C254" s="75"/>
-      <c r="D254" s="85" t="s">
+      <c r="B254" s="86"/>
+      <c r="C254" s="86"/>
+      <c r="D254" s="76" t="s">
         <v>668</v>
       </c>
-      <c r="E254" s="88"/>
-      <c r="F254" s="88"/>
-      <c r="G254" s="88"/>
-      <c r="H254" s="86"/>
+      <c r="E254" s="78"/>
+      <c r="F254" s="78"/>
+      <c r="G254" s="78"/>
+      <c r="H254" s="77"/>
       <c r="I254" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J254" s="95" t="s">
+        <v>743</v>
+      </c>
+      <c r="J254" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="255" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B255" s="74"/>
-      <c r="C255" s="74"/>
-      <c r="D255" s="85" t="s">
+      <c r="B255" s="87"/>
+      <c r="C255" s="87"/>
+      <c r="D255" s="76" t="s">
         <v>669</v>
       </c>
-      <c r="E255" s="88"/>
-      <c r="F255" s="88"/>
-      <c r="G255" s="88"/>
-      <c r="H255" s="86"/>
+      <c r="E255" s="78"/>
+      <c r="F255" s="78"/>
+      <c r="G255" s="78"/>
+      <c r="H255" s="77"/>
       <c r="I255" s="71" t="s">
-        <v>752</v>
-      </c>
-      <c r="J255" s="95" t="s">
+        <v>743</v>
+      </c>
+      <c r="J255" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="256" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B256" s="97" t="s">
+      <c r="B256" s="83" t="s">
         <v>670</v>
       </c>
-      <c r="C256" s="104"/>
-      <c r="D256" s="104"/>
-      <c r="E256" s="104"/>
-      <c r="F256" s="104"/>
-      <c r="G256" s="104"/>
-      <c r="H256" s="118"/>
+      <c r="C256" s="90"/>
+      <c r="D256" s="90"/>
+      <c r="E256" s="90"/>
+      <c r="F256" s="90"/>
+      <c r="G256" s="90"/>
+      <c r="H256" s="104"/>
       <c r="I256" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J256" s="95" t="s">
+      <c r="J256" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="257" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B257" s="75"/>
-      <c r="C257" s="84" t="s">
+      <c r="B257" s="86"/>
+      <c r="C257" s="83" t="s">
         <v>671</v>
       </c>
-      <c r="D257" s="82"/>
-      <c r="E257" s="82"/>
-      <c r="F257" s="82"/>
-      <c r="G257" s="82"/>
-      <c r="H257" s="83"/>
+      <c r="D257" s="90"/>
+      <c r="E257" s="90"/>
+      <c r="F257" s="90"/>
+      <c r="G257" s="90"/>
+      <c r="H257" s="104"/>
       <c r="I257" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J257" s="95" t="s">
+      <c r="J257" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="258" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B258" s="75"/>
-      <c r="C258" s="75"/>
-      <c r="D258" s="85" t="s">
+      <c r="B258" s="86"/>
+      <c r="C258" s="86"/>
+      <c r="D258" s="76" t="s">
         <v>666</v>
       </c>
-      <c r="E258" s="88"/>
-      <c r="F258" s="88"/>
-      <c r="G258" s="88"/>
-      <c r="H258" s="86"/>
+      <c r="E258" s="78"/>
+      <c r="F258" s="78"/>
+      <c r="G258" s="78"/>
+      <c r="H258" s="77"/>
       <c r="I258" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J258" s="95" t="s">
+      <c r="J258" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="259" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B259" s="74"/>
-      <c r="C259" s="74"/>
-      <c r="D259" s="85" t="s">
+      <c r="B259" s="87"/>
+      <c r="C259" s="87"/>
+      <c r="D259" s="76" t="s">
         <v>463</v>
       </c>
-      <c r="E259" s="88"/>
-      <c r="F259" s="88"/>
-      <c r="G259" s="88"/>
-      <c r="H259" s="86"/>
+      <c r="E259" s="78"/>
+      <c r="F259" s="78"/>
+      <c r="G259" s="78"/>
+      <c r="H259" s="77"/>
       <c r="I259" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J259" s="95" t="s">
+      <c r="J259" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="260" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B260" s="97" t="s">
+      <c r="B260" s="83" t="s">
         <v>672</v>
       </c>
-      <c r="C260" s="104"/>
-      <c r="D260" s="104"/>
-      <c r="E260" s="104"/>
-      <c r="F260" s="104"/>
-      <c r="G260" s="104"/>
-      <c r="H260" s="118"/>
+      <c r="C260" s="90"/>
+      <c r="D260" s="90"/>
+      <c r="E260" s="90"/>
+      <c r="F260" s="90"/>
+      <c r="G260" s="90"/>
+      <c r="H260" s="104"/>
       <c r="I260" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J260" s="95" t="s">
+      <c r="J260" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="261" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B261" s="75"/>
-      <c r="C261" s="84" t="s">
+      <c r="B261" s="86"/>
+      <c r="C261" s="83" t="s">
         <v>453</v>
       </c>
-      <c r="D261" s="82"/>
-      <c r="E261" s="82"/>
-      <c r="F261" s="82"/>
-      <c r="G261" s="82"/>
-      <c r="H261" s="83"/>
+      <c r="D261" s="90"/>
+      <c r="E261" s="90"/>
+      <c r="F261" s="90"/>
+      <c r="G261" s="90"/>
+      <c r="H261" s="104"/>
       <c r="I261" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J261" s="95" t="s">
+      <c r="J261" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="262" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B262" s="75"/>
-      <c r="C262" s="75"/>
-      <c r="D262" s="84" t="s">
+      <c r="B262" s="86"/>
+      <c r="C262" s="86"/>
+      <c r="D262" s="83" t="s">
         <v>454</v>
       </c>
-      <c r="E262" s="82"/>
-      <c r="F262" s="82"/>
-      <c r="G262" s="82"/>
-      <c r="H262" s="83"/>
+      <c r="E262" s="90"/>
+      <c r="F262" s="90"/>
+      <c r="G262" s="90"/>
+      <c r="H262" s="104"/>
       <c r="I262" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J262" s="95" t="s">
+      <c r="J262" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="263" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B263" s="75"/>
-      <c r="C263" s="75"/>
-      <c r="D263" s="75"/>
-      <c r="E263" s="84" t="s">
+      <c r="B263" s="86"/>
+      <c r="C263" s="86"/>
+      <c r="D263" s="86"/>
+      <c r="E263" s="83" t="s">
         <v>673</v>
       </c>
-      <c r="F263" s="82"/>
-      <c r="G263" s="82"/>
-      <c r="H263" s="83"/>
+      <c r="F263" s="90"/>
+      <c r="G263" s="90"/>
+      <c r="H263" s="104"/>
       <c r="I263" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J263" s="95" t="s">
+      <c r="J263" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="264" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B264" s="75"/>
-      <c r="C264" s="75"/>
-      <c r="D264" s="75"/>
-      <c r="E264" s="76"/>
-      <c r="F264" s="88" t="s">
+      <c r="B264" s="86"/>
+      <c r="C264" s="86"/>
+      <c r="D264" s="86"/>
+      <c r="E264" s="88"/>
+      <c r="F264" s="78" t="s">
         <v>666</v>
       </c>
-      <c r="G264" s="88"/>
-      <c r="H264" s="86"/>
+      <c r="G264" s="78"/>
+      <c r="H264" s="77"/>
       <c r="I264" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J264" s="95" t="s">
+      <c r="J264" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="265" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B265" s="75"/>
-      <c r="C265" s="75"/>
-      <c r="D265" s="75"/>
-      <c r="E265" s="76"/>
-      <c r="F265" s="88" t="s">
+      <c r="B265" s="86"/>
+      <c r="C265" s="86"/>
+      <c r="D265" s="86"/>
+      <c r="E265" s="88"/>
+      <c r="F265" s="78" t="s">
         <v>674</v>
       </c>
-      <c r="G265" s="88"/>
-      <c r="H265" s="86"/>
+      <c r="G265" s="78"/>
+      <c r="H265" s="77"/>
       <c r="I265" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J265" s="95" t="s">
+      <c r="J265" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="266" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B266" s="75"/>
-      <c r="C266" s="75"/>
-      <c r="D266" s="75"/>
-      <c r="E266" s="76"/>
-      <c r="F266" s="88" t="s">
+      <c r="B266" s="86"/>
+      <c r="C266" s="86"/>
+      <c r="D266" s="86"/>
+      <c r="E266" s="88"/>
+      <c r="F266" s="78" t="s">
         <v>675</v>
       </c>
-      <c r="G266" s="88"/>
-      <c r="H266" s="86"/>
+      <c r="G266" s="78"/>
+      <c r="H266" s="77"/>
       <c r="I266" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J266" s="95" t="s">
+      <c r="J266" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="267" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B267" s="75"/>
-      <c r="C267" s="75"/>
-      <c r="D267" s="75"/>
-      <c r="E267" s="76"/>
-      <c r="F267" s="88" t="s">
+      <c r="B267" s="86"/>
+      <c r="C267" s="86"/>
+      <c r="D267" s="86"/>
+      <c r="E267" s="88"/>
+      <c r="F267" s="78" t="s">
         <v>676</v>
       </c>
-      <c r="G267" s="88"/>
-      <c r="H267" s="86"/>
+      <c r="G267" s="78"/>
+      <c r="H267" s="77"/>
       <c r="I267" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J267" s="95" t="s">
+      <c r="J267" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="268" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B268" s="75"/>
-      <c r="C268" s="75"/>
-      <c r="D268" s="75"/>
-      <c r="E268" s="76"/>
-      <c r="F268" s="88" t="s">
+      <c r="B268" s="86"/>
+      <c r="C268" s="86"/>
+      <c r="D268" s="86"/>
+      <c r="E268" s="88"/>
+      <c r="F268" s="78" t="s">
         <v>677</v>
       </c>
-      <c r="G268" s="88"/>
-      <c r="H268" s="86"/>
+      <c r="G268" s="78"/>
+      <c r="H268" s="77"/>
       <c r="I268" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J268" s="95" t="s">
+      <c r="J268" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="269" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B269" s="75"/>
-      <c r="C269" s="75"/>
-      <c r="D269" s="75"/>
-      <c r="E269" s="76"/>
-      <c r="F269" s="88" t="s">
+      <c r="B269" s="86"/>
+      <c r="C269" s="86"/>
+      <c r="D269" s="86"/>
+      <c r="E269" s="88"/>
+      <c r="F269" s="78" t="s">
         <v>678</v>
       </c>
-      <c r="G269" s="88"/>
-      <c r="H269" s="86"/>
+      <c r="G269" s="78"/>
+      <c r="H269" s="77"/>
       <c r="I269" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J269" s="95" t="s">
+      <c r="J269" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="270" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B270" s="75"/>
-      <c r="C270" s="75"/>
-      <c r="D270" s="75"/>
-      <c r="E270" s="76"/>
-      <c r="F270" s="88" t="s">
+      <c r="B270" s="86"/>
+      <c r="C270" s="86"/>
+      <c r="D270" s="86"/>
+      <c r="E270" s="88"/>
+      <c r="F270" s="78" t="s">
         <v>679</v>
       </c>
-      <c r="G270" s="88"/>
-      <c r="H270" s="86"/>
+      <c r="G270" s="78"/>
+      <c r="H270" s="77"/>
       <c r="I270" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J270" s="95" t="s">
+      <c r="J270" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="271" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B271" s="75"/>
-      <c r="C271" s="75"/>
-      <c r="D271" s="75"/>
-      <c r="E271" s="76"/>
-      <c r="F271" s="88" t="s">
+      <c r="B271" s="86"/>
+      <c r="C271" s="86"/>
+      <c r="D271" s="86"/>
+      <c r="E271" s="88"/>
+      <c r="F271" s="78" t="s">
         <v>680</v>
       </c>
-      <c r="G271" s="88"/>
-      <c r="H271" s="86"/>
+      <c r="G271" s="78"/>
+      <c r="H271" s="77"/>
       <c r="I271" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J271" s="95" t="s">
+      <c r="J271" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="272" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B272" s="75"/>
-      <c r="C272" s="75"/>
-      <c r="D272" s="75"/>
-      <c r="E272" s="76"/>
-      <c r="F272" s="88" t="s">
+      <c r="B272" s="86"/>
+      <c r="C272" s="86"/>
+      <c r="D272" s="86"/>
+      <c r="E272" s="88"/>
+      <c r="F272" s="78" t="s">
         <v>681</v>
       </c>
-      <c r="G272" s="88"/>
-      <c r="H272" s="86"/>
+      <c r="G272" s="78"/>
+      <c r="H272" s="77"/>
       <c r="I272" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J272" s="95" t="s">
+      <c r="J272" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="273" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B273" s="75"/>
-      <c r="C273" s="75"/>
-      <c r="D273" s="75"/>
-      <c r="E273" s="77"/>
-      <c r="F273" s="88" t="s">
+      <c r="B273" s="86"/>
+      <c r="C273" s="86"/>
+      <c r="D273" s="86"/>
+      <c r="E273" s="89"/>
+      <c r="F273" s="78" t="s">
         <v>682</v>
       </c>
-      <c r="G273" s="88"/>
-      <c r="H273" s="86"/>
+      <c r="G273" s="78"/>
+      <c r="H273" s="77"/>
       <c r="I273" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J273" s="95" t="s">
+      <c r="J273" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="274" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B274" s="75"/>
-      <c r="C274" s="75"/>
-      <c r="D274" s="75"/>
-      <c r="E274" s="85" t="s">
+      <c r="B274" s="86"/>
+      <c r="C274" s="86"/>
+      <c r="D274" s="86"/>
+      <c r="E274" s="76" t="s">
         <v>683</v>
       </c>
-      <c r="F274" s="88"/>
-      <c r="G274" s="88"/>
-      <c r="H274" s="86"/>
+      <c r="F274" s="78"/>
+      <c r="G274" s="78"/>
+      <c r="H274" s="77"/>
       <c r="I274" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J274" s="95" t="s">
+      <c r="J274" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="275" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B275" s="75"/>
-      <c r="C275" s="75"/>
-      <c r="D275" s="75"/>
-      <c r="E275" s="84" t="s">
+      <c r="B275" s="86"/>
+      <c r="C275" s="86"/>
+      <c r="D275" s="86"/>
+      <c r="E275" s="83" t="s">
         <v>672</v>
       </c>
-      <c r="F275" s="82"/>
-      <c r="G275" s="82"/>
-      <c r="H275" s="83"/>
+      <c r="F275" s="90"/>
+      <c r="G275" s="90"/>
+      <c r="H275" s="104"/>
       <c r="I275" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J275" s="95" t="s">
+      <c r="J275" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="276" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B276" s="75"/>
-      <c r="C276" s="75"/>
-      <c r="D276" s="75"/>
-      <c r="E276" s="91"/>
-      <c r="F276" s="84" t="s">
+      <c r="B276" s="86"/>
+      <c r="C276" s="86"/>
+      <c r="D276" s="86"/>
+      <c r="E276" s="116"/>
+      <c r="F276" s="83" t="s">
         <v>684</v>
       </c>
-      <c r="G276" s="82"/>
-      <c r="H276" s="83"/>
+      <c r="G276" s="90"/>
+      <c r="H276" s="104"/>
       <c r="I276" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J276" s="95" t="s">
+      <c r="J276" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="277" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B277" s="75"/>
-      <c r="C277" s="75"/>
-      <c r="D277" s="75"/>
-      <c r="E277" s="91"/>
-      <c r="F277" s="75"/>
-      <c r="G277" s="88" t="s">
+      <c r="B277" s="86"/>
+      <c r="C277" s="86"/>
+      <c r="D277" s="86"/>
+      <c r="E277" s="116"/>
+      <c r="F277" s="86"/>
+      <c r="G277" s="78" t="s">
         <v>685</v>
       </c>
-      <c r="H277" s="86"/>
+      <c r="H277" s="77"/>
       <c r="I277" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J277" s="95" t="s">
+      <c r="J277" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="278" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B278" s="75"/>
-      <c r="C278" s="75"/>
-      <c r="D278" s="75"/>
-      <c r="E278" s="91"/>
-      <c r="F278" s="75"/>
-      <c r="G278" s="88" t="s">
+      <c r="B278" s="86"/>
+      <c r="C278" s="86"/>
+      <c r="D278" s="86"/>
+      <c r="E278" s="116"/>
+      <c r="F278" s="86"/>
+      <c r="G278" s="78" t="s">
         <v>686</v>
       </c>
-      <c r="H278" s="86"/>
+      <c r="H278" s="77"/>
       <c r="I278" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J278" s="95" t="s">
+      <c r="J278" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="279" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B279" s="75"/>
-      <c r="C279" s="75"/>
-      <c r="D279" s="75"/>
-      <c r="E279" s="91"/>
-      <c r="F279" s="75"/>
-      <c r="G279" s="88" t="s">
+      <c r="B279" s="86"/>
+      <c r="C279" s="86"/>
+      <c r="D279" s="86"/>
+      <c r="E279" s="116"/>
+      <c r="F279" s="86"/>
+      <c r="G279" s="78" t="s">
         <v>687</v>
       </c>
-      <c r="H279" s="86"/>
+      <c r="H279" s="77"/>
       <c r="I279" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J279" s="95" t="s">
+      <c r="J279" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="280" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B280" s="75"/>
-      <c r="C280" s="75"/>
-      <c r="D280" s="75"/>
-      <c r="E280" s="91"/>
-      <c r="F280" s="75"/>
-      <c r="G280" s="88" t="s">
+      <c r="B280" s="86"/>
+      <c r="C280" s="86"/>
+      <c r="D280" s="86"/>
+      <c r="E280" s="116"/>
+      <c r="F280" s="86"/>
+      <c r="G280" s="78" t="s">
         <v>463</v>
       </c>
-      <c r="H280" s="86"/>
+      <c r="H280" s="77"/>
       <c r="I280" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J280" s="95" t="s">
+      <c r="J280" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="281" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B281" s="75"/>
-      <c r="C281" s="75"/>
-      <c r="D281" s="75"/>
-      <c r="E281" s="91"/>
-      <c r="F281" s="75"/>
-      <c r="G281" s="88" t="s">
+      <c r="B281" s="86"/>
+      <c r="C281" s="86"/>
+      <c r="D281" s="86"/>
+      <c r="E281" s="116"/>
+      <c r="F281" s="86"/>
+      <c r="G281" s="78" t="s">
         <v>688</v>
       </c>
-      <c r="H281" s="86"/>
+      <c r="H281" s="77"/>
       <c r="I281" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J281" s="95" t="s">
+      <c r="J281" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="282" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B282" s="75"/>
-      <c r="C282" s="75"/>
-      <c r="D282" s="75"/>
-      <c r="E282" s="91"/>
-      <c r="F282" s="75"/>
-      <c r="G282" s="88" t="s">
+      <c r="B282" s="86"/>
+      <c r="C282" s="86"/>
+      <c r="D282" s="86"/>
+      <c r="E282" s="116"/>
+      <c r="F282" s="86"/>
+      <c r="G282" s="78" t="s">
         <v>689</v>
       </c>
-      <c r="H282" s="86"/>
+      <c r="H282" s="77"/>
       <c r="I282" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J282" s="95" t="s">
+      <c r="J282" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="283" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B283" s="75"/>
-      <c r="C283" s="75"/>
-      <c r="D283" s="75"/>
-      <c r="E283" s="91"/>
-      <c r="F283" s="75"/>
-      <c r="G283" s="88" t="s">
+      <c r="B283" s="86"/>
+      <c r="C283" s="86"/>
+      <c r="D283" s="86"/>
+      <c r="E283" s="116"/>
+      <c r="F283" s="86"/>
+      <c r="G283" s="78" t="s">
         <v>690</v>
       </c>
-      <c r="H283" s="86"/>
+      <c r="H283" s="77"/>
       <c r="I283" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J283" s="95" t="s">
+      <c r="J283" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="284" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B284" s="75"/>
-      <c r="C284" s="75"/>
-      <c r="D284" s="75"/>
-      <c r="E284" s="91"/>
-      <c r="F284" s="75"/>
-      <c r="G284" s="88" t="s">
+      <c r="B284" s="86"/>
+      <c r="C284" s="86"/>
+      <c r="D284" s="86"/>
+      <c r="E284" s="116"/>
+      <c r="F284" s="86"/>
+      <c r="G284" s="78" t="s">
         <v>691</v>
       </c>
-      <c r="H284" s="86"/>
+      <c r="H284" s="77"/>
       <c r="I284" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J284" s="95" t="s">
+      <c r="J284" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="285" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B285" s="75"/>
-      <c r="C285" s="75"/>
-      <c r="D285" s="75"/>
-      <c r="E285" s="91"/>
-      <c r="F285" s="75"/>
-      <c r="G285" s="88" t="s">
+      <c r="B285" s="86"/>
+      <c r="C285" s="86"/>
+      <c r="D285" s="86"/>
+      <c r="E285" s="116"/>
+      <c r="F285" s="86"/>
+      <c r="G285" s="78" t="s">
         <v>692</v>
       </c>
-      <c r="H285" s="86"/>
+      <c r="H285" s="77"/>
       <c r="I285" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J285" s="95" t="s">
+      <c r="J285" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="286" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B286" s="75"/>
-      <c r="C286" s="75"/>
-      <c r="D286" s="75"/>
-      <c r="E286" s="91"/>
-      <c r="F286" s="75"/>
-      <c r="G286" s="88" t="s">
+      <c r="B286" s="86"/>
+      <c r="C286" s="86"/>
+      <c r="D286" s="86"/>
+      <c r="E286" s="116"/>
+      <c r="F286" s="86"/>
+      <c r="G286" s="78" t="s">
         <v>693</v>
       </c>
-      <c r="H286" s="86"/>
+      <c r="H286" s="77"/>
       <c r="I286" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J286" s="95" t="s">
+      <c r="J286" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="287" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B287" s="75"/>
-      <c r="C287" s="75"/>
-      <c r="D287" s="75"/>
-      <c r="E287" s="91"/>
-      <c r="F287" s="75"/>
-      <c r="G287" s="88" t="s">
+      <c r="B287" s="86"/>
+      <c r="C287" s="86"/>
+      <c r="D287" s="86"/>
+      <c r="E287" s="116"/>
+      <c r="F287" s="86"/>
+      <c r="G287" s="78" t="s">
         <v>694</v>
       </c>
-      <c r="H287" s="86"/>
+      <c r="H287" s="77"/>
       <c r="I287" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J287" s="95" t="s">
+      <c r="J287" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="288" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B288" s="75"/>
-      <c r="C288" s="75"/>
-      <c r="D288" s="75"/>
-      <c r="E288" s="91"/>
-      <c r="F288" s="75"/>
-      <c r="G288" s="88" t="s">
+      <c r="B288" s="86"/>
+      <c r="C288" s="86"/>
+      <c r="D288" s="86"/>
+      <c r="E288" s="116"/>
+      <c r="F288" s="86"/>
+      <c r="G288" s="78" t="s">
         <v>695</v>
       </c>
-      <c r="H288" s="86"/>
+      <c r="H288" s="77"/>
       <c r="I288" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J288" s="95" t="s">
+      <c r="J288" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="289" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B289" s="75"/>
-      <c r="C289" s="75"/>
-      <c r="D289" s="75"/>
-      <c r="E289" s="91"/>
-      <c r="F289" s="75"/>
-      <c r="G289" s="88" t="s">
+      <c r="B289" s="86"/>
+      <c r="C289" s="86"/>
+      <c r="D289" s="86"/>
+      <c r="E289" s="116"/>
+      <c r="F289" s="86"/>
+      <c r="G289" s="78" t="s">
         <v>696</v>
       </c>
-      <c r="H289" s="86"/>
+      <c r="H289" s="77"/>
       <c r="I289" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J289" s="95" t="s">
+      <c r="J289" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="290" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B290" s="75"/>
-      <c r="C290" s="75"/>
-      <c r="D290" s="75"/>
-      <c r="E290" s="91"/>
-      <c r="F290" s="75"/>
-      <c r="G290" s="88" t="s">
+      <c r="B290" s="86"/>
+      <c r="C290" s="86"/>
+      <c r="D290" s="86"/>
+      <c r="E290" s="116"/>
+      <c r="F290" s="86"/>
+      <c r="G290" s="78" t="s">
         <v>697</v>
       </c>
-      <c r="H290" s="86"/>
+      <c r="H290" s="77"/>
       <c r="I290" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J290" s="95" t="s">
+      <c r="J290" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="291" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B291" s="75"/>
-      <c r="C291" s="75"/>
-      <c r="D291" s="75"/>
-      <c r="E291" s="91"/>
-      <c r="F291" s="74"/>
-      <c r="G291" s="88" t="s">
+      <c r="B291" s="86"/>
+      <c r="C291" s="86"/>
+      <c r="D291" s="86"/>
+      <c r="E291" s="116"/>
+      <c r="F291" s="87"/>
+      <c r="G291" s="78" t="s">
         <v>698</v>
       </c>
-      <c r="H291" s="86"/>
+      <c r="H291" s="77"/>
       <c r="I291" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J291" s="95" t="s">
+      <c r="J291" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="292" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B292" s="75"/>
-      <c r="C292" s="75"/>
-      <c r="D292" s="75"/>
-      <c r="E292" s="91"/>
-      <c r="F292" s="84" t="s">
+      <c r="B292" s="86"/>
+      <c r="C292" s="86"/>
+      <c r="D292" s="86"/>
+      <c r="E292" s="116"/>
+      <c r="F292" s="83" t="s">
         <v>699</v>
       </c>
-      <c r="G292" s="82"/>
-      <c r="H292" s="83"/>
+      <c r="G292" s="90"/>
+      <c r="H292" s="104"/>
       <c r="I292" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J292" s="95" t="s">
+      <c r="J292" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="293" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B293" s="75"/>
-      <c r="C293" s="75"/>
-      <c r="D293" s="75"/>
-      <c r="E293" s="91"/>
-      <c r="F293" s="75"/>
-      <c r="G293" s="88" t="s">
+      <c r="B293" s="86"/>
+      <c r="C293" s="86"/>
+      <c r="D293" s="86"/>
+      <c r="E293" s="116"/>
+      <c r="F293" s="86"/>
+      <c r="G293" s="78" t="s">
         <v>463</v>
       </c>
-      <c r="H293" s="86"/>
+      <c r="H293" s="77"/>
       <c r="I293" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J293" s="95" t="s">
+      <c r="J293" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="294" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B294" s="75"/>
-      <c r="C294" s="75"/>
-      <c r="D294" s="75"/>
-      <c r="E294" s="91"/>
-      <c r="F294" s="75"/>
-      <c r="G294" s="88" t="s">
+      <c r="B294" s="86"/>
+      <c r="C294" s="86"/>
+      <c r="D294" s="86"/>
+      <c r="E294" s="116"/>
+      <c r="F294" s="86"/>
+      <c r="G294" s="78" t="s">
         <v>689</v>
       </c>
-      <c r="H294" s="86"/>
+      <c r="H294" s="77"/>
       <c r="I294" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J294" s="95" t="s">
+      <c r="J294" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="295" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B295" s="75"/>
-      <c r="C295" s="75"/>
-      <c r="D295" s="75"/>
-      <c r="E295" s="91"/>
-      <c r="F295" s="75"/>
-      <c r="G295" s="88" t="s">
+      <c r="B295" s="86"/>
+      <c r="C295" s="86"/>
+      <c r="D295" s="86"/>
+      <c r="E295" s="116"/>
+      <c r="F295" s="86"/>
+      <c r="G295" s="78" t="s">
         <v>700</v>
       </c>
-      <c r="H295" s="86"/>
+      <c r="H295" s="77"/>
       <c r="I295" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J295" s="95" t="s">
+      <c r="J295" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="296" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B296" s="75"/>
-      <c r="C296" s="75"/>
-      <c r="D296" s="75"/>
-      <c r="E296" s="91"/>
-      <c r="F296" s="75"/>
-      <c r="G296" s="88" t="s">
+      <c r="B296" s="86"/>
+      <c r="C296" s="86"/>
+      <c r="D296" s="86"/>
+      <c r="E296" s="116"/>
+      <c r="F296" s="86"/>
+      <c r="G296" s="78" t="s">
         <v>692</v>
       </c>
-      <c r="H296" s="86"/>
+      <c r="H296" s="77"/>
       <c r="I296" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J296" s="95" t="s">
+      <c r="J296" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="297" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B297" s="75"/>
-      <c r="C297" s="75"/>
-      <c r="D297" s="75"/>
-      <c r="E297" s="91"/>
-      <c r="F297" s="75"/>
-      <c r="G297" s="88" t="s">
+      <c r="B297" s="86"/>
+      <c r="C297" s="86"/>
+      <c r="D297" s="86"/>
+      <c r="E297" s="116"/>
+      <c r="F297" s="86"/>
+      <c r="G297" s="78" t="s">
         <v>693</v>
       </c>
-      <c r="H297" s="86"/>
+      <c r="H297" s="77"/>
       <c r="I297" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J297" s="95" t="s">
+      <c r="J297" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="298" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B298" s="75"/>
-      <c r="C298" s="75"/>
-      <c r="D298" s="75"/>
-      <c r="E298" s="91"/>
-      <c r="F298" s="74"/>
-      <c r="G298" s="88" t="s">
+      <c r="B298" s="86"/>
+      <c r="C298" s="86"/>
+      <c r="D298" s="86"/>
+      <c r="E298" s="116"/>
+      <c r="F298" s="87"/>
+      <c r="G298" s="78" t="s">
         <v>696</v>
       </c>
-      <c r="H298" s="86"/>
+      <c r="H298" s="77"/>
       <c r="I298" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J298" s="95" t="s">
+      <c r="J298" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="299" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B299" s="75"/>
-      <c r="C299" s="75"/>
-      <c r="D299" s="75"/>
-      <c r="E299" s="91"/>
-      <c r="F299" s="84" t="s">
+      <c r="B299" s="86"/>
+      <c r="C299" s="86"/>
+      <c r="D299" s="86"/>
+      <c r="E299" s="116"/>
+      <c r="F299" s="83" t="s">
         <v>701</v>
       </c>
-      <c r="G299" s="82"/>
-      <c r="H299" s="83"/>
+      <c r="G299" s="90"/>
+      <c r="H299" s="104"/>
       <c r="I299" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J299" s="95" t="s">
+      <c r="J299" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="300" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B300" s="75"/>
-      <c r="C300" s="75"/>
-      <c r="D300" s="75"/>
-      <c r="E300" s="91"/>
-      <c r="F300" s="75"/>
-      <c r="G300" s="85" t="s">
+      <c r="B300" s="86"/>
+      <c r="C300" s="86"/>
+      <c r="D300" s="86"/>
+      <c r="E300" s="116"/>
+      <c r="F300" s="86"/>
+      <c r="G300" s="76" t="s">
         <v>685</v>
       </c>
-      <c r="H300" s="86"/>
+      <c r="H300" s="77"/>
       <c r="I300" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J300" s="95" t="s">
+      <c r="J300" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="301" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B301" s="75"/>
-      <c r="C301" s="75"/>
-      <c r="D301" s="75"/>
-      <c r="E301" s="91"/>
-      <c r="F301" s="75"/>
-      <c r="G301" s="85" t="s">
+      <c r="B301" s="86"/>
+      <c r="C301" s="86"/>
+      <c r="D301" s="86"/>
+      <c r="E301" s="116"/>
+      <c r="F301" s="86"/>
+      <c r="G301" s="76" t="s">
         <v>702</v>
       </c>
-      <c r="H301" s="86"/>
+      <c r="H301" s="77"/>
       <c r="I301" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J301" s="95" t="s">
+      <c r="J301" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="302" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B302" s="75"/>
-      <c r="C302" s="75"/>
-      <c r="D302" s="75"/>
-      <c r="E302" s="91"/>
-      <c r="F302" s="75"/>
-      <c r="G302" s="85" t="s">
+      <c r="B302" s="86"/>
+      <c r="C302" s="86"/>
+      <c r="D302" s="86"/>
+      <c r="E302" s="116"/>
+      <c r="F302" s="86"/>
+      <c r="G302" s="76" t="s">
         <v>686</v>
       </c>
-      <c r="H302" s="86"/>
+      <c r="H302" s="77"/>
       <c r="I302" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J302" s="95" t="s">
+      <c r="J302" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="303" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B303" s="75"/>
-      <c r="C303" s="75"/>
-      <c r="D303" s="75"/>
-      <c r="E303" s="91"/>
-      <c r="F303" s="75"/>
-      <c r="G303" s="85" t="s">
+      <c r="B303" s="86"/>
+      <c r="C303" s="86"/>
+      <c r="D303" s="86"/>
+      <c r="E303" s="116"/>
+      <c r="F303" s="86"/>
+      <c r="G303" s="76" t="s">
         <v>463</v>
       </c>
-      <c r="H303" s="86"/>
+      <c r="H303" s="77"/>
       <c r="I303" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J303" s="95" t="s">
+      <c r="J303" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="304" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B304" s="75"/>
-      <c r="C304" s="75"/>
-      <c r="D304" s="75"/>
-      <c r="E304" s="91"/>
-      <c r="F304" s="75"/>
-      <c r="G304" s="85" t="s">
+      <c r="B304" s="86"/>
+      <c r="C304" s="86"/>
+      <c r="D304" s="86"/>
+      <c r="E304" s="116"/>
+      <c r="F304" s="86"/>
+      <c r="G304" s="76" t="s">
         <v>689</v>
       </c>
-      <c r="H304" s="86"/>
+      <c r="H304" s="77"/>
       <c r="I304" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J304" s="95" t="s">
+      <c r="J304" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="305" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B305" s="75"/>
-      <c r="C305" s="75"/>
-      <c r="D305" s="75"/>
-      <c r="E305" s="91"/>
-      <c r="F305" s="75"/>
-      <c r="G305" s="85" t="s">
+      <c r="B305" s="86"/>
+      <c r="C305" s="86"/>
+      <c r="D305" s="86"/>
+      <c r="E305" s="116"/>
+      <c r="F305" s="86"/>
+      <c r="G305" s="76" t="s">
         <v>703</v>
       </c>
-      <c r="H305" s="86"/>
+      <c r="H305" s="77"/>
       <c r="I305" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J305" s="95" t="s">
+      <c r="J305" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="306" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B306" s="75"/>
-      <c r="C306" s="75"/>
-      <c r="D306" s="75"/>
-      <c r="E306" s="91"/>
-      <c r="F306" s="75"/>
-      <c r="G306" s="85" t="s">
+      <c r="B306" s="86"/>
+      <c r="C306" s="86"/>
+      <c r="D306" s="86"/>
+      <c r="E306" s="116"/>
+      <c r="F306" s="86"/>
+      <c r="G306" s="76" t="s">
         <v>692</v>
       </c>
-      <c r="H306" s="86"/>
+      <c r="H306" s="77"/>
       <c r="I306" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J306" s="95" t="s">
+      <c r="J306" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="307" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B307" s="75"/>
-      <c r="C307" s="75"/>
-      <c r="D307" s="75"/>
-      <c r="E307" s="91"/>
-      <c r="F307" s="75"/>
-      <c r="G307" s="85" t="s">
+      <c r="B307" s="86"/>
+      <c r="C307" s="86"/>
+      <c r="D307" s="86"/>
+      <c r="E307" s="116"/>
+      <c r="F307" s="86"/>
+      <c r="G307" s="76" t="s">
         <v>693</v>
       </c>
-      <c r="H307" s="86"/>
+      <c r="H307" s="77"/>
       <c r="I307" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J307" s="95" t="s">
+      <c r="J307" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="308" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B308" s="75"/>
-      <c r="C308" s="75"/>
-      <c r="D308" s="75"/>
-      <c r="E308" s="91"/>
-      <c r="F308" s="74"/>
-      <c r="G308" s="85" t="s">
+      <c r="B308" s="86"/>
+      <c r="C308" s="86"/>
+      <c r="D308" s="86"/>
+      <c r="E308" s="116"/>
+      <c r="F308" s="87"/>
+      <c r="G308" s="76" t="s">
         <v>696</v>
       </c>
-      <c r="H308" s="86"/>
+      <c r="H308" s="77"/>
       <c r="I308" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J308" s="95" t="s">
+      <c r="J308" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="309" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B309" s="75"/>
-      <c r="C309" s="75"/>
-      <c r="D309" s="75"/>
-      <c r="E309" s="91"/>
-      <c r="F309" s="84" t="s">
+      <c r="B309" s="86"/>
+      <c r="C309" s="86"/>
+      <c r="D309" s="86"/>
+      <c r="E309" s="116"/>
+      <c r="F309" s="83" t="s">
         <v>704</v>
       </c>
-      <c r="G309" s="82"/>
-      <c r="H309" s="83"/>
+      <c r="G309" s="90"/>
+      <c r="H309" s="104"/>
       <c r="I309" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J309" s="95" t="s">
+      <c r="J309" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="310" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B310" s="75"/>
-      <c r="C310" s="75"/>
-      <c r="D310" s="75"/>
-      <c r="E310" s="91"/>
-      <c r="F310" s="75"/>
-      <c r="G310" s="88" t="s">
+      <c r="B310" s="86"/>
+      <c r="C310" s="86"/>
+      <c r="D310" s="86"/>
+      <c r="E310" s="116"/>
+      <c r="F310" s="86"/>
+      <c r="G310" s="78" t="s">
         <v>463</v>
       </c>
-      <c r="H310" s="86"/>
+      <c r="H310" s="77"/>
       <c r="I310" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J310" s="95" t="s">
+      <c r="J310" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="311" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B311" s="75"/>
-      <c r="C311" s="75"/>
-      <c r="D311" s="75"/>
-      <c r="E311" s="91"/>
-      <c r="F311" s="75"/>
-      <c r="G311" s="88" t="s">
+      <c r="B311" s="86"/>
+      <c r="C311" s="86"/>
+      <c r="D311" s="86"/>
+      <c r="E311" s="116"/>
+      <c r="F311" s="86"/>
+      <c r="G311" s="78" t="s">
         <v>689</v>
       </c>
-      <c r="H311" s="86"/>
+      <c r="H311" s="77"/>
       <c r="I311" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J311" s="95" t="s">
+      <c r="J311" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="312" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B312" s="75"/>
-      <c r="C312" s="75"/>
-      <c r="D312" s="75"/>
-      <c r="E312" s="91"/>
-      <c r="F312" s="75"/>
-      <c r="G312" s="88" t="s">
+      <c r="B312" s="86"/>
+      <c r="C312" s="86"/>
+      <c r="D312" s="86"/>
+      <c r="E312" s="116"/>
+      <c r="F312" s="86"/>
+      <c r="G312" s="78" t="s">
         <v>705</v>
       </c>
-      <c r="H312" s="86"/>
+      <c r="H312" s="77"/>
       <c r="I312" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J312" s="95" t="s">
+      <c r="J312" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="313" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B313" s="75"/>
-      <c r="C313" s="75"/>
-      <c r="D313" s="75"/>
-      <c r="E313" s="91"/>
-      <c r="F313" s="75"/>
-      <c r="G313" s="88" t="s">
+      <c r="B313" s="86"/>
+      <c r="C313" s="86"/>
+      <c r="D313" s="86"/>
+      <c r="E313" s="116"/>
+      <c r="F313" s="86"/>
+      <c r="G313" s="78" t="s">
         <v>692</v>
       </c>
-      <c r="H313" s="86"/>
+      <c r="H313" s="77"/>
       <c r="I313" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J313" s="95" t="s">
+      <c r="J313" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="314" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B314" s="75"/>
-      <c r="C314" s="75"/>
-      <c r="D314" s="75"/>
-      <c r="E314" s="91"/>
-      <c r="F314" s="75"/>
-      <c r="G314" s="88" t="s">
+      <c r="B314" s="86"/>
+      <c r="C314" s="86"/>
+      <c r="D314" s="86"/>
+      <c r="E314" s="116"/>
+      <c r="F314" s="86"/>
+      <c r="G314" s="78" t="s">
         <v>693</v>
       </c>
-      <c r="H314" s="86"/>
+      <c r="H314" s="77"/>
       <c r="I314" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J314" s="95" t="s">
+      <c r="J314" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="315" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B315" s="75"/>
-      <c r="C315" s="75"/>
-      <c r="D315" s="75"/>
-      <c r="E315" s="91"/>
-      <c r="F315" s="74"/>
-      <c r="G315" s="88" t="s">
+      <c r="B315" s="86"/>
+      <c r="C315" s="86"/>
+      <c r="D315" s="86"/>
+      <c r="E315" s="116"/>
+      <c r="F315" s="87"/>
+      <c r="G315" s="78" t="s">
         <v>696</v>
       </c>
-      <c r="H315" s="86"/>
+      <c r="H315" s="77"/>
       <c r="I315" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J315" s="95" t="s">
+      <c r="J315" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="316" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B316" s="75"/>
-      <c r="C316" s="75"/>
-      <c r="D316" s="75"/>
-      <c r="E316" s="91"/>
-      <c r="F316" s="84" t="s">
+      <c r="B316" s="86"/>
+      <c r="C316" s="86"/>
+      <c r="D316" s="86"/>
+      <c r="E316" s="116"/>
+      <c r="F316" s="83" t="s">
         <v>706</v>
       </c>
-      <c r="G316" s="82"/>
-      <c r="H316" s="83"/>
+      <c r="G316" s="90"/>
+      <c r="H316" s="104"/>
       <c r="I316" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J316" s="95" t="s">
+      <c r="J316" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="317" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B317" s="75"/>
-      <c r="C317" s="75"/>
-      <c r="D317" s="75"/>
-      <c r="E317" s="91"/>
-      <c r="F317" s="75"/>
-      <c r="G317" s="88" t="s">
+      <c r="B317" s="86"/>
+      <c r="C317" s="86"/>
+      <c r="D317" s="86"/>
+      <c r="E317" s="116"/>
+      <c r="F317" s="86"/>
+      <c r="G317" s="78" t="s">
         <v>685</v>
       </c>
-      <c r="H317" s="86"/>
+      <c r="H317" s="77"/>
       <c r="I317" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J317" s="95" t="s">
+      <c r="J317" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="318" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B318" s="75"/>
-      <c r="C318" s="75"/>
-      <c r="D318" s="75"/>
-      <c r="E318" s="91"/>
-      <c r="F318" s="75"/>
-      <c r="G318" s="88" t="s">
+      <c r="B318" s="86"/>
+      <c r="C318" s="86"/>
+      <c r="D318" s="86"/>
+      <c r="E318" s="116"/>
+      <c r="F318" s="86"/>
+      <c r="G318" s="78" t="s">
         <v>686</v>
       </c>
-      <c r="H318" s="86"/>
+      <c r="H318" s="77"/>
       <c r="I318" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J318" s="95" t="s">
+      <c r="J318" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="319" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B319" s="75"/>
-      <c r="C319" s="75"/>
-      <c r="D319" s="75"/>
-      <c r="E319" s="91"/>
-      <c r="F319" s="75"/>
-      <c r="G319" s="88" t="s">
+      <c r="B319" s="86"/>
+      <c r="C319" s="86"/>
+      <c r="D319" s="86"/>
+      <c r="E319" s="116"/>
+      <c r="F319" s="86"/>
+      <c r="G319" s="78" t="s">
         <v>463</v>
       </c>
-      <c r="H319" s="86"/>
+      <c r="H319" s="77"/>
       <c r="I319" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J319" s="95" t="s">
+      <c r="J319" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="320" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B320" s="75"/>
-      <c r="C320" s="75"/>
-      <c r="D320" s="75"/>
-      <c r="E320" s="91"/>
-      <c r="F320" s="75"/>
-      <c r="G320" s="88" t="s">
+      <c r="B320" s="86"/>
+      <c r="C320" s="86"/>
+      <c r="D320" s="86"/>
+      <c r="E320" s="116"/>
+      <c r="F320" s="86"/>
+      <c r="G320" s="78" t="s">
         <v>689</v>
       </c>
-      <c r="H320" s="86"/>
+      <c r="H320" s="77"/>
       <c r="I320" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J320" s="95" t="s">
+      <c r="J320" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="321" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B321" s="75"/>
-      <c r="C321" s="75"/>
-      <c r="D321" s="75"/>
-      <c r="E321" s="91"/>
-      <c r="F321" s="75"/>
-      <c r="G321" s="88" t="s">
+      <c r="B321" s="86"/>
+      <c r="C321" s="86"/>
+      <c r="D321" s="86"/>
+      <c r="E321" s="116"/>
+      <c r="F321" s="86"/>
+      <c r="G321" s="78" t="s">
         <v>707</v>
       </c>
-      <c r="H321" s="86"/>
+      <c r="H321" s="77"/>
       <c r="I321" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J321" s="95" t="s">
+      <c r="J321" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="322" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B322" s="75"/>
-      <c r="C322" s="75"/>
-      <c r="D322" s="75"/>
-      <c r="E322" s="91"/>
-      <c r="F322" s="75"/>
-      <c r="G322" s="88" t="s">
+      <c r="B322" s="86"/>
+      <c r="C322" s="86"/>
+      <c r="D322" s="86"/>
+      <c r="E322" s="116"/>
+      <c r="F322" s="86"/>
+      <c r="G322" s="78" t="s">
         <v>692</v>
       </c>
-      <c r="H322" s="86"/>
+      <c r="H322" s="77"/>
       <c r="I322" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J322" s="95" t="s">
+      <c r="J322" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="323" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B323" s="75"/>
-      <c r="C323" s="75"/>
-      <c r="D323" s="75"/>
-      <c r="E323" s="91"/>
-      <c r="F323" s="75"/>
-      <c r="G323" s="88" t="s">
+      <c r="B323" s="86"/>
+      <c r="C323" s="86"/>
+      <c r="D323" s="86"/>
+      <c r="E323" s="116"/>
+      <c r="F323" s="86"/>
+      <c r="G323" s="78" t="s">
         <v>693</v>
       </c>
-      <c r="H323" s="86"/>
+      <c r="H323" s="77"/>
       <c r="I323" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J323" s="95" t="s">
+      <c r="J323" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="324" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B324" s="75"/>
-      <c r="C324" s="75"/>
-      <c r="D324" s="75"/>
-      <c r="E324" s="91"/>
-      <c r="F324" s="74"/>
-      <c r="G324" s="88" t="s">
+      <c r="B324" s="86"/>
+      <c r="C324" s="86"/>
+      <c r="D324" s="86"/>
+      <c r="E324" s="116"/>
+      <c r="F324" s="87"/>
+      <c r="G324" s="78" t="s">
         <v>696</v>
       </c>
-      <c r="H324" s="86"/>
+      <c r="H324" s="77"/>
       <c r="I324" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J324" s="95" t="s">
+      <c r="J324" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="325" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B325" s="75"/>
-      <c r="C325" s="75"/>
-      <c r="D325" s="75"/>
-      <c r="E325" s="91"/>
-      <c r="F325" s="84" t="s">
+      <c r="B325" s="86"/>
+      <c r="C325" s="86"/>
+      <c r="D325" s="86"/>
+      <c r="E325" s="116"/>
+      <c r="F325" s="83" t="s">
         <v>708</v>
       </c>
-      <c r="G325" s="82"/>
-      <c r="H325" s="83"/>
+      <c r="G325" s="90"/>
+      <c r="H325" s="104"/>
       <c r="I325" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J325" s="95" t="s">
+      <c r="J325" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="326" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B326" s="75"/>
-      <c r="C326" s="75"/>
-      <c r="D326" s="75"/>
-      <c r="E326" s="91"/>
-      <c r="F326" s="76"/>
-      <c r="G326" s="88" t="s">
+      <c r="B326" s="86"/>
+      <c r="C326" s="86"/>
+      <c r="D326" s="86"/>
+      <c r="E326" s="116"/>
+      <c r="F326" s="88"/>
+      <c r="G326" s="78" t="s">
         <v>463</v>
       </c>
-      <c r="H326" s="86"/>
+      <c r="H326" s="77"/>
       <c r="I326" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J326" s="95" t="s">
+      <c r="J326" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="327" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B327" s="75"/>
-      <c r="C327" s="75"/>
-      <c r="D327" s="75"/>
-      <c r="E327" s="91"/>
-      <c r="F327" s="76"/>
-      <c r="G327" s="88" t="s">
+      <c r="B327" s="86"/>
+      <c r="C327" s="86"/>
+      <c r="D327" s="86"/>
+      <c r="E327" s="116"/>
+      <c r="F327" s="88"/>
+      <c r="G327" s="78" t="s">
         <v>692</v>
       </c>
-      <c r="H327" s="86"/>
+      <c r="H327" s="77"/>
       <c r="I327" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J327" s="95" t="s">
+      <c r="J327" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="328" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B328" s="75"/>
-      <c r="C328" s="75"/>
-      <c r="D328" s="75"/>
-      <c r="E328" s="91"/>
-      <c r="F328" s="76"/>
-      <c r="G328" s="88" t="s">
+      <c r="B328" s="86"/>
+      <c r="C328" s="86"/>
+      <c r="D328" s="86"/>
+      <c r="E328" s="116"/>
+      <c r="F328" s="88"/>
+      <c r="G328" s="78" t="s">
         <v>709</v>
       </c>
-      <c r="H328" s="86"/>
+      <c r="H328" s="77"/>
       <c r="I328" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J328" s="95" t="s">
+      <c r="J328" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="329" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B329" s="75"/>
-      <c r="C329" s="75"/>
-      <c r="D329" s="75"/>
-      <c r="E329" s="92"/>
-      <c r="F329" s="77"/>
-      <c r="G329" s="88" t="s">
+      <c r="B329" s="86"/>
+      <c r="C329" s="86"/>
+      <c r="D329" s="86"/>
+      <c r="E329" s="117"/>
+      <c r="F329" s="89"/>
+      <c r="G329" s="78" t="s">
         <v>696</v>
       </c>
-      <c r="H329" s="86"/>
+      <c r="H329" s="77"/>
       <c r="I329" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J329" s="95" t="s">
+      <c r="J329" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="330" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B330" s="75"/>
-      <c r="C330" s="84" t="s">
+      <c r="B330" s="86"/>
+      <c r="C330" s="83" t="s">
         <v>710</v>
       </c>
-      <c r="D330" s="82"/>
-      <c r="E330" s="82"/>
-      <c r="F330" s="82"/>
-      <c r="G330" s="82"/>
-      <c r="H330" s="83"/>
+      <c r="D330" s="90"/>
+      <c r="E330" s="90"/>
+      <c r="F330" s="90"/>
+      <c r="G330" s="90"/>
+      <c r="H330" s="104"/>
       <c r="I330" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J330" s="95" t="s">
+      <c r="J330" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="331" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B331" s="75"/>
-      <c r="C331" s="75"/>
+      <c r="B331" s="86"/>
+      <c r="C331" s="86"/>
       <c r="D331" s="72" t="s">
         <v>711</v>
       </c>
-      <c r="E331" s="85"/>
-      <c r="F331" s="88"/>
-      <c r="G331" s="88"/>
-      <c r="H331" s="86"/>
+      <c r="E331" s="76"/>
+      <c r="F331" s="78"/>
+      <c r="G331" s="78"/>
+      <c r="H331" s="77"/>
       <c r="I331" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J331" s="95" t="s">
+      <c r="J331" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="332" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B332" s="75"/>
-      <c r="C332" s="75"/>
+      <c r="B332" s="86"/>
+      <c r="C332" s="86"/>
       <c r="D332" s="72" t="s">
         <v>712</v>
       </c>
-      <c r="E332" s="85"/>
-      <c r="F332" s="88"/>
-      <c r="G332" s="88"/>
-      <c r="H332" s="86"/>
+      <c r="E332" s="76"/>
+      <c r="F332" s="78"/>
+      <c r="G332" s="78"/>
+      <c r="H332" s="77"/>
       <c r="I332" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J332" s="95" t="s">
+      <c r="J332" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="333" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B333" s="75"/>
-      <c r="C333" s="75"/>
-      <c r="D333" s="84" t="s">
+      <c r="B333" s="86"/>
+      <c r="C333" s="86"/>
+      <c r="D333" s="83" t="s">
         <v>713</v>
       </c>
-      <c r="E333" s="82"/>
-      <c r="F333" s="82"/>
-      <c r="G333" s="82"/>
-      <c r="H333" s="83"/>
+      <c r="E333" s="90"/>
+      <c r="F333" s="90"/>
+      <c r="G333" s="90"/>
+      <c r="H333" s="104"/>
       <c r="I333" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J333" s="95" t="s">
+      <c r="J333" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="334" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B334" s="75"/>
-      <c r="C334" s="75"/>
-      <c r="D334" s="77"/>
-      <c r="E334" s="85" t="s">
+      <c r="B334" s="86"/>
+      <c r="C334" s="86"/>
+      <c r="D334" s="89"/>
+      <c r="E334" s="76" t="s">
         <v>714</v>
       </c>
-      <c r="F334" s="88"/>
-      <c r="G334" s="88"/>
-      <c r="H334" s="86"/>
+      <c r="F334" s="78"/>
+      <c r="G334" s="78"/>
+      <c r="H334" s="77"/>
       <c r="I334" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J334" s="95" t="s">
+      <c r="J334" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="335" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B335" s="75"/>
-      <c r="C335" s="75"/>
-      <c r="D335" s="84" t="s">
+      <c r="B335" s="86"/>
+      <c r="C335" s="86"/>
+      <c r="D335" s="83" t="s">
         <v>715</v>
       </c>
-      <c r="E335" s="82"/>
-      <c r="F335" s="82"/>
-      <c r="G335" s="82"/>
-      <c r="H335" s="83"/>
+      <c r="E335" s="90"/>
+      <c r="F335" s="90"/>
+      <c r="G335" s="90"/>
+      <c r="H335" s="104"/>
       <c r="I335" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J335" s="95" t="s">
+      <c r="J335" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="336" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B336" s="75"/>
-      <c r="C336" s="75"/>
-      <c r="D336" s="75"/>
-      <c r="E336" s="84" t="s">
+      <c r="B336" s="86"/>
+      <c r="C336" s="86"/>
+      <c r="D336" s="86"/>
+      <c r="E336" s="83" t="s">
         <v>716</v>
       </c>
-      <c r="F336" s="82"/>
-      <c r="G336" s="82"/>
-      <c r="H336" s="83"/>
+      <c r="F336" s="90"/>
+      <c r="G336" s="90"/>
+      <c r="H336" s="104"/>
       <c r="I336" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J336" s="95" t="s">
+      <c r="J336" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="337" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B337" s="75"/>
-      <c r="C337" s="75"/>
-      <c r="D337" s="75"/>
-      <c r="E337" s="75"/>
-      <c r="F337" s="88" t="s">
+      <c r="B337" s="86"/>
+      <c r="C337" s="86"/>
+      <c r="D337" s="86"/>
+      <c r="E337" s="86"/>
+      <c r="F337" s="78" t="s">
         <v>717</v>
       </c>
-      <c r="G337" s="88"/>
-      <c r="H337" s="86"/>
+      <c r="G337" s="78"/>
+      <c r="H337" s="77"/>
       <c r="I337" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J337" s="95" t="s">
+      <c r="J337" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="338" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B338" s="75"/>
-      <c r="C338" s="75"/>
-      <c r="D338" s="75"/>
-      <c r="E338" s="75"/>
-      <c r="F338" s="88" t="s">
+      <c r="B338" s="86"/>
+      <c r="C338" s="86"/>
+      <c r="D338" s="86"/>
+      <c r="E338" s="86"/>
+      <c r="F338" s="78" t="s">
         <v>718</v>
       </c>
-      <c r="G338" s="88"/>
-      <c r="H338" s="86"/>
+      <c r="G338" s="78"/>
+      <c r="H338" s="77"/>
       <c r="I338" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J338" s="95" t="s">
+      <c r="J338" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="339" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B339" s="75"/>
-      <c r="C339" s="75"/>
-      <c r="D339" s="75"/>
-      <c r="E339" s="75"/>
-      <c r="F339" s="88" t="s">
+      <c r="B339" s="86"/>
+      <c r="C339" s="86"/>
+      <c r="D339" s="86"/>
+      <c r="E339" s="86"/>
+      <c r="F339" s="78" t="s">
         <v>719</v>
       </c>
-      <c r="G339" s="88"/>
-      <c r="H339" s="86"/>
+      <c r="G339" s="78"/>
+      <c r="H339" s="77"/>
       <c r="I339" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J339" s="95" t="s">
+      <c r="J339" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="340" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B340" s="75"/>
-      <c r="C340" s="75"/>
-      <c r="D340" s="75"/>
-      <c r="E340" s="74"/>
-      <c r="F340" s="88" t="s">
+      <c r="B340" s="86"/>
+      <c r="C340" s="86"/>
+      <c r="D340" s="86"/>
+      <c r="E340" s="87"/>
+      <c r="F340" s="78" t="s">
         <v>720</v>
       </c>
-      <c r="G340" s="88"/>
-      <c r="H340" s="86"/>
+      <c r="G340" s="78"/>
+      <c r="H340" s="77"/>
       <c r="I340" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J340" s="95" t="s">
+      <c r="J340" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="341" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B341" s="75"/>
-      <c r="C341" s="75"/>
-      <c r="D341" s="75"/>
-      <c r="E341" s="84" t="s">
+      <c r="B341" s="86"/>
+      <c r="C341" s="86"/>
+      <c r="D341" s="86"/>
+      <c r="E341" s="83" t="s">
         <v>453</v>
       </c>
-      <c r="F341" s="82"/>
-      <c r="G341" s="82"/>
-      <c r="H341" s="83"/>
+      <c r="F341" s="90"/>
+      <c r="G341" s="90"/>
+      <c r="H341" s="104"/>
       <c r="I341" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J341" s="95" t="s">
+      <c r="J341" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="342" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B342" s="75"/>
-      <c r="C342" s="75"/>
-      <c r="D342" s="75"/>
-      <c r="E342" s="75"/>
-      <c r="F342" s="88" t="s">
+      <c r="B342" s="86"/>
+      <c r="C342" s="86"/>
+      <c r="D342" s="86"/>
+      <c r="E342" s="86"/>
+      <c r="F342" s="78" t="s">
         <v>721</v>
       </c>
-      <c r="G342" s="88"/>
-      <c r="H342" s="86"/>
+      <c r="G342" s="78"/>
+      <c r="H342" s="77"/>
       <c r="I342" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J342" s="95" t="s">
+      <c r="J342" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="343" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B343" s="75"/>
-      <c r="C343" s="75"/>
-      <c r="D343" s="75"/>
-      <c r="E343" s="75"/>
-      <c r="F343" s="88" t="s">
+      <c r="B343" s="86"/>
+      <c r="C343" s="86"/>
+      <c r="D343" s="86"/>
+      <c r="E343" s="86"/>
+      <c r="F343" s="78" t="s">
         <v>722</v>
       </c>
-      <c r="G343" s="88"/>
-      <c r="H343" s="86"/>
+      <c r="G343" s="78"/>
+      <c r="H343" s="77"/>
       <c r="I343" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J343" s="95" t="s">
+      <c r="J343" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="344" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B344" s="75"/>
-      <c r="C344" s="75"/>
-      <c r="D344" s="75"/>
-      <c r="E344" s="75"/>
-      <c r="F344" s="88" t="s">
+      <c r="B344" s="86"/>
+      <c r="C344" s="86"/>
+      <c r="D344" s="86"/>
+      <c r="E344" s="86"/>
+      <c r="F344" s="78" t="s">
         <v>723</v>
       </c>
-      <c r="G344" s="88"/>
-      <c r="H344" s="86"/>
+      <c r="G344" s="78"/>
+      <c r="H344" s="77"/>
       <c r="I344" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J344" s="95" t="s">
+      <c r="J344" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="345" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B345" s="75"/>
-      <c r="C345" s="75"/>
-      <c r="D345" s="75"/>
-      <c r="E345" s="75"/>
-      <c r="F345" s="88" t="s">
+      <c r="B345" s="86"/>
+      <c r="C345" s="86"/>
+      <c r="D345" s="86"/>
+      <c r="E345" s="86"/>
+      <c r="F345" s="78" t="s">
         <v>724</v>
       </c>
-      <c r="G345" s="88"/>
-      <c r="H345" s="86"/>
+      <c r="G345" s="78"/>
+      <c r="H345" s="77"/>
       <c r="I345" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J345" s="95" t="s">
+      <c r="J345" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="346" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B346" s="75"/>
-      <c r="C346" s="75"/>
-      <c r="D346" s="75"/>
-      <c r="E346" s="75"/>
-      <c r="F346" s="88" t="s">
+      <c r="B346" s="86"/>
+      <c r="C346" s="86"/>
+      <c r="D346" s="86"/>
+      <c r="E346" s="86"/>
+      <c r="F346" s="78" t="s">
         <v>725</v>
       </c>
-      <c r="G346" s="88"/>
-      <c r="H346" s="86"/>
+      <c r="G346" s="78"/>
+      <c r="H346" s="77"/>
       <c r="I346" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J346" s="95" t="s">
+      <c r="J346" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="347" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B347" s="75"/>
-      <c r="C347" s="75"/>
-      <c r="D347" s="75"/>
-      <c r="E347" s="75"/>
-      <c r="F347" s="88" t="s">
+      <c r="B347" s="86"/>
+      <c r="C347" s="86"/>
+      <c r="D347" s="86"/>
+      <c r="E347" s="86"/>
+      <c r="F347" s="78" t="s">
         <v>726</v>
       </c>
-      <c r="G347" s="88"/>
-      <c r="H347" s="86"/>
+      <c r="G347" s="78"/>
+      <c r="H347" s="77"/>
       <c r="I347" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J347" s="95" t="s">
+      <c r="J347" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="348" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B348" s="75"/>
-      <c r="C348" s="75"/>
-      <c r="D348" s="75"/>
-      <c r="E348" s="74"/>
-      <c r="F348" s="88" t="s">
+      <c r="B348" s="86"/>
+      <c r="C348" s="86"/>
+      <c r="D348" s="86"/>
+      <c r="E348" s="87"/>
+      <c r="F348" s="78" t="s">
         <v>727</v>
       </c>
-      <c r="G348" s="88"/>
-      <c r="H348" s="86"/>
+      <c r="G348" s="78"/>
+      <c r="H348" s="77"/>
       <c r="I348" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J348" s="95" t="s">
+      <c r="J348" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="349" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B349" s="75"/>
-      <c r="C349" s="75"/>
-      <c r="D349" s="75"/>
-      <c r="E349" s="85" t="s">
+      <c r="B349" s="86"/>
+      <c r="C349" s="86"/>
+      <c r="D349" s="86"/>
+      <c r="E349" s="76" t="s">
         <v>728</v>
       </c>
-      <c r="F349" s="88"/>
-      <c r="G349" s="88"/>
-      <c r="H349" s="86"/>
+      <c r="F349" s="78"/>
+      <c r="G349" s="78"/>
+      <c r="H349" s="77"/>
       <c r="I349" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J349" s="95" t="s">
+      <c r="J349" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="350" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B350" s="75"/>
-      <c r="C350" s="75"/>
-      <c r="D350" s="84" t="s">
+      <c r="B350" s="86"/>
+      <c r="C350" s="86"/>
+      <c r="D350" s="83" t="s">
         <v>737</v>
       </c>
-      <c r="E350" s="82"/>
-      <c r="F350" s="82"/>
-      <c r="G350" s="82"/>
-      <c r="H350" s="83"/>
+      <c r="E350" s="90"/>
+      <c r="F350" s="90"/>
+      <c r="G350" s="90"/>
+      <c r="H350" s="104"/>
       <c r="I350" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J350" s="95" t="s">
+      <c r="J350" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="351" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B351" s="75"/>
-      <c r="C351" s="75"/>
-      <c r="D351" s="75"/>
-      <c r="E351" s="85" t="s">
+      <c r="B351" s="86"/>
+      <c r="C351" s="86"/>
+      <c r="D351" s="86"/>
+      <c r="E351" s="76" t="s">
         <v>729</v>
       </c>
-      <c r="F351" s="88"/>
-      <c r="G351" s="88"/>
-      <c r="H351" s="86"/>
+      <c r="F351" s="78"/>
+      <c r="G351" s="78"/>
+      <c r="H351" s="77"/>
       <c r="I351" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J351" s="95" t="s">
+      <c r="J351" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="352" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B352" s="75"/>
-      <c r="C352" s="75"/>
-      <c r="D352" s="75"/>
-      <c r="E352" s="85" t="s">
+      <c r="B352" s="86"/>
+      <c r="C352" s="86"/>
+      <c r="D352" s="86"/>
+      <c r="E352" s="76" t="s">
         <v>730</v>
       </c>
-      <c r="F352" s="88"/>
-      <c r="G352" s="88"/>
-      <c r="H352" s="86"/>
+      <c r="F352" s="78"/>
+      <c r="G352" s="78"/>
+      <c r="H352" s="77"/>
       <c r="I352" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J352" s="95" t="s">
+      <c r="J352" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="353" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B353" s="75"/>
-      <c r="C353" s="75"/>
-      <c r="D353" s="74"/>
-      <c r="E353" s="85" t="s">
+      <c r="B353" s="86"/>
+      <c r="C353" s="86"/>
+      <c r="D353" s="87"/>
+      <c r="E353" s="76" t="s">
         <v>731</v>
       </c>
-      <c r="F353" s="88"/>
-      <c r="G353" s="88"/>
-      <c r="H353" s="86"/>
+      <c r="F353" s="78"/>
+      <c r="G353" s="78"/>
+      <c r="H353" s="77"/>
       <c r="I353" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J353" s="95" t="s">
+      <c r="J353" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="354" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B354" s="75"/>
-      <c r="C354" s="75"/>
-      <c r="D354" s="84" t="s">
+      <c r="B354" s="86"/>
+      <c r="C354" s="86"/>
+      <c r="D354" s="83" t="s">
         <v>532</v>
       </c>
-      <c r="E354" s="82"/>
-      <c r="F354" s="82"/>
-      <c r="G354" s="82"/>
-      <c r="H354" s="83"/>
+      <c r="E354" s="90"/>
+      <c r="F354" s="90"/>
+      <c r="G354" s="90"/>
+      <c r="H354" s="104"/>
       <c r="I354" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J354" s="95" t="s">
+      <c r="J354" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="355" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B355" s="75"/>
-      <c r="C355" s="74"/>
-      <c r="D355" s="77"/>
-      <c r="E355" s="85" t="s">
+      <c r="B355" s="86"/>
+      <c r="C355" s="87"/>
+      <c r="D355" s="89"/>
+      <c r="E355" s="76" t="s">
         <v>732</v>
       </c>
-      <c r="F355" s="88"/>
-      <c r="G355" s="88"/>
-      <c r="H355" s="86"/>
+      <c r="F355" s="78"/>
+      <c r="G355" s="78"/>
+      <c r="H355" s="77"/>
       <c r="I355" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J355" s="95" t="s">
+      <c r="J355" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="356" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B356" s="74"/>
-      <c r="C356" s="78" t="s">
+      <c r="B356" s="87"/>
+      <c r="C356" s="73" t="s">
         <v>733</v>
       </c>
-      <c r="D356" s="79"/>
-      <c r="E356" s="79"/>
-      <c r="F356" s="79"/>
-      <c r="G356" s="79"/>
-      <c r="H356" s="80"/>
+      <c r="D356" s="74"/>
+      <c r="E356" s="74"/>
+      <c r="F356" s="74"/>
+      <c r="G356" s="74"/>
+      <c r="H356" s="75"/>
       <c r="I356" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J356" s="95" t="s">
+      <c r="J356" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="357" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B357" s="97" t="s">
+      <c r="B357" s="83" t="s">
         <v>734</v>
       </c>
-      <c r="C357" s="104"/>
-      <c r="D357" s="104"/>
-      <c r="E357" s="104"/>
-      <c r="F357" s="104"/>
-      <c r="G357" s="104"/>
-      <c r="H357" s="118"/>
+      <c r="C357" s="90"/>
+      <c r="D357" s="90"/>
+      <c r="E357" s="90"/>
+      <c r="F357" s="90"/>
+      <c r="G357" s="90"/>
+      <c r="H357" s="104"/>
       <c r="I357" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J357" s="95" t="s">
+      <c r="J357" s="81" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="358" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B358" s="74"/>
-      <c r="C358" s="78" t="s">
+      <c r="B358" s="87"/>
+      <c r="C358" s="73" t="s">
         <v>451</v>
       </c>
-      <c r="D358" s="79"/>
-      <c r="E358" s="79"/>
-      <c r="F358" s="79"/>
-      <c r="G358" s="79"/>
-      <c r="H358" s="80"/>
+      <c r="D358" s="74"/>
+      <c r="E358" s="74"/>
+      <c r="F358" s="74"/>
+      <c r="G358" s="74"/>
+      <c r="H358" s="75"/>
       <c r="I358" s="71" t="s">
         <v>752</v>
       </c>
-      <c r="J358" s="95" t="s">
+      <c r="J358" s="81" t="s">
         <v>772</v>
       </c>
     </row>

--- a/athrill-manual.xlsx
+++ b/athrill-manual.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12540" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12540" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="3" r:id="rId1"/>
@@ -3520,25 +3520,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>関数単位でCPUの消費クロック数を表示する．</t>
-    <rPh sb="0" eb="2">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ショウヒ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ブレーク発生ポイントのソースコードを表示</t>
     <rPh sb="4" eb="6">
       <t>ハッセイ</t>
@@ -5125,6 +5106,101 @@
   </si>
   <si>
     <t>Library</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>関数単位でCPUの消費クロック数を表示する．
+funcname：関数名
+call_num：関数呼び出し回数
+func_time：関数内のCPU消費クロック数平均値
+　　　　　　(他関数呼び出し時間は含めない)
+total_time：関数内のCPU消費クロック数平均値※
+　　　　　　(他関数呼び出し時間を含む)
+　　　　　　※正しく計測できない場合もあるため参考程度の情報</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>カンスウメイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="79" eb="82">
+      <t>ヘイキンチ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>ケイソク</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="180" eb="182">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>ジョウホウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -5738,34 +5814,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -5777,11 +5832,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -5791,6 +5864,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6269,50 +6345,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>212912</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>90748</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>4585355</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>2392938</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F65804B-631E-412E-9A8F-7E4D9C573CA5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14926236" y="33629954"/>
-          <a:ext cx="4372443" cy="2302190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
       <xdr:colOff>123264</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>773206</xdr:rowOff>
@@ -6337,7 +6369,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6381,7 +6413,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6390,6 +6422,50 @@
         <a:xfrm>
           <a:off x="14769353" y="36150177"/>
           <a:ext cx="4033555" cy="571499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>54427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3429001</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2456894</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D396E16B-FDA1-4023-B239-8E0E7EBF9479}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14777357" y="33650463"/>
+          <a:ext cx="3360965" cy="2402467"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8556,66 +8632,66 @@
         <v>283</v>
       </c>
       <c r="E39" s="86"/>
-      <c r="F39" s="112" t="s">
+      <c r="F39" s="111" t="s">
         <v>293</v>
       </c>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="99"/>
-      <c r="K39" s="99"/>
-      <c r="L39" s="99"/>
-      <c r="M39" s="99"/>
-      <c r="N39" s="99"/>
-      <c r="O39" s="99"/>
-      <c r="P39" s="99"/>
-      <c r="Q39" s="99"/>
-      <c r="R39" s="99"/>
-      <c r="S39" s="100"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="107"/>
+      <c r="L39" s="107"/>
+      <c r="M39" s="107"/>
+      <c r="N39" s="107"/>
+      <c r="O39" s="107"/>
+      <c r="P39" s="107"/>
+      <c r="Q39" s="107"/>
+      <c r="R39" s="107"/>
+      <c r="S39" s="108"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D40" s="86" t="s">
         <v>284</v>
       </c>
       <c r="E40" s="86"/>
-      <c r="F40" s="112" t="s">
+      <c r="F40" s="111" t="s">
         <v>289</v>
       </c>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="99"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="99"/>
-      <c r="M40" s="99"/>
-      <c r="N40" s="99"/>
-      <c r="O40" s="99"/>
-      <c r="P40" s="99"/>
-      <c r="Q40" s="99"/>
-      <c r="R40" s="99"/>
-      <c r="S40" s="100"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="107"/>
+      <c r="K40" s="107"/>
+      <c r="L40" s="107"/>
+      <c r="M40" s="107"/>
+      <c r="N40" s="107"/>
+      <c r="O40" s="107"/>
+      <c r="P40" s="107"/>
+      <c r="Q40" s="107"/>
+      <c r="R40" s="107"/>
+      <c r="S40" s="108"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D41" s="86" t="s">
         <v>285</v>
       </c>
       <c r="E41" s="86"/>
-      <c r="F41" s="112" t="s">
+      <c r="F41" s="111" t="s">
         <v>290</v>
       </c>
-      <c r="G41" s="99"/>
-      <c r="H41" s="99"/>
-      <c r="I41" s="99"/>
-      <c r="J41" s="99"/>
-      <c r="K41" s="99"/>
-      <c r="L41" s="99"/>
-      <c r="M41" s="99"/>
-      <c r="N41" s="99"/>
-      <c r="O41" s="99"/>
-      <c r="P41" s="99"/>
-      <c r="Q41" s="99"/>
-      <c r="R41" s="99"/>
-      <c r="S41" s="100"/>
+      <c r="G41" s="107"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="107"/>
+      <c r="K41" s="107"/>
+      <c r="L41" s="107"/>
+      <c r="M41" s="107"/>
+      <c r="N41" s="107"/>
+      <c r="O41" s="107"/>
+      <c r="P41" s="107"/>
+      <c r="Q41" s="107"/>
+      <c r="R41" s="107"/>
+      <c r="S41" s="108"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D42" s="85" t="s">
@@ -8624,44 +8700,44 @@
       <c r="E42" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="F42" s="112" t="s">
+      <c r="F42" s="111" t="s">
         <v>291</v>
       </c>
-      <c r="G42" s="99"/>
-      <c r="H42" s="99"/>
-      <c r="I42" s="99"/>
-      <c r="J42" s="99"/>
-      <c r="K42" s="99"/>
-      <c r="L42" s="99"/>
-      <c r="M42" s="99"/>
-      <c r="N42" s="99"/>
-      <c r="O42" s="99"/>
-      <c r="P42" s="99"/>
-      <c r="Q42" s="99"/>
-      <c r="R42" s="99"/>
-      <c r="S42" s="100"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="107"/>
+      <c r="K42" s="107"/>
+      <c r="L42" s="107"/>
+      <c r="M42" s="107"/>
+      <c r="N42" s="107"/>
+      <c r="O42" s="107"/>
+      <c r="P42" s="107"/>
+      <c r="Q42" s="107"/>
+      <c r="R42" s="107"/>
+      <c r="S42" s="108"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D43" s="85"/>
       <c r="E43" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="F43" s="112" t="s">
+      <c r="F43" s="111" t="s">
         <v>292</v>
       </c>
-      <c r="G43" s="99"/>
-      <c r="H43" s="99"/>
-      <c r="I43" s="99"/>
-      <c r="J43" s="99"/>
-      <c r="K43" s="99"/>
-      <c r="L43" s="99"/>
-      <c r="M43" s="99"/>
-      <c r="N43" s="99"/>
-      <c r="O43" s="99"/>
-      <c r="P43" s="99"/>
-      <c r="Q43" s="99"/>
-      <c r="R43" s="99"/>
-      <c r="S43" s="100"/>
+      <c r="G43" s="107"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="107"/>
+      <c r="K43" s="107"/>
+      <c r="L43" s="107"/>
+      <c r="M43" s="107"/>
+      <c r="N43" s="107"/>
+      <c r="O43" s="107"/>
+      <c r="P43" s="107"/>
+      <c r="Q43" s="107"/>
+      <c r="R43" s="107"/>
+      <c r="S43" s="108"/>
     </row>
     <row r="80" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D80" s="84" t="s">
@@ -8669,188 +8745,172 @@
       </c>
       <c r="E80" s="84"/>
       <c r="F80" s="84"/>
-      <c r="G80" s="107" t="s">
+      <c r="G80" s="100" t="s">
         <v>307</v>
       </c>
-      <c r="H80" s="108"/>
-      <c r="I80" s="108"/>
-      <c r="J80" s="108"/>
-      <c r="K80" s="108"/>
-      <c r="L80" s="108"/>
-      <c r="M80" s="108"/>
-      <c r="N80" s="109"/>
+      <c r="H80" s="101"/>
+      <c r="I80" s="101"/>
+      <c r="J80" s="101"/>
+      <c r="K80" s="101"/>
+      <c r="L80" s="101"/>
+      <c r="M80" s="101"/>
+      <c r="N80" s="102"/>
     </row>
     <row r="81" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D81" s="112" t="s">
+      <c r="D81" s="111" t="s">
         <v>294</v>
       </c>
-      <c r="E81" s="99"/>
-      <c r="F81" s="100"/>
-      <c r="G81" s="112" t="s">
+      <c r="E81" s="107"/>
+      <c r="F81" s="108"/>
+      <c r="G81" s="111" t="s">
         <v>308</v>
       </c>
-      <c r="H81" s="99"/>
-      <c r="I81" s="99"/>
-      <c r="J81" s="99"/>
-      <c r="K81" s="99"/>
-      <c r="L81" s="99"/>
-      <c r="M81" s="99"/>
-      <c r="N81" s="100"/>
+      <c r="H81" s="107"/>
+      <c r="I81" s="107"/>
+      <c r="J81" s="107"/>
+      <c r="K81" s="107"/>
+      <c r="L81" s="107"/>
+      <c r="M81" s="107"/>
+      <c r="N81" s="108"/>
     </row>
     <row r="82" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D82" s="112" t="s">
+      <c r="D82" s="111" t="s">
         <v>302</v>
       </c>
-      <c r="E82" s="99"/>
-      <c r="F82" s="100"/>
-      <c r="G82" s="112" t="s">
+      <c r="E82" s="107"/>
+      <c r="F82" s="108"/>
+      <c r="G82" s="111" t="s">
         <v>309</v>
       </c>
-      <c r="H82" s="99"/>
-      <c r="I82" s="99"/>
-      <c r="J82" s="99"/>
-      <c r="K82" s="99"/>
-      <c r="L82" s="99"/>
-      <c r="M82" s="99"/>
-      <c r="N82" s="100"/>
+      <c r="H82" s="107"/>
+      <c r="I82" s="107"/>
+      <c r="J82" s="107"/>
+      <c r="K82" s="107"/>
+      <c r="L82" s="107"/>
+      <c r="M82" s="107"/>
+      <c r="N82" s="108"/>
     </row>
     <row r="83" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D83" s="112" t="s">
+      <c r="D83" s="111" t="s">
         <v>303</v>
       </c>
-      <c r="E83" s="99"/>
-      <c r="F83" s="100"/>
-      <c r="G83" s="112" t="s">
+      <c r="E83" s="107"/>
+      <c r="F83" s="108"/>
+      <c r="G83" s="111" t="s">
         <v>310</v>
       </c>
-      <c r="H83" s="99"/>
-      <c r="I83" s="99"/>
-      <c r="J83" s="99"/>
-      <c r="K83" s="99"/>
-      <c r="L83" s="99"/>
-      <c r="M83" s="99"/>
-      <c r="N83" s="100"/>
+      <c r="H83" s="107"/>
+      <c r="I83" s="107"/>
+      <c r="J83" s="107"/>
+      <c r="K83" s="107"/>
+      <c r="L83" s="107"/>
+      <c r="M83" s="107"/>
+      <c r="N83" s="108"/>
     </row>
     <row r="84" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D84" s="112" t="s">
+      <c r="D84" s="111" t="s">
         <v>304</v>
       </c>
-      <c r="E84" s="99"/>
-      <c r="F84" s="100"/>
-      <c r="G84" s="112" t="s">
+      <c r="E84" s="107"/>
+      <c r="F84" s="108"/>
+      <c r="G84" s="111" t="s">
         <v>311</v>
       </c>
-      <c r="H84" s="99"/>
-      <c r="I84" s="99"/>
-      <c r="J84" s="99"/>
-      <c r="K84" s="99"/>
-      <c r="L84" s="99"/>
-      <c r="M84" s="99"/>
-      <c r="N84" s="100"/>
+      <c r="H84" s="107"/>
+      <c r="I84" s="107"/>
+      <c r="J84" s="107"/>
+      <c r="K84" s="107"/>
+      <c r="L84" s="107"/>
+      <c r="M84" s="107"/>
+      <c r="N84" s="108"/>
     </row>
     <row r="85" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D85" s="111" t="s">
+      <c r="D85" s="114" t="s">
         <v>305</v>
       </c>
-      <c r="E85" s="99"/>
-      <c r="F85" s="100"/>
-      <c r="G85" s="112" t="s">
+      <c r="E85" s="107"/>
+      <c r="F85" s="108"/>
+      <c r="G85" s="111" t="s">
         <v>312</v>
       </c>
-      <c r="H85" s="99"/>
-      <c r="I85" s="99"/>
-      <c r="J85" s="99"/>
-      <c r="K85" s="99"/>
-      <c r="L85" s="99"/>
-      <c r="M85" s="99"/>
-      <c r="N85" s="100"/>
+      <c r="H85" s="107"/>
+      <c r="I85" s="107"/>
+      <c r="J85" s="107"/>
+      <c r="K85" s="107"/>
+      <c r="L85" s="107"/>
+      <c r="M85" s="107"/>
+      <c r="N85" s="108"/>
     </row>
     <row r="86" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D86" s="113"/>
+      <c r="D86" s="112"/>
       <c r="E86" s="86" t="s">
         <v>298</v>
       </c>
       <c r="F86" s="86"/>
-      <c r="G86" s="112" t="s">
+      <c r="G86" s="111" t="s">
         <v>313</v>
       </c>
-      <c r="H86" s="99"/>
-      <c r="I86" s="99"/>
-      <c r="J86" s="99"/>
-      <c r="K86" s="99"/>
-      <c r="L86" s="99"/>
-      <c r="M86" s="99"/>
-      <c r="N86" s="100"/>
+      <c r="H86" s="107"/>
+      <c r="I86" s="107"/>
+      <c r="J86" s="107"/>
+      <c r="K86" s="107"/>
+      <c r="L86" s="107"/>
+      <c r="M86" s="107"/>
+      <c r="N86" s="108"/>
     </row>
     <row r="87" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D87" s="113"/>
+      <c r="D87" s="112"/>
       <c r="E87" s="86" t="s">
         <v>299</v>
       </c>
       <c r="F87" s="86"/>
-      <c r="G87" s="112" t="s">
+      <c r="G87" s="111" t="s">
         <v>314</v>
       </c>
-      <c r="H87" s="99"/>
-      <c r="I87" s="99"/>
-      <c r="J87" s="99"/>
-      <c r="K87" s="99"/>
-      <c r="L87" s="99"/>
-      <c r="M87" s="99"/>
-      <c r="N87" s="100"/>
+      <c r="H87" s="107"/>
+      <c r="I87" s="107"/>
+      <c r="J87" s="107"/>
+      <c r="K87" s="107"/>
+      <c r="L87" s="107"/>
+      <c r="M87" s="107"/>
+      <c r="N87" s="108"/>
     </row>
     <row r="88" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D88" s="114"/>
+      <c r="D88" s="113"/>
       <c r="E88" s="86" t="s">
         <v>300</v>
       </c>
       <c r="F88" s="86"/>
-      <c r="G88" s="112" t="s">
+      <c r="G88" s="111" t="s">
         <v>315</v>
       </c>
-      <c r="H88" s="99"/>
-      <c r="I88" s="99"/>
-      <c r="J88" s="99"/>
-      <c r="K88" s="99"/>
-      <c r="L88" s="99"/>
-      <c r="M88" s="99"/>
-      <c r="N88" s="100"/>
+      <c r="H88" s="107"/>
+      <c r="I88" s="107"/>
+      <c r="J88" s="107"/>
+      <c r="K88" s="107"/>
+      <c r="L88" s="107"/>
+      <c r="M88" s="107"/>
+      <c r="N88" s="108"/>
     </row>
     <row r="89" spans="4:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D89" s="112" t="s">
+      <c r="D89" s="111" t="s">
         <v>301</v>
       </c>
-      <c r="E89" s="99"/>
-      <c r="F89" s="100"/>
-      <c r="G89" s="98" t="s">
+      <c r="E89" s="107"/>
+      <c r="F89" s="108"/>
+      <c r="G89" s="106" t="s">
         <v>316</v>
       </c>
-      <c r="H89" s="99"/>
-      <c r="I89" s="99"/>
-      <c r="J89" s="99"/>
-      <c r="K89" s="99"/>
-      <c r="L89" s="99"/>
-      <c r="M89" s="99"/>
-      <c r="N89" s="100"/>
+      <c r="H89" s="107"/>
+      <c r="I89" s="107"/>
+      <c r="J89" s="107"/>
+      <c r="K89" s="107"/>
+      <c r="L89" s="107"/>
+      <c r="M89" s="107"/>
+      <c r="N89" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="G85:N85"/>
-    <mergeCell ref="G86:N86"/>
-    <mergeCell ref="G87:N87"/>
-    <mergeCell ref="G88:N88"/>
-    <mergeCell ref="G89:N89"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="G81:N81"/>
-    <mergeCell ref="G82:N82"/>
-    <mergeCell ref="G83:N83"/>
-    <mergeCell ref="G84:N84"/>
     <mergeCell ref="D85:F85"/>
     <mergeCell ref="D80:F80"/>
     <mergeCell ref="G80:N80"/>
@@ -8867,6 +8927,22 @@
     <mergeCell ref="F43:S43"/>
     <mergeCell ref="D81:F81"/>
     <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="G81:N81"/>
+    <mergeCell ref="G82:N82"/>
+    <mergeCell ref="G83:N83"/>
+    <mergeCell ref="G84:N84"/>
+    <mergeCell ref="G85:N85"/>
+    <mergeCell ref="G86:N86"/>
+    <mergeCell ref="G87:N87"/>
+    <mergeCell ref="G88:N88"/>
+    <mergeCell ref="G89:N89"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D86:D88"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -8907,7 +8983,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" s="71" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
@@ -8916,15 +8992,15 @@
       <c r="G3" s="72"/>
       <c r="H3" s="48"/>
       <c r="I3" s="64" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="J3" s="49" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="52" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C4" s="59"/>
       <c r="D4" s="59"/>
@@ -8933,16 +9009,16 @@
       <c r="G4" s="59"/>
       <c r="H4" s="51"/>
       <c r="I4" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J4" s="50" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B5" s="55"/>
       <c r="C5" s="42" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
@@ -8950,16 +9026,16 @@
       <c r="G5" s="43"/>
       <c r="H5" s="46"/>
       <c r="I5" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J5" s="50" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" s="55"/>
       <c r="C6" s="42" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
@@ -8967,16 +9043,16 @@
       <c r="G6" s="43"/>
       <c r="H6" s="46"/>
       <c r="I6" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J6" s="50" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" s="56"/>
       <c r="C7" s="42" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
@@ -8984,15 +9060,15 @@
       <c r="G7" s="43"/>
       <c r="H7" s="46"/>
       <c r="I7" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J7" s="50" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8" s="52" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C8" s="59"/>
       <c r="D8" s="59"/>
@@ -9001,16 +9077,16 @@
       <c r="G8" s="59"/>
       <c r="H8" s="51"/>
       <c r="I8" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J8" s="50" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B9" s="55"/>
       <c r="C9" s="52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D9" s="59"/>
       <c r="E9" s="59"/>
@@ -9018,27 +9094,27 @@
       <c r="G9" s="59"/>
       <c r="H9" s="51"/>
       <c r="I9" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J9" s="50" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" s="55"/>
       <c r="C10" s="57"/>
       <c r="D10" s="52" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="59"/>
       <c r="G10" s="59"/>
       <c r="H10" s="51"/>
       <c r="I10" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J10" s="50" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -9046,16 +9122,16 @@
       <c r="C11" s="57"/>
       <c r="D11" s="57"/>
       <c r="E11" s="52" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
       <c r="H11" s="51"/>
       <c r="I11" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J11" s="50" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -9064,15 +9140,15 @@
       <c r="D12" s="57"/>
       <c r="E12" s="60"/>
       <c r="F12" s="42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G12" s="43"/>
       <c r="H12" s="46"/>
       <c r="I12" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J12" s="50" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -9080,16 +9156,16 @@
       <c r="C13" s="57"/>
       <c r="D13" s="57"/>
       <c r="E13" s="52" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F13" s="59"/>
       <c r="G13" s="59"/>
       <c r="H13" s="51"/>
       <c r="I13" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J13" s="115" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -9098,12 +9174,12 @@
       <c r="D14" s="57"/>
       <c r="E14" s="55"/>
       <c r="F14" s="61" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G14" s="62"/>
       <c r="H14" s="63"/>
       <c r="I14" s="65" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J14" s="116"/>
     </row>
@@ -9113,12 +9189,12 @@
       <c r="D15" s="57"/>
       <c r="E15" s="55"/>
       <c r="F15" s="61" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G15" s="62"/>
       <c r="H15" s="63"/>
       <c r="I15" s="65" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J15" s="116"/>
     </row>
@@ -9128,12 +9204,12 @@
       <c r="D16" s="57"/>
       <c r="E16" s="55"/>
       <c r="F16" s="61" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G16" s="62"/>
       <c r="H16" s="63"/>
       <c r="I16" s="65" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J16" s="116"/>
     </row>
@@ -9143,12 +9219,12 @@
       <c r="D17" s="57"/>
       <c r="E17" s="55"/>
       <c r="F17" s="61" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G17" s="62"/>
       <c r="H17" s="63"/>
       <c r="I17" s="65" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J17" s="116"/>
     </row>
@@ -9158,12 +9234,12 @@
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
       <c r="F18" s="61" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G18" s="62"/>
       <c r="H18" s="63"/>
       <c r="I18" s="65" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J18" s="117"/>
     </row>
@@ -9172,16 +9248,16 @@
       <c r="C19" s="57"/>
       <c r="D19" s="57"/>
       <c r="E19" s="42" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="46"/>
       <c r="I19" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J19" s="50" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
@@ -9189,16 +9265,16 @@
       <c r="C20" s="57"/>
       <c r="D20" s="57"/>
       <c r="E20" s="42" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="46"/>
       <c r="I20" s="40" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J20" s="50" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.15">
@@ -9206,16 +9282,16 @@
       <c r="C21" s="57"/>
       <c r="D21" s="57"/>
       <c r="E21" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="46"/>
       <c r="I21" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J21" s="50" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.15">
@@ -9223,16 +9299,16 @@
       <c r="C22" s="57"/>
       <c r="D22" s="57"/>
       <c r="E22" s="42" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="46"/>
       <c r="I22" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J22" s="50" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
@@ -9240,16 +9316,16 @@
       <c r="C23" s="57"/>
       <c r="D23" s="57"/>
       <c r="E23" s="42" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="46"/>
       <c r="I23" s="40" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J23" s="50" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.15">
@@ -9257,16 +9333,16 @@
       <c r="C24" s="57"/>
       <c r="D24" s="57"/>
       <c r="E24" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="46"/>
       <c r="I24" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J24" s="50" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.15">
@@ -9274,16 +9350,16 @@
       <c r="C25" s="57"/>
       <c r="D25" s="57"/>
       <c r="E25" s="42" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="46"/>
       <c r="I25" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J25" s="50" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.15">
@@ -9291,16 +9367,16 @@
       <c r="C26" s="57"/>
       <c r="D26" s="57"/>
       <c r="E26" s="42" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="46"/>
       <c r="I26" s="40" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J26" s="50" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.15">
@@ -9308,16 +9384,16 @@
       <c r="C27" s="57"/>
       <c r="D27" s="57"/>
       <c r="E27" s="42" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="46"/>
       <c r="I27" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J27" s="50" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.15">
@@ -9325,16 +9401,16 @@
       <c r="C28" s="57"/>
       <c r="D28" s="57"/>
       <c r="E28" s="42" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="46"/>
       <c r="I28" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J28" s="50" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.15">
@@ -9342,16 +9418,16 @@
       <c r="C29" s="57"/>
       <c r="D29" s="57"/>
       <c r="E29" s="52" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F29" s="59"/>
       <c r="G29" s="59"/>
       <c r="H29" s="51"/>
       <c r="I29" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J29" s="50" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.15">
@@ -9360,15 +9436,15 @@
       <c r="D30" s="57"/>
       <c r="E30" s="55"/>
       <c r="F30" s="42" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G30" s="43"/>
       <c r="H30" s="46"/>
       <c r="I30" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J30" s="50" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.15">
@@ -9377,15 +9453,15 @@
       <c r="D31" s="57"/>
       <c r="E31" s="55"/>
       <c r="F31" s="42" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G31" s="43"/>
       <c r="H31" s="46"/>
       <c r="I31" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J31" s="50" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.15">
@@ -9394,15 +9470,15 @@
       <c r="D32" s="57"/>
       <c r="E32" s="56"/>
       <c r="F32" s="42" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G32" s="43"/>
       <c r="H32" s="46"/>
       <c r="I32" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J32" s="50" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
@@ -9410,16 +9486,16 @@
       <c r="C33" s="57"/>
       <c r="D33" s="57"/>
       <c r="E33" s="52" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F33" s="59"/>
       <c r="G33" s="59"/>
       <c r="H33" s="51"/>
       <c r="I33" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J33" s="115" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.15">
@@ -9428,12 +9504,12 @@
       <c r="D34" s="57"/>
       <c r="E34" s="55"/>
       <c r="F34" s="66" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G34" s="67"/>
       <c r="H34" s="68"/>
       <c r="I34" s="69" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J34" s="116"/>
     </row>
@@ -9443,12 +9519,12 @@
       <c r="D35" s="57"/>
       <c r="E35" s="55"/>
       <c r="F35" s="66" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G35" s="67"/>
       <c r="H35" s="68"/>
       <c r="I35" s="69" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J35" s="116"/>
     </row>
@@ -9458,12 +9534,12 @@
       <c r="D36" s="57"/>
       <c r="E36" s="55"/>
       <c r="F36" s="66" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G36" s="67"/>
       <c r="H36" s="68"/>
       <c r="I36" s="69" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J36" s="116"/>
     </row>
@@ -9473,12 +9549,12 @@
       <c r="D37" s="57"/>
       <c r="E37" s="55"/>
       <c r="F37" s="66" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G37" s="67"/>
       <c r="H37" s="68"/>
       <c r="I37" s="69" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J37" s="116"/>
     </row>
@@ -9488,18 +9564,18 @@
       <c r="D38" s="58"/>
       <c r="E38" s="56"/>
       <c r="F38" s="66" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G38" s="67"/>
       <c r="H38" s="68"/>
       <c r="I38" s="69" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J38" s="117"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B39" s="52" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C39" s="59"/>
       <c r="D39" s="59"/>
@@ -9508,16 +9584,16 @@
       <c r="G39" s="59"/>
       <c r="H39" s="51"/>
       <c r="I39" s="40" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J39" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B40" s="55"/>
       <c r="C40" s="42" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D40" s="43"/>
       <c r="E40" s="43"/>
@@ -9525,16 +9601,16 @@
       <c r="G40" s="43"/>
       <c r="H40" s="46"/>
       <c r="I40" s="40" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J40" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B41" s="56"/>
       <c r="C41" s="42" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
@@ -9542,15 +9618,15 @@
       <c r="G41" s="43"/>
       <c r="H41" s="46"/>
       <c r="I41" s="40" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J41" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B42" s="52" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C42" s="59"/>
       <c r="D42" s="59"/>
@@ -9559,16 +9635,16 @@
       <c r="G42" s="59"/>
       <c r="H42" s="51"/>
       <c r="I42" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J42" s="50" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B43" s="55"/>
       <c r="C43" s="42" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
@@ -9576,16 +9652,16 @@
       <c r="G43" s="43"/>
       <c r="H43" s="46"/>
       <c r="I43" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J43" s="50" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B44" s="55"/>
       <c r="C44" s="52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D44" s="59"/>
       <c r="E44" s="59"/>
@@ -9593,27 +9669,27 @@
       <c r="G44" s="59"/>
       <c r="H44" s="51"/>
       <c r="I44" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J44" s="50" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B45" s="55"/>
       <c r="C45" s="55"/>
       <c r="D45" s="52" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E45" s="59"/>
       <c r="F45" s="59"/>
       <c r="G45" s="59"/>
       <c r="H45" s="51"/>
       <c r="I45" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J45" s="50" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.15">
@@ -9621,16 +9697,16 @@
       <c r="C46" s="55"/>
       <c r="D46" s="55"/>
       <c r="E46" s="42" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F46" s="43"/>
       <c r="G46" s="43"/>
       <c r="H46" s="46"/>
       <c r="I46" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J46" s="50" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.15">
@@ -9638,16 +9714,16 @@
       <c r="C47" s="55"/>
       <c r="D47" s="55"/>
       <c r="E47" s="42" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F47" s="43"/>
       <c r="G47" s="43"/>
       <c r="H47" s="46"/>
       <c r="I47" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J47" s="50" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.15">
@@ -9655,16 +9731,16 @@
       <c r="C48" s="55"/>
       <c r="D48" s="55"/>
       <c r="E48" s="42" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F48" s="43"/>
       <c r="G48" s="43"/>
       <c r="H48" s="46"/>
       <c r="I48" s="40" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J48" s="50" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.15">
@@ -9672,16 +9748,16 @@
       <c r="C49" s="55"/>
       <c r="D49" s="55"/>
       <c r="E49" s="42" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F49" s="43"/>
       <c r="G49" s="43"/>
       <c r="H49" s="46"/>
       <c r="I49" s="40" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J49" s="50" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.15">
@@ -9689,16 +9765,16 @@
       <c r="C50" s="55"/>
       <c r="D50" s="55"/>
       <c r="E50" s="42" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F50" s="43"/>
       <c r="G50" s="43"/>
       <c r="H50" s="46"/>
       <c r="I50" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J50" s="50" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.15">
@@ -9706,21 +9782,21 @@
       <c r="C51" s="56"/>
       <c r="D51" s="56"/>
       <c r="E51" s="42" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F51" s="43"/>
       <c r="G51" s="43"/>
       <c r="H51" s="46"/>
       <c r="I51" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J51" s="50" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B52" s="52" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="59"/>
@@ -9729,16 +9805,16 @@
       <c r="G52" s="59"/>
       <c r="H52" s="51"/>
       <c r="I52" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J52" s="50" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B53" s="57"/>
       <c r="C53" s="42" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D53" s="43"/>
       <c r="E53" s="43"/>
@@ -9746,16 +9822,16 @@
       <c r="G53" s="43"/>
       <c r="H53" s="46"/>
       <c r="I53" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J53" s="50" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B54" s="57"/>
       <c r="C54" s="52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D54" s="59"/>
       <c r="E54" s="59"/>
@@ -9763,27 +9839,27 @@
       <c r="G54" s="59"/>
       <c r="H54" s="51"/>
       <c r="I54" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J54" s="50" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B55" s="57"/>
       <c r="C55" s="55"/>
       <c r="D55" s="52" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E55" s="59"/>
       <c r="F55" s="59"/>
       <c r="G55" s="59"/>
       <c r="H55" s="51"/>
       <c r="I55" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J55" s="50" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.15">
@@ -9791,16 +9867,16 @@
       <c r="C56" s="55"/>
       <c r="D56" s="55"/>
       <c r="E56" s="52" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F56" s="59"/>
       <c r="G56" s="59"/>
       <c r="H56" s="51"/>
       <c r="I56" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J56" s="50" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.15">
@@ -9809,15 +9885,15 @@
       <c r="D57" s="55"/>
       <c r="E57" s="55"/>
       <c r="F57" s="42" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G57" s="43"/>
       <c r="H57" s="46"/>
       <c r="I57" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J57" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.15">
@@ -9826,15 +9902,15 @@
       <c r="D58" s="55"/>
       <c r="E58" s="55"/>
       <c r="F58" s="42" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G58" s="43"/>
       <c r="H58" s="46"/>
       <c r="I58" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J58" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.15">
@@ -9843,15 +9919,15 @@
       <c r="D59" s="55"/>
       <c r="E59" s="56"/>
       <c r="F59" s="42" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G59" s="43"/>
       <c r="H59" s="46"/>
       <c r="I59" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J59" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.15">
@@ -9859,16 +9935,16 @@
       <c r="C60" s="55"/>
       <c r="D60" s="55"/>
       <c r="E60" s="52" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F60" s="59"/>
       <c r="G60" s="59"/>
       <c r="H60" s="51"/>
       <c r="I60" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J60" s="50" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.15">
@@ -9877,15 +9953,15 @@
       <c r="D61" s="55"/>
       <c r="E61" s="55"/>
       <c r="F61" s="42" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G61" s="43"/>
       <c r="H61" s="46"/>
       <c r="I61" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J61" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.15">
@@ -9894,15 +9970,15 @@
       <c r="D62" s="55"/>
       <c r="E62" s="55"/>
       <c r="F62" s="42" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G62" s="43"/>
       <c r="H62" s="46"/>
       <c r="I62" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J62" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.15">
@@ -9911,15 +9987,15 @@
       <c r="D63" s="55"/>
       <c r="E63" s="55"/>
       <c r="F63" s="42" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G63" s="43"/>
       <c r="H63" s="46"/>
       <c r="I63" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J63" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.15">
@@ -9928,15 +10004,15 @@
       <c r="D64" s="55"/>
       <c r="E64" s="55"/>
       <c r="F64" s="42" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G64" s="43"/>
       <c r="H64" s="46"/>
       <c r="I64" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J64" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.15">
@@ -9945,15 +10021,15 @@
       <c r="D65" s="55"/>
       <c r="E65" s="55"/>
       <c r="F65" s="42" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G65" s="43"/>
       <c r="H65" s="46"/>
       <c r="I65" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J65" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.15">
@@ -9962,15 +10038,15 @@
       <c r="D66" s="55"/>
       <c r="E66" s="56"/>
       <c r="F66" s="42" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G66" s="43"/>
       <c r="H66" s="46"/>
       <c r="I66" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J66" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.15">
@@ -9978,16 +10054,16 @@
       <c r="C67" s="55"/>
       <c r="D67" s="55"/>
       <c r="E67" s="52" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F67" s="59"/>
       <c r="G67" s="59"/>
       <c r="H67" s="51"/>
       <c r="I67" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J67" s="50" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.15">
@@ -9996,15 +10072,15 @@
       <c r="D68" s="55"/>
       <c r="E68" s="55"/>
       <c r="F68" s="42" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G68" s="43"/>
       <c r="H68" s="46"/>
       <c r="I68" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J68" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.15">
@@ -10013,15 +10089,15 @@
       <c r="D69" s="55"/>
       <c r="E69" s="55"/>
       <c r="F69" s="42" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G69" s="43"/>
       <c r="H69" s="46"/>
       <c r="I69" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J69" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.15">
@@ -10030,15 +10106,15 @@
       <c r="D70" s="55"/>
       <c r="E70" s="55"/>
       <c r="F70" s="42" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G70" s="43"/>
       <c r="H70" s="46"/>
       <c r="I70" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J70" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.15">
@@ -10047,15 +10123,15 @@
       <c r="D71" s="55"/>
       <c r="E71" s="55"/>
       <c r="F71" s="42" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G71" s="43"/>
       <c r="H71" s="46"/>
       <c r="I71" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J71" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.15">
@@ -10064,15 +10140,15 @@
       <c r="D72" s="55"/>
       <c r="E72" s="55"/>
       <c r="F72" s="42" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G72" s="43"/>
       <c r="H72" s="46"/>
       <c r="I72" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J72" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.15">
@@ -10081,15 +10157,15 @@
       <c r="D73" s="55"/>
       <c r="E73" s="55"/>
       <c r="F73" s="42" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G73" s="43"/>
       <c r="H73" s="46"/>
       <c r="I73" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J73" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.15">
@@ -10098,15 +10174,15 @@
       <c r="D74" s="55"/>
       <c r="E74" s="55"/>
       <c r="F74" s="42" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G74" s="43"/>
       <c r="H74" s="46"/>
       <c r="I74" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J74" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.15">
@@ -10115,15 +10191,15 @@
       <c r="D75" s="55"/>
       <c r="E75" s="55"/>
       <c r="F75" s="42" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G75" s="43"/>
       <c r="H75" s="46"/>
       <c r="I75" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J75" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.15">
@@ -10132,15 +10208,15 @@
       <c r="D76" s="55"/>
       <c r="E76" s="55"/>
       <c r="F76" s="42" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G76" s="43"/>
       <c r="H76" s="46"/>
       <c r="I76" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J76" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.15">
@@ -10149,15 +10225,15 @@
       <c r="D77" s="55"/>
       <c r="E77" s="55"/>
       <c r="F77" s="42" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G77" s="43"/>
       <c r="H77" s="46"/>
       <c r="I77" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J77" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.15">
@@ -10166,15 +10242,15 @@
       <c r="D78" s="55"/>
       <c r="E78" s="56"/>
       <c r="F78" s="42" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G78" s="43"/>
       <c r="H78" s="46"/>
       <c r="I78" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J78" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.15">
@@ -10182,21 +10258,21 @@
       <c r="C79" s="56"/>
       <c r="D79" s="56"/>
       <c r="E79" s="42" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F79" s="43"/>
       <c r="G79" s="43"/>
       <c r="H79" s="46"/>
       <c r="I79" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J79" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B80" s="52" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C80" s="59"/>
       <c r="D80" s="59"/>
@@ -10205,16 +10281,16 @@
       <c r="G80" s="59"/>
       <c r="H80" s="51"/>
       <c r="I80" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J80" s="50" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B81" s="55"/>
       <c r="C81" s="52" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D81" s="59"/>
       <c r="E81" s="59"/>
@@ -10222,27 +10298,27 @@
       <c r="G81" s="59"/>
       <c r="H81" s="51"/>
       <c r="I81" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J81" s="50" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B82" s="55"/>
       <c r="C82" s="55"/>
       <c r="D82" s="52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E82" s="59"/>
       <c r="F82" s="59"/>
       <c r="G82" s="59"/>
       <c r="H82" s="51"/>
       <c r="I82" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J82" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.15">
@@ -10250,16 +10326,16 @@
       <c r="C83" s="55"/>
       <c r="D83" s="55"/>
       <c r="E83" s="52" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F83" s="59"/>
       <c r="G83" s="59"/>
       <c r="H83" s="51"/>
       <c r="I83" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J83" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.15">
@@ -10268,15 +10344,15 @@
       <c r="D84" s="55"/>
       <c r="E84" s="55"/>
       <c r="F84" s="52" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G84" s="59"/>
       <c r="H84" s="51"/>
       <c r="I84" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J84" s="50" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.15">
@@ -10286,14 +10362,14 @@
       <c r="E85" s="55"/>
       <c r="F85" s="55"/>
       <c r="G85" s="73" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H85" s="51"/>
       <c r="I85" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J85" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.15">
@@ -10304,13 +10380,13 @@
       <c r="F86" s="55"/>
       <c r="G86" s="58"/>
       <c r="H86" s="46" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I86" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J86" s="50" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.15">
@@ -10320,14 +10396,14 @@
       <c r="E87" s="55"/>
       <c r="F87" s="55"/>
       <c r="G87" s="73" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H87" s="51"/>
       <c r="I87" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J87" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.15">
@@ -10338,13 +10414,13 @@
       <c r="F88" s="55"/>
       <c r="G88" s="58"/>
       <c r="H88" s="46" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I88" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J88" s="50" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.15">
@@ -10354,14 +10430,14 @@
       <c r="E89" s="55"/>
       <c r="F89" s="55"/>
       <c r="G89" s="73" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H89" s="51"/>
       <c r="I89" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J89" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.15">
@@ -10372,19 +10448,19 @@
       <c r="F90" s="56"/>
       <c r="G90" s="58"/>
       <c r="H90" s="46" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I90" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J90" s="50" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B91" s="55"/>
       <c r="C91" s="52" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D91" s="59"/>
       <c r="E91" s="59"/>
@@ -10392,27 +10468,27 @@
       <c r="G91" s="59"/>
       <c r="H91" s="70"/>
       <c r="I91" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J91" s="50" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B92" s="55"/>
       <c r="C92" s="55"/>
       <c r="D92" s="52" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E92" s="59"/>
       <c r="F92" s="59"/>
       <c r="G92" s="59"/>
       <c r="H92" s="70"/>
       <c r="I92" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J92" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.15">
@@ -10420,16 +10496,16 @@
       <c r="C93" s="55"/>
       <c r="D93" s="55"/>
       <c r="E93" s="45" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F93" s="47"/>
       <c r="G93" s="47"/>
       <c r="H93" s="46"/>
       <c r="I93" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J93" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.15">
@@ -10437,16 +10513,16 @@
       <c r="C94" s="55"/>
       <c r="D94" s="55"/>
       <c r="E94" s="45" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F94" s="47"/>
       <c r="G94" s="47"/>
       <c r="H94" s="46"/>
       <c r="I94" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J94" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.15">
@@ -10454,16 +10530,16 @@
       <c r="C95" s="55"/>
       <c r="D95" s="55"/>
       <c r="E95" s="52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F95" s="59"/>
       <c r="G95" s="59"/>
       <c r="H95" s="70"/>
       <c r="I95" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J95" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.15">
@@ -10472,15 +10548,15 @@
       <c r="D96" s="55"/>
       <c r="E96" s="55"/>
       <c r="F96" s="45" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G96" s="47"/>
       <c r="H96" s="46"/>
       <c r="I96" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J96" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.15">
@@ -10489,15 +10565,15 @@
       <c r="D97" s="55"/>
       <c r="E97" s="55"/>
       <c r="F97" s="45" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G97" s="47"/>
       <c r="H97" s="46"/>
       <c r="I97" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J97" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.15">
@@ -10506,15 +10582,15 @@
       <c r="D98" s="55"/>
       <c r="E98" s="55"/>
       <c r="F98" s="52" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G98" s="59"/>
       <c r="H98" s="70"/>
       <c r="I98" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J98" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.15">
@@ -10524,14 +10600,14 @@
       <c r="E99" s="55"/>
       <c r="F99" s="55"/>
       <c r="G99" s="45" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H99" s="46"/>
       <c r="I99" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J99" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.15">
@@ -10541,14 +10617,14 @@
       <c r="E100" s="56"/>
       <c r="F100" s="56"/>
       <c r="G100" s="45" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H100" s="46"/>
       <c r="I100" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J100" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.15">
@@ -10556,16 +10632,16 @@
       <c r="C101" s="55"/>
       <c r="D101" s="55"/>
       <c r="E101" s="52" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F101" s="59"/>
       <c r="G101" s="59"/>
       <c r="H101" s="70"/>
       <c r="I101" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J101" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.15">
@@ -10574,15 +10650,15 @@
       <c r="D102" s="55"/>
       <c r="E102" s="55"/>
       <c r="F102" s="45" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G102" s="47"/>
       <c r="H102" s="46"/>
       <c r="I102" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J102" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.15">
@@ -10591,32 +10667,32 @@
       <c r="D103" s="56"/>
       <c r="E103" s="56"/>
       <c r="F103" s="45" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G103" s="47"/>
       <c r="H103" s="46"/>
       <c r="I103" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J103" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B104" s="55"/>
       <c r="C104" s="55"/>
       <c r="D104" s="74" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E104" s="75"/>
       <c r="F104" s="75"/>
       <c r="G104" s="75"/>
       <c r="H104" s="76"/>
       <c r="I104" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J104" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.15">
@@ -10624,16 +10700,16 @@
       <c r="C105" s="55"/>
       <c r="D105" s="55"/>
       <c r="E105" s="45" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F105" s="47"/>
       <c r="G105" s="47"/>
       <c r="H105" s="46"/>
       <c r="I105" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J105" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.15">
@@ -10641,16 +10717,16 @@
       <c r="C106" s="55"/>
       <c r="D106" s="55"/>
       <c r="E106" s="45" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F106" s="47"/>
       <c r="G106" s="47"/>
       <c r="H106" s="46"/>
       <c r="I106" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J106" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.15">
@@ -10658,16 +10734,16 @@
       <c r="C107" s="55"/>
       <c r="D107" s="55"/>
       <c r="E107" s="45" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F107" s="47"/>
       <c r="G107" s="47"/>
       <c r="H107" s="46"/>
       <c r="I107" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J107" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.15">
@@ -10675,16 +10751,16 @@
       <c r="C108" s="55"/>
       <c r="D108" s="55"/>
       <c r="E108" s="45" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F108" s="47"/>
       <c r="G108" s="47"/>
       <c r="H108" s="46"/>
       <c r="I108" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J108" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.15">
@@ -10692,16 +10768,16 @@
       <c r="C109" s="55"/>
       <c r="D109" s="55"/>
       <c r="E109" s="45" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F109" s="47"/>
       <c r="G109" s="47"/>
       <c r="H109" s="46"/>
       <c r="I109" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J109" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.15">
@@ -10709,39 +10785,39 @@
       <c r="C110" s="55"/>
       <c r="D110" s="56"/>
       <c r="E110" s="45" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F110" s="47"/>
       <c r="G110" s="47"/>
       <c r="H110" s="46"/>
       <c r="I110" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J110" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B111" s="55"/>
       <c r="C111" s="56"/>
       <c r="D111" s="42" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E111" s="43"/>
       <c r="F111" s="43"/>
       <c r="G111" s="43"/>
       <c r="H111" s="44"/>
       <c r="I111" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J111" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B112" s="55"/>
       <c r="C112" s="52" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D112" s="59"/>
       <c r="E112" s="59"/>
@@ -10749,27 +10825,27 @@
       <c r="G112" s="59"/>
       <c r="H112" s="70"/>
       <c r="I112" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J112" s="50" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B113" s="55"/>
       <c r="C113" s="55"/>
       <c r="D113" s="52" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E113" s="59"/>
       <c r="F113" s="59"/>
       <c r="G113" s="59"/>
       <c r="H113" s="70"/>
       <c r="I113" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J113" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.15">
@@ -10777,16 +10853,16 @@
       <c r="C114" s="55"/>
       <c r="D114" s="55"/>
       <c r="E114" s="77" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F114" s="59"/>
       <c r="G114" s="59"/>
       <c r="H114" s="70"/>
       <c r="I114" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J114" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.15">
@@ -10795,15 +10871,15 @@
       <c r="D115" s="55"/>
       <c r="E115" s="78"/>
       <c r="F115" s="52" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G115" s="59"/>
       <c r="H115" s="70"/>
       <c r="I115" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J115" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.15">
@@ -10813,14 +10889,14 @@
       <c r="E116" s="55"/>
       <c r="F116" s="55"/>
       <c r="G116" s="45" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H116" s="46"/>
       <c r="I116" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J116" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.15">
@@ -10830,14 +10906,14 @@
       <c r="E117" s="55"/>
       <c r="F117" s="56"/>
       <c r="G117" s="45" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H117" s="46"/>
       <c r="I117" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J117" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.15">
@@ -10846,15 +10922,15 @@
       <c r="D118" s="55"/>
       <c r="E118" s="55"/>
       <c r="F118" s="45" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G118" s="47"/>
       <c r="H118" s="46"/>
       <c r="I118" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J118" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.15">
@@ -10863,15 +10939,15 @@
       <c r="D119" s="55"/>
       <c r="E119" s="55"/>
       <c r="F119" s="45" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G119" s="47"/>
       <c r="H119" s="46"/>
       <c r="I119" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J119" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.15">
@@ -10880,15 +10956,15 @@
       <c r="D120" s="55"/>
       <c r="E120" s="55"/>
       <c r="F120" s="45" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G120" s="47"/>
       <c r="H120" s="46"/>
       <c r="I120" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J120" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.15">
@@ -10897,32 +10973,32 @@
       <c r="D121" s="56"/>
       <c r="E121" s="56"/>
       <c r="F121" s="45" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G121" s="47"/>
       <c r="H121" s="46"/>
       <c r="I121" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J121" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B122" s="55"/>
       <c r="C122" s="55"/>
       <c r="D122" s="52" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E122" s="59"/>
       <c r="F122" s="59"/>
       <c r="G122" s="59"/>
       <c r="H122" s="70"/>
       <c r="I122" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J122" s="50" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.15">
@@ -10930,16 +11006,16 @@
       <c r="C123" s="55"/>
       <c r="D123" s="55"/>
       <c r="E123" s="45" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F123" s="47"/>
       <c r="G123" s="47"/>
       <c r="H123" s="46"/>
       <c r="I123" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J123" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.15">
@@ -10947,33 +11023,33 @@
       <c r="C124" s="55"/>
       <c r="D124" s="56"/>
       <c r="E124" s="45" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F124" s="47"/>
       <c r="G124" s="47"/>
       <c r="H124" s="46"/>
       <c r="I124" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J124" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B125" s="55"/>
       <c r="C125" s="55"/>
       <c r="D125" s="52" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E125" s="59"/>
       <c r="F125" s="59"/>
       <c r="G125" s="59"/>
       <c r="H125" s="70"/>
       <c r="I125" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J125" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.15">
@@ -10981,16 +11057,16 @@
       <c r="C126" s="55"/>
       <c r="D126" s="55"/>
       <c r="E126" s="42" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F126" s="43"/>
       <c r="G126" s="43"/>
       <c r="H126" s="44"/>
       <c r="I126" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J126" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.15">
@@ -10998,16 +11074,16 @@
       <c r="C127" s="55"/>
       <c r="D127" s="55"/>
       <c r="E127" s="52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F127" s="59"/>
       <c r="G127" s="59"/>
       <c r="H127" s="70"/>
       <c r="I127" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J127" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.15">
@@ -11016,15 +11092,15 @@
       <c r="D128" s="55"/>
       <c r="E128" s="55"/>
       <c r="F128" s="52" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G128" s="59"/>
       <c r="H128" s="70"/>
       <c r="I128" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J128" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.15">
@@ -11034,19 +11110,19 @@
       <c r="E129" s="56"/>
       <c r="F129" s="58"/>
       <c r="G129" s="45" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H129" s="46"/>
       <c r="I129" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J129" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B130" s="52" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C130" s="59"/>
       <c r="D130" s="59"/>
@@ -11055,16 +11131,16 @@
       <c r="G130" s="59"/>
       <c r="H130" s="70"/>
       <c r="I130" s="40" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J130" s="50" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B131" s="55"/>
       <c r="C131" s="52" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D131" s="59"/>
       <c r="E131" s="59"/>
@@ -11072,27 +11148,27 @@
       <c r="G131" s="59"/>
       <c r="H131" s="70"/>
       <c r="I131" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J131" s="50" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B132" s="55"/>
       <c r="C132" s="55"/>
       <c r="D132" s="52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E132" s="59"/>
       <c r="F132" s="59"/>
       <c r="G132" s="59"/>
       <c r="H132" s="70"/>
       <c r="I132" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J132" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.15">
@@ -11100,16 +11176,16 @@
       <c r="C133" s="55"/>
       <c r="D133" s="57"/>
       <c r="E133" s="52" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F133" s="59"/>
       <c r="G133" s="59"/>
       <c r="H133" s="70"/>
       <c r="I133" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J133" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.15">
@@ -11118,15 +11194,15 @@
       <c r="D134" s="57"/>
       <c r="E134" s="57"/>
       <c r="F134" s="45" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G134" s="47"/>
       <c r="H134" s="46"/>
       <c r="I134" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J134" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.15">
@@ -11135,21 +11211,21 @@
       <c r="D135" s="58"/>
       <c r="E135" s="58"/>
       <c r="F135" s="45" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G135" s="47"/>
       <c r="H135" s="46"/>
       <c r="I135" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J135" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B136" s="55"/>
       <c r="C136" s="52" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D136" s="59"/>
       <c r="E136" s="59"/>
@@ -11157,27 +11233,27 @@
       <c r="G136" s="59"/>
       <c r="H136" s="70"/>
       <c r="I136" s="40" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J136" s="50" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B137" s="55"/>
       <c r="C137" s="55"/>
       <c r="D137" s="52" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E137" s="59"/>
       <c r="F137" s="59"/>
       <c r="G137" s="59"/>
       <c r="H137" s="70"/>
       <c r="I137" s="40" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J137" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.15">
@@ -11185,16 +11261,16 @@
       <c r="C138" s="55"/>
       <c r="D138" s="55"/>
       <c r="E138" s="45" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F138" s="47"/>
       <c r="G138" s="47"/>
       <c r="H138" s="46"/>
       <c r="I138" s="40" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J138" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.15">
@@ -11202,90 +11278,90 @@
       <c r="C139" s="55"/>
       <c r="D139" s="56"/>
       <c r="E139" s="45" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F139" s="47"/>
       <c r="G139" s="47"/>
       <c r="H139" s="46"/>
       <c r="I139" s="40" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J139" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B140" s="55"/>
       <c r="C140" s="55"/>
       <c r="D140" s="45" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E140" s="47"/>
       <c r="F140" s="47"/>
       <c r="G140" s="47"/>
       <c r="H140" s="46"/>
       <c r="I140" s="40" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J140" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B141" s="55"/>
       <c r="C141" s="55"/>
       <c r="D141" s="45" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E141" s="47"/>
       <c r="F141" s="47"/>
       <c r="G141" s="47"/>
       <c r="H141" s="46"/>
       <c r="I141" s="40" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J141" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B142" s="55"/>
       <c r="C142" s="55"/>
       <c r="D142" s="45" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E142" s="47"/>
       <c r="F142" s="47"/>
       <c r="G142" s="47"/>
       <c r="H142" s="46"/>
       <c r="I142" s="40" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J142" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B143" s="55"/>
       <c r="C143" s="56"/>
       <c r="D143" s="45" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E143" s="47"/>
       <c r="F143" s="47"/>
       <c r="G143" s="47"/>
       <c r="H143" s="46"/>
       <c r="I143" s="40" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J143" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B144" s="55"/>
       <c r="C144" s="52" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D144" s="59"/>
       <c r="E144" s="59"/>
@@ -11293,27 +11369,27 @@
       <c r="G144" s="59"/>
       <c r="H144" s="70"/>
       <c r="I144" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J144" s="50" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B145" s="55"/>
       <c r="C145" s="55"/>
       <c r="D145" s="52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E145" s="59"/>
       <c r="F145" s="59"/>
       <c r="G145" s="59"/>
       <c r="H145" s="70"/>
       <c r="I145" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J145" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.15">
@@ -11321,16 +11397,16 @@
       <c r="C146" s="55"/>
       <c r="D146" s="55"/>
       <c r="E146" s="45" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F146" s="47"/>
       <c r="G146" s="47"/>
       <c r="H146" s="46"/>
       <c r="I146" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J146" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.15">
@@ -11338,16 +11414,16 @@
       <c r="C147" s="55"/>
       <c r="D147" s="55"/>
       <c r="E147" s="52" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F147" s="59"/>
       <c r="G147" s="59"/>
       <c r="H147" s="70"/>
       <c r="I147" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J147" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.15">
@@ -11356,15 +11432,15 @@
       <c r="D148" s="55"/>
       <c r="E148" s="57"/>
       <c r="F148" s="73" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G148" s="79"/>
       <c r="H148" s="80"/>
       <c r="I148" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J148" s="50" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.15">
@@ -11374,14 +11450,14 @@
       <c r="E149" s="57"/>
       <c r="F149" s="58"/>
       <c r="G149" s="47" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H149" s="46"/>
       <c r="I149" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J149" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.15">
@@ -11390,15 +11466,15 @@
       <c r="D150" s="55"/>
       <c r="E150" s="57"/>
       <c r="F150" s="73" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G150" s="79"/>
       <c r="H150" s="80"/>
       <c r="I150" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J150" s="50" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.15">
@@ -11408,14 +11484,14 @@
       <c r="E151" s="57"/>
       <c r="F151" s="58"/>
       <c r="G151" s="47" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H151" s="46"/>
       <c r="I151" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J151" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.15">
@@ -11424,15 +11500,15 @@
       <c r="D152" s="55"/>
       <c r="E152" s="57"/>
       <c r="F152" s="73" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G152" s="81"/>
       <c r="H152" s="51"/>
       <c r="I152" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J152" s="50" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.15">
@@ -11442,14 +11518,14 @@
       <c r="E153" s="57"/>
       <c r="F153" s="56"/>
       <c r="G153" s="47" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H153" s="46"/>
       <c r="I153" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J153" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.15">
@@ -11458,15 +11534,15 @@
       <c r="D154" s="55"/>
       <c r="E154" s="57"/>
       <c r="F154" s="73" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G154" s="81"/>
       <c r="H154" s="51"/>
       <c r="I154" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J154" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.15">
@@ -11476,14 +11552,14 @@
       <c r="E155" s="57"/>
       <c r="F155" s="82"/>
       <c r="G155" s="45" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H155" s="46"/>
       <c r="I155" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J155" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.15">
@@ -11493,14 +11569,14 @@
       <c r="E156" s="57"/>
       <c r="F156" s="82"/>
       <c r="G156" s="45" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H156" s="46"/>
       <c r="I156" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J156" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.15">
@@ -11510,14 +11586,14 @@
       <c r="E157" s="57"/>
       <c r="F157" s="82"/>
       <c r="G157" s="45" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H157" s="46"/>
       <c r="I157" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J157" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.15">
@@ -11527,14 +11603,14 @@
       <c r="E158" s="57"/>
       <c r="F158" s="82"/>
       <c r="G158" s="45" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H158" s="46"/>
       <c r="I158" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J158" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.15">
@@ -11544,14 +11620,14 @@
       <c r="E159" s="57"/>
       <c r="F159" s="82"/>
       <c r="G159" s="45" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H159" s="46"/>
       <c r="I159" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J159" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.15">
@@ -11561,14 +11637,14 @@
       <c r="E160" s="57"/>
       <c r="F160" s="82"/>
       <c r="G160" s="45" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H160" s="46"/>
       <c r="I160" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J160" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.15">
@@ -11578,14 +11654,14 @@
       <c r="E161" s="57"/>
       <c r="F161" s="82"/>
       <c r="G161" s="45" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H161" s="46"/>
       <c r="I161" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J161" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.15">
@@ -11595,14 +11671,14 @@
       <c r="E162" s="57"/>
       <c r="F162" s="83"/>
       <c r="G162" s="45" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H162" s="46"/>
       <c r="I162" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J162" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.15">
@@ -11611,15 +11687,15 @@
       <c r="D163" s="55"/>
       <c r="E163" s="57"/>
       <c r="F163" s="73" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G163" s="81"/>
       <c r="H163" s="51"/>
       <c r="I163" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J163" s="50" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.15">
@@ -11629,14 +11705,14 @@
       <c r="E164" s="57"/>
       <c r="F164" s="58"/>
       <c r="G164" s="47" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H164" s="46"/>
       <c r="I164" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J164" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.15">
@@ -11645,15 +11721,15 @@
       <c r="D165" s="55"/>
       <c r="E165" s="57"/>
       <c r="F165" s="73" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G165" s="81"/>
       <c r="H165" s="51"/>
       <c r="I165" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J165" s="50" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.15">
@@ -11663,14 +11739,14 @@
       <c r="E166" s="57"/>
       <c r="F166" s="58"/>
       <c r="G166" s="47" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H166" s="46"/>
       <c r="I166" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J166" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.15">
@@ -11679,15 +11755,15 @@
       <c r="D167" s="55"/>
       <c r="E167" s="57"/>
       <c r="F167" s="73" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G167" s="81"/>
       <c r="H167" s="51"/>
       <c r="I167" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J167" s="50" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.15">
@@ -11697,14 +11773,14 @@
       <c r="E168" s="57"/>
       <c r="F168" s="58"/>
       <c r="G168" s="47" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H168" s="46"/>
       <c r="I168" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J168" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.15">
@@ -11713,15 +11789,15 @@
       <c r="D169" s="55"/>
       <c r="E169" s="57"/>
       <c r="F169" s="73" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G169" s="81"/>
       <c r="H169" s="51"/>
       <c r="I169" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J169" s="50" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.15">
@@ -11731,20 +11807,20 @@
       <c r="E170" s="58"/>
       <c r="F170" s="58"/>
       <c r="G170" s="47" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H170" s="46"/>
       <c r="I170" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J170" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B171" s="55"/>
       <c r="C171" s="52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D171" s="59"/>
       <c r="E171" s="59"/>
@@ -11752,27 +11828,27 @@
       <c r="G171" s="59"/>
       <c r="H171" s="70"/>
       <c r="I171" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J171" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B172" s="55"/>
       <c r="C172" s="57"/>
       <c r="D172" s="52" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E172" s="59"/>
       <c r="F172" s="59"/>
       <c r="G172" s="59"/>
       <c r="H172" s="70"/>
       <c r="I172" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J172" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.15">
@@ -11780,16 +11856,16 @@
       <c r="C173" s="57"/>
       <c r="D173" s="57"/>
       <c r="E173" s="45" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F173" s="47"/>
       <c r="G173" s="47"/>
       <c r="H173" s="46"/>
       <c r="I173" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J173" s="50" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.15">
@@ -11797,21 +11873,21 @@
       <c r="C174" s="58"/>
       <c r="D174" s="58"/>
       <c r="E174" s="45" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F174" s="47"/>
       <c r="G174" s="47"/>
       <c r="H174" s="46"/>
       <c r="I174" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J174" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B175" s="52" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C175" s="59"/>
       <c r="D175" s="59"/>
@@ -11820,16 +11896,16 @@
       <c r="G175" s="59"/>
       <c r="H175" s="70"/>
       <c r="I175" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J175" s="50" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B176" s="55"/>
       <c r="C176" s="45" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D176" s="47"/>
       <c r="E176" s="47"/>
@@ -11837,16 +11913,16 @@
       <c r="G176" s="47"/>
       <c r="H176" s="46"/>
       <c r="I176" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J176" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B177" s="55"/>
       <c r="C177" s="45" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D177" s="47"/>
       <c r="E177" s="47"/>
@@ -11854,16 +11930,16 @@
       <c r="G177" s="47"/>
       <c r="H177" s="46"/>
       <c r="I177" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J177" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B178" s="55"/>
       <c r="C178" s="45" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D178" s="47"/>
       <c r="E178" s="47"/>
@@ -11871,16 +11947,16 @@
       <c r="G178" s="47"/>
       <c r="H178" s="46"/>
       <c r="I178" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J178" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B179" s="55"/>
       <c r="C179" s="45" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D179" s="47"/>
       <c r="E179" s="47"/>
@@ -11888,16 +11964,16 @@
       <c r="G179" s="47"/>
       <c r="H179" s="46"/>
       <c r="I179" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J179" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B180" s="56"/>
       <c r="C180" s="45" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D180" s="47"/>
       <c r="E180" s="47"/>
@@ -11905,15 +11981,15 @@
       <c r="G180" s="47"/>
       <c r="H180" s="46"/>
       <c r="I180" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J180" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B181" s="52" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C181" s="53"/>
       <c r="D181" s="53"/>
@@ -11922,16 +11998,16 @@
       <c r="G181" s="53"/>
       <c r="H181" s="54"/>
       <c r="I181" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J181" s="50" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B182" s="55"/>
       <c r="C182" s="42" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D182" s="43"/>
       <c r="E182" s="43"/>
@@ -11939,16 +12015,16 @@
       <c r="G182" s="43"/>
       <c r="H182" s="44"/>
       <c r="I182" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J182" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B183" s="55"/>
       <c r="C183" s="52" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D183" s="59"/>
       <c r="E183" s="59"/>
@@ -11956,61 +12032,61 @@
       <c r="G183" s="59"/>
       <c r="H183" s="70"/>
       <c r="I183" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J183" s="50" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B184" s="55"/>
       <c r="C184" s="55"/>
       <c r="D184" s="42" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E184" s="43"/>
       <c r="F184" s="43"/>
       <c r="G184" s="43"/>
       <c r="H184" s="44"/>
       <c r="I184" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J184" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="185" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B185" s="55"/>
       <c r="C185" s="55"/>
       <c r="D185" s="42" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E185" s="43"/>
       <c r="F185" s="43"/>
       <c r="G185" s="43"/>
       <c r="H185" s="44"/>
       <c r="I185" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J185" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B186" s="55"/>
       <c r="C186" s="55"/>
       <c r="D186" s="52" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E186" s="59"/>
       <c r="F186" s="59"/>
       <c r="G186" s="59"/>
       <c r="H186" s="70"/>
       <c r="I186" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J186" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.15">
@@ -12018,16 +12094,16 @@
       <c r="C187" s="55"/>
       <c r="D187" s="57"/>
       <c r="E187" s="45" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F187" s="47"/>
       <c r="G187" s="47"/>
       <c r="H187" s="46"/>
       <c r="I187" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J187" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.15">
@@ -12035,33 +12111,33 @@
       <c r="C188" s="55"/>
       <c r="D188" s="58"/>
       <c r="E188" s="45" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F188" s="47"/>
       <c r="G188" s="47"/>
       <c r="H188" s="46"/>
       <c r="I188" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J188" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B189" s="55"/>
       <c r="C189" s="55"/>
       <c r="D189" s="52" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E189" s="59"/>
       <c r="F189" s="59"/>
       <c r="G189" s="59"/>
       <c r="H189" s="70"/>
       <c r="I189" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J189" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.15">
@@ -12069,16 +12145,16 @@
       <c r="C190" s="55"/>
       <c r="D190" s="57"/>
       <c r="E190" s="45" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F190" s="47"/>
       <c r="G190" s="47"/>
       <c r="H190" s="46"/>
       <c r="I190" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J190" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.15">
@@ -12086,33 +12162,33 @@
       <c r="C191" s="55"/>
       <c r="D191" s="58"/>
       <c r="E191" s="45" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F191" s="47"/>
       <c r="G191" s="47"/>
       <c r="H191" s="46"/>
       <c r="I191" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J191" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="192" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B192" s="55"/>
       <c r="C192" s="55"/>
       <c r="D192" s="52" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E192" s="59"/>
       <c r="F192" s="59"/>
       <c r="G192" s="59"/>
       <c r="H192" s="70"/>
       <c r="I192" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J192" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.15">
@@ -12120,16 +12196,16 @@
       <c r="C193" s="55"/>
       <c r="D193" s="57"/>
       <c r="E193" s="45" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F193" s="47"/>
       <c r="G193" s="47"/>
       <c r="H193" s="46"/>
       <c r="I193" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J193" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="194" spans="2:10" x14ac:dyDescent="0.15">
@@ -12137,22 +12213,22 @@
       <c r="C194" s="56"/>
       <c r="D194" s="58"/>
       <c r="E194" s="45" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F194" s="47"/>
       <c r="G194" s="47"/>
       <c r="H194" s="46"/>
       <c r="I194" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J194" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B195" s="55"/>
       <c r="C195" s="52" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D195" s="59"/>
       <c r="E195" s="59"/>
@@ -12160,27 +12236,27 @@
       <c r="G195" s="59"/>
       <c r="H195" s="70"/>
       <c r="I195" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J195" s="50" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B196" s="55"/>
       <c r="C196" s="55"/>
       <c r="D196" s="52" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E196" s="59"/>
       <c r="F196" s="59"/>
       <c r="G196" s="59"/>
       <c r="H196" s="70"/>
       <c r="I196" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J196" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.15">
@@ -12188,16 +12264,16 @@
       <c r="C197" s="55"/>
       <c r="D197" s="55"/>
       <c r="E197" s="45" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F197" s="47"/>
       <c r="G197" s="47"/>
       <c r="H197" s="46"/>
       <c r="I197" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J197" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.15">
@@ -12205,16 +12281,16 @@
       <c r="C198" s="55"/>
       <c r="D198" s="55"/>
       <c r="E198" s="45" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F198" s="47"/>
       <c r="G198" s="47"/>
       <c r="H198" s="46"/>
       <c r="I198" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J198" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.15">
@@ -12222,16 +12298,16 @@
       <c r="C199" s="55"/>
       <c r="D199" s="55"/>
       <c r="E199" s="45" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F199" s="47"/>
       <c r="G199" s="47"/>
       <c r="H199" s="46"/>
       <c r="I199" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J199" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.15">
@@ -12239,16 +12315,16 @@
       <c r="C200" s="55"/>
       <c r="D200" s="55"/>
       <c r="E200" s="45" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F200" s="47"/>
       <c r="G200" s="47"/>
       <c r="H200" s="46"/>
       <c r="I200" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J200" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.15">
@@ -12256,16 +12332,16 @@
       <c r="C201" s="55"/>
       <c r="D201" s="55"/>
       <c r="E201" s="45" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F201" s="47"/>
       <c r="G201" s="47"/>
       <c r="H201" s="46"/>
       <c r="I201" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J201" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.15">
@@ -12273,16 +12349,16 @@
       <c r="C202" s="55"/>
       <c r="D202" s="55"/>
       <c r="E202" s="45" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F202" s="47"/>
       <c r="G202" s="47"/>
       <c r="H202" s="46"/>
       <c r="I202" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J202" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.15">
@@ -12290,16 +12366,16 @@
       <c r="C203" s="55"/>
       <c r="D203" s="55"/>
       <c r="E203" s="45" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F203" s="47"/>
       <c r="G203" s="47"/>
       <c r="H203" s="46"/>
       <c r="I203" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J203" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.15">
@@ -12307,16 +12383,16 @@
       <c r="C204" s="55"/>
       <c r="D204" s="55"/>
       <c r="E204" s="45" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F204" s="47"/>
       <c r="G204" s="47"/>
       <c r="H204" s="46"/>
       <c r="I204" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J204" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.15">
@@ -12324,16 +12400,16 @@
       <c r="C205" s="55"/>
       <c r="D205" s="55"/>
       <c r="E205" s="45" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F205" s="47"/>
       <c r="G205" s="47"/>
       <c r="H205" s="46"/>
       <c r="I205" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J205" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.15">
@@ -12341,16 +12417,16 @@
       <c r="C206" s="55"/>
       <c r="D206" s="55"/>
       <c r="E206" s="45" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F206" s="47"/>
       <c r="G206" s="47"/>
       <c r="H206" s="46"/>
       <c r="I206" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J206" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.15">
@@ -12358,16 +12434,16 @@
       <c r="C207" s="55"/>
       <c r="D207" s="55"/>
       <c r="E207" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F207" s="47"/>
       <c r="G207" s="47"/>
       <c r="H207" s="46"/>
       <c r="I207" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J207" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.15">
@@ -12375,16 +12451,16 @@
       <c r="C208" s="55"/>
       <c r="D208" s="55"/>
       <c r="E208" s="45" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F208" s="47"/>
       <c r="G208" s="47"/>
       <c r="H208" s="46"/>
       <c r="I208" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J208" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="209" spans="2:10" x14ac:dyDescent="0.15">
@@ -12392,16 +12468,16 @@
       <c r="C209" s="55"/>
       <c r="D209" s="55"/>
       <c r="E209" s="45" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F209" s="47"/>
       <c r="G209" s="47"/>
       <c r="H209" s="46"/>
       <c r="I209" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J209" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="210" spans="2:10" x14ac:dyDescent="0.15">
@@ -12409,16 +12485,16 @@
       <c r="C210" s="55"/>
       <c r="D210" s="55"/>
       <c r="E210" s="45" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F210" s="47"/>
       <c r="G210" s="47"/>
       <c r="H210" s="46"/>
       <c r="I210" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J210" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="211" spans="2:10" x14ac:dyDescent="0.15">
@@ -12426,16 +12502,16 @@
       <c r="C211" s="55"/>
       <c r="D211" s="55"/>
       <c r="E211" s="45" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F211" s="47"/>
       <c r="G211" s="47"/>
       <c r="H211" s="46"/>
       <c r="I211" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J211" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="212" spans="2:10" x14ac:dyDescent="0.15">
@@ -12443,260 +12519,260 @@
       <c r="C212" s="55"/>
       <c r="D212" s="56"/>
       <c r="E212" s="45" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F212" s="47"/>
       <c r="G212" s="47"/>
       <c r="H212" s="46"/>
       <c r="I212" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J212" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="213" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B213" s="55"/>
       <c r="C213" s="55"/>
       <c r="D213" s="45" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E213" s="47"/>
       <c r="F213" s="47"/>
       <c r="G213" s="47"/>
       <c r="H213" s="46"/>
       <c r="I213" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J213" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="214" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B214" s="55"/>
       <c r="C214" s="55"/>
       <c r="D214" s="45" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E214" s="47"/>
       <c r="F214" s="47"/>
       <c r="G214" s="47"/>
       <c r="H214" s="46"/>
       <c r="I214" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J214" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="215" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B215" s="55"/>
       <c r="C215" s="55"/>
       <c r="D215" s="45" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E215" s="47"/>
       <c r="F215" s="47"/>
       <c r="G215" s="47"/>
       <c r="H215" s="46"/>
       <c r="I215" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J215" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="216" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B216" s="55"/>
       <c r="C216" s="55"/>
       <c r="D216" s="45" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E216" s="47"/>
       <c r="F216" s="47"/>
       <c r="G216" s="47"/>
       <c r="H216" s="46"/>
       <c r="I216" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J216" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="217" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B217" s="55"/>
       <c r="C217" s="55"/>
       <c r="D217" s="45" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E217" s="47"/>
       <c r="F217" s="47"/>
       <c r="G217" s="47"/>
       <c r="H217" s="46"/>
       <c r="I217" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J217" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="218" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B218" s="55"/>
       <c r="C218" s="55"/>
       <c r="D218" s="45" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E218" s="47"/>
       <c r="F218" s="47"/>
       <c r="G218" s="47"/>
       <c r="H218" s="46"/>
       <c r="I218" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J218" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="219" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B219" s="55"/>
       <c r="C219" s="55"/>
       <c r="D219" s="45" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E219" s="47"/>
       <c r="F219" s="47"/>
       <c r="G219" s="47"/>
       <c r="H219" s="46"/>
       <c r="I219" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J219" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="220" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B220" s="55"/>
       <c r="C220" s="55"/>
       <c r="D220" s="45" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E220" s="47"/>
       <c r="F220" s="47"/>
       <c r="G220" s="47"/>
       <c r="H220" s="46"/>
       <c r="I220" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J220" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="221" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B221" s="55"/>
       <c r="C221" s="55"/>
       <c r="D221" s="45" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E221" s="47"/>
       <c r="F221" s="47"/>
       <c r="G221" s="47"/>
       <c r="H221" s="46"/>
       <c r="I221" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J221" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="222" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B222" s="55"/>
       <c r="C222" s="55"/>
       <c r="D222" s="45" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E222" s="47"/>
       <c r="F222" s="47"/>
       <c r="G222" s="47"/>
       <c r="H222" s="46"/>
       <c r="I222" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J222" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="223" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B223" s="55"/>
       <c r="C223" s="55"/>
       <c r="D223" s="45" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E223" s="47"/>
       <c r="F223" s="47"/>
       <c r="G223" s="47"/>
       <c r="H223" s="46"/>
       <c r="I223" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J223" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="224" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B224" s="55"/>
       <c r="C224" s="55"/>
       <c r="D224" s="45" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E224" s="47"/>
       <c r="F224" s="47"/>
       <c r="G224" s="47"/>
       <c r="H224" s="46"/>
       <c r="I224" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J224" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="225" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B225" s="55"/>
       <c r="C225" s="55"/>
       <c r="D225" s="45" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E225" s="47"/>
       <c r="F225" s="47"/>
       <c r="G225" s="47"/>
       <c r="H225" s="46"/>
       <c r="I225" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J225" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="226" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B226" s="55"/>
       <c r="C226" s="56"/>
       <c r="D226" s="45" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E226" s="47"/>
       <c r="F226" s="47"/>
       <c r="G226" s="47"/>
       <c r="H226" s="46"/>
       <c r="I226" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J226" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="227" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B227" s="55"/>
       <c r="C227" s="52" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D227" s="59"/>
       <c r="E227" s="59"/>
@@ -12704,50 +12780,50 @@
       <c r="G227" s="59"/>
       <c r="H227" s="70"/>
       <c r="I227" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J227" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="228" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B228" s="55"/>
       <c r="C228" s="57"/>
       <c r="D228" s="45" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E228" s="47"/>
       <c r="F228" s="47"/>
       <c r="G228" s="47"/>
       <c r="H228" s="46"/>
       <c r="I228" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J228" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="229" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B229" s="55"/>
       <c r="C229" s="58"/>
       <c r="D229" s="45" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E229" s="47"/>
       <c r="F229" s="47"/>
       <c r="G229" s="47"/>
       <c r="H229" s="46"/>
       <c r="I229" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J229" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="230" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B230" s="55"/>
       <c r="C230" s="45" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D230" s="47"/>
       <c r="E230" s="47"/>
@@ -12755,16 +12831,16 @@
       <c r="G230" s="47"/>
       <c r="H230" s="46"/>
       <c r="I230" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J230" s="50" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="231" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B231" s="55"/>
       <c r="C231" s="45" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D231" s="47"/>
       <c r="E231" s="47"/>
@@ -12772,16 +12848,16 @@
       <c r="G231" s="47"/>
       <c r="H231" s="46"/>
       <c r="I231" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J231" s="50" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="232" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B232" s="55"/>
       <c r="C232" s="45" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D232" s="47"/>
       <c r="E232" s="47"/>
@@ -12789,16 +12865,16 @@
       <c r="G232" s="47"/>
       <c r="H232" s="46"/>
       <c r="I232" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J232" s="50" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="233" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B233" s="55"/>
       <c r="C233" s="45" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D233" s="47"/>
       <c r="E233" s="47"/>
@@ -12806,16 +12882,16 @@
       <c r="G233" s="47"/>
       <c r="H233" s="46"/>
       <c r="I233" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J233" s="50" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="234" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B234" s="55"/>
       <c r="C234" s="45" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D234" s="47"/>
       <c r="E234" s="47"/>
@@ -12823,16 +12899,16 @@
       <c r="G234" s="47"/>
       <c r="H234" s="46"/>
       <c r="I234" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J234" s="50" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="235" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B235" s="55"/>
       <c r="C235" s="45" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D235" s="47"/>
       <c r="E235" s="47"/>
@@ -12840,16 +12916,16 @@
       <c r="G235" s="47"/>
       <c r="H235" s="46"/>
       <c r="I235" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J235" s="50" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="236" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B236" s="55"/>
       <c r="C236" s="45" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D236" s="47"/>
       <c r="E236" s="47"/>
@@ -12857,16 +12933,16 @@
       <c r="G236" s="47"/>
       <c r="H236" s="46"/>
       <c r="I236" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J236" s="50" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="237" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B237" s="55"/>
       <c r="C237" s="45" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D237" s="47"/>
       <c r="E237" s="47"/>
@@ -12874,16 +12950,16 @@
       <c r="G237" s="47"/>
       <c r="H237" s="46"/>
       <c r="I237" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J237" s="50" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="238" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B238" s="55"/>
       <c r="C238" s="52" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D238" s="59"/>
       <c r="E238" s="59"/>
@@ -12891,50 +12967,50 @@
       <c r="G238" s="59"/>
       <c r="H238" s="70"/>
       <c r="I238" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J238" s="50" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="239" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B239" s="55"/>
       <c r="C239" s="55"/>
       <c r="D239" s="45" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E239" s="47"/>
       <c r="F239" s="47"/>
       <c r="G239" s="47"/>
       <c r="H239" s="46"/>
       <c r="I239" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J239" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="240" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B240" s="55"/>
       <c r="C240" s="56"/>
       <c r="D240" s="45" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E240" s="47"/>
       <c r="F240" s="47"/>
       <c r="G240" s="47"/>
       <c r="H240" s="46"/>
       <c r="I240" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J240" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="241" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B241" s="55"/>
       <c r="C241" s="45" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D241" s="47"/>
       <c r="E241" s="47"/>
@@ -12942,16 +13018,16 @@
       <c r="G241" s="47"/>
       <c r="H241" s="46"/>
       <c r="I241" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J241" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="242" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B242" s="55"/>
       <c r="C242" s="45" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D242" s="47"/>
       <c r="E242" s="47"/>
@@ -12959,16 +13035,16 @@
       <c r="G242" s="47"/>
       <c r="H242" s="46"/>
       <c r="I242" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J242" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="243" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B243" s="55"/>
       <c r="C243" s="52" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D243" s="59"/>
       <c r="E243" s="59"/>
@@ -12976,67 +13052,67 @@
       <c r="G243" s="59"/>
       <c r="H243" s="70"/>
       <c r="I243" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J243" s="50" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="244" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B244" s="55"/>
       <c r="C244" s="55"/>
       <c r="D244" s="45" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E244" s="47"/>
       <c r="F244" s="47"/>
       <c r="G244" s="47"/>
       <c r="H244" s="46"/>
       <c r="I244" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J244" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="245" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B245" s="55"/>
       <c r="C245" s="55"/>
       <c r="D245" s="45" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E245" s="47"/>
       <c r="F245" s="47"/>
       <c r="G245" s="47"/>
       <c r="H245" s="46"/>
       <c r="I245" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J245" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="246" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B246" s="55"/>
       <c r="C246" s="56"/>
       <c r="D246" s="45" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E246" s="47"/>
       <c r="F246" s="47"/>
       <c r="G246" s="47"/>
       <c r="H246" s="46"/>
       <c r="I246" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J246" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="247" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B247" s="55"/>
       <c r="C247" s="52" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D247" s="59"/>
       <c r="E247" s="59"/>
@@ -13044,49 +13120,49 @@
       <c r="G247" s="59"/>
       <c r="H247" s="70"/>
       <c r="I247" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J247" s="50" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="248" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B248" s="55"/>
       <c r="C248" s="57"/>
       <c r="D248" s="45" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E248" s="47"/>
       <c r="F248" s="47"/>
       <c r="G248" s="47"/>
       <c r="H248" s="46"/>
       <c r="I248" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J248" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="249" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B249" s="56"/>
       <c r="C249" s="58"/>
       <c r="D249" s="45" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E249" s="47"/>
       <c r="F249" s="47"/>
       <c r="G249" s="47"/>
       <c r="H249" s="46"/>
       <c r="I249" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J249" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="250" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B250" s="52" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C250" s="59"/>
       <c r="D250" s="59"/>
@@ -13095,16 +13171,16 @@
       <c r="G250" s="59"/>
       <c r="H250" s="70"/>
       <c r="I250" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J250" s="50" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="251" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B251" s="55"/>
       <c r="C251" s="45" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D251" s="47"/>
       <c r="E251" s="47"/>
@@ -13112,16 +13188,16 @@
       <c r="G251" s="47"/>
       <c r="H251" s="46"/>
       <c r="I251" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J251" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="252" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B252" s="55"/>
       <c r="C252" s="45" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D252" s="47"/>
       <c r="E252" s="47"/>
@@ -13129,16 +13205,16 @@
       <c r="G252" s="47"/>
       <c r="H252" s="46"/>
       <c r="I252" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J252" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="253" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B253" s="55"/>
       <c r="C253" s="52" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D253" s="59"/>
       <c r="E253" s="59"/>
@@ -13146,49 +13222,49 @@
       <c r="G253" s="59"/>
       <c r="H253" s="70"/>
       <c r="I253" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J253" s="50" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="254" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B254" s="55"/>
       <c r="C254" s="55"/>
       <c r="D254" s="45" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E254" s="47"/>
       <c r="F254" s="47"/>
       <c r="G254" s="47"/>
       <c r="H254" s="46"/>
       <c r="I254" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J254" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="255" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B255" s="56"/>
       <c r="C255" s="56"/>
       <c r="D255" s="45" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E255" s="47"/>
       <c r="F255" s="47"/>
       <c r="G255" s="47"/>
       <c r="H255" s="46"/>
       <c r="I255" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J255" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="256" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B256" s="52" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C256" s="59"/>
       <c r="D256" s="59"/>
@@ -13197,16 +13273,16 @@
       <c r="G256" s="59"/>
       <c r="H256" s="70"/>
       <c r="I256" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J256" s="50" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="257" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B257" s="55"/>
       <c r="C257" s="52" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D257" s="59"/>
       <c r="E257" s="59"/>
@@ -13214,49 +13290,49 @@
       <c r="G257" s="59"/>
       <c r="H257" s="70"/>
       <c r="I257" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J257" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="258" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B258" s="55"/>
       <c r="C258" s="55"/>
       <c r="D258" s="45" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E258" s="47"/>
       <c r="F258" s="47"/>
       <c r="G258" s="47"/>
       <c r="H258" s="46"/>
       <c r="I258" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J258" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="259" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B259" s="56"/>
       <c r="C259" s="56"/>
       <c r="D259" s="45" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E259" s="47"/>
       <c r="F259" s="47"/>
       <c r="G259" s="47"/>
       <c r="H259" s="46"/>
       <c r="I259" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J259" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="260" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B260" s="52" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C260" s="59"/>
       <c r="D260" s="59"/>
@@ -13265,16 +13341,16 @@
       <c r="G260" s="59"/>
       <c r="H260" s="70"/>
       <c r="I260" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J260" s="50" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="261" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B261" s="55"/>
       <c r="C261" s="52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D261" s="59"/>
       <c r="E261" s="59"/>
@@ -13282,27 +13358,27 @@
       <c r="G261" s="59"/>
       <c r="H261" s="70"/>
       <c r="I261" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J261" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="262" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B262" s="55"/>
       <c r="C262" s="55"/>
       <c r="D262" s="52" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E262" s="59"/>
       <c r="F262" s="59"/>
       <c r="G262" s="59"/>
       <c r="H262" s="70"/>
       <c r="I262" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J262" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="263" spans="2:10" x14ac:dyDescent="0.15">
@@ -13310,16 +13386,16 @@
       <c r="C263" s="55"/>
       <c r="D263" s="55"/>
       <c r="E263" s="52" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F263" s="59"/>
       <c r="G263" s="59"/>
       <c r="H263" s="70"/>
       <c r="I263" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J263" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="264" spans="2:10" x14ac:dyDescent="0.15">
@@ -13328,15 +13404,15 @@
       <c r="D264" s="55"/>
       <c r="E264" s="57"/>
       <c r="F264" s="47" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G264" s="47"/>
       <c r="H264" s="46"/>
       <c r="I264" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J264" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="265" spans="2:10" x14ac:dyDescent="0.15">
@@ -13345,15 +13421,15 @@
       <c r="D265" s="55"/>
       <c r="E265" s="57"/>
       <c r="F265" s="47" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G265" s="47"/>
       <c r="H265" s="46"/>
       <c r="I265" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J265" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="266" spans="2:10" x14ac:dyDescent="0.15">
@@ -13362,15 +13438,15 @@
       <c r="D266" s="55"/>
       <c r="E266" s="57"/>
       <c r="F266" s="47" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G266" s="47"/>
       <c r="H266" s="46"/>
       <c r="I266" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J266" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="267" spans="2:10" x14ac:dyDescent="0.15">
@@ -13379,15 +13455,15 @@
       <c r="D267" s="55"/>
       <c r="E267" s="57"/>
       <c r="F267" s="47" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G267" s="47"/>
       <c r="H267" s="46"/>
       <c r="I267" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J267" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="268" spans="2:10" x14ac:dyDescent="0.15">
@@ -13396,15 +13472,15 @@
       <c r="D268" s="55"/>
       <c r="E268" s="57"/>
       <c r="F268" s="47" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G268" s="47"/>
       <c r="H268" s="46"/>
       <c r="I268" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J268" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="269" spans="2:10" x14ac:dyDescent="0.15">
@@ -13413,15 +13489,15 @@
       <c r="D269" s="55"/>
       <c r="E269" s="57"/>
       <c r="F269" s="47" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G269" s="47"/>
       <c r="H269" s="46"/>
       <c r="I269" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J269" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="270" spans="2:10" x14ac:dyDescent="0.15">
@@ -13430,15 +13506,15 @@
       <c r="D270" s="55"/>
       <c r="E270" s="57"/>
       <c r="F270" s="47" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G270" s="47"/>
       <c r="H270" s="46"/>
       <c r="I270" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J270" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="271" spans="2:10" x14ac:dyDescent="0.15">
@@ -13447,15 +13523,15 @@
       <c r="D271" s="55"/>
       <c r="E271" s="57"/>
       <c r="F271" s="47" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G271" s="47"/>
       <c r="H271" s="46"/>
       <c r="I271" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J271" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="272" spans="2:10" x14ac:dyDescent="0.15">
@@ -13464,15 +13540,15 @@
       <c r="D272" s="55"/>
       <c r="E272" s="57"/>
       <c r="F272" s="47" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G272" s="47"/>
       <c r="H272" s="46"/>
       <c r="I272" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J272" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="273" spans="2:10" x14ac:dyDescent="0.15">
@@ -13481,15 +13557,15 @@
       <c r="D273" s="55"/>
       <c r="E273" s="58"/>
       <c r="F273" s="47" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G273" s="47"/>
       <c r="H273" s="46"/>
       <c r="I273" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J273" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="274" spans="2:10" x14ac:dyDescent="0.15">
@@ -13497,16 +13573,16 @@
       <c r="C274" s="55"/>
       <c r="D274" s="55"/>
       <c r="E274" s="45" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F274" s="47"/>
       <c r="G274" s="47"/>
       <c r="H274" s="46"/>
       <c r="I274" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J274" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="275" spans="2:10" x14ac:dyDescent="0.15">
@@ -13514,16 +13590,16 @@
       <c r="C275" s="55"/>
       <c r="D275" s="55"/>
       <c r="E275" s="52" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F275" s="59"/>
       <c r="G275" s="59"/>
       <c r="H275" s="70"/>
       <c r="I275" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J275" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="276" spans="2:10" x14ac:dyDescent="0.15">
@@ -13532,15 +13608,15 @@
       <c r="D276" s="55"/>
       <c r="E276" s="82"/>
       <c r="F276" s="52" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G276" s="59"/>
       <c r="H276" s="70"/>
       <c r="I276" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J276" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="277" spans="2:10" x14ac:dyDescent="0.15">
@@ -13550,14 +13626,14 @@
       <c r="E277" s="82"/>
       <c r="F277" s="55"/>
       <c r="G277" s="47" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H277" s="46"/>
       <c r="I277" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J277" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="278" spans="2:10" x14ac:dyDescent="0.15">
@@ -13567,14 +13643,14 @@
       <c r="E278" s="82"/>
       <c r="F278" s="55"/>
       <c r="G278" s="47" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H278" s="46"/>
       <c r="I278" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J278" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="279" spans="2:10" x14ac:dyDescent="0.15">
@@ -13584,14 +13660,14 @@
       <c r="E279" s="82"/>
       <c r="F279" s="55"/>
       <c r="G279" s="47" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H279" s="46"/>
       <c r="I279" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J279" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="280" spans="2:10" x14ac:dyDescent="0.15">
@@ -13601,14 +13677,14 @@
       <c r="E280" s="82"/>
       <c r="F280" s="55"/>
       <c r="G280" s="47" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H280" s="46"/>
       <c r="I280" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J280" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="281" spans="2:10" x14ac:dyDescent="0.15">
@@ -13618,14 +13694,14 @@
       <c r="E281" s="82"/>
       <c r="F281" s="55"/>
       <c r="G281" s="47" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H281" s="46"/>
       <c r="I281" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J281" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="282" spans="2:10" x14ac:dyDescent="0.15">
@@ -13635,14 +13711,14 @@
       <c r="E282" s="82"/>
       <c r="F282" s="55"/>
       <c r="G282" s="47" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H282" s="46"/>
       <c r="I282" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J282" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="283" spans="2:10" x14ac:dyDescent="0.15">
@@ -13652,14 +13728,14 @@
       <c r="E283" s="82"/>
       <c r="F283" s="55"/>
       <c r="G283" s="47" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H283" s="46"/>
       <c r="I283" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J283" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="284" spans="2:10" x14ac:dyDescent="0.15">
@@ -13669,14 +13745,14 @@
       <c r="E284" s="82"/>
       <c r="F284" s="55"/>
       <c r="G284" s="47" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H284" s="46"/>
       <c r="I284" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J284" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="285" spans="2:10" x14ac:dyDescent="0.15">
@@ -13686,14 +13762,14 @@
       <c r="E285" s="82"/>
       <c r="F285" s="55"/>
       <c r="G285" s="47" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H285" s="46"/>
       <c r="I285" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J285" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="286" spans="2:10" x14ac:dyDescent="0.15">
@@ -13703,14 +13779,14 @@
       <c r="E286" s="82"/>
       <c r="F286" s="55"/>
       <c r="G286" s="47" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H286" s="46"/>
       <c r="I286" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J286" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="287" spans="2:10" x14ac:dyDescent="0.15">
@@ -13720,14 +13796,14 @@
       <c r="E287" s="82"/>
       <c r="F287" s="55"/>
       <c r="G287" s="47" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H287" s="46"/>
       <c r="I287" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J287" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="288" spans="2:10" x14ac:dyDescent="0.15">
@@ -13737,14 +13813,14 @@
       <c r="E288" s="82"/>
       <c r="F288" s="55"/>
       <c r="G288" s="47" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H288" s="46"/>
       <c r="I288" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J288" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="289" spans="2:10" x14ac:dyDescent="0.15">
@@ -13754,14 +13830,14 @@
       <c r="E289" s="82"/>
       <c r="F289" s="55"/>
       <c r="G289" s="47" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H289" s="46"/>
       <c r="I289" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J289" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="290" spans="2:10" x14ac:dyDescent="0.15">
@@ -13771,14 +13847,14 @@
       <c r="E290" s="82"/>
       <c r="F290" s="55"/>
       <c r="G290" s="47" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H290" s="46"/>
       <c r="I290" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J290" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="291" spans="2:10" x14ac:dyDescent="0.15">
@@ -13788,14 +13864,14 @@
       <c r="E291" s="82"/>
       <c r="F291" s="56"/>
       <c r="G291" s="47" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H291" s="46"/>
       <c r="I291" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J291" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="292" spans="2:10" x14ac:dyDescent="0.15">
@@ -13804,15 +13880,15 @@
       <c r="D292" s="55"/>
       <c r="E292" s="82"/>
       <c r="F292" s="52" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G292" s="59"/>
       <c r="H292" s="70"/>
       <c r="I292" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J292" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="293" spans="2:10" x14ac:dyDescent="0.15">
@@ -13822,14 +13898,14 @@
       <c r="E293" s="82"/>
       <c r="F293" s="55"/>
       <c r="G293" s="47" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H293" s="46"/>
       <c r="I293" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J293" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="294" spans="2:10" x14ac:dyDescent="0.15">
@@ -13839,14 +13915,14 @@
       <c r="E294" s="82"/>
       <c r="F294" s="55"/>
       <c r="G294" s="47" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H294" s="46"/>
       <c r="I294" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J294" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="295" spans="2:10" x14ac:dyDescent="0.15">
@@ -13856,14 +13932,14 @@
       <c r="E295" s="82"/>
       <c r="F295" s="55"/>
       <c r="G295" s="47" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H295" s="46"/>
       <c r="I295" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J295" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="296" spans="2:10" x14ac:dyDescent="0.15">
@@ -13873,14 +13949,14 @@
       <c r="E296" s="82"/>
       <c r="F296" s="55"/>
       <c r="G296" s="47" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H296" s="46"/>
       <c r="I296" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J296" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="297" spans="2:10" x14ac:dyDescent="0.15">
@@ -13890,14 +13966,14 @@
       <c r="E297" s="82"/>
       <c r="F297" s="55"/>
       <c r="G297" s="47" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H297" s="46"/>
       <c r="I297" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J297" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="298" spans="2:10" x14ac:dyDescent="0.15">
@@ -13907,14 +13983,14 @@
       <c r="E298" s="82"/>
       <c r="F298" s="56"/>
       <c r="G298" s="47" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H298" s="46"/>
       <c r="I298" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J298" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="299" spans="2:10" x14ac:dyDescent="0.15">
@@ -13923,15 +13999,15 @@
       <c r="D299" s="55"/>
       <c r="E299" s="82"/>
       <c r="F299" s="52" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G299" s="59"/>
       <c r="H299" s="70"/>
       <c r="I299" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J299" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="300" spans="2:10" x14ac:dyDescent="0.15">
@@ -13941,14 +14017,14 @@
       <c r="E300" s="82"/>
       <c r="F300" s="55"/>
       <c r="G300" s="45" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H300" s="46"/>
       <c r="I300" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J300" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="301" spans="2:10" x14ac:dyDescent="0.15">
@@ -13958,14 +14034,14 @@
       <c r="E301" s="82"/>
       <c r="F301" s="55"/>
       <c r="G301" s="45" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H301" s="46"/>
       <c r="I301" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J301" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="302" spans="2:10" x14ac:dyDescent="0.15">
@@ -13975,14 +14051,14 @@
       <c r="E302" s="82"/>
       <c r="F302" s="55"/>
       <c r="G302" s="45" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H302" s="46"/>
       <c r="I302" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J302" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="303" spans="2:10" x14ac:dyDescent="0.15">
@@ -13992,14 +14068,14 @@
       <c r="E303" s="82"/>
       <c r="F303" s="55"/>
       <c r="G303" s="45" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H303" s="46"/>
       <c r="I303" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J303" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="304" spans="2:10" x14ac:dyDescent="0.15">
@@ -14009,14 +14085,14 @@
       <c r="E304" s="82"/>
       <c r="F304" s="55"/>
       <c r="G304" s="45" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H304" s="46"/>
       <c r="I304" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J304" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="305" spans="2:10" x14ac:dyDescent="0.15">
@@ -14026,14 +14102,14 @@
       <c r="E305" s="82"/>
       <c r="F305" s="55"/>
       <c r="G305" s="45" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H305" s="46"/>
       <c r="I305" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J305" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="306" spans="2:10" x14ac:dyDescent="0.15">
@@ -14043,14 +14119,14 @@
       <c r="E306" s="82"/>
       <c r="F306" s="55"/>
       <c r="G306" s="45" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H306" s="46"/>
       <c r="I306" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J306" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="307" spans="2:10" x14ac:dyDescent="0.15">
@@ -14060,14 +14136,14 @@
       <c r="E307" s="82"/>
       <c r="F307" s="55"/>
       <c r="G307" s="45" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H307" s="46"/>
       <c r="I307" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J307" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="308" spans="2:10" x14ac:dyDescent="0.15">
@@ -14077,14 +14153,14 @@
       <c r="E308" s="82"/>
       <c r="F308" s="56"/>
       <c r="G308" s="45" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H308" s="46"/>
       <c r="I308" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J308" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="309" spans="2:10" x14ac:dyDescent="0.15">
@@ -14093,15 +14169,15 @@
       <c r="D309" s="55"/>
       <c r="E309" s="82"/>
       <c r="F309" s="52" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G309" s="59"/>
       <c r="H309" s="70"/>
       <c r="I309" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J309" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="310" spans="2:10" x14ac:dyDescent="0.15">
@@ -14111,14 +14187,14 @@
       <c r="E310" s="82"/>
       <c r="F310" s="55"/>
       <c r="G310" s="47" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H310" s="46"/>
       <c r="I310" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J310" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="311" spans="2:10" x14ac:dyDescent="0.15">
@@ -14128,14 +14204,14 @@
       <c r="E311" s="82"/>
       <c r="F311" s="55"/>
       <c r="G311" s="47" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H311" s="46"/>
       <c r="I311" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J311" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="312" spans="2:10" x14ac:dyDescent="0.15">
@@ -14145,14 +14221,14 @@
       <c r="E312" s="82"/>
       <c r="F312" s="55"/>
       <c r="G312" s="47" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H312" s="46"/>
       <c r="I312" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J312" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="313" spans="2:10" x14ac:dyDescent="0.15">
@@ -14162,14 +14238,14 @@
       <c r="E313" s="82"/>
       <c r="F313" s="55"/>
       <c r="G313" s="47" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H313" s="46"/>
       <c r="I313" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J313" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="314" spans="2:10" x14ac:dyDescent="0.15">
@@ -14179,14 +14255,14 @@
       <c r="E314" s="82"/>
       <c r="F314" s="55"/>
       <c r="G314" s="47" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H314" s="46"/>
       <c r="I314" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J314" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="315" spans="2:10" x14ac:dyDescent="0.15">
@@ -14196,14 +14272,14 @@
       <c r="E315" s="82"/>
       <c r="F315" s="56"/>
       <c r="G315" s="47" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H315" s="46"/>
       <c r="I315" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J315" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="316" spans="2:10" x14ac:dyDescent="0.15">
@@ -14212,15 +14288,15 @@
       <c r="D316" s="55"/>
       <c r="E316" s="82"/>
       <c r="F316" s="52" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G316" s="59"/>
       <c r="H316" s="70"/>
       <c r="I316" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J316" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="317" spans="2:10" x14ac:dyDescent="0.15">
@@ -14230,14 +14306,14 @@
       <c r="E317" s="82"/>
       <c r="F317" s="55"/>
       <c r="G317" s="47" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H317" s="46"/>
       <c r="I317" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J317" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="318" spans="2:10" x14ac:dyDescent="0.15">
@@ -14247,14 +14323,14 @@
       <c r="E318" s="82"/>
       <c r="F318" s="55"/>
       <c r="G318" s="47" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H318" s="46"/>
       <c r="I318" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J318" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="319" spans="2:10" x14ac:dyDescent="0.15">
@@ -14264,14 +14340,14 @@
       <c r="E319" s="82"/>
       <c r="F319" s="55"/>
       <c r="G319" s="47" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H319" s="46"/>
       <c r="I319" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J319" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="320" spans="2:10" x14ac:dyDescent="0.15">
@@ -14281,14 +14357,14 @@
       <c r="E320" s="82"/>
       <c r="F320" s="55"/>
       <c r="G320" s="47" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H320" s="46"/>
       <c r="I320" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J320" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="321" spans="2:10" x14ac:dyDescent="0.15">
@@ -14298,14 +14374,14 @@
       <c r="E321" s="82"/>
       <c r="F321" s="55"/>
       <c r="G321" s="47" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H321" s="46"/>
       <c r="I321" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J321" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="322" spans="2:10" x14ac:dyDescent="0.15">
@@ -14315,14 +14391,14 @@
       <c r="E322" s="82"/>
       <c r="F322" s="55"/>
       <c r="G322" s="47" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H322" s="46"/>
       <c r="I322" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J322" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="323" spans="2:10" x14ac:dyDescent="0.15">
@@ -14332,14 +14408,14 @@
       <c r="E323" s="82"/>
       <c r="F323" s="55"/>
       <c r="G323" s="47" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H323" s="46"/>
       <c r="I323" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J323" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="324" spans="2:10" x14ac:dyDescent="0.15">
@@ -14349,14 +14425,14 @@
       <c r="E324" s="82"/>
       <c r="F324" s="56"/>
       <c r="G324" s="47" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H324" s="46"/>
       <c r="I324" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J324" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="325" spans="2:10" x14ac:dyDescent="0.15">
@@ -14365,15 +14441,15 @@
       <c r="D325" s="55"/>
       <c r="E325" s="82"/>
       <c r="F325" s="52" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G325" s="59"/>
       <c r="H325" s="70"/>
       <c r="I325" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J325" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="326" spans="2:10" x14ac:dyDescent="0.15">
@@ -14383,14 +14459,14 @@
       <c r="E326" s="82"/>
       <c r="F326" s="57"/>
       <c r="G326" s="47" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H326" s="46"/>
       <c r="I326" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J326" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="327" spans="2:10" x14ac:dyDescent="0.15">
@@ -14400,14 +14476,14 @@
       <c r="E327" s="82"/>
       <c r="F327" s="57"/>
       <c r="G327" s="47" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H327" s="46"/>
       <c r="I327" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J327" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="328" spans="2:10" x14ac:dyDescent="0.15">
@@ -14417,14 +14493,14 @@
       <c r="E328" s="82"/>
       <c r="F328" s="57"/>
       <c r="G328" s="47" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H328" s="46"/>
       <c r="I328" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J328" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="329" spans="2:10" x14ac:dyDescent="0.15">
@@ -14434,20 +14510,20 @@
       <c r="E329" s="83"/>
       <c r="F329" s="58"/>
       <c r="G329" s="47" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H329" s="46"/>
       <c r="I329" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J329" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="330" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B330" s="55"/>
       <c r="C330" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D330" s="59"/>
       <c r="E330" s="59"/>
@@ -14455,61 +14531,61 @@
       <c r="G330" s="59"/>
       <c r="H330" s="70"/>
       <c r="I330" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J330" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="331" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B331" s="55"/>
       <c r="C331" s="55"/>
       <c r="D331" s="41" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E331" s="45"/>
       <c r="F331" s="47"/>
       <c r="G331" s="47"/>
       <c r="H331" s="46"/>
       <c r="I331" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J331" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="332" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B332" s="55"/>
       <c r="C332" s="55"/>
       <c r="D332" s="41" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E332" s="45"/>
       <c r="F332" s="47"/>
       <c r="G332" s="47"/>
       <c r="H332" s="46"/>
       <c r="I332" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J332" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="333" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B333" s="55"/>
       <c r="C333" s="55"/>
       <c r="D333" s="52" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E333" s="59"/>
       <c r="F333" s="59"/>
       <c r="G333" s="59"/>
       <c r="H333" s="70"/>
       <c r="I333" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J333" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="334" spans="2:10" x14ac:dyDescent="0.15">
@@ -14517,33 +14593,33 @@
       <c r="C334" s="55"/>
       <c r="D334" s="58"/>
       <c r="E334" s="45" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F334" s="47"/>
       <c r="G334" s="47"/>
       <c r="H334" s="46"/>
       <c r="I334" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J334" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="335" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B335" s="55"/>
       <c r="C335" s="55"/>
       <c r="D335" s="52" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E335" s="59"/>
       <c r="F335" s="59"/>
       <c r="G335" s="59"/>
       <c r="H335" s="70"/>
       <c r="I335" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J335" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="336" spans="2:10" x14ac:dyDescent="0.15">
@@ -14551,16 +14627,16 @@
       <c r="C336" s="55"/>
       <c r="D336" s="55"/>
       <c r="E336" s="52" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F336" s="59"/>
       <c r="G336" s="59"/>
       <c r="H336" s="70"/>
       <c r="I336" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J336" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="337" spans="2:10" x14ac:dyDescent="0.15">
@@ -14569,15 +14645,15 @@
       <c r="D337" s="55"/>
       <c r="E337" s="55"/>
       <c r="F337" s="47" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G337" s="47"/>
       <c r="H337" s="46"/>
       <c r="I337" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J337" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="338" spans="2:10" x14ac:dyDescent="0.15">
@@ -14586,15 +14662,15 @@
       <c r="D338" s="55"/>
       <c r="E338" s="55"/>
       <c r="F338" s="47" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G338" s="47"/>
       <c r="H338" s="46"/>
       <c r="I338" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J338" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="339" spans="2:10" x14ac:dyDescent="0.15">
@@ -14603,15 +14679,15 @@
       <c r="D339" s="55"/>
       <c r="E339" s="55"/>
       <c r="F339" s="47" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G339" s="47"/>
       <c r="H339" s="46"/>
       <c r="I339" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J339" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="340" spans="2:10" x14ac:dyDescent="0.15">
@@ -14620,15 +14696,15 @@
       <c r="D340" s="55"/>
       <c r="E340" s="56"/>
       <c r="F340" s="47" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G340" s="47"/>
       <c r="H340" s="46"/>
       <c r="I340" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J340" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="341" spans="2:10" x14ac:dyDescent="0.15">
@@ -14636,16 +14712,16 @@
       <c r="C341" s="55"/>
       <c r="D341" s="55"/>
       <c r="E341" s="52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F341" s="59"/>
       <c r="G341" s="59"/>
       <c r="H341" s="70"/>
       <c r="I341" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J341" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="342" spans="2:10" x14ac:dyDescent="0.15">
@@ -14654,15 +14730,15 @@
       <c r="D342" s="55"/>
       <c r="E342" s="55"/>
       <c r="F342" s="47" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G342" s="47"/>
       <c r="H342" s="46"/>
       <c r="I342" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J342" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="343" spans="2:10" x14ac:dyDescent="0.15">
@@ -14671,15 +14747,15 @@
       <c r="D343" s="55"/>
       <c r="E343" s="55"/>
       <c r="F343" s="47" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G343" s="47"/>
       <c r="H343" s="46"/>
       <c r="I343" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J343" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="344" spans="2:10" x14ac:dyDescent="0.15">
@@ -14688,15 +14764,15 @@
       <c r="D344" s="55"/>
       <c r="E344" s="55"/>
       <c r="F344" s="47" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G344" s="47"/>
       <c r="H344" s="46"/>
       <c r="I344" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J344" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="345" spans="2:10" x14ac:dyDescent="0.15">
@@ -14705,15 +14781,15 @@
       <c r="D345" s="55"/>
       <c r="E345" s="55"/>
       <c r="F345" s="47" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G345" s="47"/>
       <c r="H345" s="46"/>
       <c r="I345" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J345" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="346" spans="2:10" x14ac:dyDescent="0.15">
@@ -14722,15 +14798,15 @@
       <c r="D346" s="55"/>
       <c r="E346" s="55"/>
       <c r="F346" s="47" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G346" s="47"/>
       <c r="H346" s="46"/>
       <c r="I346" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J346" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="347" spans="2:10" x14ac:dyDescent="0.15">
@@ -14739,15 +14815,15 @@
       <c r="D347" s="55"/>
       <c r="E347" s="55"/>
       <c r="F347" s="47" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G347" s="47"/>
       <c r="H347" s="46"/>
       <c r="I347" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J347" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="348" spans="2:10" x14ac:dyDescent="0.15">
@@ -14756,15 +14832,15 @@
       <c r="D348" s="55"/>
       <c r="E348" s="56"/>
       <c r="F348" s="47" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G348" s="47"/>
       <c r="H348" s="46"/>
       <c r="I348" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J348" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="349" spans="2:10" x14ac:dyDescent="0.15">
@@ -14772,33 +14848,33 @@
       <c r="C349" s="55"/>
       <c r="D349" s="55"/>
       <c r="E349" s="45" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F349" s="47"/>
       <c r="G349" s="47"/>
       <c r="H349" s="46"/>
       <c r="I349" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J349" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="350" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B350" s="55"/>
       <c r="C350" s="55"/>
       <c r="D350" s="52" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E350" s="59"/>
       <c r="F350" s="59"/>
       <c r="G350" s="59"/>
       <c r="H350" s="70"/>
       <c r="I350" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J350" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="351" spans="2:10" x14ac:dyDescent="0.15">
@@ -14806,16 +14882,16 @@
       <c r="C351" s="55"/>
       <c r="D351" s="55"/>
       <c r="E351" s="45" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F351" s="47"/>
       <c r="G351" s="47"/>
       <c r="H351" s="46"/>
       <c r="I351" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J351" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="352" spans="2:10" x14ac:dyDescent="0.15">
@@ -14823,16 +14899,16 @@
       <c r="C352" s="55"/>
       <c r="D352" s="55"/>
       <c r="E352" s="45" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F352" s="47"/>
       <c r="G352" s="47"/>
       <c r="H352" s="46"/>
       <c r="I352" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J352" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="353" spans="2:10" x14ac:dyDescent="0.15">
@@ -14840,33 +14916,33 @@
       <c r="C353" s="55"/>
       <c r="D353" s="56"/>
       <c r="E353" s="45" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F353" s="47"/>
       <c r="G353" s="47"/>
       <c r="H353" s="46"/>
       <c r="I353" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J353" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="354" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B354" s="55"/>
       <c r="C354" s="55"/>
       <c r="D354" s="52" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E354" s="59"/>
       <c r="F354" s="59"/>
       <c r="G354" s="59"/>
       <c r="H354" s="70"/>
       <c r="I354" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J354" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="355" spans="2:10" x14ac:dyDescent="0.15">
@@ -14874,22 +14950,22 @@
       <c r="C355" s="56"/>
       <c r="D355" s="58"/>
       <c r="E355" s="45" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F355" s="47"/>
       <c r="G355" s="47"/>
       <c r="H355" s="46"/>
       <c r="I355" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J355" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="356" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B356" s="56"/>
       <c r="C356" s="42" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D356" s="43"/>
       <c r="E356" s="43"/>
@@ -14897,15 +14973,15 @@
       <c r="G356" s="43"/>
       <c r="H356" s="44"/>
       <c r="I356" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J356" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="357" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B357" s="52" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C357" s="59"/>
       <c r="D357" s="59"/>
@@ -14914,16 +14990,16 @@
       <c r="G357" s="59"/>
       <c r="H357" s="70"/>
       <c r="I357" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J357" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="358" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B358" s="56"/>
       <c r="C358" s="42" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D358" s="43"/>
       <c r="E358" s="43"/>
@@ -14931,10 +15007,10 @@
       <c r="G358" s="43"/>
       <c r="H358" s="44"/>
       <c r="I358" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J358" s="50" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="359" spans="2:10" x14ac:dyDescent="0.15">
@@ -14975,62 +15051,62 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>
@@ -15043,7 +15119,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -17758,11 +17836,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18048,31 +18126,31 @@
         <v>404</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>442</v>
+        <v>823</v>
       </c>
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="3:6" ht="264.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="22" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>405</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="3:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="C26" s="22" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>406</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>409</v>
@@ -18453,196 +18531,196 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="D9" s="110" t="s">
+      <c r="D9" s="97" t="s">
         <v>328</v>
       </c>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
       <c r="H9" s="88" t="s">
         <v>321</v>
       </c>
       <c r="I9" s="89"/>
       <c r="J9" s="89"/>
       <c r="K9" s="90"/>
-      <c r="L9" s="107" t="s">
+      <c r="L9" s="100" t="s">
         <v>320</v>
       </c>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="108"/>
-      <c r="S9" s="108"/>
-      <c r="T9" s="108"/>
-      <c r="U9" s="108"/>
-      <c r="V9" s="108"/>
-      <c r="W9" s="108"/>
-      <c r="X9" s="108"/>
-      <c r="Y9" s="108"/>
-      <c r="Z9" s="108"/>
-      <c r="AA9" s="109"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="101"/>
+      <c r="S9" s="101"/>
+      <c r="T9" s="101"/>
+      <c r="U9" s="101"/>
+      <c r="V9" s="101"/>
+      <c r="W9" s="101"/>
+      <c r="X9" s="101"/>
+      <c r="Y9" s="101"/>
+      <c r="Z9" s="101"/>
+      <c r="AA9" s="102"/>
     </row>
     <row r="10" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="101" t="s">
+      <c r="D10" s="98" t="s">
         <v>323</v>
       </c>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="106" t="s">
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="103" t="s">
         <v>329</v>
       </c>
       <c r="I10" s="104"/>
       <c r="J10" s="104"/>
       <c r="K10" s="105"/>
-      <c r="L10" s="98" t="s">
+      <c r="L10" s="106" t="s">
         <v>334</v>
       </c>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="99"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="99"/>
-      <c r="U10" s="99"/>
-      <c r="V10" s="99"/>
-      <c r="W10" s="99"/>
-      <c r="X10" s="99"/>
-      <c r="Y10" s="99"/>
-      <c r="Z10" s="99"/>
-      <c r="AA10" s="100"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="107"/>
+      <c r="Q10" s="107"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="107"/>
+      <c r="U10" s="107"/>
+      <c r="V10" s="107"/>
+      <c r="W10" s="107"/>
+      <c r="X10" s="107"/>
+      <c r="Y10" s="107"/>
+      <c r="Z10" s="107"/>
+      <c r="AA10" s="108"/>
     </row>
     <row r="11" spans="1:27" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="101" t="s">
+      <c r="D11" s="98" t="s">
         <v>324</v>
       </c>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="106" t="s">
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="103" t="s">
         <v>330</v>
       </c>
       <c r="I11" s="104"/>
       <c r="J11" s="104"/>
       <c r="K11" s="105"/>
-      <c r="L11" s="98" t="s">
+      <c r="L11" s="106" t="s">
         <v>333</v>
       </c>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="99"/>
-      <c r="T11" s="99"/>
-      <c r="U11" s="99"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="99"/>
-      <c r="X11" s="99"/>
-      <c r="Y11" s="99"/>
-      <c r="Z11" s="99"/>
-      <c r="AA11" s="100"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="107"/>
+      <c r="W11" s="107"/>
+      <c r="X11" s="107"/>
+      <c r="Y11" s="107"/>
+      <c r="Z11" s="107"/>
+      <c r="AA11" s="108"/>
     </row>
     <row r="12" spans="1:27" ht="93" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D12" s="101" t="s">
+      <c r="D12" s="98" t="s">
         <v>326</v>
       </c>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="106" t="s">
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="103" t="s">
         <v>331</v>
       </c>
       <c r="I12" s="104"/>
       <c r="J12" s="104"/>
       <c r="K12" s="105"/>
-      <c r="L12" s="98" t="s">
+      <c r="L12" s="106" t="s">
         <v>335</v>
       </c>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="99"/>
-      <c r="S12" s="99"/>
-      <c r="T12" s="99"/>
-      <c r="U12" s="99"/>
-      <c r="V12" s="99"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="99"/>
-      <c r="Y12" s="99"/>
-      <c r="Z12" s="99"/>
-      <c r="AA12" s="100"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="107"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="107"/>
+      <c r="Y12" s="107"/>
+      <c r="Z12" s="107"/>
+      <c r="AA12" s="108"/>
     </row>
     <row r="13" spans="1:27" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D13" s="101" t="s">
+      <c r="D13" s="98" t="s">
         <v>325</v>
       </c>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="106" t="s">
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="103" t="s">
         <v>331</v>
       </c>
       <c r="I13" s="104"/>
       <c r="J13" s="104"/>
       <c r="K13" s="105"/>
-      <c r="L13" s="98" t="s">
+      <c r="L13" s="106" t="s">
         <v>336</v>
       </c>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="99"/>
-      <c r="T13" s="99"/>
-      <c r="U13" s="99"/>
-      <c r="V13" s="99"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="99"/>
-      <c r="Y13" s="99"/>
-      <c r="Z13" s="99"/>
-      <c r="AA13" s="100"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="107"/>
+      <c r="X13" s="107"/>
+      <c r="Y13" s="107"/>
+      <c r="Z13" s="107"/>
+      <c r="AA13" s="108"/>
     </row>
     <row r="14" spans="1:27" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D14" s="101" t="s">
+      <c r="D14" s="98" t="s">
         <v>327</v>
       </c>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="106" t="s">
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="103" t="s">
         <v>332</v>
       </c>
       <c r="I14" s="104"/>
       <c r="J14" s="104"/>
       <c r="K14" s="105"/>
-      <c r="L14" s="98" t="s">
+      <c r="L14" s="106" t="s">
         <v>337</v>
       </c>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="99"/>
-      <c r="T14" s="99"/>
-      <c r="U14" s="99"/>
-      <c r="V14" s="99"/>
-      <c r="W14" s="99"/>
-      <c r="X14" s="99"/>
-      <c r="Y14" s="99"/>
-      <c r="Z14" s="99"/>
-      <c r="AA14" s="100"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="107"/>
+      <c r="S14" s="107"/>
+      <c r="T14" s="107"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="107"/>
+      <c r="X14" s="107"/>
+      <c r="Y14" s="107"/>
+      <c r="Z14" s="107"/>
+      <c r="AA14" s="108"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C16" s="11" t="s">
@@ -18660,12 +18738,12 @@
       </c>
     </row>
     <row r="22" spans="4:35" x14ac:dyDescent="0.15">
-      <c r="D22" s="110" t="s">
+      <c r="D22" s="97" t="s">
         <v>343</v>
       </c>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
       <c r="H22" s="84" t="s">
         <v>344</v>
       </c>
@@ -18702,12 +18780,12 @@
       <c r="AI22" s="90"/>
     </row>
     <row r="23" spans="4:35" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D23" s="101" t="s">
+      <c r="D23" s="98" t="s">
         <v>346</v>
       </c>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
       <c r="H23" s="86" t="s">
         <v>347</v>
       </c>
@@ -18722,7 +18800,7 @@
       <c r="Q23" s="86"/>
       <c r="R23" s="86"/>
       <c r="S23" s="86"/>
-      <c r="T23" s="106" t="s">
+      <c r="T23" s="103" t="s">
         <v>351</v>
       </c>
       <c r="U23" s="104"/>
@@ -18732,24 +18810,24 @@
       <c r="Y23" s="104"/>
       <c r="Z23" s="104"/>
       <c r="AA23" s="105"/>
-      <c r="AB23" s="98" t="s">
+      <c r="AB23" s="106" t="s">
         <v>352</v>
       </c>
-      <c r="AC23" s="99"/>
-      <c r="AD23" s="99"/>
-      <c r="AE23" s="99"/>
-      <c r="AF23" s="99"/>
-      <c r="AG23" s="99"/>
-      <c r="AH23" s="99"/>
-      <c r="AI23" s="100"/>
+      <c r="AC23" s="107"/>
+      <c r="AD23" s="107"/>
+      <c r="AE23" s="107"/>
+      <c r="AF23" s="107"/>
+      <c r="AG23" s="107"/>
+      <c r="AH23" s="107"/>
+      <c r="AI23" s="108"/>
     </row>
     <row r="24" spans="4:35" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D24" s="101" t="s">
+      <c r="D24" s="98" t="s">
         <v>346</v>
       </c>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
       <c r="H24" s="86" t="s">
         <v>348</v>
       </c>
@@ -18764,7 +18842,7 @@
       <c r="Q24" s="86"/>
       <c r="R24" s="86"/>
       <c r="S24" s="86"/>
-      <c r="T24" s="106" t="s">
+      <c r="T24" s="103" t="s">
         <v>351</v>
       </c>
       <c r="U24" s="104"/>
@@ -18774,24 +18852,24 @@
       <c r="Y24" s="104"/>
       <c r="Z24" s="104"/>
       <c r="AA24" s="105"/>
-      <c r="AB24" s="98" t="s">
+      <c r="AB24" s="106" t="s">
         <v>353</v>
       </c>
-      <c r="AC24" s="99"/>
-      <c r="AD24" s="99"/>
-      <c r="AE24" s="99"/>
-      <c r="AF24" s="99"/>
-      <c r="AG24" s="99"/>
-      <c r="AH24" s="99"/>
-      <c r="AI24" s="100"/>
+      <c r="AC24" s="107"/>
+      <c r="AD24" s="107"/>
+      <c r="AE24" s="107"/>
+      <c r="AF24" s="107"/>
+      <c r="AG24" s="107"/>
+      <c r="AH24" s="107"/>
+      <c r="AI24" s="108"/>
     </row>
     <row r="25" spans="4:35" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D25" s="101" t="s">
+      <c r="D25" s="98" t="s">
         <v>346</v>
       </c>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
       <c r="H25" s="86" t="s">
         <v>349</v>
       </c>
@@ -18806,7 +18884,7 @@
       <c r="Q25" s="86"/>
       <c r="R25" s="86"/>
       <c r="S25" s="86"/>
-      <c r="T25" s="106" t="s">
+      <c r="T25" s="103" t="s">
         <v>351</v>
       </c>
       <c r="U25" s="104"/>
@@ -18816,24 +18894,24 @@
       <c r="Y25" s="104"/>
       <c r="Z25" s="104"/>
       <c r="AA25" s="105"/>
-      <c r="AB25" s="98" t="s">
+      <c r="AB25" s="106" t="s">
         <v>354</v>
       </c>
-      <c r="AC25" s="99"/>
-      <c r="AD25" s="99"/>
-      <c r="AE25" s="99"/>
-      <c r="AF25" s="99"/>
-      <c r="AG25" s="99"/>
-      <c r="AH25" s="99"/>
-      <c r="AI25" s="100"/>
+      <c r="AC25" s="107"/>
+      <c r="AD25" s="107"/>
+      <c r="AE25" s="107"/>
+      <c r="AF25" s="107"/>
+      <c r="AG25" s="107"/>
+      <c r="AH25" s="107"/>
+      <c r="AI25" s="108"/>
     </row>
     <row r="26" spans="4:35" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D26" s="101" t="s">
+      <c r="D26" s="98" t="s">
         <v>346</v>
       </c>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
       <c r="H26" s="86" t="s">
         <v>350</v>
       </c>
@@ -18848,7 +18926,7 @@
       <c r="Q26" s="86"/>
       <c r="R26" s="86"/>
       <c r="S26" s="86"/>
-      <c r="T26" s="106" t="s">
+      <c r="T26" s="103" t="s">
         <v>351</v>
       </c>
       <c r="U26" s="104"/>
@@ -18858,24 +18936,24 @@
       <c r="Y26" s="104"/>
       <c r="Z26" s="104"/>
       <c r="AA26" s="105"/>
-      <c r="AB26" s="98" t="s">
+      <c r="AB26" s="106" t="s">
         <v>355</v>
       </c>
-      <c r="AC26" s="99"/>
-      <c r="AD26" s="99"/>
-      <c r="AE26" s="99"/>
-      <c r="AF26" s="99"/>
-      <c r="AG26" s="99"/>
-      <c r="AH26" s="99"/>
-      <c r="AI26" s="100"/>
+      <c r="AC26" s="107"/>
+      <c r="AD26" s="107"/>
+      <c r="AE26" s="107"/>
+      <c r="AF26" s="107"/>
+      <c r="AG26" s="107"/>
+      <c r="AH26" s="107"/>
+      <c r="AI26" s="108"/>
     </row>
     <row r="27" spans="4:35" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D27" s="101" t="s">
+      <c r="D27" s="98" t="s">
         <v>346</v>
       </c>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="102"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
       <c r="H27" s="86" t="s">
         <v>356</v>
       </c>
@@ -18890,7 +18968,7 @@
       <c r="Q27" s="86"/>
       <c r="R27" s="86"/>
       <c r="S27" s="86"/>
-      <c r="T27" s="106" t="s">
+      <c r="T27" s="103" t="s">
         <v>358</v>
       </c>
       <c r="U27" s="104"/>
@@ -18900,24 +18978,24 @@
       <c r="Y27" s="104"/>
       <c r="Z27" s="104"/>
       <c r="AA27" s="105"/>
-      <c r="AB27" s="98" t="s">
+      <c r="AB27" s="106" t="s">
         <v>359</v>
       </c>
-      <c r="AC27" s="99"/>
-      <c r="AD27" s="99"/>
-      <c r="AE27" s="99"/>
-      <c r="AF27" s="99"/>
-      <c r="AG27" s="99"/>
-      <c r="AH27" s="99"/>
-      <c r="AI27" s="100"/>
+      <c r="AC27" s="107"/>
+      <c r="AD27" s="107"/>
+      <c r="AE27" s="107"/>
+      <c r="AF27" s="107"/>
+      <c r="AG27" s="107"/>
+      <c r="AH27" s="107"/>
+      <c r="AI27" s="108"/>
     </row>
     <row r="28" spans="4:35" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D28" s="101" t="s">
+      <c r="D28" s="98" t="s">
         <v>346</v>
       </c>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
       <c r="H28" s="86" t="s">
         <v>357</v>
       </c>
@@ -18932,7 +19010,7 @@
       <c r="Q28" s="86"/>
       <c r="R28" s="86"/>
       <c r="S28" s="86"/>
-      <c r="T28" s="103" t="s">
+      <c r="T28" s="110" t="s">
         <v>360</v>
       </c>
       <c r="U28" s="104"/>
@@ -18942,24 +19020,24 @@
       <c r="Y28" s="104"/>
       <c r="Z28" s="104"/>
       <c r="AA28" s="105"/>
-      <c r="AB28" s="98" t="s">
+      <c r="AB28" s="106" t="s">
         <v>361</v>
       </c>
-      <c r="AC28" s="99"/>
-      <c r="AD28" s="99"/>
-      <c r="AE28" s="99"/>
-      <c r="AF28" s="99"/>
-      <c r="AG28" s="99"/>
-      <c r="AH28" s="99"/>
-      <c r="AI28" s="100"/>
+      <c r="AC28" s="107"/>
+      <c r="AD28" s="107"/>
+      <c r="AE28" s="107"/>
+      <c r="AF28" s="107"/>
+      <c r="AG28" s="107"/>
+      <c r="AH28" s="107"/>
+      <c r="AI28" s="108"/>
     </row>
     <row r="29" spans="4:35" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="101" t="s">
+      <c r="D29" s="98" t="s">
         <v>363</v>
       </c>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
       <c r="H29" s="86" t="s">
         <v>362</v>
       </c>
@@ -18974,7 +19052,7 @@
       <c r="Q29" s="86"/>
       <c r="R29" s="86"/>
       <c r="S29" s="86"/>
-      <c r="T29" s="106" t="s">
+      <c r="T29" s="103" t="s">
         <v>364</v>
       </c>
       <c r="U29" s="104"/>
@@ -18984,16 +19062,16 @@
       <c r="Y29" s="104"/>
       <c r="Z29" s="104"/>
       <c r="AA29" s="105"/>
-      <c r="AB29" s="98" t="s">
+      <c r="AB29" s="106" t="s">
         <v>365</v>
       </c>
-      <c r="AC29" s="99"/>
-      <c r="AD29" s="99"/>
-      <c r="AE29" s="99"/>
-      <c r="AF29" s="99"/>
-      <c r="AG29" s="99"/>
-      <c r="AH29" s="99"/>
-      <c r="AI29" s="100"/>
+      <c r="AC29" s="107"/>
+      <c r="AD29" s="107"/>
+      <c r="AE29" s="107"/>
+      <c r="AF29" s="107"/>
+      <c r="AG29" s="107"/>
+      <c r="AH29" s="107"/>
+      <c r="AI29" s="108"/>
     </row>
     <row r="31" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D31" s="11" t="s">
@@ -19398,52 +19476,52 @@
       </c>
     </row>
     <row r="59" spans="4:24" x14ac:dyDescent="0.15">
-      <c r="E59" s="97" t="s">
+      <c r="E59" s="109" t="s">
         <v>378</v>
       </c>
-      <c r="F59" s="97"/>
-      <c r="G59" s="97"/>
-      <c r="H59" s="97"/>
-      <c r="I59" s="97"/>
-      <c r="J59" s="97"/>
-      <c r="K59" s="97"/>
-      <c r="L59" s="97"/>
-      <c r="M59" s="97"/>
-      <c r="N59" s="97"/>
-      <c r="O59" s="97"/>
-      <c r="P59" s="97"/>
-      <c r="Q59" s="97"/>
-      <c r="R59" s="97"/>
-      <c r="S59" s="97"/>
-      <c r="T59" s="97"/>
-      <c r="U59" s="97"/>
-      <c r="V59" s="97"/>
-      <c r="W59" s="97"/>
-      <c r="X59" s="97"/>
+      <c r="F59" s="109"/>
+      <c r="G59" s="109"/>
+      <c r="H59" s="109"/>
+      <c r="I59" s="109"/>
+      <c r="J59" s="109"/>
+      <c r="K59" s="109"/>
+      <c r="L59" s="109"/>
+      <c r="M59" s="109"/>
+      <c r="N59" s="109"/>
+      <c r="O59" s="109"/>
+      <c r="P59" s="109"/>
+      <c r="Q59" s="109"/>
+      <c r="R59" s="109"/>
+      <c r="S59" s="109"/>
+      <c r="T59" s="109"/>
+      <c r="U59" s="109"/>
+      <c r="V59" s="109"/>
+      <c r="W59" s="109"/>
+      <c r="X59" s="109"/>
     </row>
     <row r="60" spans="4:24" x14ac:dyDescent="0.15">
-      <c r="E60" s="97" t="s">
+      <c r="E60" s="109" t="s">
         <v>379</v>
       </c>
-      <c r="F60" s="97"/>
-      <c r="G60" s="97"/>
-      <c r="H60" s="97"/>
-      <c r="I60" s="97"/>
-      <c r="J60" s="97"/>
-      <c r="K60" s="97"/>
-      <c r="L60" s="97"/>
-      <c r="M60" s="97"/>
-      <c r="N60" s="97"/>
-      <c r="O60" s="97"/>
-      <c r="P60" s="97"/>
-      <c r="Q60" s="97"/>
-      <c r="R60" s="97"/>
-      <c r="S60" s="97"/>
-      <c r="T60" s="97"/>
-      <c r="U60" s="97"/>
-      <c r="V60" s="97"/>
-      <c r="W60" s="97"/>
-      <c r="X60" s="97"/>
+      <c r="F60" s="109"/>
+      <c r="G60" s="109"/>
+      <c r="H60" s="109"/>
+      <c r="I60" s="109"/>
+      <c r="J60" s="109"/>
+      <c r="K60" s="109"/>
+      <c r="L60" s="109"/>
+      <c r="M60" s="109"/>
+      <c r="N60" s="109"/>
+      <c r="O60" s="109"/>
+      <c r="P60" s="109"/>
+      <c r="Q60" s="109"/>
+      <c r="R60" s="109"/>
+      <c r="S60" s="109"/>
+      <c r="T60" s="109"/>
+      <c r="U60" s="109"/>
+      <c r="V60" s="109"/>
+      <c r="W60" s="109"/>
+      <c r="X60" s="109"/>
     </row>
     <row r="63" spans="4:24" x14ac:dyDescent="0.15">
       <c r="D63" s="11" t="s">
@@ -19482,46 +19560,6 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:AA9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:AA10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:AA11"/>
-    <mergeCell ref="H22:S22"/>
-    <mergeCell ref="T22:AA22"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:AA13"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:AA12"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:AA14"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H26:S26"/>
-    <mergeCell ref="H27:S27"/>
-    <mergeCell ref="H23:S23"/>
-    <mergeCell ref="H24:S24"/>
-    <mergeCell ref="H25:S25"/>
-    <mergeCell ref="AB22:AI22"/>
-    <mergeCell ref="T23:AA23"/>
-    <mergeCell ref="T24:AA24"/>
-    <mergeCell ref="T25:AA25"/>
-    <mergeCell ref="T26:AA26"/>
-    <mergeCell ref="AB23:AI23"/>
-    <mergeCell ref="AB24:AI24"/>
-    <mergeCell ref="AB25:AI25"/>
-    <mergeCell ref="AB26:AI26"/>
     <mergeCell ref="E59:X59"/>
     <mergeCell ref="E60:X60"/>
     <mergeCell ref="D32:AI41"/>
@@ -19535,6 +19573,46 @@
     <mergeCell ref="T29:AA29"/>
     <mergeCell ref="AB29:AI29"/>
     <mergeCell ref="T27:AA27"/>
+    <mergeCell ref="AB22:AI22"/>
+    <mergeCell ref="T23:AA23"/>
+    <mergeCell ref="T24:AA24"/>
+    <mergeCell ref="T25:AA25"/>
+    <mergeCell ref="T26:AA26"/>
+    <mergeCell ref="AB23:AI23"/>
+    <mergeCell ref="AB24:AI24"/>
+    <mergeCell ref="AB25:AI25"/>
+    <mergeCell ref="AB26:AI26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H26:S26"/>
+    <mergeCell ref="H27:S27"/>
+    <mergeCell ref="H23:S23"/>
+    <mergeCell ref="H24:S24"/>
+    <mergeCell ref="H25:S25"/>
+    <mergeCell ref="H22:S22"/>
+    <mergeCell ref="T22:AA22"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:AA13"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:AA12"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:AA14"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:AA9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:AA10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:AA11"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D14:G14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>

--- a/athrill-manual.xlsx
+++ b/athrill-manual.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12540" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">athrillプログラム構成!$B$3:$J$358</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">命令一覧!$D$6:$F$86</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">タイトル!$A$1:$J$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">タイトル!$A$1:$J$52</definedName>
     <definedName name="機能分類">選択肢定義!$B$3:$B$13</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -1184,13 +1184,6 @@
   </si>
   <si>
     <t>andi</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>athrill利用マニュアル</t>
-    <rPh sb="7" eb="9">
-      <t>リヨウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -5200,6 +5193,13 @@
     </rPh>
     <rPh sb="185" eb="187">
       <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Athrill利用マニュアル</t>
+    <rPh sb="7" eb="9">
+      <t>リヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -5901,6 +5901,851 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1031500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>155942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>591207</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>8661</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="グループ化 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1FBA956-801A-4FDF-A8E0-B68294479A07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1483938" y="1691848"/>
+          <a:ext cx="4905613" cy="5020032"/>
+          <a:chOff x="1487043" y="1729638"/>
+          <a:chExt cx="4885425" cy="5244697"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="四角形: 角を丸くする 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26F93848-C798-4E9A-82FB-12DED84FFBAD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1507435" y="1729638"/>
+            <a:ext cx="4865033" cy="4919298"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 7303"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="13" name="グループ化 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E53550A-46A0-4B6B-AF78-6C893FB08D46}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1487043" y="2393710"/>
+            <a:ext cx="4052794" cy="4580625"/>
+            <a:chOff x="2201918" y="2467967"/>
+            <a:chExt cx="4031373" cy="4495800"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="円弧 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C12C22B7-537B-40F2-9950-4DF5D347DB0D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2568466" y="4591713"/>
+              <a:ext cx="2305707" cy="2023241"/>
+            </a:xfrm>
+            <a:prstGeom prst="arc">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 18140847"/>
+                <a:gd name="adj2" fmla="val 0"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="111125">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="円弧 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE59BCBB-8BA0-4E60-83C9-3B09CBB6DA2C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="1917096">
+              <a:off x="2201918" y="4166044"/>
+              <a:ext cx="2305707" cy="2023241"/>
+            </a:xfrm>
+            <a:prstGeom prst="arc">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 18140847"/>
+                <a:gd name="adj2" fmla="val 21009557"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="111125">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="円弧 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF08AB7C-DCAD-4351-ADCE-96BD3CA924D7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="4341917">
+              <a:off x="2812832" y="2609200"/>
+              <a:ext cx="2305707" cy="2023241"/>
+            </a:xfrm>
+            <a:prstGeom prst="arc">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 15849501"/>
+                <a:gd name="adj2" fmla="val 0"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="111125">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="円弧 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ABCA6DE-10B3-4463-A445-9941174A3DAD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="6280129">
+              <a:off x="2282058" y="3182015"/>
+              <a:ext cx="2305707" cy="2023241"/>
+            </a:xfrm>
+            <a:prstGeom prst="arc">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 17226543"/>
+                <a:gd name="adj2" fmla="val 163942"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="111125">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="円弧 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F5BFC82-72B4-4CB3-B832-3F6CE7B19375}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="13743710">
+              <a:off x="4068817" y="3273980"/>
+              <a:ext cx="2305707" cy="2023241"/>
+            </a:xfrm>
+            <a:prstGeom prst="arc">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 17226543"/>
+                <a:gd name="adj2" fmla="val 1453103"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="111125">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="円弧 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F4036F2-713E-419D-BD24-645F03ADB2B1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="16763617">
+              <a:off x="2795750" y="4799293"/>
+              <a:ext cx="2305707" cy="2023241"/>
+            </a:xfrm>
+            <a:prstGeom prst="arc">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 17632821"/>
+                <a:gd name="adj2" fmla="val 446463"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="111125">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="16" name="グループ化 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CFDFB41-1DB3-487F-A759-66F6F8D9910E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2072335" y="1802269"/>
+            <a:ext cx="4058085" cy="4768784"/>
+            <a:chOff x="2951434" y="1807124"/>
+            <a:chExt cx="4036664" cy="4683958"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="円弧 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAFB88AB-5EC1-4A4A-9AE3-060674E1717E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="18875504">
+              <a:off x="3792924" y="1979892"/>
+              <a:ext cx="2305707" cy="2023241"/>
+            </a:xfrm>
+            <a:prstGeom prst="arc">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 12457059"/>
+                <a:gd name="adj2" fmla="val 18000312"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="114300">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="円弧 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ACA7CBB-7096-4A20-902B-EE3466B4EEA5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="17469102">
+              <a:off x="3288424" y="1948357"/>
+              <a:ext cx="2305707" cy="2023241"/>
+            </a:xfrm>
+            <a:prstGeom prst="arc">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 10837205"/>
+                <a:gd name="adj2" fmla="val 19033770"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="114300"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="円弧 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC03D876-C6BE-4FAA-8DCE-A47F26464561}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="15191936">
+              <a:off x="2810201" y="2205860"/>
+              <a:ext cx="2305707" cy="2023241"/>
+            </a:xfrm>
+            <a:prstGeom prst="arc">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 11469452"/>
+                <a:gd name="adj2" fmla="val 18414215"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="114300">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="円弧 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C23981A7-90A6-451A-9F3D-1FC0C9B4A1F3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="287695">
+              <a:off x="3965244" y="2157035"/>
+              <a:ext cx="2888423" cy="3103353"/>
+            </a:xfrm>
+            <a:prstGeom prst="arc">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 12171783"/>
+                <a:gd name="adj2" fmla="val 18977703"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="114300">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="円弧 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D424E37-A848-42DE-AA1E-4370190923E3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="7720783">
+              <a:off x="2987247" y="3216962"/>
+              <a:ext cx="3563716" cy="2834350"/>
+            </a:xfrm>
+            <a:prstGeom prst="arc">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 9269826"/>
+                <a:gd name="adj2" fmla="val 19640227"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="114300">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="円弧 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C543DFD3-313F-47C4-BFC6-DDFE342B3A79}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="5553975">
+              <a:off x="3362138" y="2865122"/>
+              <a:ext cx="3977350" cy="3274570"/>
+            </a:xfrm>
+            <a:prstGeom prst="arc">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 9330929"/>
+                <a:gd name="adj2" fmla="val 16818773"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="114300">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="円弧 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D457E6E-7A71-4C50-8701-99A9CA9BD43F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="3510269">
+              <a:off x="3920840" y="2692564"/>
+              <a:ext cx="2566659" cy="2737974"/>
+            </a:xfrm>
+            <a:prstGeom prst="arc">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 10687383"/>
+                <a:gd name="adj2" fmla="val 17936301"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="114300">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="テキスト ボックス 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EACB4D1-80A1-49EE-A78A-6B795A364751}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1664805" y="5582480"/>
+            <a:ext cx="3147390" cy="861390"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="7200">
+                <a:latin typeface="Freestyle Script" panose="030804020302050B0404" pitchFamily="66" charset="0"/>
+              </a:rPr>
+              <a:t>Athirill</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="7200">
+              <a:latin typeface="Freestyle Script" panose="030804020302050B0404" pitchFamily="66" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>258536</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -6477,7 +7322,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6556,7 +7401,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6635,7 +7480,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6842,7 +7687,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8473,10 +9318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:I13"/>
+  <dimension ref="B6:I42"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8490,7 +9335,7 @@
   <sheetData>
     <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B6" s="87" t="s">
-        <v>205</v>
+        <v>823</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="87"/>
@@ -8500,54 +9345,55 @@
       <c r="H6" s="87"/>
       <c r="I6" s="87"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="14" t="s">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B40" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C40" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C12" s="86" t="s">
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="84"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B41" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C41" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="8"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B42" s="8"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="C41:I41"/>
     <mergeCell ref="B6:I6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="81" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8572,46 +9418,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C3" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A34" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D35" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D36" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D37" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D38" s="84" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E38" s="84"/>
       <c r="F38" s="84" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G38" s="84"/>
       <c r="H38" s="84"/>
@@ -8629,11 +9475,11 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D39" s="86" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E39" s="86"/>
       <c r="F39" s="111" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G39" s="107"/>
       <c r="H39" s="107"/>
@@ -8651,11 +9497,11 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D40" s="86" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E40" s="86"/>
       <c r="F40" s="111" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G40" s="107"/>
       <c r="H40" s="107"/>
@@ -8673,11 +9519,11 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D41" s="86" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E41" s="86"/>
       <c r="F41" s="111" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G41" s="107"/>
       <c r="H41" s="107"/>
@@ -8695,13 +9541,13 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D42" s="85" t="s">
+        <v>285</v>
+      </c>
+      <c r="E42" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="E42" s="26" t="s">
-        <v>287</v>
-      </c>
       <c r="F42" s="111" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G42" s="107"/>
       <c r="H42" s="107"/>
@@ -8720,10 +9566,10 @@
     <row r="43" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D43" s="85"/>
       <c r="E43" s="26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F43" s="111" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G43" s="107"/>
       <c r="H43" s="107"/>
@@ -8741,12 +9587,12 @@
     </row>
     <row r="80" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D80" s="84" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E80" s="84"/>
       <c r="F80" s="84"/>
       <c r="G80" s="100" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H80" s="101"/>
       <c r="I80" s="101"/>
@@ -8758,12 +9604,12 @@
     </row>
     <row r="81" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D81" s="111" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E81" s="107"/>
       <c r="F81" s="108"/>
       <c r="G81" s="111" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H81" s="107"/>
       <c r="I81" s="107"/>
@@ -8775,12 +9621,12 @@
     </row>
     <row r="82" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D82" s="111" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E82" s="107"/>
       <c r="F82" s="108"/>
       <c r="G82" s="111" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H82" s="107"/>
       <c r="I82" s="107"/>
@@ -8792,12 +9638,12 @@
     </row>
     <row r="83" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D83" s="111" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E83" s="107"/>
       <c r="F83" s="108"/>
       <c r="G83" s="111" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H83" s="107"/>
       <c r="I83" s="107"/>
@@ -8809,12 +9655,12 @@
     </row>
     <row r="84" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D84" s="111" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E84" s="107"/>
       <c r="F84" s="108"/>
       <c r="G84" s="111" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H84" s="107"/>
       <c r="I84" s="107"/>
@@ -8826,12 +9672,12 @@
     </row>
     <row r="85" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D85" s="114" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E85" s="107"/>
       <c r="F85" s="108"/>
       <c r="G85" s="111" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H85" s="107"/>
       <c r="I85" s="107"/>
@@ -8844,11 +9690,11 @@
     <row r="86" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D86" s="112"/>
       <c r="E86" s="86" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F86" s="86"/>
       <c r="G86" s="111" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H86" s="107"/>
       <c r="I86" s="107"/>
@@ -8861,11 +9707,11 @@
     <row r="87" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D87" s="112"/>
       <c r="E87" s="86" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F87" s="86"/>
       <c r="G87" s="111" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H87" s="107"/>
       <c r="I87" s="107"/>
@@ -8878,11 +9724,11 @@
     <row r="88" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D88" s="113"/>
       <c r="E88" s="86" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F88" s="86"/>
       <c r="G88" s="111" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H88" s="107"/>
       <c r="I88" s="107"/>
@@ -8894,12 +9740,12 @@
     </row>
     <row r="89" spans="4:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D89" s="111" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E89" s="107"/>
       <c r="F89" s="108"/>
       <c r="G89" s="106" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H89" s="107"/>
       <c r="I89" s="107"/>
@@ -8978,12 +9824,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" s="71" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
@@ -8992,15 +9838,15 @@
       <c r="G3" s="72"/>
       <c r="H3" s="48"/>
       <c r="I3" s="64" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="J3" s="49" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="52" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C4" s="59"/>
       <c r="D4" s="59"/>
@@ -9009,16 +9855,16 @@
       <c r="G4" s="59"/>
       <c r="H4" s="51"/>
       <c r="I4" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J4" s="50" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B5" s="55"/>
       <c r="C5" s="42" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
@@ -9026,16 +9872,16 @@
       <c r="G5" s="43"/>
       <c r="H5" s="46"/>
       <c r="I5" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J5" s="50" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" s="55"/>
       <c r="C6" s="42" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
@@ -9043,16 +9889,16 @@
       <c r="G6" s="43"/>
       <c r="H6" s="46"/>
       <c r="I6" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J6" s="50" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" s="56"/>
       <c r="C7" s="42" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
@@ -9060,15 +9906,15 @@
       <c r="G7" s="43"/>
       <c r="H7" s="46"/>
       <c r="I7" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J7" s="50" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8" s="52" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C8" s="59"/>
       <c r="D8" s="59"/>
@@ -9077,16 +9923,16 @@
       <c r="G8" s="59"/>
       <c r="H8" s="51"/>
       <c r="I8" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J8" s="50" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B9" s="55"/>
       <c r="C9" s="52" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D9" s="59"/>
       <c r="E9" s="59"/>
@@ -9094,27 +9940,27 @@
       <c r="G9" s="59"/>
       <c r="H9" s="51"/>
       <c r="I9" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J9" s="50" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" s="55"/>
       <c r="C10" s="57"/>
       <c r="D10" s="52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="59"/>
       <c r="G10" s="59"/>
       <c r="H10" s="51"/>
       <c r="I10" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J10" s="50" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -9122,16 +9968,16 @@
       <c r="C11" s="57"/>
       <c r="D11" s="57"/>
       <c r="E11" s="52" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
       <c r="H11" s="51"/>
       <c r="I11" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J11" s="50" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -9140,15 +9986,15 @@
       <c r="D12" s="57"/>
       <c r="E12" s="60"/>
       <c r="F12" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G12" s="43"/>
       <c r="H12" s="46"/>
       <c r="I12" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J12" s="50" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -9156,16 +10002,16 @@
       <c r="C13" s="57"/>
       <c r="D13" s="57"/>
       <c r="E13" s="52" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F13" s="59"/>
       <c r="G13" s="59"/>
       <c r="H13" s="51"/>
       <c r="I13" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J13" s="115" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -9174,12 +10020,12 @@
       <c r="D14" s="57"/>
       <c r="E14" s="55"/>
       <c r="F14" s="61" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G14" s="62"/>
       <c r="H14" s="63"/>
       <c r="I14" s="65" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J14" s="116"/>
     </row>
@@ -9189,12 +10035,12 @@
       <c r="D15" s="57"/>
       <c r="E15" s="55"/>
       <c r="F15" s="61" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G15" s="62"/>
       <c r="H15" s="63"/>
       <c r="I15" s="65" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J15" s="116"/>
     </row>
@@ -9204,12 +10050,12 @@
       <c r="D16" s="57"/>
       <c r="E16" s="55"/>
       <c r="F16" s="61" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G16" s="62"/>
       <c r="H16" s="63"/>
       <c r="I16" s="65" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J16" s="116"/>
     </row>
@@ -9219,12 +10065,12 @@
       <c r="D17" s="57"/>
       <c r="E17" s="55"/>
       <c r="F17" s="61" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G17" s="62"/>
       <c r="H17" s="63"/>
       <c r="I17" s="65" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J17" s="116"/>
     </row>
@@ -9234,12 +10080,12 @@
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
       <c r="F18" s="61" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G18" s="62"/>
       <c r="H18" s="63"/>
       <c r="I18" s="65" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J18" s="117"/>
     </row>
@@ -9248,16 +10094,16 @@
       <c r="C19" s="57"/>
       <c r="D19" s="57"/>
       <c r="E19" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="46"/>
       <c r="I19" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J19" s="50" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
@@ -9265,16 +10111,16 @@
       <c r="C20" s="57"/>
       <c r="D20" s="57"/>
       <c r="E20" s="42" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="46"/>
       <c r="I20" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J20" s="50" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.15">
@@ -9282,16 +10128,16 @@
       <c r="C21" s="57"/>
       <c r="D21" s="57"/>
       <c r="E21" s="42" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="46"/>
       <c r="I21" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J21" s="50" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.15">
@@ -9299,16 +10145,16 @@
       <c r="C22" s="57"/>
       <c r="D22" s="57"/>
       <c r="E22" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="46"/>
       <c r="I22" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J22" s="50" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
@@ -9316,16 +10162,16 @@
       <c r="C23" s="57"/>
       <c r="D23" s="57"/>
       <c r="E23" s="42" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="46"/>
       <c r="I23" s="40" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J23" s="50" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.15">
@@ -9333,16 +10179,16 @@
       <c r="C24" s="57"/>
       <c r="D24" s="57"/>
       <c r="E24" s="42" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="46"/>
       <c r="I24" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J24" s="50" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.15">
@@ -9350,16 +10196,16 @@
       <c r="C25" s="57"/>
       <c r="D25" s="57"/>
       <c r="E25" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="46"/>
       <c r="I25" s="40" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J25" s="50" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.15">
@@ -9367,16 +10213,16 @@
       <c r="C26" s="57"/>
       <c r="D26" s="57"/>
       <c r="E26" s="42" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="46"/>
       <c r="I26" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J26" s="50" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.15">
@@ -9384,16 +10230,16 @@
       <c r="C27" s="57"/>
       <c r="D27" s="57"/>
       <c r="E27" s="42" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="46"/>
       <c r="I27" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J27" s="50" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.15">
@@ -9401,16 +10247,16 @@
       <c r="C28" s="57"/>
       <c r="D28" s="57"/>
       <c r="E28" s="42" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="46"/>
       <c r="I28" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J28" s="50" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.15">
@@ -9418,16 +10264,16 @@
       <c r="C29" s="57"/>
       <c r="D29" s="57"/>
       <c r="E29" s="52" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F29" s="59"/>
       <c r="G29" s="59"/>
       <c r="H29" s="51"/>
       <c r="I29" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J29" s="50" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.15">
@@ -9436,15 +10282,15 @@
       <c r="D30" s="57"/>
       <c r="E30" s="55"/>
       <c r="F30" s="42" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G30" s="43"/>
       <c r="H30" s="46"/>
       <c r="I30" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J30" s="50" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.15">
@@ -9453,15 +10299,15 @@
       <c r="D31" s="57"/>
       <c r="E31" s="55"/>
       <c r="F31" s="42" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G31" s="43"/>
       <c r="H31" s="46"/>
       <c r="I31" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J31" s="50" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.15">
@@ -9470,15 +10316,15 @@
       <c r="D32" s="57"/>
       <c r="E32" s="56"/>
       <c r="F32" s="42" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G32" s="43"/>
       <c r="H32" s="46"/>
       <c r="I32" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J32" s="50" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
@@ -9486,16 +10332,16 @@
       <c r="C33" s="57"/>
       <c r="D33" s="57"/>
       <c r="E33" s="52" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F33" s="59"/>
       <c r="G33" s="59"/>
       <c r="H33" s="51"/>
       <c r="I33" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J33" s="115" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.15">
@@ -9504,12 +10350,12 @@
       <c r="D34" s="57"/>
       <c r="E34" s="55"/>
       <c r="F34" s="66" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G34" s="67"/>
       <c r="H34" s="68"/>
       <c r="I34" s="69" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J34" s="116"/>
     </row>
@@ -9519,12 +10365,12 @@
       <c r="D35" s="57"/>
       <c r="E35" s="55"/>
       <c r="F35" s="66" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G35" s="67"/>
       <c r="H35" s="68"/>
       <c r="I35" s="69" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J35" s="116"/>
     </row>
@@ -9534,12 +10380,12 @@
       <c r="D36" s="57"/>
       <c r="E36" s="55"/>
       <c r="F36" s="66" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G36" s="67"/>
       <c r="H36" s="68"/>
       <c r="I36" s="69" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J36" s="116"/>
     </row>
@@ -9549,12 +10395,12 @@
       <c r="D37" s="57"/>
       <c r="E37" s="55"/>
       <c r="F37" s="66" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G37" s="67"/>
       <c r="H37" s="68"/>
       <c r="I37" s="69" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J37" s="116"/>
     </row>
@@ -9564,18 +10410,18 @@
       <c r="D38" s="58"/>
       <c r="E38" s="56"/>
       <c r="F38" s="66" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G38" s="67"/>
       <c r="H38" s="68"/>
       <c r="I38" s="69" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J38" s="117"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B39" s="52" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C39" s="59"/>
       <c r="D39" s="59"/>
@@ -9584,16 +10430,16 @@
       <c r="G39" s="59"/>
       <c r="H39" s="51"/>
       <c r="I39" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J39" s="50" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B40" s="55"/>
       <c r="C40" s="42" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D40" s="43"/>
       <c r="E40" s="43"/>
@@ -9601,16 +10447,16 @@
       <c r="G40" s="43"/>
       <c r="H40" s="46"/>
       <c r="I40" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J40" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B41" s="56"/>
       <c r="C41" s="42" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
@@ -9618,15 +10464,15 @@
       <c r="G41" s="43"/>
       <c r="H41" s="46"/>
       <c r="I41" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J41" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B42" s="52" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C42" s="59"/>
       <c r="D42" s="59"/>
@@ -9635,16 +10481,16 @@
       <c r="G42" s="59"/>
       <c r="H42" s="51"/>
       <c r="I42" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J42" s="50" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B43" s="55"/>
       <c r="C43" s="42" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
@@ -9652,16 +10498,16 @@
       <c r="G43" s="43"/>
       <c r="H43" s="46"/>
       <c r="I43" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J43" s="50" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B44" s="55"/>
       <c r="C44" s="52" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D44" s="59"/>
       <c r="E44" s="59"/>
@@ -9669,27 +10515,27 @@
       <c r="G44" s="59"/>
       <c r="H44" s="51"/>
       <c r="I44" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J44" s="50" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B45" s="55"/>
       <c r="C45" s="55"/>
       <c r="D45" s="52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E45" s="59"/>
       <c r="F45" s="59"/>
       <c r="G45" s="59"/>
       <c r="H45" s="51"/>
       <c r="I45" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J45" s="50" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.15">
@@ -9697,16 +10543,16 @@
       <c r="C46" s="55"/>
       <c r="D46" s="55"/>
       <c r="E46" s="42" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F46" s="43"/>
       <c r="G46" s="43"/>
       <c r="H46" s="46"/>
       <c r="I46" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J46" s="50" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.15">
@@ -9714,16 +10560,16 @@
       <c r="C47" s="55"/>
       <c r="D47" s="55"/>
       <c r="E47" s="42" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F47" s="43"/>
       <c r="G47" s="43"/>
       <c r="H47" s="46"/>
       <c r="I47" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J47" s="50" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.15">
@@ -9731,16 +10577,16 @@
       <c r="C48" s="55"/>
       <c r="D48" s="55"/>
       <c r="E48" s="42" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F48" s="43"/>
       <c r="G48" s="43"/>
       <c r="H48" s="46"/>
       <c r="I48" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J48" s="50" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.15">
@@ -9748,16 +10594,16 @@
       <c r="C49" s="55"/>
       <c r="D49" s="55"/>
       <c r="E49" s="42" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F49" s="43"/>
       <c r="G49" s="43"/>
       <c r="H49" s="46"/>
       <c r="I49" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J49" s="50" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.15">
@@ -9765,16 +10611,16 @@
       <c r="C50" s="55"/>
       <c r="D50" s="55"/>
       <c r="E50" s="42" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F50" s="43"/>
       <c r="G50" s="43"/>
       <c r="H50" s="46"/>
       <c r="I50" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J50" s="50" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.15">
@@ -9782,21 +10628,21 @@
       <c r="C51" s="56"/>
       <c r="D51" s="56"/>
       <c r="E51" s="42" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F51" s="43"/>
       <c r="G51" s="43"/>
       <c r="H51" s="46"/>
       <c r="I51" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J51" s="50" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B52" s="52" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="59"/>
@@ -9805,16 +10651,16 @@
       <c r="G52" s="59"/>
       <c r="H52" s="51"/>
       <c r="I52" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J52" s="50" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B53" s="57"/>
       <c r="C53" s="42" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D53" s="43"/>
       <c r="E53" s="43"/>
@@ -9822,16 +10668,16 @@
       <c r="G53" s="43"/>
       <c r="H53" s="46"/>
       <c r="I53" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J53" s="50" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B54" s="57"/>
       <c r="C54" s="52" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D54" s="59"/>
       <c r="E54" s="59"/>
@@ -9839,27 +10685,27 @@
       <c r="G54" s="59"/>
       <c r="H54" s="51"/>
       <c r="I54" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J54" s="50" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B55" s="57"/>
       <c r="C55" s="55"/>
       <c r="D55" s="52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E55" s="59"/>
       <c r="F55" s="59"/>
       <c r="G55" s="59"/>
       <c r="H55" s="51"/>
       <c r="I55" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J55" s="50" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.15">
@@ -9867,16 +10713,16 @@
       <c r="C56" s="55"/>
       <c r="D56" s="55"/>
       <c r="E56" s="52" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F56" s="59"/>
       <c r="G56" s="59"/>
       <c r="H56" s="51"/>
       <c r="I56" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J56" s="50" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.15">
@@ -9885,15 +10731,15 @@
       <c r="D57" s="55"/>
       <c r="E57" s="55"/>
       <c r="F57" s="42" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G57" s="43"/>
       <c r="H57" s="46"/>
       <c r="I57" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J57" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.15">
@@ -9902,15 +10748,15 @@
       <c r="D58" s="55"/>
       <c r="E58" s="55"/>
       <c r="F58" s="42" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G58" s="43"/>
       <c r="H58" s="46"/>
       <c r="I58" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J58" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.15">
@@ -9919,15 +10765,15 @@
       <c r="D59" s="55"/>
       <c r="E59" s="56"/>
       <c r="F59" s="42" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G59" s="43"/>
       <c r="H59" s="46"/>
       <c r="I59" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J59" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.15">
@@ -9935,16 +10781,16 @@
       <c r="C60" s="55"/>
       <c r="D60" s="55"/>
       <c r="E60" s="52" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F60" s="59"/>
       <c r="G60" s="59"/>
       <c r="H60" s="51"/>
       <c r="I60" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J60" s="50" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.15">
@@ -9953,15 +10799,15 @@
       <c r="D61" s="55"/>
       <c r="E61" s="55"/>
       <c r="F61" s="42" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G61" s="43"/>
       <c r="H61" s="46"/>
       <c r="I61" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J61" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.15">
@@ -9970,15 +10816,15 @@
       <c r="D62" s="55"/>
       <c r="E62" s="55"/>
       <c r="F62" s="42" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G62" s="43"/>
       <c r="H62" s="46"/>
       <c r="I62" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J62" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.15">
@@ -9987,15 +10833,15 @@
       <c r="D63" s="55"/>
       <c r="E63" s="55"/>
       <c r="F63" s="42" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G63" s="43"/>
       <c r="H63" s="46"/>
       <c r="I63" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J63" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.15">
@@ -10004,15 +10850,15 @@
       <c r="D64" s="55"/>
       <c r="E64" s="55"/>
       <c r="F64" s="42" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G64" s="43"/>
       <c r="H64" s="46"/>
       <c r="I64" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J64" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.15">
@@ -10021,15 +10867,15 @@
       <c r="D65" s="55"/>
       <c r="E65" s="55"/>
       <c r="F65" s="42" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G65" s="43"/>
       <c r="H65" s="46"/>
       <c r="I65" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J65" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.15">
@@ -10038,15 +10884,15 @@
       <c r="D66" s="55"/>
       <c r="E66" s="56"/>
       <c r="F66" s="42" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G66" s="43"/>
       <c r="H66" s="46"/>
       <c r="I66" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J66" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.15">
@@ -10054,16 +10900,16 @@
       <c r="C67" s="55"/>
       <c r="D67" s="55"/>
       <c r="E67" s="52" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F67" s="59"/>
       <c r="G67" s="59"/>
       <c r="H67" s="51"/>
       <c r="I67" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J67" s="50" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.15">
@@ -10072,15 +10918,15 @@
       <c r="D68" s="55"/>
       <c r="E68" s="55"/>
       <c r="F68" s="42" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G68" s="43"/>
       <c r="H68" s="46"/>
       <c r="I68" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J68" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.15">
@@ -10089,15 +10935,15 @@
       <c r="D69" s="55"/>
       <c r="E69" s="55"/>
       <c r="F69" s="42" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G69" s="43"/>
       <c r="H69" s="46"/>
       <c r="I69" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J69" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.15">
@@ -10106,15 +10952,15 @@
       <c r="D70" s="55"/>
       <c r="E70" s="55"/>
       <c r="F70" s="42" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G70" s="43"/>
       <c r="H70" s="46"/>
       <c r="I70" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J70" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.15">
@@ -10123,15 +10969,15 @@
       <c r="D71" s="55"/>
       <c r="E71" s="55"/>
       <c r="F71" s="42" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G71" s="43"/>
       <c r="H71" s="46"/>
       <c r="I71" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J71" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.15">
@@ -10140,15 +10986,15 @@
       <c r="D72" s="55"/>
       <c r="E72" s="55"/>
       <c r="F72" s="42" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G72" s="43"/>
       <c r="H72" s="46"/>
       <c r="I72" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J72" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.15">
@@ -10157,15 +11003,15 @@
       <c r="D73" s="55"/>
       <c r="E73" s="55"/>
       <c r="F73" s="42" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G73" s="43"/>
       <c r="H73" s="46"/>
       <c r="I73" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J73" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.15">
@@ -10174,15 +11020,15 @@
       <c r="D74" s="55"/>
       <c r="E74" s="55"/>
       <c r="F74" s="42" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G74" s="43"/>
       <c r="H74" s="46"/>
       <c r="I74" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J74" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.15">
@@ -10191,15 +11037,15 @@
       <c r="D75" s="55"/>
       <c r="E75" s="55"/>
       <c r="F75" s="42" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G75" s="43"/>
       <c r="H75" s="46"/>
       <c r="I75" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J75" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.15">
@@ -10208,15 +11054,15 @@
       <c r="D76" s="55"/>
       <c r="E76" s="55"/>
       <c r="F76" s="42" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G76" s="43"/>
       <c r="H76" s="46"/>
       <c r="I76" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J76" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.15">
@@ -10225,15 +11071,15 @@
       <c r="D77" s="55"/>
       <c r="E77" s="55"/>
       <c r="F77" s="42" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G77" s="43"/>
       <c r="H77" s="46"/>
       <c r="I77" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J77" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.15">
@@ -10242,15 +11088,15 @@
       <c r="D78" s="55"/>
       <c r="E78" s="56"/>
       <c r="F78" s="42" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G78" s="43"/>
       <c r="H78" s="46"/>
       <c r="I78" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J78" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.15">
@@ -10258,21 +11104,21 @@
       <c r="C79" s="56"/>
       <c r="D79" s="56"/>
       <c r="E79" s="42" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F79" s="43"/>
       <c r="G79" s="43"/>
       <c r="H79" s="46"/>
       <c r="I79" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J79" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B80" s="52" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C80" s="59"/>
       <c r="D80" s="59"/>
@@ -10281,16 +11127,16 @@
       <c r="G80" s="59"/>
       <c r="H80" s="51"/>
       <c r="I80" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J80" s="50" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B81" s="55"/>
       <c r="C81" s="52" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D81" s="59"/>
       <c r="E81" s="59"/>
@@ -10298,27 +11144,27 @@
       <c r="G81" s="59"/>
       <c r="H81" s="51"/>
       <c r="I81" s="40" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J81" s="50" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B82" s="55"/>
       <c r="C82" s="55"/>
       <c r="D82" s="52" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E82" s="59"/>
       <c r="F82" s="59"/>
       <c r="G82" s="59"/>
       <c r="H82" s="51"/>
       <c r="I82" s="40" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J82" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.15">
@@ -10326,16 +11172,16 @@
       <c r="C83" s="55"/>
       <c r="D83" s="55"/>
       <c r="E83" s="52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F83" s="59"/>
       <c r="G83" s="59"/>
       <c r="H83" s="51"/>
       <c r="I83" s="40" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J83" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.15">
@@ -10344,15 +11190,15 @@
       <c r="D84" s="55"/>
       <c r="E84" s="55"/>
       <c r="F84" s="52" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G84" s="59"/>
       <c r="H84" s="51"/>
       <c r="I84" s="40" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J84" s="50" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.15">
@@ -10362,14 +11208,14 @@
       <c r="E85" s="55"/>
       <c r="F85" s="55"/>
       <c r="G85" s="73" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H85" s="51"/>
       <c r="I85" s="40" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J85" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.15">
@@ -10380,13 +11226,13 @@
       <c r="F86" s="55"/>
       <c r="G86" s="58"/>
       <c r="H86" s="46" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I86" s="40" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J86" s="50" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.15">
@@ -10396,14 +11242,14 @@
       <c r="E87" s="55"/>
       <c r="F87" s="55"/>
       <c r="G87" s="73" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H87" s="51"/>
       <c r="I87" s="40" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J87" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.15">
@@ -10414,13 +11260,13 @@
       <c r="F88" s="55"/>
       <c r="G88" s="58"/>
       <c r="H88" s="46" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I88" s="40" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J88" s="50" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.15">
@@ -10430,14 +11276,14 @@
       <c r="E89" s="55"/>
       <c r="F89" s="55"/>
       <c r="G89" s="73" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H89" s="51"/>
       <c r="I89" s="40" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J89" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.15">
@@ -10448,19 +11294,19 @@
       <c r="F90" s="56"/>
       <c r="G90" s="58"/>
       <c r="H90" s="46" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I90" s="40" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J90" s="50" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B91" s="55"/>
       <c r="C91" s="52" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D91" s="59"/>
       <c r="E91" s="59"/>
@@ -10468,27 +11314,27 @@
       <c r="G91" s="59"/>
       <c r="H91" s="70"/>
       <c r="I91" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J91" s="50" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B92" s="55"/>
       <c r="C92" s="55"/>
       <c r="D92" s="52" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E92" s="59"/>
       <c r="F92" s="59"/>
       <c r="G92" s="59"/>
       <c r="H92" s="70"/>
       <c r="I92" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J92" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.15">
@@ -10496,16 +11342,16 @@
       <c r="C93" s="55"/>
       <c r="D93" s="55"/>
       <c r="E93" s="45" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F93" s="47"/>
       <c r="G93" s="47"/>
       <c r="H93" s="46"/>
       <c r="I93" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J93" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.15">
@@ -10513,16 +11359,16 @@
       <c r="C94" s="55"/>
       <c r="D94" s="55"/>
       <c r="E94" s="45" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F94" s="47"/>
       <c r="G94" s="47"/>
       <c r="H94" s="46"/>
       <c r="I94" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J94" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.15">
@@ -10530,16 +11376,16 @@
       <c r="C95" s="55"/>
       <c r="D95" s="55"/>
       <c r="E95" s="52" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F95" s="59"/>
       <c r="G95" s="59"/>
       <c r="H95" s="70"/>
       <c r="I95" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J95" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.15">
@@ -10548,15 +11394,15 @@
       <c r="D96" s="55"/>
       <c r="E96" s="55"/>
       <c r="F96" s="45" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G96" s="47"/>
       <c r="H96" s="46"/>
       <c r="I96" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J96" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.15">
@@ -10565,15 +11411,15 @@
       <c r="D97" s="55"/>
       <c r="E97" s="55"/>
       <c r="F97" s="45" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G97" s="47"/>
       <c r="H97" s="46"/>
       <c r="I97" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J97" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.15">
@@ -10582,15 +11428,15 @@
       <c r="D98" s="55"/>
       <c r="E98" s="55"/>
       <c r="F98" s="52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G98" s="59"/>
       <c r="H98" s="70"/>
       <c r="I98" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J98" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.15">
@@ -10600,14 +11446,14 @@
       <c r="E99" s="55"/>
       <c r="F99" s="55"/>
       <c r="G99" s="45" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H99" s="46"/>
       <c r="I99" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J99" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.15">
@@ -10617,14 +11463,14 @@
       <c r="E100" s="56"/>
       <c r="F100" s="56"/>
       <c r="G100" s="45" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H100" s="46"/>
       <c r="I100" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J100" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.15">
@@ -10632,16 +11478,16 @@
       <c r="C101" s="55"/>
       <c r="D101" s="55"/>
       <c r="E101" s="52" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F101" s="59"/>
       <c r="G101" s="59"/>
       <c r="H101" s="70"/>
       <c r="I101" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J101" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.15">
@@ -10650,15 +11496,15 @@
       <c r="D102" s="55"/>
       <c r="E102" s="55"/>
       <c r="F102" s="45" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G102" s="47"/>
       <c r="H102" s="46"/>
       <c r="I102" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J102" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.15">
@@ -10667,32 +11513,32 @@
       <c r="D103" s="56"/>
       <c r="E103" s="56"/>
       <c r="F103" s="45" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G103" s="47"/>
       <c r="H103" s="46"/>
       <c r="I103" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J103" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B104" s="55"/>
       <c r="C104" s="55"/>
       <c r="D104" s="74" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E104" s="75"/>
       <c r="F104" s="75"/>
       <c r="G104" s="75"/>
       <c r="H104" s="76"/>
       <c r="I104" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J104" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.15">
@@ -10700,16 +11546,16 @@
       <c r="C105" s="55"/>
       <c r="D105" s="55"/>
       <c r="E105" s="45" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F105" s="47"/>
       <c r="G105" s="47"/>
       <c r="H105" s="46"/>
       <c r="I105" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J105" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.15">
@@ -10717,16 +11563,16 @@
       <c r="C106" s="55"/>
       <c r="D106" s="55"/>
       <c r="E106" s="45" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F106" s="47"/>
       <c r="G106" s="47"/>
       <c r="H106" s="46"/>
       <c r="I106" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J106" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.15">
@@ -10734,16 +11580,16 @@
       <c r="C107" s="55"/>
       <c r="D107" s="55"/>
       <c r="E107" s="45" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F107" s="47"/>
       <c r="G107" s="47"/>
       <c r="H107" s="46"/>
       <c r="I107" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J107" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.15">
@@ -10751,16 +11597,16 @@
       <c r="C108" s="55"/>
       <c r="D108" s="55"/>
       <c r="E108" s="45" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F108" s="47"/>
       <c r="G108" s="47"/>
       <c r="H108" s="46"/>
       <c r="I108" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J108" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.15">
@@ -10768,16 +11614,16 @@
       <c r="C109" s="55"/>
       <c r="D109" s="55"/>
       <c r="E109" s="45" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F109" s="47"/>
       <c r="G109" s="47"/>
       <c r="H109" s="46"/>
       <c r="I109" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J109" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.15">
@@ -10785,39 +11631,39 @@
       <c r="C110" s="55"/>
       <c r="D110" s="56"/>
       <c r="E110" s="45" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F110" s="47"/>
       <c r="G110" s="47"/>
       <c r="H110" s="46"/>
       <c r="I110" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J110" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B111" s="55"/>
       <c r="C111" s="56"/>
       <c r="D111" s="42" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E111" s="43"/>
       <c r="F111" s="43"/>
       <c r="G111" s="43"/>
       <c r="H111" s="44"/>
       <c r="I111" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J111" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B112" s="55"/>
       <c r="C112" s="52" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D112" s="59"/>
       <c r="E112" s="59"/>
@@ -10825,27 +11671,27 @@
       <c r="G112" s="59"/>
       <c r="H112" s="70"/>
       <c r="I112" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J112" s="50" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B113" s="55"/>
       <c r="C113" s="55"/>
       <c r="D113" s="52" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E113" s="59"/>
       <c r="F113" s="59"/>
       <c r="G113" s="59"/>
       <c r="H113" s="70"/>
       <c r="I113" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J113" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.15">
@@ -10853,16 +11699,16 @@
       <c r="C114" s="55"/>
       <c r="D114" s="55"/>
       <c r="E114" s="77" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F114" s="59"/>
       <c r="G114" s="59"/>
       <c r="H114" s="70"/>
       <c r="I114" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J114" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.15">
@@ -10871,15 +11717,15 @@
       <c r="D115" s="55"/>
       <c r="E115" s="78"/>
       <c r="F115" s="52" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G115" s="59"/>
       <c r="H115" s="70"/>
       <c r="I115" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J115" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.15">
@@ -10889,14 +11735,14 @@
       <c r="E116" s="55"/>
       <c r="F116" s="55"/>
       <c r="G116" s="45" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H116" s="46"/>
       <c r="I116" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J116" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.15">
@@ -10906,14 +11752,14 @@
       <c r="E117" s="55"/>
       <c r="F117" s="56"/>
       <c r="G117" s="45" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H117" s="46"/>
       <c r="I117" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J117" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.15">
@@ -10922,15 +11768,15 @@
       <c r="D118" s="55"/>
       <c r="E118" s="55"/>
       <c r="F118" s="45" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G118" s="47"/>
       <c r="H118" s="46"/>
       <c r="I118" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J118" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.15">
@@ -10939,15 +11785,15 @@
       <c r="D119" s="55"/>
       <c r="E119" s="55"/>
       <c r="F119" s="45" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G119" s="47"/>
       <c r="H119" s="46"/>
       <c r="I119" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J119" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.15">
@@ -10956,15 +11802,15 @@
       <c r="D120" s="55"/>
       <c r="E120" s="55"/>
       <c r="F120" s="45" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G120" s="47"/>
       <c r="H120" s="46"/>
       <c r="I120" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J120" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.15">
@@ -10973,32 +11819,32 @@
       <c r="D121" s="56"/>
       <c r="E121" s="56"/>
       <c r="F121" s="45" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G121" s="47"/>
       <c r="H121" s="46"/>
       <c r="I121" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J121" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B122" s="55"/>
       <c r="C122" s="55"/>
       <c r="D122" s="52" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E122" s="59"/>
       <c r="F122" s="59"/>
       <c r="G122" s="59"/>
       <c r="H122" s="70"/>
       <c r="I122" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J122" s="50" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.15">
@@ -11006,16 +11852,16 @@
       <c r="C123" s="55"/>
       <c r="D123" s="55"/>
       <c r="E123" s="45" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F123" s="47"/>
       <c r="G123" s="47"/>
       <c r="H123" s="46"/>
       <c r="I123" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J123" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.15">
@@ -11023,33 +11869,33 @@
       <c r="C124" s="55"/>
       <c r="D124" s="56"/>
       <c r="E124" s="45" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F124" s="47"/>
       <c r="G124" s="47"/>
       <c r="H124" s="46"/>
       <c r="I124" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J124" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B125" s="55"/>
       <c r="C125" s="55"/>
       <c r="D125" s="52" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E125" s="59"/>
       <c r="F125" s="59"/>
       <c r="G125" s="59"/>
       <c r="H125" s="70"/>
       <c r="I125" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J125" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.15">
@@ -11057,16 +11903,16 @@
       <c r="C126" s="55"/>
       <c r="D126" s="55"/>
       <c r="E126" s="42" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F126" s="43"/>
       <c r="G126" s="43"/>
       <c r="H126" s="44"/>
       <c r="I126" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J126" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.15">
@@ -11074,16 +11920,16 @@
       <c r="C127" s="55"/>
       <c r="D127" s="55"/>
       <c r="E127" s="52" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F127" s="59"/>
       <c r="G127" s="59"/>
       <c r="H127" s="70"/>
       <c r="I127" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J127" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.15">
@@ -11092,15 +11938,15 @@
       <c r="D128" s="55"/>
       <c r="E128" s="55"/>
       <c r="F128" s="52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G128" s="59"/>
       <c r="H128" s="70"/>
       <c r="I128" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J128" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.15">
@@ -11110,19 +11956,19 @@
       <c r="E129" s="56"/>
       <c r="F129" s="58"/>
       <c r="G129" s="45" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H129" s="46"/>
       <c r="I129" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J129" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B130" s="52" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C130" s="59"/>
       <c r="D130" s="59"/>
@@ -11131,16 +11977,16 @@
       <c r="G130" s="59"/>
       <c r="H130" s="70"/>
       <c r="I130" s="40" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J130" s="50" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B131" s="55"/>
       <c r="C131" s="52" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D131" s="59"/>
       <c r="E131" s="59"/>
@@ -11148,27 +11994,27 @@
       <c r="G131" s="59"/>
       <c r="H131" s="70"/>
       <c r="I131" s="40" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J131" s="50" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B132" s="55"/>
       <c r="C132" s="55"/>
       <c r="D132" s="52" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E132" s="59"/>
       <c r="F132" s="59"/>
       <c r="G132" s="59"/>
       <c r="H132" s="70"/>
       <c r="I132" s="40" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J132" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.15">
@@ -11176,16 +12022,16 @@
       <c r="C133" s="55"/>
       <c r="D133" s="57"/>
       <c r="E133" s="52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F133" s="59"/>
       <c r="G133" s="59"/>
       <c r="H133" s="70"/>
       <c r="I133" s="40" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J133" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.15">
@@ -11194,15 +12040,15 @@
       <c r="D134" s="57"/>
       <c r="E134" s="57"/>
       <c r="F134" s="45" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G134" s="47"/>
       <c r="H134" s="46"/>
       <c r="I134" s="40" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J134" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.15">
@@ -11211,21 +12057,21 @@
       <c r="D135" s="58"/>
       <c r="E135" s="58"/>
       <c r="F135" s="45" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G135" s="47"/>
       <c r="H135" s="46"/>
       <c r="I135" s="40" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J135" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B136" s="55"/>
       <c r="C136" s="52" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D136" s="59"/>
       <c r="E136" s="59"/>
@@ -11233,27 +12079,27 @@
       <c r="G136" s="59"/>
       <c r="H136" s="70"/>
       <c r="I136" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J136" s="50" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B137" s="55"/>
       <c r="C137" s="55"/>
       <c r="D137" s="52" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E137" s="59"/>
       <c r="F137" s="59"/>
       <c r="G137" s="59"/>
       <c r="H137" s="70"/>
       <c r="I137" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J137" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.15">
@@ -11261,16 +12107,16 @@
       <c r="C138" s="55"/>
       <c r="D138" s="55"/>
       <c r="E138" s="45" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F138" s="47"/>
       <c r="G138" s="47"/>
       <c r="H138" s="46"/>
       <c r="I138" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J138" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.15">
@@ -11278,90 +12124,90 @@
       <c r="C139" s="55"/>
       <c r="D139" s="56"/>
       <c r="E139" s="45" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F139" s="47"/>
       <c r="G139" s="47"/>
       <c r="H139" s="46"/>
       <c r="I139" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J139" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B140" s="55"/>
       <c r="C140" s="55"/>
       <c r="D140" s="45" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E140" s="47"/>
       <c r="F140" s="47"/>
       <c r="G140" s="47"/>
       <c r="H140" s="46"/>
       <c r="I140" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J140" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B141" s="55"/>
       <c r="C141" s="55"/>
       <c r="D141" s="45" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E141" s="47"/>
       <c r="F141" s="47"/>
       <c r="G141" s="47"/>
       <c r="H141" s="46"/>
       <c r="I141" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J141" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B142" s="55"/>
       <c r="C142" s="55"/>
       <c r="D142" s="45" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E142" s="47"/>
       <c r="F142" s="47"/>
       <c r="G142" s="47"/>
       <c r="H142" s="46"/>
       <c r="I142" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J142" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B143" s="55"/>
       <c r="C143" s="56"/>
       <c r="D143" s="45" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E143" s="47"/>
       <c r="F143" s="47"/>
       <c r="G143" s="47"/>
       <c r="H143" s="46"/>
       <c r="I143" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J143" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B144" s="55"/>
       <c r="C144" s="52" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D144" s="59"/>
       <c r="E144" s="59"/>
@@ -11369,27 +12215,27 @@
       <c r="G144" s="59"/>
       <c r="H144" s="70"/>
       <c r="I144" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J144" s="50" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B145" s="55"/>
       <c r="C145" s="55"/>
       <c r="D145" s="52" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E145" s="59"/>
       <c r="F145" s="59"/>
       <c r="G145" s="59"/>
       <c r="H145" s="70"/>
       <c r="I145" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J145" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.15">
@@ -11397,16 +12243,16 @@
       <c r="C146" s="55"/>
       <c r="D146" s="55"/>
       <c r="E146" s="45" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F146" s="47"/>
       <c r="G146" s="47"/>
       <c r="H146" s="46"/>
       <c r="I146" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J146" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.15">
@@ -11414,16 +12260,16 @@
       <c r="C147" s="55"/>
       <c r="D147" s="55"/>
       <c r="E147" s="52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F147" s="59"/>
       <c r="G147" s="59"/>
       <c r="H147" s="70"/>
       <c r="I147" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J147" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.15">
@@ -11432,15 +12278,15 @@
       <c r="D148" s="55"/>
       <c r="E148" s="57"/>
       <c r="F148" s="73" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G148" s="79"/>
       <c r="H148" s="80"/>
       <c r="I148" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J148" s="50" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.15">
@@ -11450,14 +12296,14 @@
       <c r="E149" s="57"/>
       <c r="F149" s="58"/>
       <c r="G149" s="47" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H149" s="46"/>
       <c r="I149" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J149" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.15">
@@ -11466,15 +12312,15 @@
       <c r="D150" s="55"/>
       <c r="E150" s="57"/>
       <c r="F150" s="73" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G150" s="79"/>
       <c r="H150" s="80"/>
       <c r="I150" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J150" s="50" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.15">
@@ -11484,14 +12330,14 @@
       <c r="E151" s="57"/>
       <c r="F151" s="58"/>
       <c r="G151" s="47" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H151" s="46"/>
       <c r="I151" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J151" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.15">
@@ -11500,15 +12346,15 @@
       <c r="D152" s="55"/>
       <c r="E152" s="57"/>
       <c r="F152" s="73" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G152" s="81"/>
       <c r="H152" s="51"/>
       <c r="I152" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J152" s="50" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.15">
@@ -11518,14 +12364,14 @@
       <c r="E153" s="57"/>
       <c r="F153" s="56"/>
       <c r="G153" s="47" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H153" s="46"/>
       <c r="I153" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J153" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.15">
@@ -11534,15 +12380,15 @@
       <c r="D154" s="55"/>
       <c r="E154" s="57"/>
       <c r="F154" s="73" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G154" s="81"/>
       <c r="H154" s="51"/>
       <c r="I154" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J154" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.15">
@@ -11552,14 +12398,14 @@
       <c r="E155" s="57"/>
       <c r="F155" s="82"/>
       <c r="G155" s="45" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H155" s="46"/>
       <c r="I155" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J155" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.15">
@@ -11569,14 +12415,14 @@
       <c r="E156" s="57"/>
       <c r="F156" s="82"/>
       <c r="G156" s="45" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H156" s="46"/>
       <c r="I156" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J156" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.15">
@@ -11586,14 +12432,14 @@
       <c r="E157" s="57"/>
       <c r="F157" s="82"/>
       <c r="G157" s="45" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H157" s="46"/>
       <c r="I157" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J157" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.15">
@@ -11603,14 +12449,14 @@
       <c r="E158" s="57"/>
       <c r="F158" s="82"/>
       <c r="G158" s="45" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H158" s="46"/>
       <c r="I158" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J158" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.15">
@@ -11620,14 +12466,14 @@
       <c r="E159" s="57"/>
       <c r="F159" s="82"/>
       <c r="G159" s="45" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H159" s="46"/>
       <c r="I159" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J159" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.15">
@@ -11637,14 +12483,14 @@
       <c r="E160" s="57"/>
       <c r="F160" s="82"/>
       <c r="G160" s="45" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H160" s="46"/>
       <c r="I160" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J160" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.15">
@@ -11654,14 +12500,14 @@
       <c r="E161" s="57"/>
       <c r="F161" s="82"/>
       <c r="G161" s="45" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H161" s="46"/>
       <c r="I161" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J161" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.15">
@@ -11671,14 +12517,14 @@
       <c r="E162" s="57"/>
       <c r="F162" s="83"/>
       <c r="G162" s="45" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H162" s="46"/>
       <c r="I162" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J162" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.15">
@@ -11687,15 +12533,15 @@
       <c r="D163" s="55"/>
       <c r="E163" s="57"/>
       <c r="F163" s="73" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G163" s="81"/>
       <c r="H163" s="51"/>
       <c r="I163" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J163" s="50" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.15">
@@ -11705,14 +12551,14 @@
       <c r="E164" s="57"/>
       <c r="F164" s="58"/>
       <c r="G164" s="47" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H164" s="46"/>
       <c r="I164" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J164" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.15">
@@ -11721,15 +12567,15 @@
       <c r="D165" s="55"/>
       <c r="E165" s="57"/>
       <c r="F165" s="73" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G165" s="81"/>
       <c r="H165" s="51"/>
       <c r="I165" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J165" s="50" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.15">
@@ -11739,14 +12585,14 @@
       <c r="E166" s="57"/>
       <c r="F166" s="58"/>
       <c r="G166" s="47" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H166" s="46"/>
       <c r="I166" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J166" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.15">
@@ -11755,15 +12601,15 @@
       <c r="D167" s="55"/>
       <c r="E167" s="57"/>
       <c r="F167" s="73" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G167" s="81"/>
       <c r="H167" s="51"/>
       <c r="I167" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J167" s="50" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.15">
@@ -11773,14 +12619,14 @@
       <c r="E168" s="57"/>
       <c r="F168" s="58"/>
       <c r="G168" s="47" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H168" s="46"/>
       <c r="I168" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J168" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.15">
@@ -11789,15 +12635,15 @@
       <c r="D169" s="55"/>
       <c r="E169" s="57"/>
       <c r="F169" s="73" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G169" s="81"/>
       <c r="H169" s="51"/>
       <c r="I169" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J169" s="50" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.15">
@@ -11807,20 +12653,20 @@
       <c r="E170" s="58"/>
       <c r="F170" s="58"/>
       <c r="G170" s="47" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H170" s="46"/>
       <c r="I170" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J170" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B171" s="55"/>
       <c r="C171" s="52" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D171" s="59"/>
       <c r="E171" s="59"/>
@@ -11828,27 +12674,27 @@
       <c r="G171" s="59"/>
       <c r="H171" s="70"/>
       <c r="I171" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J171" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B172" s="55"/>
       <c r="C172" s="57"/>
       <c r="D172" s="52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E172" s="59"/>
       <c r="F172" s="59"/>
       <c r="G172" s="59"/>
       <c r="H172" s="70"/>
       <c r="I172" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J172" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.15">
@@ -11856,16 +12702,16 @@
       <c r="C173" s="57"/>
       <c r="D173" s="57"/>
       <c r="E173" s="45" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F173" s="47"/>
       <c r="G173" s="47"/>
       <c r="H173" s="46"/>
       <c r="I173" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J173" s="50" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.15">
@@ -11873,21 +12719,21 @@
       <c r="C174" s="58"/>
       <c r="D174" s="58"/>
       <c r="E174" s="45" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F174" s="47"/>
       <c r="G174" s="47"/>
       <c r="H174" s="46"/>
       <c r="I174" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J174" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B175" s="52" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C175" s="59"/>
       <c r="D175" s="59"/>
@@ -11896,16 +12742,16 @@
       <c r="G175" s="59"/>
       <c r="H175" s="70"/>
       <c r="I175" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J175" s="50" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B176" s="55"/>
       <c r="C176" s="45" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D176" s="47"/>
       <c r="E176" s="47"/>
@@ -11913,16 +12759,16 @@
       <c r="G176" s="47"/>
       <c r="H176" s="46"/>
       <c r="I176" s="40" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J176" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B177" s="55"/>
       <c r="C177" s="45" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D177" s="47"/>
       <c r="E177" s="47"/>
@@ -11930,16 +12776,16 @@
       <c r="G177" s="47"/>
       <c r="H177" s="46"/>
       <c r="I177" s="40" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J177" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B178" s="55"/>
       <c r="C178" s="45" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D178" s="47"/>
       <c r="E178" s="47"/>
@@ -11947,16 +12793,16 @@
       <c r="G178" s="47"/>
       <c r="H178" s="46"/>
       <c r="I178" s="40" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J178" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B179" s="55"/>
       <c r="C179" s="45" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D179" s="47"/>
       <c r="E179" s="47"/>
@@ -11964,16 +12810,16 @@
       <c r="G179" s="47"/>
       <c r="H179" s="46"/>
       <c r="I179" s="40" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J179" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B180" s="56"/>
       <c r="C180" s="45" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D180" s="47"/>
       <c r="E180" s="47"/>
@@ -11981,15 +12827,15 @@
       <c r="G180" s="47"/>
       <c r="H180" s="46"/>
       <c r="I180" s="40" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J180" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B181" s="52" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C181" s="53"/>
       <c r="D181" s="53"/>
@@ -11998,16 +12844,16 @@
       <c r="G181" s="53"/>
       <c r="H181" s="54"/>
       <c r="I181" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J181" s="50" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B182" s="55"/>
       <c r="C182" s="42" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D182" s="43"/>
       <c r="E182" s="43"/>
@@ -12015,16 +12861,16 @@
       <c r="G182" s="43"/>
       <c r="H182" s="44"/>
       <c r="I182" s="40" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J182" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B183" s="55"/>
       <c r="C183" s="52" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D183" s="59"/>
       <c r="E183" s="59"/>
@@ -12032,61 +12878,61 @@
       <c r="G183" s="59"/>
       <c r="H183" s="70"/>
       <c r="I183" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J183" s="50" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B184" s="55"/>
       <c r="C184" s="55"/>
       <c r="D184" s="42" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E184" s="43"/>
       <c r="F184" s="43"/>
       <c r="G184" s="43"/>
       <c r="H184" s="44"/>
       <c r="I184" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J184" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="185" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B185" s="55"/>
       <c r="C185" s="55"/>
       <c r="D185" s="42" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E185" s="43"/>
       <c r="F185" s="43"/>
       <c r="G185" s="43"/>
       <c r="H185" s="44"/>
       <c r="I185" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J185" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B186" s="55"/>
       <c r="C186" s="55"/>
       <c r="D186" s="52" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E186" s="59"/>
       <c r="F186" s="59"/>
       <c r="G186" s="59"/>
       <c r="H186" s="70"/>
       <c r="I186" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J186" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.15">
@@ -12094,16 +12940,16 @@
       <c r="C187" s="55"/>
       <c r="D187" s="57"/>
       <c r="E187" s="45" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F187" s="47"/>
       <c r="G187" s="47"/>
       <c r="H187" s="46"/>
       <c r="I187" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J187" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.15">
@@ -12111,33 +12957,33 @@
       <c r="C188" s="55"/>
       <c r="D188" s="58"/>
       <c r="E188" s="45" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F188" s="47"/>
       <c r="G188" s="47"/>
       <c r="H188" s="46"/>
       <c r="I188" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J188" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B189" s="55"/>
       <c r="C189" s="55"/>
       <c r="D189" s="52" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E189" s="59"/>
       <c r="F189" s="59"/>
       <c r="G189" s="59"/>
       <c r="H189" s="70"/>
       <c r="I189" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J189" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.15">
@@ -12145,16 +12991,16 @@
       <c r="C190" s="55"/>
       <c r="D190" s="57"/>
       <c r="E190" s="45" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F190" s="47"/>
       <c r="G190" s="47"/>
       <c r="H190" s="46"/>
       <c r="I190" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J190" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.15">
@@ -12162,33 +13008,33 @@
       <c r="C191" s="55"/>
       <c r="D191" s="58"/>
       <c r="E191" s="45" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F191" s="47"/>
       <c r="G191" s="47"/>
       <c r="H191" s="46"/>
       <c r="I191" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J191" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="192" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B192" s="55"/>
       <c r="C192" s="55"/>
       <c r="D192" s="52" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E192" s="59"/>
       <c r="F192" s="59"/>
       <c r="G192" s="59"/>
       <c r="H192" s="70"/>
       <c r="I192" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J192" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.15">
@@ -12196,16 +13042,16 @@
       <c r="C193" s="55"/>
       <c r="D193" s="57"/>
       <c r="E193" s="45" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F193" s="47"/>
       <c r="G193" s="47"/>
       <c r="H193" s="46"/>
       <c r="I193" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J193" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="194" spans="2:10" x14ac:dyDescent="0.15">
@@ -12213,22 +13059,22 @@
       <c r="C194" s="56"/>
       <c r="D194" s="58"/>
       <c r="E194" s="45" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F194" s="47"/>
       <c r="G194" s="47"/>
       <c r="H194" s="46"/>
       <c r="I194" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J194" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B195" s="55"/>
       <c r="C195" s="52" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D195" s="59"/>
       <c r="E195" s="59"/>
@@ -12236,27 +13082,27 @@
       <c r="G195" s="59"/>
       <c r="H195" s="70"/>
       <c r="I195" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J195" s="50" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B196" s="55"/>
       <c r="C196" s="55"/>
       <c r="D196" s="52" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E196" s="59"/>
       <c r="F196" s="59"/>
       <c r="G196" s="59"/>
       <c r="H196" s="70"/>
       <c r="I196" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J196" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.15">
@@ -12264,16 +13110,16 @@
       <c r="C197" s="55"/>
       <c r="D197" s="55"/>
       <c r="E197" s="45" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F197" s="47"/>
       <c r="G197" s="47"/>
       <c r="H197" s="46"/>
       <c r="I197" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J197" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.15">
@@ -12281,16 +13127,16 @@
       <c r="C198" s="55"/>
       <c r="D198" s="55"/>
       <c r="E198" s="45" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F198" s="47"/>
       <c r="G198" s="47"/>
       <c r="H198" s="46"/>
       <c r="I198" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J198" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.15">
@@ -12298,16 +13144,16 @@
       <c r="C199" s="55"/>
       <c r="D199" s="55"/>
       <c r="E199" s="45" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F199" s="47"/>
       <c r="G199" s="47"/>
       <c r="H199" s="46"/>
       <c r="I199" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J199" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.15">
@@ -12315,16 +13161,16 @@
       <c r="C200" s="55"/>
       <c r="D200" s="55"/>
       <c r="E200" s="45" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F200" s="47"/>
       <c r="G200" s="47"/>
       <c r="H200" s="46"/>
       <c r="I200" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J200" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.15">
@@ -12332,16 +13178,16 @@
       <c r="C201" s="55"/>
       <c r="D201" s="55"/>
       <c r="E201" s="45" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F201" s="47"/>
       <c r="G201" s="47"/>
       <c r="H201" s="46"/>
       <c r="I201" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J201" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.15">
@@ -12349,16 +13195,16 @@
       <c r="C202" s="55"/>
       <c r="D202" s="55"/>
       <c r="E202" s="45" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F202" s="47"/>
       <c r="G202" s="47"/>
       <c r="H202" s="46"/>
       <c r="I202" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J202" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.15">
@@ -12366,16 +13212,16 @@
       <c r="C203" s="55"/>
       <c r="D203" s="55"/>
       <c r="E203" s="45" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F203" s="47"/>
       <c r="G203" s="47"/>
       <c r="H203" s="46"/>
       <c r="I203" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J203" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.15">
@@ -12383,16 +13229,16 @@
       <c r="C204" s="55"/>
       <c r="D204" s="55"/>
       <c r="E204" s="45" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F204" s="47"/>
       <c r="G204" s="47"/>
       <c r="H204" s="46"/>
       <c r="I204" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J204" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.15">
@@ -12400,16 +13246,16 @@
       <c r="C205" s="55"/>
       <c r="D205" s="55"/>
       <c r="E205" s="45" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F205" s="47"/>
       <c r="G205" s="47"/>
       <c r="H205" s="46"/>
       <c r="I205" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J205" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.15">
@@ -12417,16 +13263,16 @@
       <c r="C206" s="55"/>
       <c r="D206" s="55"/>
       <c r="E206" s="45" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F206" s="47"/>
       <c r="G206" s="47"/>
       <c r="H206" s="46"/>
       <c r="I206" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J206" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.15">
@@ -12434,16 +13280,16 @@
       <c r="C207" s="55"/>
       <c r="D207" s="55"/>
       <c r="E207" s="45" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F207" s="47"/>
       <c r="G207" s="47"/>
       <c r="H207" s="46"/>
       <c r="I207" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J207" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.15">
@@ -12451,16 +13297,16 @@
       <c r="C208" s="55"/>
       <c r="D208" s="55"/>
       <c r="E208" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F208" s="47"/>
       <c r="G208" s="47"/>
       <c r="H208" s="46"/>
       <c r="I208" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J208" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="209" spans="2:10" x14ac:dyDescent="0.15">
@@ -12468,16 +13314,16 @@
       <c r="C209" s="55"/>
       <c r="D209" s="55"/>
       <c r="E209" s="45" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F209" s="47"/>
       <c r="G209" s="47"/>
       <c r="H209" s="46"/>
       <c r="I209" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J209" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="210" spans="2:10" x14ac:dyDescent="0.15">
@@ -12485,16 +13331,16 @@
       <c r="C210" s="55"/>
       <c r="D210" s="55"/>
       <c r="E210" s="45" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F210" s="47"/>
       <c r="G210" s="47"/>
       <c r="H210" s="46"/>
       <c r="I210" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J210" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="211" spans="2:10" x14ac:dyDescent="0.15">
@@ -12502,16 +13348,16 @@
       <c r="C211" s="55"/>
       <c r="D211" s="55"/>
       <c r="E211" s="45" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F211" s="47"/>
       <c r="G211" s="47"/>
       <c r="H211" s="46"/>
       <c r="I211" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J211" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="212" spans="2:10" x14ac:dyDescent="0.15">
@@ -12519,260 +13365,260 @@
       <c r="C212" s="55"/>
       <c r="D212" s="56"/>
       <c r="E212" s="45" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F212" s="47"/>
       <c r="G212" s="47"/>
       <c r="H212" s="46"/>
       <c r="I212" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J212" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="213" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B213" s="55"/>
       <c r="C213" s="55"/>
       <c r="D213" s="45" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E213" s="47"/>
       <c r="F213" s="47"/>
       <c r="G213" s="47"/>
       <c r="H213" s="46"/>
       <c r="I213" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J213" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="214" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B214" s="55"/>
       <c r="C214" s="55"/>
       <c r="D214" s="45" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E214" s="47"/>
       <c r="F214" s="47"/>
       <c r="G214" s="47"/>
       <c r="H214" s="46"/>
       <c r="I214" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J214" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="215" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B215" s="55"/>
       <c r="C215" s="55"/>
       <c r="D215" s="45" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E215" s="47"/>
       <c r="F215" s="47"/>
       <c r="G215" s="47"/>
       <c r="H215" s="46"/>
       <c r="I215" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J215" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="216" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B216" s="55"/>
       <c r="C216" s="55"/>
       <c r="D216" s="45" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E216" s="47"/>
       <c r="F216" s="47"/>
       <c r="G216" s="47"/>
       <c r="H216" s="46"/>
       <c r="I216" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J216" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="217" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B217" s="55"/>
       <c r="C217" s="55"/>
       <c r="D217" s="45" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E217" s="47"/>
       <c r="F217" s="47"/>
       <c r="G217" s="47"/>
       <c r="H217" s="46"/>
       <c r="I217" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J217" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="218" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B218" s="55"/>
       <c r="C218" s="55"/>
       <c r="D218" s="45" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E218" s="47"/>
       <c r="F218" s="47"/>
       <c r="G218" s="47"/>
       <c r="H218" s="46"/>
       <c r="I218" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J218" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="219" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B219" s="55"/>
       <c r="C219" s="55"/>
       <c r="D219" s="45" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E219" s="47"/>
       <c r="F219" s="47"/>
       <c r="G219" s="47"/>
       <c r="H219" s="46"/>
       <c r="I219" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J219" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="220" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B220" s="55"/>
       <c r="C220" s="55"/>
       <c r="D220" s="45" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E220" s="47"/>
       <c r="F220" s="47"/>
       <c r="G220" s="47"/>
       <c r="H220" s="46"/>
       <c r="I220" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J220" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="221" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B221" s="55"/>
       <c r="C221" s="55"/>
       <c r="D221" s="45" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E221" s="47"/>
       <c r="F221" s="47"/>
       <c r="G221" s="47"/>
       <c r="H221" s="46"/>
       <c r="I221" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J221" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="222" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B222" s="55"/>
       <c r="C222" s="55"/>
       <c r="D222" s="45" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E222" s="47"/>
       <c r="F222" s="47"/>
       <c r="G222" s="47"/>
       <c r="H222" s="46"/>
       <c r="I222" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J222" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="223" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B223" s="55"/>
       <c r="C223" s="55"/>
       <c r="D223" s="45" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E223" s="47"/>
       <c r="F223" s="47"/>
       <c r="G223" s="47"/>
       <c r="H223" s="46"/>
       <c r="I223" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J223" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="224" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B224" s="55"/>
       <c r="C224" s="55"/>
       <c r="D224" s="45" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E224" s="47"/>
       <c r="F224" s="47"/>
       <c r="G224" s="47"/>
       <c r="H224" s="46"/>
       <c r="I224" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J224" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="225" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B225" s="55"/>
       <c r="C225" s="55"/>
       <c r="D225" s="45" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E225" s="47"/>
       <c r="F225" s="47"/>
       <c r="G225" s="47"/>
       <c r="H225" s="46"/>
       <c r="I225" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J225" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="226" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B226" s="55"/>
       <c r="C226" s="56"/>
       <c r="D226" s="45" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E226" s="47"/>
       <c r="F226" s="47"/>
       <c r="G226" s="47"/>
       <c r="H226" s="46"/>
       <c r="I226" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J226" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="227" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B227" s="55"/>
       <c r="C227" s="52" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D227" s="59"/>
       <c r="E227" s="59"/>
@@ -12780,50 +13626,50 @@
       <c r="G227" s="59"/>
       <c r="H227" s="70"/>
       <c r="I227" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J227" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="228" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B228" s="55"/>
       <c r="C228" s="57"/>
       <c r="D228" s="45" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E228" s="47"/>
       <c r="F228" s="47"/>
       <c r="G228" s="47"/>
       <c r="H228" s="46"/>
       <c r="I228" s="40" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J228" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="229" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B229" s="55"/>
       <c r="C229" s="58"/>
       <c r="D229" s="45" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E229" s="47"/>
       <c r="F229" s="47"/>
       <c r="G229" s="47"/>
       <c r="H229" s="46"/>
       <c r="I229" s="40" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J229" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="230" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B230" s="55"/>
       <c r="C230" s="45" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D230" s="47"/>
       <c r="E230" s="47"/>
@@ -12831,16 +13677,16 @@
       <c r="G230" s="47"/>
       <c r="H230" s="46"/>
       <c r="I230" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J230" s="50" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="231" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B231" s="55"/>
       <c r="C231" s="45" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D231" s="47"/>
       <c r="E231" s="47"/>
@@ -12848,16 +13694,16 @@
       <c r="G231" s="47"/>
       <c r="H231" s="46"/>
       <c r="I231" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J231" s="50" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="232" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B232" s="55"/>
       <c r="C232" s="45" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D232" s="47"/>
       <c r="E232" s="47"/>
@@ -12865,16 +13711,16 @@
       <c r="G232" s="47"/>
       <c r="H232" s="46"/>
       <c r="I232" s="40" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J232" s="50" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="233" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B233" s="55"/>
       <c r="C233" s="45" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D233" s="47"/>
       <c r="E233" s="47"/>
@@ -12882,16 +13728,16 @@
       <c r="G233" s="47"/>
       <c r="H233" s="46"/>
       <c r="I233" s="40" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J233" s="50" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="234" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B234" s="55"/>
       <c r="C234" s="45" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D234" s="47"/>
       <c r="E234" s="47"/>
@@ -12899,16 +13745,16 @@
       <c r="G234" s="47"/>
       <c r="H234" s="46"/>
       <c r="I234" s="40" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J234" s="50" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="235" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B235" s="55"/>
       <c r="C235" s="45" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D235" s="47"/>
       <c r="E235" s="47"/>
@@ -12916,16 +13762,16 @@
       <c r="G235" s="47"/>
       <c r="H235" s="46"/>
       <c r="I235" s="40" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J235" s="50" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="236" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B236" s="55"/>
       <c r="C236" s="45" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D236" s="47"/>
       <c r="E236" s="47"/>
@@ -12933,16 +13779,16 @@
       <c r="G236" s="47"/>
       <c r="H236" s="46"/>
       <c r="I236" s="40" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J236" s="50" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="237" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B237" s="55"/>
       <c r="C237" s="45" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D237" s="47"/>
       <c r="E237" s="47"/>
@@ -12950,16 +13796,16 @@
       <c r="G237" s="47"/>
       <c r="H237" s="46"/>
       <c r="I237" s="40" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J237" s="50" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="238" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B238" s="55"/>
       <c r="C238" s="52" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D238" s="59"/>
       <c r="E238" s="59"/>
@@ -12967,50 +13813,50 @@
       <c r="G238" s="59"/>
       <c r="H238" s="70"/>
       <c r="I238" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J238" s="50" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="239" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B239" s="55"/>
       <c r="C239" s="55"/>
       <c r="D239" s="45" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E239" s="47"/>
       <c r="F239" s="47"/>
       <c r="G239" s="47"/>
       <c r="H239" s="46"/>
       <c r="I239" s="40" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J239" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="240" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B240" s="55"/>
       <c r="C240" s="56"/>
       <c r="D240" s="45" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E240" s="47"/>
       <c r="F240" s="47"/>
       <c r="G240" s="47"/>
       <c r="H240" s="46"/>
       <c r="I240" s="40" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J240" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="241" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B241" s="55"/>
       <c r="C241" s="45" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D241" s="47"/>
       <c r="E241" s="47"/>
@@ -13018,16 +13864,16 @@
       <c r="G241" s="47"/>
       <c r="H241" s="46"/>
       <c r="I241" s="40" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J241" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="242" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B242" s="55"/>
       <c r="C242" s="45" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D242" s="47"/>
       <c r="E242" s="47"/>
@@ -13035,16 +13881,16 @@
       <c r="G242" s="47"/>
       <c r="H242" s="46"/>
       <c r="I242" s="40" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J242" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="243" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B243" s="55"/>
       <c r="C243" s="52" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D243" s="59"/>
       <c r="E243" s="59"/>
@@ -13052,67 +13898,67 @@
       <c r="G243" s="59"/>
       <c r="H243" s="70"/>
       <c r="I243" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J243" s="50" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="244" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B244" s="55"/>
       <c r="C244" s="55"/>
       <c r="D244" s="45" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E244" s="47"/>
       <c r="F244" s="47"/>
       <c r="G244" s="47"/>
       <c r="H244" s="46"/>
       <c r="I244" s="40" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J244" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="245" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B245" s="55"/>
       <c r="C245" s="55"/>
       <c r="D245" s="45" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E245" s="47"/>
       <c r="F245" s="47"/>
       <c r="G245" s="47"/>
       <c r="H245" s="46"/>
       <c r="I245" s="40" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J245" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="246" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B246" s="55"/>
       <c r="C246" s="56"/>
       <c r="D246" s="45" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E246" s="47"/>
       <c r="F246" s="47"/>
       <c r="G246" s="47"/>
       <c r="H246" s="46"/>
       <c r="I246" s="40" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J246" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="247" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B247" s="55"/>
       <c r="C247" s="52" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D247" s="59"/>
       <c r="E247" s="59"/>
@@ -13120,49 +13966,49 @@
       <c r="G247" s="59"/>
       <c r="H247" s="70"/>
       <c r="I247" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J247" s="50" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="248" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B248" s="55"/>
       <c r="C248" s="57"/>
       <c r="D248" s="45" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E248" s="47"/>
       <c r="F248" s="47"/>
       <c r="G248" s="47"/>
       <c r="H248" s="46"/>
       <c r="I248" s="40" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J248" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="249" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B249" s="56"/>
       <c r="C249" s="58"/>
       <c r="D249" s="45" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E249" s="47"/>
       <c r="F249" s="47"/>
       <c r="G249" s="47"/>
       <c r="H249" s="46"/>
       <c r="I249" s="40" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J249" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="250" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B250" s="52" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C250" s="59"/>
       <c r="D250" s="59"/>
@@ -13171,16 +14017,16 @@
       <c r="G250" s="59"/>
       <c r="H250" s="70"/>
       <c r="I250" s="40" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J250" s="50" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="251" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B251" s="55"/>
       <c r="C251" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D251" s="47"/>
       <c r="E251" s="47"/>
@@ -13188,16 +14034,16 @@
       <c r="G251" s="47"/>
       <c r="H251" s="46"/>
       <c r="I251" s="40" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J251" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="252" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B252" s="55"/>
       <c r="C252" s="45" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D252" s="47"/>
       <c r="E252" s="47"/>
@@ -13205,16 +14051,16 @@
       <c r="G252" s="47"/>
       <c r="H252" s="46"/>
       <c r="I252" s="40" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J252" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="253" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B253" s="55"/>
       <c r="C253" s="52" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D253" s="59"/>
       <c r="E253" s="59"/>
@@ -13222,49 +14068,49 @@
       <c r="G253" s="59"/>
       <c r="H253" s="70"/>
       <c r="I253" s="40" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J253" s="50" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="254" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B254" s="55"/>
       <c r="C254" s="55"/>
       <c r="D254" s="45" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E254" s="47"/>
       <c r="F254" s="47"/>
       <c r="G254" s="47"/>
       <c r="H254" s="46"/>
       <c r="I254" s="40" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J254" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="255" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B255" s="56"/>
       <c r="C255" s="56"/>
       <c r="D255" s="45" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E255" s="47"/>
       <c r="F255" s="47"/>
       <c r="G255" s="47"/>
       <c r="H255" s="46"/>
       <c r="I255" s="40" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J255" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="256" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B256" s="52" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C256" s="59"/>
       <c r="D256" s="59"/>
@@ -13273,16 +14119,16 @@
       <c r="G256" s="59"/>
       <c r="H256" s="70"/>
       <c r="I256" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J256" s="50" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="257" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B257" s="55"/>
       <c r="C257" s="52" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D257" s="59"/>
       <c r="E257" s="59"/>
@@ -13290,49 +14136,49 @@
       <c r="G257" s="59"/>
       <c r="H257" s="70"/>
       <c r="I257" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J257" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="258" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B258" s="55"/>
       <c r="C258" s="55"/>
       <c r="D258" s="45" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E258" s="47"/>
       <c r="F258" s="47"/>
       <c r="G258" s="47"/>
       <c r="H258" s="46"/>
       <c r="I258" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J258" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="259" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B259" s="56"/>
       <c r="C259" s="56"/>
       <c r="D259" s="45" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E259" s="47"/>
       <c r="F259" s="47"/>
       <c r="G259" s="47"/>
       <c r="H259" s="46"/>
       <c r="I259" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J259" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="260" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B260" s="52" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C260" s="59"/>
       <c r="D260" s="59"/>
@@ -13341,16 +14187,16 @@
       <c r="G260" s="59"/>
       <c r="H260" s="70"/>
       <c r="I260" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J260" s="50" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="261" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B261" s="55"/>
       <c r="C261" s="52" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D261" s="59"/>
       <c r="E261" s="59"/>
@@ -13358,27 +14204,27 @@
       <c r="G261" s="59"/>
       <c r="H261" s="70"/>
       <c r="I261" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J261" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="262" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B262" s="55"/>
       <c r="C262" s="55"/>
       <c r="D262" s="52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E262" s="59"/>
       <c r="F262" s="59"/>
       <c r="G262" s="59"/>
       <c r="H262" s="70"/>
       <c r="I262" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J262" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="263" spans="2:10" x14ac:dyDescent="0.15">
@@ -13386,16 +14232,16 @@
       <c r="C263" s="55"/>
       <c r="D263" s="55"/>
       <c r="E263" s="52" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F263" s="59"/>
       <c r="G263" s="59"/>
       <c r="H263" s="70"/>
       <c r="I263" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J263" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="264" spans="2:10" x14ac:dyDescent="0.15">
@@ -13404,15 +14250,15 @@
       <c r="D264" s="55"/>
       <c r="E264" s="57"/>
       <c r="F264" s="47" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G264" s="47"/>
       <c r="H264" s="46"/>
       <c r="I264" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J264" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="265" spans="2:10" x14ac:dyDescent="0.15">
@@ -13421,15 +14267,15 @@
       <c r="D265" s="55"/>
       <c r="E265" s="57"/>
       <c r="F265" s="47" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G265" s="47"/>
       <c r="H265" s="46"/>
       <c r="I265" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J265" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="266" spans="2:10" x14ac:dyDescent="0.15">
@@ -13438,15 +14284,15 @@
       <c r="D266" s="55"/>
       <c r="E266" s="57"/>
       <c r="F266" s="47" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G266" s="47"/>
       <c r="H266" s="46"/>
       <c r="I266" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J266" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="267" spans="2:10" x14ac:dyDescent="0.15">
@@ -13455,15 +14301,15 @@
       <c r="D267" s="55"/>
       <c r="E267" s="57"/>
       <c r="F267" s="47" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G267" s="47"/>
       <c r="H267" s="46"/>
       <c r="I267" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J267" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="268" spans="2:10" x14ac:dyDescent="0.15">
@@ -13472,15 +14318,15 @@
       <c r="D268" s="55"/>
       <c r="E268" s="57"/>
       <c r="F268" s="47" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G268" s="47"/>
       <c r="H268" s="46"/>
       <c r="I268" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J268" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="269" spans="2:10" x14ac:dyDescent="0.15">
@@ -13489,15 +14335,15 @@
       <c r="D269" s="55"/>
       <c r="E269" s="57"/>
       <c r="F269" s="47" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G269" s="47"/>
       <c r="H269" s="46"/>
       <c r="I269" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J269" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="270" spans="2:10" x14ac:dyDescent="0.15">
@@ -13506,15 +14352,15 @@
       <c r="D270" s="55"/>
       <c r="E270" s="57"/>
       <c r="F270" s="47" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G270" s="47"/>
       <c r="H270" s="46"/>
       <c r="I270" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J270" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="271" spans="2:10" x14ac:dyDescent="0.15">
@@ -13523,15 +14369,15 @@
       <c r="D271" s="55"/>
       <c r="E271" s="57"/>
       <c r="F271" s="47" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G271" s="47"/>
       <c r="H271" s="46"/>
       <c r="I271" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J271" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="272" spans="2:10" x14ac:dyDescent="0.15">
@@ -13540,15 +14386,15 @@
       <c r="D272" s="55"/>
       <c r="E272" s="57"/>
       <c r="F272" s="47" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G272" s="47"/>
       <c r="H272" s="46"/>
       <c r="I272" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J272" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="273" spans="2:10" x14ac:dyDescent="0.15">
@@ -13557,15 +14403,15 @@
       <c r="D273" s="55"/>
       <c r="E273" s="58"/>
       <c r="F273" s="47" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G273" s="47"/>
       <c r="H273" s="46"/>
       <c r="I273" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J273" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="274" spans="2:10" x14ac:dyDescent="0.15">
@@ -13573,16 +14419,16 @@
       <c r="C274" s="55"/>
       <c r="D274" s="55"/>
       <c r="E274" s="45" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F274" s="47"/>
       <c r="G274" s="47"/>
       <c r="H274" s="46"/>
       <c r="I274" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J274" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="275" spans="2:10" x14ac:dyDescent="0.15">
@@ -13590,16 +14436,16 @@
       <c r="C275" s="55"/>
       <c r="D275" s="55"/>
       <c r="E275" s="52" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F275" s="59"/>
       <c r="G275" s="59"/>
       <c r="H275" s="70"/>
       <c r="I275" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J275" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="276" spans="2:10" x14ac:dyDescent="0.15">
@@ -13608,15 +14454,15 @@
       <c r="D276" s="55"/>
       <c r="E276" s="82"/>
       <c r="F276" s="52" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G276" s="59"/>
       <c r="H276" s="70"/>
       <c r="I276" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J276" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="277" spans="2:10" x14ac:dyDescent="0.15">
@@ -13626,14 +14472,14 @@
       <c r="E277" s="82"/>
       <c r="F277" s="55"/>
       <c r="G277" s="47" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H277" s="46"/>
       <c r="I277" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J277" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="278" spans="2:10" x14ac:dyDescent="0.15">
@@ -13643,14 +14489,14 @@
       <c r="E278" s="82"/>
       <c r="F278" s="55"/>
       <c r="G278" s="47" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H278" s="46"/>
       <c r="I278" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J278" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="279" spans="2:10" x14ac:dyDescent="0.15">
@@ -13660,14 +14506,14 @@
       <c r="E279" s="82"/>
       <c r="F279" s="55"/>
       <c r="G279" s="47" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H279" s="46"/>
       <c r="I279" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J279" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="280" spans="2:10" x14ac:dyDescent="0.15">
@@ -13677,14 +14523,14 @@
       <c r="E280" s="82"/>
       <c r="F280" s="55"/>
       <c r="G280" s="47" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H280" s="46"/>
       <c r="I280" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J280" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="281" spans="2:10" x14ac:dyDescent="0.15">
@@ -13694,14 +14540,14 @@
       <c r="E281" s="82"/>
       <c r="F281" s="55"/>
       <c r="G281" s="47" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H281" s="46"/>
       <c r="I281" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J281" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="282" spans="2:10" x14ac:dyDescent="0.15">
@@ -13711,14 +14557,14 @@
       <c r="E282" s="82"/>
       <c r="F282" s="55"/>
       <c r="G282" s="47" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H282" s="46"/>
       <c r="I282" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J282" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="283" spans="2:10" x14ac:dyDescent="0.15">
@@ -13728,14 +14574,14 @@
       <c r="E283" s="82"/>
       <c r="F283" s="55"/>
       <c r="G283" s="47" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H283" s="46"/>
       <c r="I283" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J283" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="284" spans="2:10" x14ac:dyDescent="0.15">
@@ -13745,14 +14591,14 @@
       <c r="E284" s="82"/>
       <c r="F284" s="55"/>
       <c r="G284" s="47" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H284" s="46"/>
       <c r="I284" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J284" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="285" spans="2:10" x14ac:dyDescent="0.15">
@@ -13762,14 +14608,14 @@
       <c r="E285" s="82"/>
       <c r="F285" s="55"/>
       <c r="G285" s="47" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H285" s="46"/>
       <c r="I285" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J285" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="286" spans="2:10" x14ac:dyDescent="0.15">
@@ -13779,14 +14625,14 @@
       <c r="E286" s="82"/>
       <c r="F286" s="55"/>
       <c r="G286" s="47" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H286" s="46"/>
       <c r="I286" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J286" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="287" spans="2:10" x14ac:dyDescent="0.15">
@@ -13796,14 +14642,14 @@
       <c r="E287" s="82"/>
       <c r="F287" s="55"/>
       <c r="G287" s="47" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H287" s="46"/>
       <c r="I287" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J287" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="288" spans="2:10" x14ac:dyDescent="0.15">
@@ -13813,14 +14659,14 @@
       <c r="E288" s="82"/>
       <c r="F288" s="55"/>
       <c r="G288" s="47" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H288" s="46"/>
       <c r="I288" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J288" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="289" spans="2:10" x14ac:dyDescent="0.15">
@@ -13830,14 +14676,14 @@
       <c r="E289" s="82"/>
       <c r="F289" s="55"/>
       <c r="G289" s="47" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H289" s="46"/>
       <c r="I289" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J289" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="290" spans="2:10" x14ac:dyDescent="0.15">
@@ -13847,14 +14693,14 @@
       <c r="E290" s="82"/>
       <c r="F290" s="55"/>
       <c r="G290" s="47" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H290" s="46"/>
       <c r="I290" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J290" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="291" spans="2:10" x14ac:dyDescent="0.15">
@@ -13864,14 +14710,14 @@
       <c r="E291" s="82"/>
       <c r="F291" s="56"/>
       <c r="G291" s="47" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H291" s="46"/>
       <c r="I291" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J291" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="292" spans="2:10" x14ac:dyDescent="0.15">
@@ -13880,15 +14726,15 @@
       <c r="D292" s="55"/>
       <c r="E292" s="82"/>
       <c r="F292" s="52" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G292" s="59"/>
       <c r="H292" s="70"/>
       <c r="I292" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J292" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="293" spans="2:10" x14ac:dyDescent="0.15">
@@ -13898,14 +14744,14 @@
       <c r="E293" s="82"/>
       <c r="F293" s="55"/>
       <c r="G293" s="47" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H293" s="46"/>
       <c r="I293" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J293" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="294" spans="2:10" x14ac:dyDescent="0.15">
@@ -13915,14 +14761,14 @@
       <c r="E294" s="82"/>
       <c r="F294" s="55"/>
       <c r="G294" s="47" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H294" s="46"/>
       <c r="I294" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J294" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="295" spans="2:10" x14ac:dyDescent="0.15">
@@ -13932,14 +14778,14 @@
       <c r="E295" s="82"/>
       <c r="F295" s="55"/>
       <c r="G295" s="47" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H295" s="46"/>
       <c r="I295" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J295" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="296" spans="2:10" x14ac:dyDescent="0.15">
@@ -13949,14 +14795,14 @@
       <c r="E296" s="82"/>
       <c r="F296" s="55"/>
       <c r="G296" s="47" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H296" s="46"/>
       <c r="I296" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J296" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="297" spans="2:10" x14ac:dyDescent="0.15">
@@ -13966,14 +14812,14 @@
       <c r="E297" s="82"/>
       <c r="F297" s="55"/>
       <c r="G297" s="47" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H297" s="46"/>
       <c r="I297" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J297" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="298" spans="2:10" x14ac:dyDescent="0.15">
@@ -13983,14 +14829,14 @@
       <c r="E298" s="82"/>
       <c r="F298" s="56"/>
       <c r="G298" s="47" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H298" s="46"/>
       <c r="I298" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J298" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="299" spans="2:10" x14ac:dyDescent="0.15">
@@ -13999,15 +14845,15 @@
       <c r="D299" s="55"/>
       <c r="E299" s="82"/>
       <c r="F299" s="52" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G299" s="59"/>
       <c r="H299" s="70"/>
       <c r="I299" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J299" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="300" spans="2:10" x14ac:dyDescent="0.15">
@@ -14017,14 +14863,14 @@
       <c r="E300" s="82"/>
       <c r="F300" s="55"/>
       <c r="G300" s="45" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H300" s="46"/>
       <c r="I300" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J300" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="301" spans="2:10" x14ac:dyDescent="0.15">
@@ -14034,14 +14880,14 @@
       <c r="E301" s="82"/>
       <c r="F301" s="55"/>
       <c r="G301" s="45" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H301" s="46"/>
       <c r="I301" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J301" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="302" spans="2:10" x14ac:dyDescent="0.15">
@@ -14051,14 +14897,14 @@
       <c r="E302" s="82"/>
       <c r="F302" s="55"/>
       <c r="G302" s="45" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H302" s="46"/>
       <c r="I302" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J302" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="303" spans="2:10" x14ac:dyDescent="0.15">
@@ -14068,14 +14914,14 @@
       <c r="E303" s="82"/>
       <c r="F303" s="55"/>
       <c r="G303" s="45" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H303" s="46"/>
       <c r="I303" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J303" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="304" spans="2:10" x14ac:dyDescent="0.15">
@@ -14085,14 +14931,14 @@
       <c r="E304" s="82"/>
       <c r="F304" s="55"/>
       <c r="G304" s="45" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H304" s="46"/>
       <c r="I304" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J304" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="305" spans="2:10" x14ac:dyDescent="0.15">
@@ -14102,14 +14948,14 @@
       <c r="E305" s="82"/>
       <c r="F305" s="55"/>
       <c r="G305" s="45" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H305" s="46"/>
       <c r="I305" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J305" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="306" spans="2:10" x14ac:dyDescent="0.15">
@@ -14119,14 +14965,14 @@
       <c r="E306" s="82"/>
       <c r="F306" s="55"/>
       <c r="G306" s="45" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H306" s="46"/>
       <c r="I306" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J306" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="307" spans="2:10" x14ac:dyDescent="0.15">
@@ -14136,14 +14982,14 @@
       <c r="E307" s="82"/>
       <c r="F307" s="55"/>
       <c r="G307" s="45" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H307" s="46"/>
       <c r="I307" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J307" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="308" spans="2:10" x14ac:dyDescent="0.15">
@@ -14153,14 +14999,14 @@
       <c r="E308" s="82"/>
       <c r="F308" s="56"/>
       <c r="G308" s="45" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H308" s="46"/>
       <c r="I308" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J308" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="309" spans="2:10" x14ac:dyDescent="0.15">
@@ -14169,15 +15015,15 @@
       <c r="D309" s="55"/>
       <c r="E309" s="82"/>
       <c r="F309" s="52" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G309" s="59"/>
       <c r="H309" s="70"/>
       <c r="I309" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J309" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="310" spans="2:10" x14ac:dyDescent="0.15">
@@ -14187,14 +15033,14 @@
       <c r="E310" s="82"/>
       <c r="F310" s="55"/>
       <c r="G310" s="47" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H310" s="46"/>
       <c r="I310" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J310" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="311" spans="2:10" x14ac:dyDescent="0.15">
@@ -14204,14 +15050,14 @@
       <c r="E311" s="82"/>
       <c r="F311" s="55"/>
       <c r="G311" s="47" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H311" s="46"/>
       <c r="I311" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J311" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="312" spans="2:10" x14ac:dyDescent="0.15">
@@ -14221,14 +15067,14 @@
       <c r="E312" s="82"/>
       <c r="F312" s="55"/>
       <c r="G312" s="47" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H312" s="46"/>
       <c r="I312" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J312" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="313" spans="2:10" x14ac:dyDescent="0.15">
@@ -14238,14 +15084,14 @@
       <c r="E313" s="82"/>
       <c r="F313" s="55"/>
       <c r="G313" s="47" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H313" s="46"/>
       <c r="I313" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J313" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="314" spans="2:10" x14ac:dyDescent="0.15">
@@ -14255,14 +15101,14 @@
       <c r="E314" s="82"/>
       <c r="F314" s="55"/>
       <c r="G314" s="47" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H314" s="46"/>
       <c r="I314" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J314" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="315" spans="2:10" x14ac:dyDescent="0.15">
@@ -14272,14 +15118,14 @@
       <c r="E315" s="82"/>
       <c r="F315" s="56"/>
       <c r="G315" s="47" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H315" s="46"/>
       <c r="I315" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J315" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="316" spans="2:10" x14ac:dyDescent="0.15">
@@ -14288,15 +15134,15 @@
       <c r="D316" s="55"/>
       <c r="E316" s="82"/>
       <c r="F316" s="52" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G316" s="59"/>
       <c r="H316" s="70"/>
       <c r="I316" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J316" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="317" spans="2:10" x14ac:dyDescent="0.15">
@@ -14306,14 +15152,14 @@
       <c r="E317" s="82"/>
       <c r="F317" s="55"/>
       <c r="G317" s="47" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H317" s="46"/>
       <c r="I317" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J317" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="318" spans="2:10" x14ac:dyDescent="0.15">
@@ -14323,14 +15169,14 @@
       <c r="E318" s="82"/>
       <c r="F318" s="55"/>
       <c r="G318" s="47" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H318" s="46"/>
       <c r="I318" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J318" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="319" spans="2:10" x14ac:dyDescent="0.15">
@@ -14340,14 +15186,14 @@
       <c r="E319" s="82"/>
       <c r="F319" s="55"/>
       <c r="G319" s="47" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H319" s="46"/>
       <c r="I319" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J319" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="320" spans="2:10" x14ac:dyDescent="0.15">
@@ -14357,14 +15203,14 @@
       <c r="E320" s="82"/>
       <c r="F320" s="55"/>
       <c r="G320" s="47" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H320" s="46"/>
       <c r="I320" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J320" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="321" spans="2:10" x14ac:dyDescent="0.15">
@@ -14374,14 +15220,14 @@
       <c r="E321" s="82"/>
       <c r="F321" s="55"/>
       <c r="G321" s="47" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H321" s="46"/>
       <c r="I321" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J321" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="322" spans="2:10" x14ac:dyDescent="0.15">
@@ -14391,14 +15237,14 @@
       <c r="E322" s="82"/>
       <c r="F322" s="55"/>
       <c r="G322" s="47" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H322" s="46"/>
       <c r="I322" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J322" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="323" spans="2:10" x14ac:dyDescent="0.15">
@@ -14408,14 +15254,14 @@
       <c r="E323" s="82"/>
       <c r="F323" s="55"/>
       <c r="G323" s="47" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H323" s="46"/>
       <c r="I323" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J323" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="324" spans="2:10" x14ac:dyDescent="0.15">
@@ -14425,14 +15271,14 @@
       <c r="E324" s="82"/>
       <c r="F324" s="56"/>
       <c r="G324" s="47" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H324" s="46"/>
       <c r="I324" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J324" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="325" spans="2:10" x14ac:dyDescent="0.15">
@@ -14441,15 +15287,15 @@
       <c r="D325" s="55"/>
       <c r="E325" s="82"/>
       <c r="F325" s="52" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G325" s="59"/>
       <c r="H325" s="70"/>
       <c r="I325" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J325" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="326" spans="2:10" x14ac:dyDescent="0.15">
@@ -14459,14 +15305,14 @@
       <c r="E326" s="82"/>
       <c r="F326" s="57"/>
       <c r="G326" s="47" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H326" s="46"/>
       <c r="I326" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J326" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="327" spans="2:10" x14ac:dyDescent="0.15">
@@ -14476,14 +15322,14 @@
       <c r="E327" s="82"/>
       <c r="F327" s="57"/>
       <c r="G327" s="47" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H327" s="46"/>
       <c r="I327" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J327" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="328" spans="2:10" x14ac:dyDescent="0.15">
@@ -14493,14 +15339,14 @@
       <c r="E328" s="82"/>
       <c r="F328" s="57"/>
       <c r="G328" s="47" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H328" s="46"/>
       <c r="I328" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J328" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="329" spans="2:10" x14ac:dyDescent="0.15">
@@ -14510,20 +15356,20 @@
       <c r="E329" s="83"/>
       <c r="F329" s="58"/>
       <c r="G329" s="47" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H329" s="46"/>
       <c r="I329" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J329" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="330" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B330" s="55"/>
       <c r="C330" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D330" s="59"/>
       <c r="E330" s="59"/>
@@ -14531,61 +15377,61 @@
       <c r="G330" s="59"/>
       <c r="H330" s="70"/>
       <c r="I330" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J330" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="331" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B331" s="55"/>
       <c r="C331" s="55"/>
       <c r="D331" s="41" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E331" s="45"/>
       <c r="F331" s="47"/>
       <c r="G331" s="47"/>
       <c r="H331" s="46"/>
       <c r="I331" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J331" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="332" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B332" s="55"/>
       <c r="C332" s="55"/>
       <c r="D332" s="41" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E332" s="45"/>
       <c r="F332" s="47"/>
       <c r="G332" s="47"/>
       <c r="H332" s="46"/>
       <c r="I332" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J332" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="333" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B333" s="55"/>
       <c r="C333" s="55"/>
       <c r="D333" s="52" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E333" s="59"/>
       <c r="F333" s="59"/>
       <c r="G333" s="59"/>
       <c r="H333" s="70"/>
       <c r="I333" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J333" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="334" spans="2:10" x14ac:dyDescent="0.15">
@@ -14593,33 +15439,33 @@
       <c r="C334" s="55"/>
       <c r="D334" s="58"/>
       <c r="E334" s="45" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F334" s="47"/>
       <c r="G334" s="47"/>
       <c r="H334" s="46"/>
       <c r="I334" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J334" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="335" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B335" s="55"/>
       <c r="C335" s="55"/>
       <c r="D335" s="52" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E335" s="59"/>
       <c r="F335" s="59"/>
       <c r="G335" s="59"/>
       <c r="H335" s="70"/>
       <c r="I335" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J335" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="336" spans="2:10" x14ac:dyDescent="0.15">
@@ -14627,16 +15473,16 @@
       <c r="C336" s="55"/>
       <c r="D336" s="55"/>
       <c r="E336" s="52" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F336" s="59"/>
       <c r="G336" s="59"/>
       <c r="H336" s="70"/>
       <c r="I336" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J336" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="337" spans="2:10" x14ac:dyDescent="0.15">
@@ -14645,15 +15491,15 @@
       <c r="D337" s="55"/>
       <c r="E337" s="55"/>
       <c r="F337" s="47" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G337" s="47"/>
       <c r="H337" s="46"/>
       <c r="I337" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J337" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="338" spans="2:10" x14ac:dyDescent="0.15">
@@ -14662,15 +15508,15 @@
       <c r="D338" s="55"/>
       <c r="E338" s="55"/>
       <c r="F338" s="47" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G338" s="47"/>
       <c r="H338" s="46"/>
       <c r="I338" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J338" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="339" spans="2:10" x14ac:dyDescent="0.15">
@@ -14679,15 +15525,15 @@
       <c r="D339" s="55"/>
       <c r="E339" s="55"/>
       <c r="F339" s="47" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G339" s="47"/>
       <c r="H339" s="46"/>
       <c r="I339" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J339" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="340" spans="2:10" x14ac:dyDescent="0.15">
@@ -14696,15 +15542,15 @@
       <c r="D340" s="55"/>
       <c r="E340" s="56"/>
       <c r="F340" s="47" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G340" s="47"/>
       <c r="H340" s="46"/>
       <c r="I340" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J340" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="341" spans="2:10" x14ac:dyDescent="0.15">
@@ -14712,16 +15558,16 @@
       <c r="C341" s="55"/>
       <c r="D341" s="55"/>
       <c r="E341" s="52" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F341" s="59"/>
       <c r="G341" s="59"/>
       <c r="H341" s="70"/>
       <c r="I341" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J341" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="342" spans="2:10" x14ac:dyDescent="0.15">
@@ -14730,15 +15576,15 @@
       <c r="D342" s="55"/>
       <c r="E342" s="55"/>
       <c r="F342" s="47" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G342" s="47"/>
       <c r="H342" s="46"/>
       <c r="I342" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J342" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="343" spans="2:10" x14ac:dyDescent="0.15">
@@ -14747,15 +15593,15 @@
       <c r="D343" s="55"/>
       <c r="E343" s="55"/>
       <c r="F343" s="47" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G343" s="47"/>
       <c r="H343" s="46"/>
       <c r="I343" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J343" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="344" spans="2:10" x14ac:dyDescent="0.15">
@@ -14764,15 +15610,15 @@
       <c r="D344" s="55"/>
       <c r="E344" s="55"/>
       <c r="F344" s="47" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G344" s="47"/>
       <c r="H344" s="46"/>
       <c r="I344" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J344" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="345" spans="2:10" x14ac:dyDescent="0.15">
@@ -14781,15 +15627,15 @@
       <c r="D345" s="55"/>
       <c r="E345" s="55"/>
       <c r="F345" s="47" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G345" s="47"/>
       <c r="H345" s="46"/>
       <c r="I345" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J345" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="346" spans="2:10" x14ac:dyDescent="0.15">
@@ -14798,15 +15644,15 @@
       <c r="D346" s="55"/>
       <c r="E346" s="55"/>
       <c r="F346" s="47" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G346" s="47"/>
       <c r="H346" s="46"/>
       <c r="I346" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J346" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="347" spans="2:10" x14ac:dyDescent="0.15">
@@ -14815,15 +15661,15 @@
       <c r="D347" s="55"/>
       <c r="E347" s="55"/>
       <c r="F347" s="47" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G347" s="47"/>
       <c r="H347" s="46"/>
       <c r="I347" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J347" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="348" spans="2:10" x14ac:dyDescent="0.15">
@@ -14832,15 +15678,15 @@
       <c r="D348" s="55"/>
       <c r="E348" s="56"/>
       <c r="F348" s="47" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G348" s="47"/>
       <c r="H348" s="46"/>
       <c r="I348" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J348" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="349" spans="2:10" x14ac:dyDescent="0.15">
@@ -14848,33 +15694,33 @@
       <c r="C349" s="55"/>
       <c r="D349" s="55"/>
       <c r="E349" s="45" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F349" s="47"/>
       <c r="G349" s="47"/>
       <c r="H349" s="46"/>
       <c r="I349" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J349" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="350" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B350" s="55"/>
       <c r="C350" s="55"/>
       <c r="D350" s="52" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E350" s="59"/>
       <c r="F350" s="59"/>
       <c r="G350" s="59"/>
       <c r="H350" s="70"/>
       <c r="I350" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J350" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="351" spans="2:10" x14ac:dyDescent="0.15">
@@ -14882,16 +15728,16 @@
       <c r="C351" s="55"/>
       <c r="D351" s="55"/>
       <c r="E351" s="45" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F351" s="47"/>
       <c r="G351" s="47"/>
       <c r="H351" s="46"/>
       <c r="I351" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J351" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="352" spans="2:10" x14ac:dyDescent="0.15">
@@ -14899,16 +15745,16 @@
       <c r="C352" s="55"/>
       <c r="D352" s="55"/>
       <c r="E352" s="45" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F352" s="47"/>
       <c r="G352" s="47"/>
       <c r="H352" s="46"/>
       <c r="I352" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J352" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="353" spans="2:10" x14ac:dyDescent="0.15">
@@ -14916,33 +15762,33 @@
       <c r="C353" s="55"/>
       <c r="D353" s="56"/>
       <c r="E353" s="45" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F353" s="47"/>
       <c r="G353" s="47"/>
       <c r="H353" s="46"/>
       <c r="I353" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J353" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="354" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B354" s="55"/>
       <c r="C354" s="55"/>
       <c r="D354" s="52" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E354" s="59"/>
       <c r="F354" s="59"/>
       <c r="G354" s="59"/>
       <c r="H354" s="70"/>
       <c r="I354" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J354" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="355" spans="2:10" x14ac:dyDescent="0.15">
@@ -14950,22 +15796,22 @@
       <c r="C355" s="56"/>
       <c r="D355" s="58"/>
       <c r="E355" s="45" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F355" s="47"/>
       <c r="G355" s="47"/>
       <c r="H355" s="46"/>
       <c r="I355" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J355" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="356" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B356" s="56"/>
       <c r="C356" s="42" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D356" s="43"/>
       <c r="E356" s="43"/>
@@ -14973,15 +15819,15 @@
       <c r="G356" s="43"/>
       <c r="H356" s="44"/>
       <c r="I356" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J356" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="357" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B357" s="52" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C357" s="59"/>
       <c r="D357" s="59"/>
@@ -14990,16 +15836,16 @@
       <c r="G357" s="59"/>
       <c r="H357" s="70"/>
       <c r="I357" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J357" s="50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="358" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B358" s="56"/>
       <c r="C358" s="42" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D358" s="43"/>
       <c r="E358" s="43"/>
@@ -15007,10 +15853,10 @@
       <c r="G358" s="43"/>
       <c r="H358" s="44"/>
       <c r="I358" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J358" s="50" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="359" spans="2:10" x14ac:dyDescent="0.15">
@@ -15051,62 +15897,62 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
   </sheetData>
@@ -15162,32 +16008,32 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" s="31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" s="31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B13" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -15226,7 +16072,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -15236,23 +16082,23 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C6" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>211</v>
-      </c>
       <c r="E6" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -15260,10 +16106,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -15271,10 +16117,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -15282,10 +16128,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -15338,7 +16184,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -15348,12 +16194,12 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C3" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D4" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -16284,7 +17130,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -16296,14 +17142,14 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C3" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D4" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -17836,7 +18682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -17856,7 +18702,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -17866,7 +18712,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C3" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D3" s="13"/>
     </row>
@@ -17878,7 +18724,7 @@
         <v>191</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>192</v>
@@ -17886,274 +18732,274 @@
     </row>
     <row r="6" spans="1:6" s="18" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="E6" s="37" t="s">
         <v>407</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>408</v>
       </c>
       <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6" s="18" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="21" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="117.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>413</v>
-      </c>
       <c r="F8" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>415</v>
-      </c>
       <c r="F9" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>416</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>417</v>
       </c>
       <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>418</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>419</v>
       </c>
       <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>421</v>
-      </c>
       <c r="F12" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>423</v>
-      </c>
       <c r="F13" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>425</v>
-      </c>
       <c r="F14" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="177.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="22" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="22" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="232.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>430</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>431</v>
       </c>
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="3:6" ht="354" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>432</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>433</v>
       </c>
       <c r="F20" s="16"/>
     </row>
     <row r="21" spans="3:6" ht="240.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>434</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>435</v>
       </c>
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="3:6" ht="185.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F22" s="16"/>
     </row>
     <row r="23" spans="3:6" ht="285.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>439</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>440</v>
       </c>
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="3:6" ht="200.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="22" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="3:6" ht="264.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>442</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>443</v>
       </c>
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="3:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="C26" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>444</v>
       </c>
-      <c r="D26" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>445</v>
-      </c>
       <c r="F26" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -18186,7 +19032,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -18196,119 +19042,119 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C4" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D5" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>225</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D6" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>228</v>
-      </c>
       <c r="F6" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D7" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>230</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D8" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>241</v>
-      </c>
       <c r="F8" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D9" s="91" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D10" s="92"/>
       <c r="E10" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>246</v>
-      </c>
       <c r="F11" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D12" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>236</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D13" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D14" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C16" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D17" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="F17" s="14" t="s">
         <v>252</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.15">
@@ -18316,10 +19162,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.15">
@@ -18327,24 +19173,24 @@
         <v>2</v>
       </c>
       <c r="E19" s="91" t="s">
+        <v>254</v>
+      </c>
+      <c r="F19" s="32" t="s">
         <v>255</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D20" s="94"/>
       <c r="E20" s="96"/>
       <c r="F20" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D21" s="95"/>
       <c r="E21" s="92"/>
       <c r="F21" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.15">
@@ -18352,31 +19198,31 @@
         <v>3</v>
       </c>
       <c r="E22" s="91" t="s">
+        <v>258</v>
+      </c>
+      <c r="F22" s="32" t="s">
         <v>259</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D23" s="94"/>
       <c r="E23" s="96"/>
       <c r="F23" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D24" s="94"/>
       <c r="E24" s="96"/>
       <c r="F24" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D25" s="95"/>
       <c r="E25" s="92"/>
       <c r="F25" s="34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.15">
@@ -18384,24 +19230,24 @@
         <v>4</v>
       </c>
       <c r="E26" s="91" t="s">
+        <v>263</v>
+      </c>
+      <c r="F26" s="32" t="s">
         <v>264</v>
-      </c>
-      <c r="F26" s="32" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D27" s="94"/>
       <c r="E27" s="96"/>
       <c r="F27" s="33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D28" s="95"/>
       <c r="E28" s="92"/>
       <c r="F28" s="34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -18438,42 +19284,42 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C25" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C26" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C27" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -18507,44 +19353,44 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B3" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C5" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.15">
       <c r="D6" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C8" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.15">
       <c r="D9" s="97" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E9" s="97"/>
       <c r="F9" s="97"/>
       <c r="G9" s="97"/>
       <c r="H9" s="88" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I9" s="89"/>
       <c r="J9" s="89"/>
       <c r="K9" s="90"/>
       <c r="L9" s="100" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M9" s="101"/>
       <c r="N9" s="101"/>
@@ -18564,19 +19410,19 @@
     </row>
     <row r="10" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="98" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E10" s="99"/>
       <c r="F10" s="99"/>
       <c r="G10" s="99"/>
       <c r="H10" s="103" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I10" s="104"/>
       <c r="J10" s="104"/>
       <c r="K10" s="105"/>
       <c r="L10" s="106" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M10" s="107"/>
       <c r="N10" s="107"/>
@@ -18596,19 +19442,19 @@
     </row>
     <row r="11" spans="1:27" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="98" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E11" s="99"/>
       <c r="F11" s="99"/>
       <c r="G11" s="99"/>
       <c r="H11" s="103" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I11" s="104"/>
       <c r="J11" s="104"/>
       <c r="K11" s="105"/>
       <c r="L11" s="106" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M11" s="107"/>
       <c r="N11" s="107"/>
@@ -18628,19 +19474,19 @@
     </row>
     <row r="12" spans="1:27" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="98" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E12" s="99"/>
       <c r="F12" s="99"/>
       <c r="G12" s="99"/>
       <c r="H12" s="103" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I12" s="104"/>
       <c r="J12" s="104"/>
       <c r="K12" s="105"/>
       <c r="L12" s="106" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M12" s="107"/>
       <c r="N12" s="107"/>
@@ -18660,19 +19506,19 @@
     </row>
     <row r="13" spans="1:27" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" s="98" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E13" s="99"/>
       <c r="F13" s="99"/>
       <c r="G13" s="99"/>
       <c r="H13" s="103" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I13" s="104"/>
       <c r="J13" s="104"/>
       <c r="K13" s="105"/>
       <c r="L13" s="106" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M13" s="107"/>
       <c r="N13" s="107"/>
@@ -18692,19 +19538,19 @@
     </row>
     <row r="14" spans="1:27" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="98" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E14" s="99"/>
       <c r="F14" s="99"/>
       <c r="G14" s="99"/>
       <c r="H14" s="103" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I14" s="104"/>
       <c r="J14" s="104"/>
       <c r="K14" s="105"/>
       <c r="L14" s="106" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M14" s="107"/>
       <c r="N14" s="107"/>
@@ -18724,28 +19570,28 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C16" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D17" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D19" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D22" s="97" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E22" s="97"/>
       <c r="F22" s="97"/>
       <c r="G22" s="97"/>
       <c r="H22" s="84" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I22" s="84"/>
       <c r="J22" s="84"/>
@@ -18759,7 +19605,7 @@
       <c r="R22" s="84"/>
       <c r="S22" s="84"/>
       <c r="T22" s="88" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="U22" s="89"/>
       <c r="V22" s="89"/>
@@ -18769,7 +19615,7 @@
       <c r="Z22" s="89"/>
       <c r="AA22" s="90"/>
       <c r="AB22" s="88" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AC22" s="89"/>
       <c r="AD22" s="89"/>
@@ -18781,13 +19627,13 @@
     </row>
     <row r="23" spans="4:35" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D23" s="98" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E23" s="99"/>
       <c r="F23" s="99"/>
       <c r="G23" s="99"/>
       <c r="H23" s="86" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I23" s="86"/>
       <c r="J23" s="86"/>
@@ -18801,7 +19647,7 @@
       <c r="R23" s="86"/>
       <c r="S23" s="86"/>
       <c r="T23" s="103" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="U23" s="104"/>
       <c r="V23" s="104"/>
@@ -18811,7 +19657,7 @@
       <c r="Z23" s="104"/>
       <c r="AA23" s="105"/>
       <c r="AB23" s="106" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AC23" s="107"/>
       <c r="AD23" s="107"/>
@@ -18823,13 +19669,13 @@
     </row>
     <row r="24" spans="4:35" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D24" s="98" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E24" s="99"/>
       <c r="F24" s="99"/>
       <c r="G24" s="99"/>
       <c r="H24" s="86" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I24" s="86"/>
       <c r="J24" s="86"/>
@@ -18843,7 +19689,7 @@
       <c r="R24" s="86"/>
       <c r="S24" s="86"/>
       <c r="T24" s="103" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="U24" s="104"/>
       <c r="V24" s="104"/>
@@ -18853,7 +19699,7 @@
       <c r="Z24" s="104"/>
       <c r="AA24" s="105"/>
       <c r="AB24" s="106" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AC24" s="107"/>
       <c r="AD24" s="107"/>
@@ -18865,13 +19711,13 @@
     </row>
     <row r="25" spans="4:35" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" s="98" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E25" s="99"/>
       <c r="F25" s="99"/>
       <c r="G25" s="99"/>
       <c r="H25" s="86" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I25" s="86"/>
       <c r="J25" s="86"/>
@@ -18885,7 +19731,7 @@
       <c r="R25" s="86"/>
       <c r="S25" s="86"/>
       <c r="T25" s="103" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="U25" s="104"/>
       <c r="V25" s="104"/>
@@ -18895,7 +19741,7 @@
       <c r="Z25" s="104"/>
       <c r="AA25" s="105"/>
       <c r="AB25" s="106" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC25" s="107"/>
       <c r="AD25" s="107"/>
@@ -18907,13 +19753,13 @@
     </row>
     <row r="26" spans="4:35" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D26" s="98" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E26" s="99"/>
       <c r="F26" s="99"/>
       <c r="G26" s="99"/>
       <c r="H26" s="86" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I26" s="86"/>
       <c r="J26" s="86"/>
@@ -18927,7 +19773,7 @@
       <c r="R26" s="86"/>
       <c r="S26" s="86"/>
       <c r="T26" s="103" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="U26" s="104"/>
       <c r="V26" s="104"/>
@@ -18937,7 +19783,7 @@
       <c r="Z26" s="104"/>
       <c r="AA26" s="105"/>
       <c r="AB26" s="106" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AC26" s="107"/>
       <c r="AD26" s="107"/>
@@ -18949,13 +19795,13 @@
     </row>
     <row r="27" spans="4:35" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D27" s="98" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E27" s="99"/>
       <c r="F27" s="99"/>
       <c r="G27" s="99"/>
       <c r="H27" s="86" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I27" s="86"/>
       <c r="J27" s="86"/>
@@ -18969,7 +19815,7 @@
       <c r="R27" s="86"/>
       <c r="S27" s="86"/>
       <c r="T27" s="103" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="U27" s="104"/>
       <c r="V27" s="104"/>
@@ -18979,7 +19825,7 @@
       <c r="Z27" s="104"/>
       <c r="AA27" s="105"/>
       <c r="AB27" s="106" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AC27" s="107"/>
       <c r="AD27" s="107"/>
@@ -18991,13 +19837,13 @@
     </row>
     <row r="28" spans="4:35" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D28" s="98" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E28" s="99"/>
       <c r="F28" s="99"/>
       <c r="G28" s="99"/>
       <c r="H28" s="86" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I28" s="86"/>
       <c r="J28" s="86"/>
@@ -19011,7 +19857,7 @@
       <c r="R28" s="86"/>
       <c r="S28" s="86"/>
       <c r="T28" s="110" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U28" s="104"/>
       <c r="V28" s="104"/>
@@ -19021,7 +19867,7 @@
       <c r="Z28" s="104"/>
       <c r="AA28" s="105"/>
       <c r="AB28" s="106" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AC28" s="107"/>
       <c r="AD28" s="107"/>
@@ -19033,13 +19879,13 @@
     </row>
     <row r="29" spans="4:35" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D29" s="98" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E29" s="99"/>
       <c r="F29" s="99"/>
       <c r="G29" s="99"/>
       <c r="H29" s="86" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I29" s="86"/>
       <c r="J29" s="86"/>
@@ -19053,7 +19899,7 @@
       <c r="R29" s="86"/>
       <c r="S29" s="86"/>
       <c r="T29" s="103" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="U29" s="104"/>
       <c r="V29" s="104"/>
@@ -19063,7 +19909,7 @@
       <c r="Z29" s="104"/>
       <c r="AA29" s="105"/>
       <c r="AB29" s="106" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AC29" s="107"/>
       <c r="AD29" s="107"/>
@@ -19075,12 +19921,12 @@
     </row>
     <row r="31" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D31" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="32" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D32" s="85" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E32" s="86"/>
       <c r="F32" s="86"/>
@@ -19422,62 +20268,62 @@
     </row>
     <row r="43" spans="3:35" x14ac:dyDescent="0.15">
       <c r="C43" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="3:35" x14ac:dyDescent="0.15">
       <c r="D44" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="45" spans="3:35" x14ac:dyDescent="0.15">
       <c r="D45" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="47" spans="3:35" x14ac:dyDescent="0.15">
       <c r="D47" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49" spans="4:24" x14ac:dyDescent="0.15">
       <c r="E49" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="50" spans="4:24" x14ac:dyDescent="0.15">
       <c r="E50" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="52" spans="4:24" x14ac:dyDescent="0.15">
       <c r="D52" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="53" spans="4:24" x14ac:dyDescent="0.15">
       <c r="D53" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="54" spans="4:24" x14ac:dyDescent="0.15">
       <c r="E54" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="55" spans="4:24" x14ac:dyDescent="0.15">
       <c r="E55" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="57" spans="4:24" x14ac:dyDescent="0.15">
       <c r="D57" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="59" spans="4:24" x14ac:dyDescent="0.15">
       <c r="E59" s="109" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F59" s="109"/>
       <c r="G59" s="109"/>
@@ -19501,7 +20347,7 @@
     </row>
     <row r="60" spans="4:24" x14ac:dyDescent="0.15">
       <c r="E60" s="109" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F60" s="109"/>
       <c r="G60" s="109"/>
@@ -19525,37 +20371,37 @@
     </row>
     <row r="63" spans="4:24" x14ac:dyDescent="0.15">
       <c r="D63" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="64" spans="4:24" x14ac:dyDescent="0.15">
       <c r="E64" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="96" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E96" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="97" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F97" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="98" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F98" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="131" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C131" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="132" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D132" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
